--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -1590,7 +1590,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="0"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1716,6 +1716,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2333,11 +2338,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2454,6 +2459,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2516,7 +2525,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2640,7 +2649,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2660,43 +2669,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2708,11 +2717,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2728,11 +2737,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2768,7 +2777,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2856,7 +2865,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2932,7 +2941,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2948,7 +2957,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2968,7 +2977,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2996,11 +3005,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3008,7 +3017,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3016,11 +3025,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3044,7 +3053,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3068,11 +3077,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3188,11 +3197,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3216,7 +3225,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3232,7 +3241,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3274,10 +3283,6 @@
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3336,7 +3341,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3356,7 +3361,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3412,7 +3417,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3436,7 +3441,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3524,7 +3529,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6419,9 +6424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>250920</xdr:colOff>
+      <xdr:colOff>250200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6435,7 +6440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="761040" cy="217800"/>
+          <a:ext cx="760320" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6456,9 +6461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6472,7 +6477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1104480" cy="217800"/>
+          <a:ext cx="1103760" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6493,9 +6498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23400</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6509,7 +6514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1411200" cy="217800"/>
+          <a:ext cx="1410480" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6530,9 +6535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>348120</xdr:colOff>
+      <xdr:colOff>347400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6546,7 +6551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1735200" cy="217800"/>
+          <a:ext cx="1734480" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6567,9 +6572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>221400</xdr:colOff>
+      <xdr:colOff>220680</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>278280</xdr:rowOff>
+      <xdr:rowOff>277560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6583,7 +6588,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2042280" cy="230760"/>
+          <a:ext cx="2041560" cy="230040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6604,9 +6609,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>265320</xdr:rowOff>
+      <xdr:rowOff>264600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6620,7 +6625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2378520" cy="217800"/>
+          <a:ext cx="2377800" cy="217080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6641,32 +6646,40 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104760</xdr:colOff>
+      <xdr:colOff>104040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>264960</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 16" descr="g"/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
-        <a:stretch/>
-      </xdr:blipFill>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2691360" cy="216720"/>
+          <a:ext cx="2690640" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:blipFill rotWithShape="0">
+          <a:blip r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
-    </xdr:pic>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
@@ -7014,9 +7027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>104760</xdr:rowOff>
+      <xdr:rowOff>104040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7026,7 +7039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6990480" cy="10560240"/>
+          <a:ext cx="6989760" cy="10559520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7154,9 +7167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>298800</xdr:rowOff>
+      <xdr:rowOff>298080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7170,7 +7183,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1128960" cy="262080"/>
+          <a:ext cx="1128240" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7196,9 +7209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>151200</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7208,7 +7221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7025760" cy="260280"/>
+          <a:ext cx="7025040" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7267,9 +7280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1015920</xdr:colOff>
+      <xdr:colOff>1015200</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>139680</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7279,7 +7292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928520"/>
-          <a:ext cx="7093080" cy="267120"/>
+          <a:ext cx="7092360" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7338,9 +7351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1019520</xdr:colOff>
+      <xdr:colOff>1018800</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7350,7 +7363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7052760" cy="261720"/>
+          <a:ext cx="7052040" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7409,9 +7422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7421,7 +7434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6891840" cy="261000"/>
+          <a:ext cx="6891120" cy="260280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7480,9 +7493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:rowOff>61200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7492,7 +7505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6988320" cy="361800"/>
+          <a:ext cx="6987600" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7551,9 +7564,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7563,7 +7576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10173240"/>
-          <a:ext cx="6997320" cy="372960"/>
+          <a:ext cx="6996600" cy="372240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7622,9 +7635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>68760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7634,7 +7647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7037640" cy="372960"/>
+          <a:ext cx="7036920" cy="372240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7689,8 +7702,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8404,7 +8417,7 @@
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="15"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
@@ -8909,7 +8922,7 @@
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="23"/>
+      <c r="B42" s="74"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -8917,7 +8930,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="23"/>
+      <c r="J42" s="74"/>
       <c r="K42" s="23"/>
       <c r="L42" s="73"/>
       <c r="M42" s="73"/>
@@ -8928,14 +8941,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="74"/>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="74"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="75"/>
+      <c r="F43" s="75"/>
+      <c r="G43" s="75"/>
+      <c r="H43" s="75"/>
+      <c r="I43" s="75"/>
       <c r="J43" s="4"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -8947,155 +8960,155 @@
     </row>
     <row r="44" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="75"/>
-      <c r="D44" s="75"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="75"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="75"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="75"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="75"/>
-      <c r="P44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75"/>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="75"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="75"/>
-      <c r="J45" s="75"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="75"/>
-      <c r="M45" s="75"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="75"/>
-      <c r="P45" s="75"/>
+      <c r="B45" s="76"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="76"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="76"/>
+      <c r="K45" s="76"/>
+      <c r="L45" s="76"/>
+      <c r="M45" s="76"/>
+      <c r="N45" s="76"/>
+      <c r="O45" s="76"/>
+      <c r="P45" s="76"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="75"/>
-      <c r="C46" s="75"/>
-      <c r="D46" s="75"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="75"/>
-      <c r="G46" s="75"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="75"/>
-      <c r="J46" s="75"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="76"/>
+      <c r="B46" s="76"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="76"/>
+      <c r="K46" s="76"/>
+      <c r="L46" s="76"/>
+      <c r="M46" s="76"/>
+      <c r="N46" s="76"/>
+      <c r="O46" s="76"/>
+      <c r="P46" s="76"/>
+      <c r="Q46" s="77"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
-      <c r="M47" s="77"/>
-      <c r="N47" s="77"/>
-      <c r="O47" s="77"/>
-      <c r="P47" s="77"/>
-      <c r="Q47" s="76"/>
+      <c r="B47" s="78"/>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="78"/>
+      <c r="H47" s="78"/>
+      <c r="I47" s="78"/>
+      <c r="J47" s="78"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
+      <c r="Q47" s="77"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="80" t="s">
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="81"/>
-      <c r="P48" s="81"/>
-      <c r="Q48" s="76"/>
+      <c r="L48" s="82"/>
+      <c r="M48" s="82"/>
+      <c r="N48" s="82"/>
+      <c r="O48" s="82"/>
+      <c r="P48" s="82"/>
+      <c r="Q48" s="77"/>
     </row>
     <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="79"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="79"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="83"/>
-      <c r="O49" s="83"/>
-      <c r="P49" s="81"/>
-      <c r="Q49" s="76"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
+      <c r="G49" s="80"/>
+      <c r="H49" s="80"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="83"/>
+      <c r="L49" s="82"/>
+      <c r="M49" s="82"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="82"/>
+      <c r="Q49" s="77"/>
     </row>
     <row r="50" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="84"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
-      <c r="J50" s="79"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="81"/>
-      <c r="Q50" s="76"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="80"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="82"/>
+      <c r="Q50" s="77"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="87"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="79"/>
-      <c r="D51" s="79"/>
-      <c r="E51" s="79"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="79"/>
-      <c r="J51" s="79"/>
-      <c r="K51" s="82"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="81"/>
-      <c r="N51" s="81"/>
-      <c r="O51" s="81"/>
-      <c r="P51" s="81"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="83"/>
+      <c r="L51" s="82"/>
+      <c r="M51" s="82"/>
+      <c r="N51" s="82"/>
+      <c r="O51" s="82"/>
+      <c r="P51" s="82"/>
       <c r="Q51" s="5"/>
     </row>
   </sheetData>
@@ -9229,21 +9242,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="88" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="88" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="88" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="88" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="88" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="88" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="88" width="0.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="88" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="88" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="88" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="88" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="88" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="88" width="12.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="26" style="88" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="1.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="89" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="89" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="89" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="89" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="89" width="0.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="89" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="89" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="89" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="89" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="89" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="89" width="12.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="26" style="89" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9265,17 +9278,17 @@
       <c r="AA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="89"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="90"/>
+      <c r="C2" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -9294,17 +9307,17 @@
       <c r="AA2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="91"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="92"/>
+      <c r="C3" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="94"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -9323,7 +9336,7 @@
       <c r="AA3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -9331,7 +9344,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="96"/>
+      <c r="J4" s="97"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -9350,17 +9363,17 @@
       <c r="AA4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="96"/>
+      <c r="J5" s="97"/>
       <c r="L5" s="0"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -9379,17 +9392,17 @@
       <c r="AA5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="99"/>
       <c r="K6" s="4"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -9409,18 +9422,18 @@
       <c r="AA6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="95"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="103"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -9439,15 +9452,15 @@
       <c r="AA7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="103"/>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -9466,23 +9479,23 @@
       <c r="AA8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="89"/>
-      <c r="C9" s="106" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="107" t="s">
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="107"/>
-      <c r="H9" s="108" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="109"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -9501,15 +9514,15 @@
       <c r="AA9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="95"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="107"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -9528,15 +9541,15 @@
       <c r="AA10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="103"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -9555,23 +9568,23 @@
       <c r="AA11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="95"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="109" t="s">
+      <c r="F12" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="110" t="s">
+      <c r="G12" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="111" t="s">
+      <c r="H12" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="109"/>
+      <c r="J12" s="110"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -9590,15 +9603,15 @@
       <c r="AA12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="95"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="112"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="113"/>
+      <c r="H13" s="114"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="114"/>
+      <c r="J13" s="115"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -9617,17 +9630,17 @@
       <c r="AA13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="95"/>
-      <c r="C14" s="115" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="116" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="115"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -9646,17 +9659,17 @@
       <c r="AA14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="95"/>
-      <c r="C15" s="115" t="s">
+      <c r="B15" s="96"/>
+      <c r="C15" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="115"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -9675,17 +9688,17 @@
       <c r="AA15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="95"/>
-      <c r="C16" s="115" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="115"/>
+      <c r="D16" s="116"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -9704,17 +9717,17 @@
       <c r="AA16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="95"/>
-      <c r="C17" s="115" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="115"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -9733,17 +9746,17 @@
       <c r="AA17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="95"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="115"/>
+      <c r="D18" s="116"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -9762,15 +9775,15 @@
       <c r="AA18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="95"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="121"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -9789,17 +9802,17 @@
       <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="122"/>
-      <c r="C20" s="123" t="s">
+      <c r="B20" s="123"/>
+      <c r="C20" s="124" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="123"/>
-      <c r="E20" s="123"/>
-      <c r="F20" s="123"/>
-      <c r="G20" s="123"/>
-      <c r="H20" s="123"/>
-      <c r="I20" s="124"/>
-      <c r="J20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -9818,17 +9831,17 @@
       <c r="AA20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="91"/>
-      <c r="C21" s="92" t="s">
+      <c r="B21" s="92"/>
+      <c r="C21" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="92"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
@@ -9847,7 +9860,7 @@
       <c r="AA21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -9855,7 +9868,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="96"/>
+      <c r="J22" s="97"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
@@ -9874,7 +9887,7 @@
       <c r="AA22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="95"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="15" t="s">
         <v>40</v>
       </c>
@@ -9884,7 +9897,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="46"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="125"/>
+      <c r="J23" s="126"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -9903,15 +9916,15 @@
       <c r="AA23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="95"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="126"/>
+      <c r="D24" s="127"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="125"/>
+      <c r="J24" s="126"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -9930,17 +9943,17 @@
       <c r="AA24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="95"/>
+      <c r="B25" s="96"/>
       <c r="C25" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="125"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="126"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -9959,15 +9972,15 @@
       <c r="AA25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="95"/>
+      <c r="B26" s="96"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="125"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="126"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -9986,15 +9999,15 @@
       <c r="AA26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="95"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="125"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="135"/>
+      <c r="I27" s="135"/>
+      <c r="J27" s="126"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -10013,15 +10026,15 @@
       <c r="AA27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="95"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="135"/>
-      <c r="H28" s="135"/>
-      <c r="I28" s="135"/>
-      <c r="J28" s="125"/>
+      <c r="G28" s="136"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="126"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -10040,17 +10053,17 @@
       <c r="AA28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="95"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="137"/>
-      <c r="J29" s="125"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="126"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -10069,15 +10082,15 @@
       <c r="AA29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="95"/>
-      <c r="C30" s="126"/>
-      <c r="D30" s="126"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="127"/>
+      <c r="D30" s="127"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
       <c r="H30" s="46"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="125"/>
+      <c r="J30" s="126"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -10096,17 +10109,17 @@
       <c r="AA30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="95"/>
-      <c r="C31" s="139" t="s">
+      <c r="B31" s="96"/>
+      <c r="C31" s="140" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="125"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="140"/>
+      <c r="J31" s="126"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -10125,15 +10138,15 @@
       <c r="AA31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="95"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="125"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="126"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -10152,15 +10165,15 @@
       <c r="AA32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="95"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="139"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="125"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="140"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="126"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
@@ -10179,15 +10192,15 @@
       <c r="AA33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="95"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="125"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="126"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -10206,15 +10219,15 @@
       <c r="AA34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="140"/>
-      <c r="C35" s="141"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="141"/>
-      <c r="F35" s="141"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="142"/>
-      <c r="J35" s="142"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="143"/>
+      <c r="J35" s="143"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -10233,17 +10246,17 @@
       <c r="AA35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="143"/>
-      <c r="C36" s="144" t="s">
+      <c r="B36" s="144"/>
+      <c r="C36" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="144"/>
-      <c r="E36" s="144"/>
-      <c r="F36" s="144"/>
-      <c r="G36" s="144"/>
-      <c r="H36" s="144"/>
-      <c r="I36" s="144"/>
-      <c r="J36" s="145"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="145"/>
+      <c r="I36" s="145"/>
+      <c r="J36" s="146"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -10262,17 +10275,17 @@
       <c r="AA36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="91"/>
-      <c r="C37" s="92" t="s">
+      <c r="B37" s="92"/>
+      <c r="C37" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="94"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="94"/>
+      <c r="F37" s="94"/>
+      <c r="G37" s="94"/>
+      <c r="H37" s="94"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
       <c r="L37" s="0"/>
       <c r="M37" s="0"/>
       <c r="N37" s="0"/>
@@ -10291,15 +10304,15 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="146"/>
-      <c r="C38" s="147"/>
-      <c r="D38" s="147"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10318,7 +10331,7 @@
       <c r="AA38" s="0"/>
     </row>
     <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="95"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -10326,7 +10339,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="96"/>
+      <c r="J39" s="97"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -10345,15 +10358,15 @@
       <c r="AA39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="95"/>
-      <c r="C40" s="148"/>
-      <c r="D40" s="148"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149"/>
+      <c r="F40" s="149"/>
+      <c r="G40" s="149"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -10372,15 +10385,15 @@
       <c r="AA40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="95"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
+      <c r="B41" s="96"/>
+      <c r="C41" s="150"/>
+      <c r="D41" s="150"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -10399,15 +10412,15 @@
       <c r="AA41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="95"/>
-      <c r="C42" s="149"/>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="150"/>
+      <c r="D42" s="150"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -10426,15 +10439,15 @@
       <c r="AA42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="95"/>
-      <c r="C43" s="149"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="150"/>
+      <c r="D43" s="150"/>
+      <c r="E43" s="150"/>
+      <c r="F43" s="150"/>
+      <c r="G43" s="150"/>
+      <c r="H43" s="150"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -10453,15 +10466,15 @@
       <c r="AA43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="95"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="149"/>
-      <c r="F44" s="149"/>
-      <c r="G44" s="149"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="149"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="150"/>
+      <c r="F44" s="150"/>
+      <c r="G44" s="150"/>
+      <c r="H44" s="150"/>
+      <c r="I44" s="150"/>
+      <c r="J44" s="150"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -10480,15 +10493,15 @@
       <c r="AA44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="95"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="149"/>
-      <c r="F45" s="149"/>
-      <c r="G45" s="149"/>
-      <c r="H45" s="149"/>
-      <c r="I45" s="149"/>
-      <c r="J45" s="149"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="150"/>
+      <c r="G45" s="150"/>
+      <c r="H45" s="150"/>
+      <c r="I45" s="150"/>
+      <c r="J45" s="150"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -10507,15 +10520,15 @@
       <c r="AA45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="95"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="149"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="150"/>
+      <c r="F46" s="150"/>
+      <c r="G46" s="150"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="150"/>
+      <c r="J46" s="150"/>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -10534,15 +10547,15 @@
       <c r="AA46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="95"/>
-      <c r="C47" s="149"/>
-      <c r="D47" s="149"/>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="150"/>
+      <c r="F47" s="150"/>
+      <c r="G47" s="150"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="150"/>
+      <c r="J47" s="150"/>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -10561,15 +10574,15 @@
       <c r="AA47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="95"/>
-      <c r="C48" s="149"/>
-      <c r="D48" s="149"/>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
+      <c r="B48" s="96"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="150"/>
+      <c r="F48" s="150"/>
+      <c r="G48" s="150"/>
+      <c r="H48" s="150"/>
+      <c r="I48" s="150"/>
+      <c r="J48" s="150"/>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -10588,15 +10601,15 @@
       <c r="AA48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="95"/>
-      <c r="C49" s="149"/>
-      <c r="D49" s="149"/>
-      <c r="E49" s="149"/>
-      <c r="F49" s="149"/>
-      <c r="G49" s="149"/>
-      <c r="H49" s="149"/>
-      <c r="I49" s="149"/>
-      <c r="J49" s="149"/>
+      <c r="B49" s="96"/>
+      <c r="C49" s="150"/>
+      <c r="D49" s="150"/>
+      <c r="E49" s="150"/>
+      <c r="F49" s="150"/>
+      <c r="G49" s="150"/>
+      <c r="H49" s="150"/>
+      <c r="I49" s="150"/>
+      <c r="J49" s="150"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -10615,15 +10628,15 @@
       <c r="AA49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="95"/>
-      <c r="C50" s="149"/>
-      <c r="D50" s="149"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
+      <c r="B50" s="96"/>
+      <c r="C50" s="150"/>
+      <c r="D50" s="150"/>
+      <c r="E50" s="150"/>
+      <c r="F50" s="150"/>
+      <c r="G50" s="150"/>
+      <c r="H50" s="150"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="150"/>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -10642,15 +10655,15 @@
       <c r="AA50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="95"/>
-      <c r="C51" s="149"/>
-      <c r="D51" s="149"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
+      <c r="B51" s="96"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="150"/>
+      <c r="E51" s="150"/>
+      <c r="F51" s="150"/>
+      <c r="G51" s="150"/>
+      <c r="H51" s="150"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -10669,15 +10682,15 @@
       <c r="AA51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="95"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="150"/>
+      <c r="F52" s="150"/>
+      <c r="G52" s="150"/>
+      <c r="H52" s="150"/>
+      <c r="I52" s="150"/>
+      <c r="J52" s="150"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -10696,15 +10709,15 @@
       <c r="AA52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="95"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="150"/>
+      <c r="G53" s="150"/>
+      <c r="H53" s="150"/>
+      <c r="I53" s="150"/>
+      <c r="J53" s="150"/>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -10723,15 +10736,15 @@
       <c r="AA53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="95"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="149"/>
-      <c r="F54" s="149"/>
-      <c r="G54" s="149"/>
-      <c r="H54" s="149"/>
-      <c r="I54" s="149"/>
-      <c r="J54" s="149"/>
+      <c r="B54" s="96"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="150"/>
+      <c r="G54" s="150"/>
+      <c r="H54" s="150"/>
+      <c r="I54" s="150"/>
+      <c r="J54" s="150"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -10750,15 +10763,15 @@
       <c r="AA54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="95"/>
-      <c r="C55" s="149"/>
-      <c r="D55" s="149"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="149"/>
-      <c r="G55" s="149"/>
-      <c r="H55" s="149"/>
-      <c r="I55" s="149"/>
-      <c r="J55" s="149"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="150"/>
+      <c r="E55" s="150"/>
+      <c r="F55" s="150"/>
+      <c r="G55" s="150"/>
+      <c r="H55" s="150"/>
+      <c r="I55" s="150"/>
+      <c r="J55" s="150"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -10777,7 +10790,7 @@
       <c r="AA55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="146"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -10785,7 +10798,7 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="150"/>
+      <c r="J56" s="151"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -10804,17 +10817,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="152" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="151"/>
-      <c r="D57" s="151"/>
-      <c r="E57" s="151"/>
-      <c r="F57" s="151"/>
-      <c r="G57" s="151"/>
-      <c r="H57" s="151"/>
-      <c r="I57" s="151"/>
-      <c r="J57" s="151"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="152"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -10926,20 +10939,20 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="152"/>
+      <c r="O64" s="153"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="152"/>
-      <c r="O65" s="152"/>
-      <c r="P65" s="152"/>
-      <c r="Q65" s="152"/>
-      <c r="R65" s="152"/>
-      <c r="S65" s="152"/>
-      <c r="T65" s="152"/>
-      <c r="U65" s="152"/>
-      <c r="V65" s="152"/>
-      <c r="W65" s="152"/>
-      <c r="X65" s="152"/>
+      <c r="N65" s="153"/>
+      <c r="O65" s="153"/>
+      <c r="P65" s="153"/>
+      <c r="Q65" s="153"/>
+      <c r="R65" s="153"/>
+      <c r="S65" s="153"/>
+      <c r="T65" s="153"/>
+      <c r="U65" s="153"/>
+      <c r="V65" s="153"/>
+      <c r="W65" s="153"/>
+      <c r="X65" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="41">
@@ -11195,15 +11208,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="987" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="88" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="153" t="s">
+    <row r="2" s="89" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="154"/>
+      <c r="F2" s="154"/>
+      <c r="G2" s="154"/>
       <c r="AKY2" s="0"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
@@ -11244,712 +11257,712 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155" t="s">
+      <c r="B3" s="155"/>
+      <c r="C3" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158" t="s">
+      <c r="B4" s="158"/>
+      <c r="C4" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="160"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="161"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="157"/>
-      <c r="C5" s="158" t="s">
+      <c r="B5" s="158"/>
+      <c r="C5" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="158" t="s">
+      <c r="D5" s="162"/>
+      <c r="E5" s="159" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163" t="s">
+      <c r="F5" s="163"/>
+      <c r="G5" s="164" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="157"/>
-      <c r="C7" s="158" t="s">
+      <c r="B7" s="158"/>
+      <c r="C7" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="171" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="157"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174" t="s">
+      <c r="B8" s="158"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="E8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="175" t="s">
+      <c r="G8" s="176" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="157"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="176" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="176" t="s">
+      <c r="E9" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="176" t="s">
+      <c r="F9" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="177" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="157"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="158"/>
+      <c r="C10" s="164" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
-      <c r="G10" s="180"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="181"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="157"/>
-      <c r="C11" s="163" t="s">
+      <c r="B11" s="158"/>
+      <c r="C11" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
-      <c r="G11" s="180"/>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="181"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="157"/>
-      <c r="C12" s="163" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
-      <c r="G12" s="180"/>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
+      <c r="G12" s="181"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="157"/>
-      <c r="C13" s="163" t="s">
+      <c r="B13" s="158"/>
+      <c r="C13" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
-      <c r="G13" s="180"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="181"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="157"/>
-      <c r="C14" s="163" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="180"/>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="180"/>
+      <c r="G14" s="181"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="157"/>
-      <c r="C15" s="163" t="s">
+      <c r="B15" s="158"/>
+      <c r="C15" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="D15" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="E15" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="178"/>
-      <c r="G15" s="180"/>
+      <c r="F15" s="179"/>
+      <c r="G15" s="181"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165" t="s">
+      <c r="B16" s="165"/>
+      <c r="C16" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="169"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="157"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="182" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="183" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="182" t="s">
+      <c r="E17" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="183" t="s">
+      <c r="F17" s="184" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="184"/>
+      <c r="G17" s="185"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="157"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="176" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="177" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="185" t="s">
+      <c r="F18" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="184"/>
+      <c r="G18" s="185"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="157"/>
-      <c r="C19" s="158" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="184"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="185"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="157"/>
-      <c r="C20" s="158" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="184"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="185"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="157"/>
-      <c r="C21" s="158" t="s">
+      <c r="B21" s="158"/>
+      <c r="C21" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="184"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="185"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="157"/>
-      <c r="C22" s="158" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="184"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="185"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="157"/>
-      <c r="C23" s="158" t="s">
+      <c r="B23" s="158"/>
+      <c r="C23" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="184"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="185"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="157"/>
-      <c r="C24" s="158" t="s">
+      <c r="B24" s="158"/>
+      <c r="C24" s="159" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="184"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="185"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="157"/>
-      <c r="C25" s="158" t="s">
+      <c r="B25" s="158"/>
+      <c r="C25" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="184"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="185"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="157"/>
-      <c r="C26" s="158" t="s">
+      <c r="B26" s="158"/>
+      <c r="C26" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="184"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="185"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="154"/>
-      <c r="C27" s="155" t="s">
+      <c r="B27" s="155"/>
+      <c r="C27" s="156" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="156"/>
+      <c r="D27" s="157"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="157"/>
-      <c r="C28" s="163" t="s">
+      <c r="B28" s="158"/>
+      <c r="C28" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="187"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="189"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="190"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="157"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="191" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="174" t="s">
+      <c r="E30" s="175" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="174" t="s">
+      <c r="F30" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="174" t="s">
+      <c r="G30" s="175" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="157"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="192" t="s">
+      <c r="B31" s="158"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="193" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="182" t="s">
+      <c r="E31" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="182" t="s">
+      <c r="F31" s="183" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="182"/>
+      <c r="G31" s="183"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="157"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="193" t="s">
+      <c r="B32" s="158"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="194" t="s">
         <v>87</v>
       </c>
-      <c r="E32" s="176" t="s">
+      <c r="E32" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="176" t="s">
+      <c r="F32" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="194" t="s">
+      <c r="G32" s="195" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="157"/>
-      <c r="C33" s="163" t="s">
+      <c r="B33" s="158"/>
+      <c r="C33" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="178"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="179"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="157"/>
-      <c r="C34" s="163" t="s">
+      <c r="B34" s="158"/>
+      <c r="C34" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="195"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="197" t="s">
+      <c r="D34" s="196"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="198" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="198" t="s">
+      <c r="G34" s="199" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="187"/>
-      <c r="C35" s="199" t="s">
+      <c r="B35" s="188"/>
+      <c r="C35" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="202" t="s">
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="203" t="s">
+      <c r="G35" s="204" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="157"/>
-      <c r="C36" s="204" t="s">
+      <c r="B36" s="158"/>
+      <c r="C36" s="205" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="154"/>
-      <c r="C37" s="155" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="157"/>
-      <c r="C38" s="158" t="s">
+      <c r="B38" s="158"/>
+      <c r="C38" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="157"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="208"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="174" t="s">
+      <c r="B40" s="209"/>
+      <c r="C40" s="210"/>
+      <c r="D40" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="211" t="s">
         <v>96</v>
       </c>
-      <c r="F40" s="174" t="s">
+      <c r="F40" s="175" t="s">
         <v>97</v>
       </c>
-      <c r="G40" s="174" t="s">
+      <c r="G40" s="175" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="157"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="182" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="183" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="211" t="s">
+      <c r="E41" s="212" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182" t="s">
+      <c r="F41" s="183"/>
+      <c r="G41" s="183" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="157"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="158"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="212" t="s">
+      <c r="E42" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="212" t="s">
+      <c r="F42" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="G42" s="176" t="s">
+      <c r="G42" s="177" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158" t="s">
+      <c r="B43" s="158"/>
+      <c r="C43" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158" t="s">
+      <c r="B44" s="158"/>
+      <c r="C44" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="157"/>
-      <c r="C45" s="213" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="214" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="157"/>
-      <c r="C46" s="213" t="s">
+      <c r="B46" s="158"/>
+      <c r="C46" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="158"/>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="163"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="164"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="157"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="216"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="217"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="157"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="174" t="s">
+      <c r="B48" s="158"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="175" t="s">
         <v>105</v>
       </c>
-      <c r="E48" s="174" t="s">
+      <c r="E48" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="217"/>
-      <c r="G48" s="189"/>
+      <c r="F48" s="218"/>
+      <c r="G48" s="190"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="157"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="176" t="s">
+      <c r="B49" s="158"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="E49" s="176" t="s">
+      <c r="E49" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="217"/>
-      <c r="G49" s="189"/>
+      <c r="F49" s="218"/>
+      <c r="G49" s="190"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="157"/>
-      <c r="C50" s="158" t="s">
+      <c r="B50" s="158"/>
+      <c r="C50" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="217"/>
-      <c r="G50" s="189"/>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="190"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="157"/>
-      <c r="C51" s="158" t="s">
+      <c r="B51" s="158"/>
+      <c r="C51" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="217"/>
-      <c r="G51" s="189"/>
+      <c r="D51" s="179"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="190"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="154"/>
-      <c r="C52" s="155" t="s">
+      <c r="B52" s="155"/>
+      <c r="C52" s="156" t="s">
         <v>111</v>
       </c>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="157"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="218" t="s">
+      <c r="B53" s="158"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="219" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="192"/>
-      <c r="F53" s="192"/>
-      <c r="G53" s="189"/>
+      <c r="E53" s="193"/>
+      <c r="F53" s="193"/>
+      <c r="G53" s="190"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="157"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="219" t="s">
+      <c r="B54" s="158"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="220" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="219"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="189"/>
+      <c r="E54" s="220"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="190"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="157"/>
-      <c r="C55" s="158" t="s">
+      <c r="B55" s="158"/>
+      <c r="C55" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="189"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="193"/>
+      <c r="G55" s="190"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="154"/>
-      <c r="C56" s="155" t="s">
+      <c r="B56" s="155"/>
+      <c r="C56" s="156" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="156"/>
-      <c r="E56" s="156"/>
-      <c r="F56" s="156"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="157"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="221" t="s">
+      <c r="B57" s="158"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="222" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="188"/>
-      <c r="G57" s="189"/>
+      <c r="F57" s="189"/>
+      <c r="G57" s="190"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="157"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="223" t="s">
+      <c r="B58" s="158"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="E58" s="176" t="s">
+      <c r="E58" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="188"/>
-      <c r="G58" s="189"/>
+      <c r="F58" s="189"/>
+      <c r="G58" s="190"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="157"/>
-      <c r="C59" s="158" t="s">
+      <c r="B59" s="158"/>
+      <c r="C59" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="224"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="189"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="189"/>
+      <c r="G59" s="190"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="154"/>
-      <c r="C60" s="155" t="s">
+      <c r="B60" s="155"/>
+      <c r="C60" s="156" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="156"/>
-      <c r="E60" s="156"/>
-      <c r="F60" s="156"/>
-      <c r="G60" s="225"/>
+      <c r="D60" s="157"/>
+      <c r="E60" s="157"/>
+      <c r="F60" s="157"/>
+      <c r="G60" s="226"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="157"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="182" t="s">
+      <c r="B61" s="158"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="182" t="s">
+      <c r="E61" s="183" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="217" t="s">
+      <c r="F61" s="218" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="182" t="s">
+      <c r="G61" s="183" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="157"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="176" t="s">
+      <c r="B62" s="158"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="176" t="s">
+      <c r="E62" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="223" t="s">
+      <c r="F62" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="G62" s="176" t="s">
+      <c r="G62" s="177" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="157"/>
+      <c r="B63" s="158"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="224"/>
-      <c r="G63" s="178"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="179"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="157"/>
+      <c r="B64" s="158"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="224"/>
-      <c r="G64" s="178"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="179"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="226"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="227"/>
-      <c r="E65" s="227"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="227"/>
+      <c r="B65" s="227"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="228"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="228"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12487,14 +12500,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="228"/>
-      <c r="C2" s="229" t="s">
+      <c r="B2" s="229"/>
+      <c r="C2" s="230" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="231"/>
+      <c r="D2" s="231"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="232"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12534,734 +12547,734 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="232"/>
-      <c r="C3" s="233" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="234" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="236"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="157"/>
-      <c r="C4" s="236" t="s">
+      <c r="B4" s="158"/>
+      <c r="C4" s="237" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="157"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="157"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160"/>
+      <c r="B6" s="158"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="160"/>
+      <c r="E6" s="160"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="161"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="157"/>
-      <c r="C7" s="161" t="s">
+      <c r="B7" s="158"/>
+      <c r="C7" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="163"/>
+      <c r="D7" s="162"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="164"/>
     </row>
     <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="157"/>
-      <c r="C8" s="161" t="s">
+      <c r="B8" s="158"/>
+      <c r="C8" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="D8" s="161"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="190"/>
+      <c r="D8" s="162"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="191"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="157"/>
-      <c r="C9" s="218" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="239"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="188"/>
-      <c r="G9" s="190"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="239"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="191"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="187"/>
-      <c r="C10" s="240"/>
-      <c r="D10" s="240"/>
-      <c r="E10" s="240"/>
-      <c r="F10" s="240"/>
-      <c r="G10" s="172"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="241"/>
+      <c r="F10" s="241"/>
+      <c r="G10" s="173"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="232"/>
-      <c r="C11" s="233" t="s">
+      <c r="B11" s="233"/>
+      <c r="C11" s="234" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="157"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="241"/>
-      <c r="E12" s="241"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="189"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="190"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="157"/>
-      <c r="C13" s="238" t="s">
+      <c r="B13" s="158"/>
+      <c r="C13" s="239" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="183" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="183" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="183"/>
+      <c r="G13" s="184"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="157"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="182" t="s">
+      <c r="B14" s="158"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="E14" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="183"/>
+      <c r="G14" s="184"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="187"/>
-      <c r="C15" s="242"/>
-      <c r="D15" s="176" t="s">
+      <c r="B15" s="188"/>
+      <c r="C15" s="243"/>
+      <c r="D15" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="E15" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="223" t="s">
+      <c r="F15" s="224" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="185" t="s">
+      <c r="G15" s="186" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="157"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="183"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="184"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="157"/>
-      <c r="C17" s="243" t="s">
+      <c r="B17" s="158"/>
+      <c r="C17" s="244" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="245"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="180"/>
+      <c r="F17" s="245"/>
+      <c r="G17" s="246"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="157"/>
-      <c r="C18" s="243" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="244" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="179"/>
-      <c r="F18" s="244"/>
-      <c r="G18" s="245"/>
+      <c r="D18" s="179"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="245"/>
+      <c r="G18" s="246"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="157"/>
-      <c r="C19" s="246" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="247" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="244"/>
-      <c r="G19" s="245"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="245"/>
+      <c r="G19" s="246"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="157"/>
-      <c r="C20" s="246" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="244"/>
-      <c r="G20" s="245"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="198"/>
+      <c r="F20" s="245"/>
+      <c r="G20" s="246"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="157"/>
-      <c r="C21" s="247"/>
-      <c r="D21" s="178"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="245"/>
+      <c r="B21" s="158"/>
+      <c r="C21" s="248"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="245"/>
+      <c r="G21" s="246"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="157"/>
-      <c r="C22" s="238" t="s">
+      <c r="B22" s="158"/>
+      <c r="C22" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="248"/>
-      <c r="E22" s="249" t="s">
+      <c r="D22" s="249"/>
+      <c r="E22" s="250" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="248"/>
-      <c r="G22" s="250"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="251"/>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="157"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="189"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="190"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="232"/>
-      <c r="C24" s="233" t="s">
+      <c r="B24" s="233"/>
+      <c r="C24" s="234" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="235"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="236"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="208"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="241"/>
-      <c r="F25" s="241"/>
-      <c r="G25" s="189"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="190"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="157"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="179" t="s">
+      <c r="B26" s="158"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="179" t="s">
+      <c r="F26" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="189"/>
+      <c r="G26" s="190"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="157"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="189"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="190"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="157"/>
-      <c r="C28" s="253" t="s">
+      <c r="B28" s="158"/>
+      <c r="C28" s="254" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="253"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="254"/>
+      <c r="D28" s="254"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="255"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="157"/>
-      <c r="C29" s="253" t="s">
+      <c r="B29" s="158"/>
+      <c r="C29" s="254" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="253"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="254"/>
+      <c r="D29" s="254"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="255"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="157"/>
-      <c r="C30" s="255" t="s">
+      <c r="B30" s="158"/>
+      <c r="C30" s="256" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="255"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="254"/>
+      <c r="D30" s="256"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="255"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="157"/>
-      <c r="C31" s="255" t="s">
+      <c r="B31" s="158"/>
+      <c r="C31" s="256" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="255"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="179"/>
-      <c r="G31" s="254"/>
+      <c r="D31" s="256"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="255"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="157"/>
-      <c r="C32" s="255" t="s">
+      <c r="B32" s="158"/>
+      <c r="C32" s="256" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="255"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="254"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="255"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="157"/>
-      <c r="C33" s="255" t="s">
+      <c r="B33" s="158"/>
+      <c r="C33" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="255"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="179"/>
-      <c r="G33" s="254"/>
+      <c r="D33" s="256"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="255"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="187"/>
-      <c r="C34" s="240"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="189"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="241"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="190"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="232"/>
-      <c r="C35" s="233" t="s">
+      <c r="B35" s="233"/>
+      <c r="C35" s="234" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="236"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="157"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="241"/>
-      <c r="F36" s="241"/>
-      <c r="G36" s="241"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="242"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="157"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="182" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="183" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="182" t="s">
+      <c r="F37" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="182" t="s">
+      <c r="G37" s="183" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="157"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="179" t="s">
+      <c r="B38" s="158"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="179" t="s">
+      <c r="F38" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="179" t="s">
+      <c r="G38" s="180" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="157"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
+      <c r="B39" s="158"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="157"/>
-      <c r="C40" s="158" t="s">
+      <c r="B40" s="158"/>
+      <c r="C40" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="158"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="157"/>
-      <c r="C41" s="158" t="s">
+      <c r="B41" s="158"/>
+      <c r="C41" s="159" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="158"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="182" t="s">
+      <c r="D41" s="159"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="157"/>
-      <c r="C42" s="158" t="s">
+      <c r="B42" s="158"/>
+      <c r="C42" s="159" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="158"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="182" t="s">
+      <c r="D42" s="159"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="157"/>
-      <c r="C43" s="158" t="s">
+      <c r="B43" s="158"/>
+      <c r="C43" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="158"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="157"/>
-      <c r="C44" s="158" t="s">
+      <c r="B44" s="158"/>
+      <c r="C44" s="159" t="s">
         <v>150</v>
       </c>
-      <c r="D44" s="158"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="182" t="s">
+      <c r="D44" s="159"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="182" t="s">
+      <c r="G44" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="157"/>
-      <c r="C45" s="158" t="s">
+      <c r="B45" s="158"/>
+      <c r="C45" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="D45" s="158"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
+      <c r="D45" s="159"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="157"/>
-      <c r="C46" s="158" t="s">
+      <c r="B46" s="158"/>
+      <c r="C46" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="158"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="182" t="s">
+      <c r="D46" s="159"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="182" t="s">
+      <c r="G46" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="157"/>
-      <c r="C47" s="238" t="s">
+      <c r="B47" s="158"/>
+      <c r="C47" s="239" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="238"/>
-      <c r="E47" s="179"/>
-      <c r="F47" s="179"/>
-      <c r="G47" s="179"/>
+      <c r="D47" s="239"/>
+      <c r="E47" s="180"/>
+      <c r="F47" s="180"/>
+      <c r="G47" s="180"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="157"/>
-      <c r="C48" s="213" t="s">
+      <c r="B48" s="158"/>
+      <c r="C48" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="238"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="179"/>
-      <c r="G48" s="179"/>
+      <c r="D48" s="239"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="180"/>
+      <c r="G48" s="180"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="157"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
+      <c r="B49" s="158"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="232"/>
-      <c r="C50" s="233" t="s">
+      <c r="B50" s="233"/>
+      <c r="C50" s="234" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="235"/>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="236"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="157"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="241"/>
-      <c r="F51" s="241"/>
-      <c r="G51" s="241"/>
+      <c r="B51" s="158"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="242"/>
+      <c r="F51" s="242"/>
+      <c r="G51" s="242"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="157"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="179" t="s">
+      <c r="B52" s="158"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="179" t="s">
+      <c r="F52" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="179"/>
+      <c r="G52" s="180"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="157"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="173"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="157"/>
-      <c r="C54" s="158" t="s">
+      <c r="B54" s="158"/>
+      <c r="C54" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="D54" s="158"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="179"/>
-      <c r="G54" s="179"/>
+      <c r="D54" s="159"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="180"/>
+      <c r="G54" s="180"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="157"/>
-      <c r="C55" s="158" t="s">
+      <c r="B55" s="158"/>
+      <c r="C55" s="159" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="158"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="179"/>
-      <c r="G55" s="182"/>
+      <c r="D55" s="159"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="183"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="157"/>
-      <c r="C56" s="158" t="s">
+      <c r="B56" s="158"/>
+      <c r="C56" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="158"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="179"/>
-      <c r="G56" s="179"/>
+      <c r="D56" s="159"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="180"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="157"/>
-      <c r="C57" s="158" t="s">
+      <c r="B57" s="158"/>
+      <c r="C57" s="159" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="179"/>
-      <c r="G57" s="182"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="183"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="157"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="256"/>
-      <c r="F58" s="256"/>
-      <c r="G58" s="257"/>
+      <c r="B58" s="158"/>
+      <c r="C58" s="159"/>
+      <c r="D58" s="159"/>
+      <c r="E58" s="257"/>
+      <c r="F58" s="257"/>
+      <c r="G58" s="258"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="157"/>
-      <c r="C59" s="213" t="s">
+      <c r="B59" s="158"/>
+      <c r="C59" s="214" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="258"/>
-      <c r="E59" s="259"/>
-      <c r="F59" s="259"/>
-      <c r="G59" s="257"/>
+      <c r="D59" s="259"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
+      <c r="G59" s="258"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="157"/>
-      <c r="C60" s="213" t="s">
+      <c r="B60" s="158"/>
+      <c r="C60" s="214" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="258"/>
-      <c r="E60" s="259"/>
-      <c r="F60" s="259"/>
-      <c r="G60" s="260"/>
+      <c r="D60" s="259"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
+      <c r="G60" s="261"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="157"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="207"/>
+      <c r="B61" s="158"/>
+      <c r="C61" s="159"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="208"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="232"/>
-      <c r="C62" s="233" t="s">
+      <c r="B62" s="233"/>
+      <c r="C62" s="234" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="235"/>
+      <c r="D62" s="235"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="235"/>
+      <c r="G62" s="236"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="157"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="241"/>
-      <c r="F63" s="241"/>
-      <c r="G63" s="241"/>
+      <c r="B63" s="158"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
+      <c r="G63" s="242"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="157"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="173"/>
-      <c r="E64" s="179" t="s">
+      <c r="B64" s="158"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="180" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="179" t="s">
+      <c r="F64" s="180" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="182"/>
+      <c r="G64" s="183"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="157"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="173"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="182"/>
+      <c r="B65" s="158"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="183"/>
+      <c r="G65" s="183"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="157"/>
-      <c r="C66" s="158" t="s">
+      <c r="B66" s="158"/>
+      <c r="C66" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="D66" s="158"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="179"/>
-      <c r="G66" s="182"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="179"/>
+      <c r="F66" s="180"/>
+      <c r="G66" s="183"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="157"/>
-      <c r="C67" s="158" t="s">
+      <c r="B67" s="158"/>
+      <c r="C67" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="D67" s="158"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="179"/>
-      <c r="G67" s="182"/>
+      <c r="D67" s="159"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="180"/>
+      <c r="G67" s="183"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="157"/>
-      <c r="C68" s="158" t="s">
+      <c r="B68" s="158"/>
+      <c r="C68" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="D68" s="158"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="179"/>
-      <c r="G68" s="182"/>
+      <c r="D68" s="159"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="180"/>
+      <c r="G68" s="183"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="157"/>
-      <c r="C69" s="158" t="s">
+      <c r="B69" s="158"/>
+      <c r="C69" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="158"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="179"/>
-      <c r="G69" s="182"/>
+      <c r="D69" s="159"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="180"/>
+      <c r="G69" s="183"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="157"/>
-      <c r="C70" s="158" t="s">
+      <c r="B70" s="158"/>
+      <c r="C70" s="159" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="158"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="179"/>
-      <c r="G70" s="182"/>
+      <c r="D70" s="159"/>
+      <c r="E70" s="179"/>
+      <c r="F70" s="180"/>
+      <c r="G70" s="183"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="157"/>
-      <c r="C71" s="158"/>
-      <c r="D71" s="188"/>
-      <c r="E71" s="207"/>
-      <c r="F71" s="207"/>
-      <c r="G71" s="207"/>
+      <c r="B71" s="158"/>
+      <c r="C71" s="159"/>
+      <c r="D71" s="189"/>
+      <c r="E71" s="208"/>
+      <c r="F71" s="208"/>
+      <c r="G71" s="208"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="232"/>
-      <c r="C72" s="233" t="s">
+      <c r="B72" s="233"/>
+      <c r="C72" s="234" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="235"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="236"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="157"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="208"/>
-      <c r="F73" s="251"/>
-      <c r="G73" s="252"/>
+      <c r="B73" s="158"/>
+      <c r="C73" s="189"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="209"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="253"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="157"/>
-      <c r="C74" s="158" t="s">
+      <c r="B74" s="158"/>
+      <c r="C74" s="159" t="s">
         <v>162</v>
       </c>
-      <c r="D74" s="158"/>
-      <c r="E74" s="261"/>
-      <c r="F74" s="261"/>
-      <c r="G74" s="261"/>
+      <c r="D74" s="159"/>
+      <c r="E74" s="262"/>
+      <c r="F74" s="262"/>
+      <c r="G74" s="262"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="226"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="226"/>
-      <c r="F75" s="171"/>
-      <c r="G75" s="262"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="263"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13812,30 +13825,30 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="88" width="2.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="88" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="88" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="88" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="88" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="88" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="88" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="88" width="3.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="977" min="12" style="88" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="89" width="2.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="89" width="1.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="89" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="89" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="89" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="89" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="89" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="89" width="3.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="977" min="12" style="89" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="263" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="s">
+    <row r="2" s="264" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="268"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13885,20 +13898,20 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="95"/>
-      <c r="C3" s="268" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="269" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="95"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="65"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -13906,23 +13919,23 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="96"/>
+      <c r="J4" s="97"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="91"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="D5" s="92"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
-      <c r="I5" s="93"/>
-      <c r="J5" s="94"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -13930,23 +13943,23 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="96"/>
+      <c r="J6" s="97"/>
       <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="95"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="269"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="270"/>
-      <c r="K7" s="102"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="270"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="101"/>
+      <c r="I7" s="101"/>
+      <c r="J7" s="271"/>
+      <c r="K7" s="103"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -13954,35 +13967,35 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="96"/>
+      <c r="J8" s="97"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="105"/>
-    </row>
-    <row r="10" s="263" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="271"/>
-      <c r="C10" s="272" t="s">
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" s="264" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="272"/>
+      <c r="C10" s="273" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="273"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="277" t="s">
+      <c r="D10" s="274"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="277" t="s">
+      <c r="I10" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="277"/>
+      <c r="J10" s="278"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -14032,131 +14045,131 @@
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="95"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="278"/>
+      <c r="E11" s="279"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="118"/>
-      <c r="J11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="115"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="95"/>
-      <c r="C12" s="97" t="s">
+      <c r="B12" s="96"/>
+      <c r="C12" s="98" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="279"/>
-      <c r="F12" s="280"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="281"/>
-      <c r="H12" s="178"/>
+      <c r="H12" s="179"/>
       <c r="I12" s="282"/>
       <c r="J12" s="283"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="95"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="279"/>
-      <c r="F13" s="280"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="280"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="281"/>
-      <c r="H13" s="178"/>
+      <c r="H13" s="179"/>
       <c r="I13" s="282"/>
       <c r="J13" s="283"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="95"/>
-      <c r="C14" s="97" t="s">
+      <c r="B14" s="96"/>
+      <c r="C14" s="98" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="97"/>
-      <c r="E14" s="279"/>
-      <c r="F14" s="280"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="280"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="281"/>
-      <c r="H14" s="178"/>
+      <c r="H14" s="179"/>
       <c r="I14" s="282"/>
       <c r="J14" s="283"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="95"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="279"/>
-      <c r="F15" s="280"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="280"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="281"/>
-      <c r="H15" s="178"/>
+      <c r="H15" s="179"/>
       <c r="I15" s="282"/>
       <c r="J15" s="283"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="95"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="284" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="280"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="281"/>
-      <c r="H16" s="178"/>
+      <c r="H16" s="179"/>
       <c r="I16" s="282"/>
       <c r="J16" s="283"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="95"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="284" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="279"/>
-      <c r="F17" s="280"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="280"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="281"/>
-      <c r="H17" s="178"/>
+      <c r="H17" s="179"/>
       <c r="I17" s="282"/>
       <c r="J17" s="283"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="95"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="284"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="279"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="178"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="179"/>
       <c r="I18" s="282"/>
       <c r="J18" s="283"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="95"/>
-      <c r="C19" s="97" t="s">
+      <c r="B19" s="96"/>
+      <c r="C19" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="178"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="179"/>
       <c r="I19" s="282"/>
       <c r="J19" s="283"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="103"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="285"/>
       <c r="D20" s="285"/>
       <c r="E20" s="285"/>
       <c r="F20" s="285"/>
       <c r="G20" s="285"/>
-      <c r="H20" s="201"/>
+      <c r="H20" s="202"/>
       <c r="I20" s="286"/>
       <c r="J20" s="287"/>
     </row>
-    <row r="21" s="263" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="271"/>
-      <c r="C21" s="272" t="s">
+    <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="272"/>
+      <c r="C21" s="273" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="272"/>
+      <c r="D21" s="273"/>
       <c r="E21" s="288" t="s">
         <v>172</v>
       </c>
@@ -14222,7 +14235,7 @@
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="89"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="290"/>
       <c r="D22" s="290"/>
       <c r="E22" s="291"/>
@@ -14233,16 +14246,16 @@
       <c r="J22" s="295"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="95"/>
-      <c r="C23" s="97" t="s">
+      <c r="B23" s="96"/>
+      <c r="C23" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="178"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="179"/>
       <c r="F23" s="296" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="119" t="n">
+      <c r="G23" s="120" t="n">
         <v>10</v>
       </c>
       <c r="H23" s="297"/>
@@ -14250,16 +14263,16 @@
       <c r="J23" s="283"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="95"/>
-      <c r="C24" s="97" t="s">
+      <c r="B24" s="96"/>
+      <c r="C24" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="97"/>
-      <c r="E24" s="178"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="179"/>
       <c r="F24" s="296" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="119" t="n">
+      <c r="G24" s="120" t="n">
         <v>1300</v>
       </c>
       <c r="H24" s="297"/>
@@ -14267,16 +14280,16 @@
       <c r="J24" s="283"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="95"/>
-      <c r="C25" s="97" t="s">
+      <c r="B25" s="96"/>
+      <c r="C25" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="97"/>
-      <c r="E25" s="178"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="179"/>
       <c r="F25" s="296" t="s">
         <v>178</v>
       </c>
-      <c r="G25" s="119" t="n">
+      <c r="G25" s="120" t="n">
         <v>1700</v>
       </c>
       <c r="H25" s="297"/>
@@ -14284,16 +14297,16 @@
       <c r="J25" s="283"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="95"/>
-      <c r="C26" s="97" t="s">
+      <c r="B26" s="96"/>
+      <c r="C26" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="97"/>
-      <c r="E26" s="178"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="179"/>
       <c r="F26" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="119" t="n">
+      <c r="G26" s="120" t="n">
         <v>4.7</v>
       </c>
       <c r="H26" s="297"/>
@@ -14301,136 +14314,136 @@
       <c r="J26" s="283"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="95"/>
+      <c r="B27" s="96"/>
       <c r="C27" s="298"/>
       <c r="D27" s="298"/>
-      <c r="E27" s="178"/>
+      <c r="E27" s="179"/>
       <c r="F27" s="299"/>
-      <c r="G27" s="178"/>
+      <c r="G27" s="179"/>
       <c r="H27" s="297"/>
       <c r="I27" s="282"/>
       <c r="J27" s="283"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="95"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="298"/>
       <c r="D28" s="298"/>
-      <c r="E28" s="178"/>
+      <c r="E28" s="179"/>
       <c r="F28" s="299"/>
-      <c r="G28" s="178"/>
+      <c r="G28" s="179"/>
       <c r="H28" s="297"/>
       <c r="I28" s="282"/>
       <c r="J28" s="283"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="95"/>
+      <c r="B29" s="96"/>
       <c r="C29" s="300" t="s">
         <v>182</v>
       </c>
       <c r="D29" s="300"/>
-      <c r="E29" s="178"/>
+      <c r="E29" s="179"/>
       <c r="F29" s="299"/>
-      <c r="G29" s="178"/>
+      <c r="G29" s="179"/>
       <c r="H29" s="297"/>
       <c r="I29" s="282"/>
       <c r="J29" s="283"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="95"/>
+      <c r="B30" s="96"/>
       <c r="C30" s="300"/>
       <c r="D30" s="300"/>
-      <c r="E30" s="178"/>
+      <c r="E30" s="179"/>
       <c r="F30" s="299"/>
-      <c r="G30" s="178"/>
+      <c r="G30" s="179"/>
       <c r="H30" s="297"/>
       <c r="I30" s="282"/>
       <c r="J30" s="283"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="95"/>
+      <c r="B31" s="96"/>
       <c r="C31" s="300"/>
       <c r="D31" s="300"/>
-      <c r="E31" s="178"/>
+      <c r="E31" s="179"/>
       <c r="F31" s="299"/>
-      <c r="G31" s="178"/>
+      <c r="G31" s="179"/>
       <c r="H31" s="297"/>
       <c r="I31" s="282"/>
       <c r="J31" s="283"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="95"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="300"/>
       <c r="D32" s="300"/>
-      <c r="E32" s="178"/>
+      <c r="E32" s="179"/>
       <c r="F32" s="299"/>
-      <c r="G32" s="178"/>
+      <c r="G32" s="179"/>
       <c r="H32" s="297"/>
       <c r="I32" s="282"/>
       <c r="J32" s="283"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="95"/>
+      <c r="B33" s="96"/>
       <c r="C33" s="298"/>
       <c r="D33" s="298"/>
-      <c r="E33" s="178"/>
+      <c r="E33" s="179"/>
       <c r="F33" s="299"/>
-      <c r="G33" s="178"/>
+      <c r="G33" s="179"/>
       <c r="H33" s="297"/>
       <c r="I33" s="282"/>
       <c r="J33" s="283"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="103"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="301"/>
       <c r="D34" s="301"/>
-      <c r="E34" s="201"/>
+      <c r="E34" s="202"/>
       <c r="F34" s="302"/>
-      <c r="G34" s="201"/>
+      <c r="G34" s="202"/>
       <c r="H34" s="303"/>
       <c r="I34" s="286"/>
       <c r="J34" s="287"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="95"/>
-      <c r="C35" s="272" t="s">
+      <c r="B35" s="96"/>
+      <c r="C35" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="272"/>
-      <c r="E35" s="279"/>
-      <c r="F35" s="280"/>
-      <c r="G35" s="279"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="280"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="280"/>
       <c r="H35" s="304"/>
       <c r="I35" s="305"/>
       <c r="J35" s="283"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="95"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="279"/>
-      <c r="F36" s="280"/>
-      <c r="G36" s="279"/>
-      <c r="H36" s="109" t="s">
+      <c r="B36" s="96"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="280"/>
+      <c r="F36" s="74"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="109" t="s">
+      <c r="I36" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="109"/>
+      <c r="J36" s="110"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="89"/>
+      <c r="B37" s="90"/>
       <c r="C37" s="306"/>
       <c r="D37" s="306"/>
       <c r="E37" s="307"/>
       <c r="F37" s="308"/>
       <c r="G37" s="308"/>
-      <c r="H37" s="205"/>
+      <c r="H37" s="206"/>
       <c r="I37" s="309"/>
       <c r="J37" s="310"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="95"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="30" t="s">
         <v>184</v>
       </c>
@@ -14438,23 +14451,23 @@
       <c r="E38" s="311"/>
       <c r="F38" s="312"/>
       <c r="G38" s="312"/>
-      <c r="H38" s="178"/>
+      <c r="H38" s="179"/>
       <c r="I38" s="305"/>
       <c r="J38" s="283"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="95"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
       <c r="E39" s="311"/>
       <c r="F39" s="312"/>
       <c r="G39" s="312"/>
-      <c r="H39" s="178"/>
+      <c r="H39" s="179"/>
       <c r="I39" s="305"/>
       <c r="J39" s="283"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="95"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="30" t="s">
         <v>185</v>
       </c>
@@ -14462,23 +14475,23 @@
       <c r="E40" s="311"/>
       <c r="F40" s="312"/>
       <c r="G40" s="312"/>
-      <c r="H40" s="178"/>
+      <c r="H40" s="179"/>
       <c r="I40" s="305"/>
       <c r="J40" s="283"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="95"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
       <c r="E41" s="311"/>
       <c r="F41" s="312"/>
       <c r="G41" s="312"/>
-      <c r="H41" s="178"/>
+      <c r="H41" s="179"/>
       <c r="I41" s="305"/>
       <c r="J41" s="283"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="95"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="30" t="s">
         <v>186</v>
       </c>
@@ -14486,23 +14499,23 @@
       <c r="E42" s="311"/>
       <c r="F42" s="312"/>
       <c r="G42" s="312"/>
-      <c r="H42" s="178"/>
+      <c r="H42" s="179"/>
       <c r="I42" s="305"/>
       <c r="J42" s="283"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="95"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
       <c r="E43" s="311"/>
       <c r="F43" s="312"/>
       <c r="G43" s="312"/>
-      <c r="H43" s="178"/>
+      <c r="H43" s="179"/>
       <c r="I43" s="305"/>
       <c r="J43" s="283"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="95"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="30" t="s">
         <v>146</v>
       </c>
@@ -14510,23 +14523,23 @@
       <c r="E44" s="311"/>
       <c r="F44" s="312"/>
       <c r="G44" s="312"/>
-      <c r="H44" s="178"/>
+      <c r="H44" s="179"/>
       <c r="I44" s="305"/>
       <c r="J44" s="283"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="95"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
       <c r="E45" s="311"/>
       <c r="F45" s="312"/>
       <c r="G45" s="312"/>
-      <c r="H45" s="178"/>
+      <c r="H45" s="179"/>
       <c r="I45" s="305"/>
       <c r="J45" s="283"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="95"/>
+      <c r="B46" s="96"/>
       <c r="C46" s="15" t="s">
         <v>135</v>
       </c>
@@ -14534,23 +14547,23 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="116"/>
+      <c r="H46" s="117"/>
       <c r="I46" s="313"/>
       <c r="J46" s="314"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="103"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="315"/>
       <c r="D47" s="315"/>
-      <c r="E47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="316"/>
       <c r="G47" s="316"/>
       <c r="H47" s="317"/>
       <c r="I47" s="316"/>
-      <c r="J47" s="142"/>
+      <c r="J47" s="143"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="89"/>
+      <c r="B48" s="90"/>
       <c r="C48" s="318" t="s">
         <v>187</v>
       </c>
@@ -14563,7 +14576,7 @@
       <c r="J48" s="318"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="95"/>
+      <c r="B49" s="96"/>
       <c r="C49" s="318"/>
       <c r="D49" s="318"/>
       <c r="E49" s="318"/>
@@ -14574,7 +14587,7 @@
       <c r="J49" s="318"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="95"/>
+      <c r="B50" s="96"/>
       <c r="C50" s="318"/>
       <c r="D50" s="318"/>
       <c r="E50" s="318"/>
@@ -14585,7 +14598,7 @@
       <c r="J50" s="318"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="95"/>
+      <c r="B51" s="96"/>
       <c r="C51" s="318"/>
       <c r="D51" s="318"/>
       <c r="E51" s="318"/>
@@ -14596,7 +14609,7 @@
       <c r="J51" s="318"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="95"/>
+      <c r="B52" s="96"/>
       <c r="C52" s="318"/>
       <c r="D52" s="318"/>
       <c r="E52" s="318"/>
@@ -14607,7 +14620,7 @@
       <c r="J52" s="318"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="140"/>
+      <c r="B53" s="141"/>
       <c r="C53" s="318"/>
       <c r="D53" s="318"/>
       <c r="E53" s="318"/>
@@ -14616,7 +14629,7 @@
       <c r="H53" s="318"/>
       <c r="I53" s="318"/>
       <c r="J53" s="318"/>
-      <c r="K53" s="117"/>
+      <c r="K53" s="118"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15250,7 +15263,7 @@
       <c r="B4" s="322" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="93"/>
       <c r="D4" s="323"/>
       <c r="E4" s="323"/>
       <c r="F4" s="324"/>
@@ -15351,16 +15364,16 @@
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="331"/>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="109" t="s">
+      <c r="F16" s="110" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15395,7 +15408,7 @@
       <c r="B20" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="92"/>
+      <c r="C20" s="93"/>
       <c r="D20" s="323"/>
       <c r="E20" s="323"/>
       <c r="F20" s="334"/>
@@ -15495,16 +15508,16 @@
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="335"/>
-      <c r="C32" s="109" t="s">
+      <c r="C32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="109" t="s">
+      <c r="D32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="109" t="s">
+      <c r="E32" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="109" t="s">
+      <c r="F32" s="110" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15639,16 +15652,16 @@
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="335"/>
-      <c r="C48" s="109" t="s">
+      <c r="C48" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="109" t="s">
+      <c r="D48" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="109" t="s">
+      <c r="E48" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="109" t="s">
+      <c r="F48" s="110" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15900,7 +15913,7 @@
       <c r="B2" s="322" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="93"/>
       <c r="D2" s="323"/>
       <c r="E2" s="323"/>
       <c r="F2" s="324"/>
@@ -16009,16 +16022,16 @@
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="335"/>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="110" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16151,16 +16164,16 @@
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="335"/>
-      <c r="C31" s="109" t="s">
+      <c r="C31" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="109" t="s">
+      <c r="D31" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="109" t="s">
+      <c r="E31" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="109" t="s">
+      <c r="F31" s="110" t="s">
         <v>32</v>
       </c>
     </row>
@@ -16309,17 +16322,17 @@
       <c r="B51" s="322" t="s">
         <v>204</v>
       </c>
-      <c r="C51" s="92"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="323"/>
       <c r="E51" s="323"/>
       <c r="F51" s="324"/>
     </row>
     <row r="52" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="146"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="150"/>
+      <c r="F52" s="151"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="296" t="s">
@@ -16352,10 +16365,10 @@
       <c r="F56" s="299"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="140"/>
-      <c r="C57" s="141"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
       <c r="F57" s="341"/>
     </row>
   </sheetData>
@@ -17060,12 +17073,12 @@
       <c r="H60" s="299"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="140"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
       <c r="H61" s="341"/>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -1590,7 +1590,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="0"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1716,11 +1716,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -2160,7 +2155,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="342">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2338,7 +2333,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2525,7 +2520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2553,11 +2548,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2569,7 +2568,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2649,7 +2648,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2669,43 +2668,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2717,11 +2716,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2737,11 +2736,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2750,10 +2749,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2777,7 +2772,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2865,7 +2860,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2881,18 +2876,22 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2941,19 +2940,63 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2961,63 +3004,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3025,11 +3016,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3053,7 +3044,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3077,11 +3068,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3197,11 +3188,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3225,7 +3216,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3241,7 +3232,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3341,7 +3332,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3361,7 +3352,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3417,7 +3408,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3441,7 +3432,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3529,7 +3520,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6424,9 +6415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>250200</xdr:colOff>
+      <xdr:colOff>249840</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>264600</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6440,7 +6431,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="760320" cy="217080"/>
+          <a:ext cx="759960" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6461,9 +6452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>150120</xdr:colOff>
+      <xdr:colOff>149760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>264600</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6477,7 +6468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1103760" cy="217080"/>
+          <a:ext cx="1103400" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6498,9 +6489,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>23400</xdr:colOff>
+      <xdr:colOff>23040</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>264600</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6514,7 +6505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1410480" cy="217080"/>
+          <a:ext cx="1410120" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6535,9 +6526,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>347400</xdr:colOff>
+      <xdr:colOff>347040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>264600</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6551,7 +6542,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1734480" cy="217080"/>
+          <a:ext cx="1734120" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6572,9 +6563,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>220680</xdr:colOff>
+      <xdr:colOff>220320</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>277560</xdr:rowOff>
+      <xdr:rowOff>277200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6588,7 +6579,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2041560" cy="230040"/>
+          <a:ext cx="2041200" cy="229680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6609,9 +6600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>264600</xdr:rowOff>
+      <xdr:rowOff>264240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6625,7 +6616,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2377800" cy="217080"/>
+          <a:ext cx="2377440" cy="216720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6646,9 +6637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>104040</xdr:colOff>
+      <xdr:colOff>103680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>264240</xdr:rowOff>
+      <xdr:rowOff>263880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6658,7 +6649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2690640" cy="216000"/>
+          <a:ext cx="2690280" cy="215640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7027,9 +7018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7039,7 +7030,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6989760" cy="10559520"/>
+          <a:ext cx="6989400" cy="10559160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7167,9 +7158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>298080</xdr:rowOff>
+      <xdr:rowOff>297720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7183,7 +7174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1128240" cy="261360"/>
+          <a:ext cx="1127880" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7209,9 +7200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>150480</xdr:colOff>
+      <xdr:colOff>150120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7221,7 +7212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7025040" cy="259560"/>
+          <a:ext cx="7024680" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7280,9 +7271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1015200</xdr:colOff>
+      <xdr:colOff>1014840</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7292,7 +7283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928520"/>
-          <a:ext cx="7092360" cy="266400"/>
+          <a:ext cx="7092000" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7351,9 +7342,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1018800</xdr:colOff>
+      <xdr:colOff>1018440</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7363,7 +7354,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7052040" cy="261000"/>
+          <a:ext cx="7051680" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7422,9 +7413,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>35280</xdr:colOff>
+      <xdr:colOff>34920</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7434,7 +7425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6891120" cy="260280"/>
+          <a:ext cx="6890760" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7493,9 +7484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>61200</xdr:rowOff>
+      <xdr:rowOff>60840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7505,7 +7496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6987600" cy="361080"/>
+          <a:ext cx="6987240" cy="360720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7564,9 +7555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>63360</xdr:colOff>
+      <xdr:colOff>63000</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7576,7 +7567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10173240"/>
-          <a:ext cx="6996600" cy="372240"/>
+          <a:ext cx="6996240" cy="371880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7635,9 +7626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:rowOff>68400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7647,7 +7638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7036920" cy="372240"/>
+          <a:ext cx="7036560" cy="371880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7702,7 +7693,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -9237,7 +9228,7 @@
   <dimension ref="B1:AA65"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="N7" activeCellId="0" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9370,7 +9361,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="97"/>
@@ -9398,11 +9389,11 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
       <c r="K6" s="4"/>
       <c r="L6" s="0"/>
       <c r="M6" s="0"/>
@@ -9423,17 +9414,17 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="96"/>
-      <c r="C7" s="100" t="s">
+      <c r="C7" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102"/>
-      <c r="J7" s="102"/>
-      <c r="K7" s="103"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="0"/>
       <c r="M7" s="0"/>
       <c r="N7" s="0"/>
@@ -9452,15 +9443,15 @@
       <c r="AA7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="104"/>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="106"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
       <c r="L8" s="0"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -9480,22 +9471,22 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="90"/>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108" t="s">
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="108"/>
-      <c r="H9" s="109" t="s">
+      <c r="G9" s="109"/>
+      <c r="H9" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="109"/>
+      <c r="J9" s="110"/>
       <c r="L9" s="0"/>
       <c r="M9" s="0"/>
       <c r="N9" s="0"/>
@@ -9515,14 +9506,14 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="96"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
       <c r="L10" s="0"/>
       <c r="M10" s="0"/>
       <c r="N10" s="0"/>
@@ -9541,15 +9532,15 @@
       <c r="AA10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="104"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
       <c r="L11" s="0"/>
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
@@ -9572,19 +9563,19 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="110" t="s">
+      <c r="F12" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="111" t="s">
+      <c r="G12" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="112" t="s">
+      <c r="H12" s="113" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="110"/>
+      <c r="J12" s="111"/>
       <c r="L12" s="0"/>
       <c r="M12" s="0"/>
       <c r="N12" s="0"/>
@@ -9607,11 +9598,11 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="113"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="46"/>
-      <c r="H13" s="114"/>
+      <c r="H13" s="115"/>
       <c r="I13" s="46"/>
-      <c r="J13" s="115"/>
+      <c r="J13" s="116"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -9631,16 +9622,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="96"/>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="116"/>
+      <c r="D14" s="117"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
+      <c r="F14" s="118"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -9660,16 +9651,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="96"/>
-      <c r="C15" s="116" t="s">
+      <c r="C15" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="116"/>
+      <c r="D15" s="117"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -9689,16 +9680,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="96"/>
-      <c r="C16" s="116" t="s">
+      <c r="C16" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="116"/>
+      <c r="D16" s="117"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -9718,16 +9709,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="96"/>
-      <c r="C17" s="116" t="s">
+      <c r="C17" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="116"/>
+      <c r="D17" s="117"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
+      <c r="F17" s="118"/>
+      <c r="G17" s="119"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -9747,16 +9738,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="96"/>
-      <c r="C18" s="116" t="s">
+      <c r="C18" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="116"/>
+      <c r="D18" s="117"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -9776,14 +9767,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="96"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -9802,17 +9793,17 @@
       <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="123"/>
-      <c r="C20" s="124" t="s">
+      <c r="B20" s="124"/>
+      <c r="C20" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="124"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="124"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="125"/>
-      <c r="J20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="126"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -9897,7 +9888,7 @@
       <c r="G23" s="24"/>
       <c r="H23" s="46"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="126"/>
+      <c r="J23" s="127"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
       <c r="N23" s="0"/>
@@ -9918,13 +9909,13 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="96"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="127"/>
+      <c r="D24" s="128"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="126"/>
+      <c r="J24" s="127"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -9950,10 +9941,10 @@
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="126"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="127"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -9977,10 +9968,10 @@
       <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="133"/>
-      <c r="J26" s="126"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="127"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -10004,10 +9995,10 @@
       <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="135"/>
-      <c r="I27" s="135"/>
-      <c r="J27" s="126"/>
+      <c r="G27" s="135"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="127"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -10031,10 +10022,10 @@
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="126"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="127"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -10060,10 +10051,10 @@
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="137"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="126"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="127"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -10083,14 +10074,14 @@
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="96"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="128"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
+      <c r="F30" s="140"/>
+      <c r="G30" s="140"/>
       <c r="H30" s="46"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="126"/>
+      <c r="J30" s="127"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -10110,16 +10101,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="96"/>
-      <c r="C31" s="140" t="s">
+      <c r="C31" s="141" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="126"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="127"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -10139,14 +10130,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="96"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="126"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="141"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="141"/>
+      <c r="J32" s="127"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -10166,14 +10157,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="96"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="126"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="127"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
@@ -10193,14 +10184,14 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="96"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="140"/>
-      <c r="J34" s="126"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="141"/>
+      <c r="J34" s="127"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -10219,15 +10210,15 @@
       <c r="AA34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="143"/>
-      <c r="J35" s="143"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="143"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -10246,17 +10237,17 @@
       <c r="AA35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="144"/>
-      <c r="C36" s="145" t="s">
+      <c r="B36" s="145"/>
+      <c r="C36" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="145"/>
-      <c r="F36" s="145"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="146"/>
+      <c r="D36" s="146"/>
+      <c r="E36" s="146"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="146"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -10304,15 +10295,15 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="147"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10790,7 +10781,7 @@
       <c r="AA55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="147"/>
+      <c r="B56" s="148"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -11194,8 +11185,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K32" activeCellId="0" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11402,7 +11393,7 @@
       <c r="D15" s="182" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="183" t="s">
         <v>31</v>
       </c>
       <c r="F15" s="179"/>
@@ -11421,16 +11412,16 @@
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="158"/>
       <c r="C17" s="174"/>
-      <c r="D17" s="183" t="s">
+      <c r="D17" s="184" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="184" t="s">
+      <c r="F17" s="185" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="185"/>
+      <c r="G17" s="186"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="158"/>
@@ -11441,10 +11432,10 @@
       <c r="E18" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="186" t="s">
+      <c r="F18" s="187" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="185"/>
+      <c r="G18" s="186"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="158"/>
@@ -11454,7 +11445,7 @@
       <c r="D19" s="179"/>
       <c r="E19" s="179"/>
       <c r="F19" s="163"/>
-      <c r="G19" s="185"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="158"/>
@@ -11464,7 +11455,7 @@
       <c r="D20" s="179"/>
       <c r="E20" s="179"/>
       <c r="F20" s="163"/>
-      <c r="G20" s="185"/>
+      <c r="G20" s="186"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="158"/>
@@ -11474,7 +11465,7 @@
       <c r="D21" s="179"/>
       <c r="E21" s="179"/>
       <c r="F21" s="163"/>
-      <c r="G21" s="185"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="158"/>
@@ -11484,7 +11475,7 @@
       <c r="D22" s="179"/>
       <c r="E22" s="179"/>
       <c r="F22" s="163"/>
-      <c r="G22" s="185"/>
+      <c r="G22" s="186"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="158"/>
@@ -11494,7 +11485,7 @@
       <c r="D23" s="179"/>
       <c r="E23" s="179"/>
       <c r="F23" s="163"/>
-      <c r="G23" s="185"/>
+      <c r="G23" s="186"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="158"/>
@@ -11504,7 +11495,7 @@
       <c r="D24" s="179"/>
       <c r="E24" s="179"/>
       <c r="F24" s="163"/>
-      <c r="G24" s="185"/>
+      <c r="G24" s="186"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="158"/>
@@ -11514,7 +11505,7 @@
       <c r="D25" s="179"/>
       <c r="E25" s="179"/>
       <c r="F25" s="163"/>
-      <c r="G25" s="185"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="158"/>
@@ -11524,7 +11515,7 @@
       <c r="D26" s="179"/>
       <c r="E26" s="179"/>
       <c r="F26" s="163"/>
-      <c r="G26" s="185"/>
+      <c r="G26" s="186"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="155"/>
@@ -11541,23 +11532,23 @@
       <c r="C28" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="188"/>
+      <c r="B29" s="189"/>
       <c r="C29" s="173"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="190"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="191"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="158"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192" t="s">
+      <c r="C30" s="192"/>
+      <c r="D30" s="193" t="s">
         <v>80</v>
       </c>
       <c r="E30" s="175" t="s">
@@ -11572,22 +11563,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="158"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="193" t="s">
+      <c r="C31" s="192"/>
+      <c r="D31" s="194" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="183" t="s">
+      <c r="E31" s="184" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="183" t="s">
+      <c r="F31" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="183"/>
+      <c r="G31" s="184"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="158"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="194" t="s">
+      <c r="C32" s="192"/>
+      <c r="D32" s="195" t="s">
         <v>87</v>
       </c>
       <c r="E32" s="177" t="s">
@@ -11596,7 +11587,7 @@
       <c r="F32" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="195" t="s">
+      <c r="G32" s="196" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11605,9 +11596,9 @@
       <c r="C33" s="164" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="196"/>
+      <c r="D33" s="197"/>
       <c r="E33" s="179"/>
-      <c r="F33" s="197"/>
+      <c r="F33" s="181"/>
       <c r="G33" s="179"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11615,38 +11606,38 @@
       <c r="C34" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="196"/>
+      <c r="D34" s="197"/>
       <c r="E34" s="179"/>
-      <c r="F34" s="198" t="s">
+      <c r="F34" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="G34" s="199" t="s">
+      <c r="G34" s="198" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="188"/>
-      <c r="C35" s="200" t="s">
+      <c r="B35" s="189"/>
+      <c r="C35" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="201"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203" t="s">
+      <c r="D35" s="200"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="G35" s="204" t="s">
+      <c r="G35" s="203" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="158"/>
-      <c r="C36" s="205" t="s">
+      <c r="C36" s="204" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="155"/>
@@ -11663,26 +11654,26 @@
       <c r="C38" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="158"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="209"/>
-      <c r="C40" s="210"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="209"/>
       <c r="D40" s="175" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="211" t="s">
+      <c r="E40" s="210" t="s">
         <v>96</v>
       </c>
       <c r="F40" s="175" t="s">
@@ -11695,27 +11686,27 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="158"/>
       <c r="C41" s="174"/>
-      <c r="D41" s="183" t="s">
+      <c r="D41" s="184" t="s">
         <v>99</v>
       </c>
-      <c r="E41" s="212" t="s">
+      <c r="E41" s="211" t="s">
         <v>99</v>
       </c>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183" t="s">
+      <c r="F41" s="184"/>
+      <c r="G41" s="184" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="158"/>
       <c r="C42" s="174"/>
-      <c r="D42" s="213" t="s">
+      <c r="D42" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="213" t="s">
+      <c r="E42" s="212" t="s">
         <v>31</v>
       </c>
-      <c r="F42" s="213" t="s">
+      <c r="F42" s="212" t="s">
         <v>31</v>
       </c>
       <c r="G42" s="177" t="s">
@@ -11727,8 +11718,8 @@
       <c r="C43" s="159" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
+      <c r="D43" s="181"/>
+      <c r="E43" s="181"/>
       <c r="F43" s="179"/>
       <c r="G43" s="179"/>
     </row>
@@ -11737,24 +11728,24 @@
       <c r="C44" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
+      <c r="D44" s="181"/>
+      <c r="E44" s="181"/>
       <c r="F44" s="179"/>
       <c r="G44" s="179"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="158"/>
-      <c r="C45" s="214" t="s">
+      <c r="C45" s="213" t="s">
         <v>103</v>
       </c>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-      <c r="G45" s="215"/>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="158"/>
-      <c r="C46" s="214" t="s">
+      <c r="C46" s="213" t="s">
         <v>104</v>
       </c>
       <c r="D46" s="159"/>
@@ -11764,11 +11755,11 @@
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="158"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="217"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="158"/>
@@ -11779,8 +11770,8 @@
       <c r="E48" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="F48" s="218"/>
-      <c r="G48" s="190"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="191"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="158"/>
@@ -11791,8 +11782,8 @@
       <c r="E49" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="F49" s="218"/>
-      <c r="G49" s="190"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="191"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="158"/>
@@ -11801,8 +11792,8 @@
       </c>
       <c r="D50" s="179"/>
       <c r="E50" s="179"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="190"/>
+      <c r="F50" s="217"/>
+      <c r="G50" s="191"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="158"/>
@@ -11811,8 +11802,8 @@
       </c>
       <c r="D51" s="179"/>
       <c r="E51" s="179"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="190"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="191"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="155"/>
@@ -11827,22 +11818,22 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="158"/>
       <c r="C53" s="174"/>
-      <c r="D53" s="219" t="s">
+      <c r="D53" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="190"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="191"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="158"/>
       <c r="C54" s="174"/>
-      <c r="D54" s="220" t="s">
+      <c r="D54" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="220"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="190"/>
+      <c r="E54" s="219"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="191"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="158"/>
@@ -11850,9 +11841,9 @@
         <v>111</v>
       </c>
       <c r="D55" s="163"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="193"/>
-      <c r="G55" s="190"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="191"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="155"/>
@@ -11866,37 +11857,37 @@
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="158"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="222" t="s">
+      <c r="C57" s="190"/>
+      <c r="D57" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E57" s="223" t="s">
+      <c r="E57" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="F57" s="189"/>
-      <c r="G57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="191"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="158"/>
       <c r="C58" s="174"/>
-      <c r="D58" s="224" t="s">
+      <c r="D58" s="223" t="s">
         <v>116</v>
       </c>
       <c r="E58" s="177" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="189"/>
-      <c r="G58" s="190"/>
+      <c r="F58" s="190"/>
+      <c r="G58" s="191"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="158"/>
       <c r="C59" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="225"/>
+      <c r="D59" s="224"/>
       <c r="E59" s="179"/>
-      <c r="F59" s="189"/>
-      <c r="G59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="191"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="155"/>
@@ -11906,21 +11897,21 @@
       <c r="D60" s="157"/>
       <c r="E60" s="157"/>
       <c r="F60" s="157"/>
-      <c r="G60" s="226"/>
+      <c r="G60" s="225"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="158"/>
       <c r="C61" s="174"/>
-      <c r="D61" s="183" t="s">
+      <c r="D61" s="184" t="s">
         <v>118</v>
       </c>
-      <c r="E61" s="183" t="s">
+      <c r="E61" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="218" t="s">
+      <c r="F61" s="217" t="s">
         <v>120</v>
       </c>
-      <c r="G61" s="183" t="s">
+      <c r="G61" s="184" t="s">
         <v>121</v>
       </c>
     </row>
@@ -11933,7 +11924,7 @@
       <c r="E62" s="177" t="s">
         <v>122</v>
       </c>
-      <c r="F62" s="224" t="s">
+      <c r="F62" s="223" t="s">
         <v>122</v>
       </c>
       <c r="G62" s="177" t="s">
@@ -11943,26 +11934,26 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="158"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="197"/>
+      <c r="D63" s="181"/>
       <c r="E63" s="179"/>
-      <c r="F63" s="225"/>
+      <c r="F63" s="224"/>
       <c r="G63" s="179"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="158"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="197"/>
+      <c r="D64" s="181"/>
       <c r="E64" s="179"/>
-      <c r="F64" s="225"/>
+      <c r="F64" s="224"/>
       <c r="G64" s="179"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="227"/>
+      <c r="B65" s="226"/>
       <c r="C65" s="172"/>
-      <c r="D65" s="228"/>
-      <c r="E65" s="228"/>
-      <c r="F65" s="227"/>
-      <c r="G65" s="228"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="227"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12484,8 +12475,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12500,14 +12491,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="229"/>
-      <c r="C2" s="230" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="232"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="231"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12547,18 +12538,18 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="233"/>
-      <c r="C3" s="234" t="s">
+      <c r="B3" s="232"/>
+      <c r="C3" s="233" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="236"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="158"/>
-      <c r="C4" s="237" t="s">
+      <c r="C4" s="236" t="s">
         <v>49</v>
       </c>
       <c r="D4" s="161"/>
@@ -12568,7 +12559,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="158"/>
-      <c r="C5" s="237"/>
+      <c r="C5" s="236"/>
       <c r="D5" s="161"/>
       <c r="E5" s="161"/>
       <c r="F5" s="161"/>
@@ -12576,7 +12567,7 @@
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="158"/>
-      <c r="C6" s="237"/>
+      <c r="C6" s="236"/>
       <c r="D6" s="160"/>
       <c r="E6" s="160"/>
       <c r="F6" s="160"/>
@@ -12588,7 +12579,7 @@
         <v>50</v>
       </c>
       <c r="D7" s="162"/>
-      <c r="E7" s="238"/>
+      <c r="E7" s="237"/>
       <c r="F7" s="174"/>
       <c r="G7" s="164"/>
     </row>
@@ -12598,303 +12589,303 @@
         <v>124</v>
       </c>
       <c r="D8" s="162"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="191"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="192"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="158"/>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="218" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="240"/>
-      <c r="E9" s="239"/>
-      <c r="F9" s="189"/>
-      <c r="G9" s="191"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="190"/>
+      <c r="G9" s="192"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="188"/>
-      <c r="C10" s="241"/>
-      <c r="D10" s="241"/>
-      <c r="E10" s="241"/>
-      <c r="F10" s="241"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="240"/>
+      <c r="D10" s="240"/>
+      <c r="E10" s="240"/>
+      <c r="F10" s="240"/>
       <c r="G10" s="173"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="233"/>
-      <c r="C11" s="234" t="s">
+      <c r="B11" s="232"/>
+      <c r="C11" s="233" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="158"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="190"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="241"/>
+      <c r="E12" s="241"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="191"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="158"/>
-      <c r="C13" s="239" t="s">
+      <c r="C13" s="238" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="184" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="184" t="s">
         <v>129</v>
       </c>
-      <c r="F13" s="184" t="s">
+      <c r="F13" s="185" t="s">
         <v>130</v>
       </c>
-      <c r="G13" s="184"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="158"/>
       <c r="C14" s="174"/>
-      <c r="D14" s="183" t="s">
+      <c r="D14" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="G14" s="184"/>
+      <c r="G14" s="185"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="188"/>
-      <c r="C15" s="243"/>
+      <c r="B15" s="189"/>
+      <c r="C15" s="242"/>
       <c r="D15" s="177" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="177" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="G15" s="186" t="s">
+      <c r="G15" s="187" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="158"/>
       <c r="C16" s="174"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
       <c r="F16" s="175"/>
-      <c r="G16" s="184"/>
+      <c r="G16" s="185"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="158"/>
-      <c r="C17" s="244" t="s">
+      <c r="C17" s="243" t="s">
         <v>33</v>
       </c>
       <c r="D17" s="179"/>
-      <c r="E17" s="180"/>
-      <c r="F17" s="245"/>
-      <c r="G17" s="246"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="245"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="158"/>
-      <c r="C18" s="244" t="s">
+      <c r="C18" s="243" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="179"/>
-      <c r="E18" s="180"/>
-      <c r="F18" s="245"/>
-      <c r="G18" s="246"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="244"/>
+      <c r="G18" s="245"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="158"/>
-      <c r="C19" s="247" t="s">
+      <c r="C19" s="246" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="179"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="246"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="244"/>
+      <c r="G19" s="245"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="158"/>
-      <c r="C20" s="247" t="s">
+      <c r="C20" s="246" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="179"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="245"/>
-      <c r="G20" s="246"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="244"/>
+      <c r="G20" s="245"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="158"/>
-      <c r="C21" s="248"/>
+      <c r="C21" s="247"/>
       <c r="D21" s="179"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="245"/>
-      <c r="G21" s="246"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="245"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="158"/>
-      <c r="C22" s="239" t="s">
+      <c r="C22" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="D22" s="249"/>
-      <c r="E22" s="250" t="s">
+      <c r="D22" s="248"/>
+      <c r="E22" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="F22" s="249"/>
-      <c r="G22" s="251"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="250"/>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="158"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="190"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="191"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="233"/>
-      <c r="C24" s="234" t="s">
+      <c r="B24" s="232"/>
+      <c r="C24" s="233" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="157"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="236"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="235"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="209"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="190"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="241"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="191"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="158"/>
       <c r="C26" s="174"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="180" t="s">
+      <c r="D26" s="192"/>
+      <c r="E26" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="180" t="s">
+      <c r="F26" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="190"/>
+      <c r="G26" s="191"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="158"/>
       <c r="C27" s="174"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="190"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="191"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="158"/>
-      <c r="C28" s="254" t="s">
+      <c r="C28" s="253" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="254"/>
+      <c r="D28" s="253"/>
       <c r="E28" s="179"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="255"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="254"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="158"/>
-      <c r="C29" s="254" t="s">
+      <c r="C29" s="253" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="254"/>
+      <c r="D29" s="253"/>
       <c r="E29" s="179"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="255"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="254"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="158"/>
-      <c r="C30" s="256" t="s">
+      <c r="C30" s="255" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="256"/>
+      <c r="D30" s="255"/>
       <c r="E30" s="179"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="255"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="254"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="158"/>
-      <c r="C31" s="256" t="s">
+      <c r="C31" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="256"/>
+      <c r="D31" s="255"/>
       <c r="E31" s="179"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="255"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="254"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="158"/>
-      <c r="C32" s="256" t="s">
+      <c r="C32" s="255" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="256"/>
+      <c r="D32" s="255"/>
       <c r="E32" s="179"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="255"/>
+      <c r="F32" s="183"/>
+      <c r="G32" s="254"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="158"/>
-      <c r="C33" s="256" t="s">
+      <c r="C33" s="255" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="256"/>
+      <c r="D33" s="255"/>
       <c r="E33" s="179"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="255"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="254"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="188"/>
-      <c r="C34" s="241"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="240"/>
       <c r="D34" s="173"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="190"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="191"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="233"/>
-      <c r="C35" s="234" t="s">
+      <c r="B35" s="232"/>
+      <c r="C35" s="233" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="235"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="158"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="242"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="241"/>
+      <c r="F36" s="241"/>
+      <c r="G36" s="241"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="158"/>
       <c r="C37" s="174"/>
       <c r="D37" s="174"/>
-      <c r="E37" s="183" t="s">
+      <c r="E37" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="F37" s="183" t="s">
+      <c r="F37" s="184" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="183" t="s">
+      <c r="G37" s="184" t="s">
         <v>146</v>
       </c>
     </row>
@@ -12902,13 +12893,13 @@
       <c r="B38" s="158"/>
       <c r="C38" s="174"/>
       <c r="D38" s="174"/>
-      <c r="E38" s="180" t="s">
+      <c r="E38" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="180" t="s">
+      <c r="F38" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="G38" s="180" t="s">
+      <c r="G38" s="183" t="s">
         <v>30</v>
       </c>
     </row>
@@ -12916,9 +12907,9 @@
       <c r="B39" s="158"/>
       <c r="C39" s="174"/>
       <c r="D39" s="174"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="158"/>
@@ -12926,9 +12917,9 @@
         <v>93</v>
       </c>
       <c r="D40" s="159"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="158"/>
@@ -12938,7 +12929,7 @@
       <c r="D41" s="159"/>
       <c r="E41" s="179"/>
       <c r="F41" s="179"/>
-      <c r="G41" s="183" t="s">
+      <c r="G41" s="184" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12950,7 +12941,7 @@
       <c r="D42" s="159"/>
       <c r="E42" s="179"/>
       <c r="F42" s="179"/>
-      <c r="G42" s="183" t="s">
+      <c r="G42" s="184" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12971,10 +12962,10 @@
       </c>
       <c r="D44" s="159"/>
       <c r="E44" s="179"/>
-      <c r="F44" s="183" t="s">
+      <c r="F44" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G44" s="183" t="s">
+      <c r="G44" s="184" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12995,78 +12986,78 @@
       </c>
       <c r="D46" s="159"/>
       <c r="E46" s="179"/>
-      <c r="F46" s="183" t="s">
+      <c r="F46" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G46" s="183" t="s">
+      <c r="G46" s="184" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="158"/>
-      <c r="C47" s="239" t="s">
+      <c r="C47" s="238" t="s">
         <v>135</v>
       </c>
-      <c r="D47" s="239"/>
-      <c r="E47" s="180"/>
-      <c r="F47" s="180"/>
-      <c r="G47" s="180"/>
+      <c r="D47" s="238"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="158"/>
-      <c r="C48" s="214" t="s">
+      <c r="C48" s="213" t="s">
         <v>152</v>
       </c>
-      <c r="D48" s="239"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="180"/>
-      <c r="G48" s="180"/>
+      <c r="D48" s="238"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="158"/>
-      <c r="C49" s="189"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="233"/>
-      <c r="C50" s="234" t="s">
+      <c r="B50" s="232"/>
+      <c r="C50" s="233" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
-      <c r="F50" s="235"/>
-      <c r="G50" s="236"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="234"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="235"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="158"/>
-      <c r="C51" s="189"/>
-      <c r="D51" s="189"/>
-      <c r="E51" s="242"/>
-      <c r="F51" s="242"/>
-      <c r="G51" s="242"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="241"/>
+      <c r="F51" s="241"/>
+      <c r="G51" s="241"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="158"/>
       <c r="C52" s="174"/>
       <c r="D52" s="174"/>
-      <c r="E52" s="180" t="s">
+      <c r="E52" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F52" s="180" t="s">
+      <c r="F52" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="G52" s="180"/>
+      <c r="G52" s="183"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="158"/>
       <c r="C53" s="174"/>
       <c r="D53" s="174"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="158"/>
@@ -13075,8 +13066,8 @@
       </c>
       <c r="D54" s="159"/>
       <c r="E54" s="179"/>
-      <c r="F54" s="180"/>
-      <c r="G54" s="180"/>
+      <c r="F54" s="183"/>
+      <c r="G54" s="183"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="158"/>
@@ -13085,8 +13076,8 @@
       </c>
       <c r="D55" s="159"/>
       <c r="E55" s="179"/>
-      <c r="F55" s="180"/>
-      <c r="G55" s="183"/>
+      <c r="F55" s="183"/>
+      <c r="G55" s="184"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="158"/>
@@ -13095,8 +13086,8 @@
       </c>
       <c r="D56" s="159"/>
       <c r="E56" s="179"/>
-      <c r="F56" s="180"/>
-      <c r="G56" s="180"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="183"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="158"/>
@@ -13105,82 +13096,82 @@
       </c>
       <c r="D57" s="159"/>
       <c r="E57" s="179"/>
-      <c r="F57" s="180"/>
-      <c r="G57" s="183"/>
+      <c r="F57" s="183"/>
+      <c r="G57" s="184"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="158"/>
       <c r="C58" s="159"/>
       <c r="D58" s="159"/>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="258"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
+      <c r="G58" s="257"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="158"/>
-      <c r="C59" s="214" t="s">
+      <c r="C59" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="D59" s="259"/>
-      <c r="E59" s="260"/>
-      <c r="F59" s="260"/>
-      <c r="G59" s="258"/>
+      <c r="D59" s="258"/>
+      <c r="E59" s="259"/>
+      <c r="F59" s="259"/>
+      <c r="G59" s="257"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="158"/>
-      <c r="C60" s="214" t="s">
+      <c r="C60" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="D60" s="259"/>
-      <c r="E60" s="260"/>
-      <c r="F60" s="260"/>
-      <c r="G60" s="261"/>
+      <c r="D60" s="258"/>
+      <c r="E60" s="259"/>
+      <c r="F60" s="259"/>
+      <c r="G60" s="260"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="158"/>
       <c r="C61" s="159"/>
-      <c r="D61" s="189"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="207"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="233"/>
-      <c r="C62" s="234" t="s">
+      <c r="B62" s="232"/>
+      <c r="C62" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="D62" s="235"/>
-      <c r="E62" s="235"/>
-      <c r="F62" s="235"/>
-      <c r="G62" s="236"/>
+      <c r="D62" s="234"/>
+      <c r="E62" s="234"/>
+      <c r="F62" s="234"/>
+      <c r="G62" s="235"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="158"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="242"/>
-      <c r="G63" s="242"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="241"/>
+      <c r="F63" s="241"/>
+      <c r="G63" s="241"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="158"/>
       <c r="C64" s="174"/>
       <c r="D64" s="174"/>
-      <c r="E64" s="180" t="s">
+      <c r="E64" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="F64" s="180" t="s">
+      <c r="F64" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="183"/>
+      <c r="G64" s="184"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="158"/>
       <c r="C65" s="174"/>
       <c r="D65" s="174"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
+      <c r="E65" s="184"/>
+      <c r="F65" s="184"/>
+      <c r="G65" s="184"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="158"/>
@@ -13189,8 +13180,8 @@
       </c>
       <c r="D66" s="159"/>
       <c r="E66" s="179"/>
-      <c r="F66" s="180"/>
-      <c r="G66" s="183"/>
+      <c r="F66" s="183"/>
+      <c r="G66" s="184"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="158"/>
@@ -13199,8 +13190,8 @@
       </c>
       <c r="D67" s="159"/>
       <c r="E67" s="179"/>
-      <c r="F67" s="180"/>
-      <c r="G67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="184"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="158"/>
@@ -13209,8 +13200,8 @@
       </c>
       <c r="D68" s="159"/>
       <c r="E68" s="179"/>
-      <c r="F68" s="180"/>
-      <c r="G68" s="183"/>
+      <c r="F68" s="183"/>
+      <c r="G68" s="184"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="158"/>
@@ -13219,8 +13210,8 @@
       </c>
       <c r="D69" s="159"/>
       <c r="E69" s="179"/>
-      <c r="F69" s="180"/>
-      <c r="G69" s="183"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="184"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="158"/>
@@ -13229,34 +13220,34 @@
       </c>
       <c r="D70" s="159"/>
       <c r="E70" s="179"/>
-      <c r="F70" s="180"/>
-      <c r="G70" s="183"/>
+      <c r="F70" s="183"/>
+      <c r="G70" s="184"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="158"/>
       <c r="C71" s="159"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="208"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="207"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="233"/>
-      <c r="C72" s="234" t="s">
+      <c r="B72" s="232"/>
+      <c r="C72" s="233" t="s">
         <v>162</v>
       </c>
-      <c r="D72" s="235"/>
-      <c r="E72" s="235"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="236"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="234"/>
+      <c r="G72" s="235"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="158"/>
-      <c r="C73" s="189"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="209"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="253"/>
+      <c r="C73" s="190"/>
+      <c r="D73" s="190"/>
+      <c r="E73" s="208"/>
+      <c r="F73" s="251"/>
+      <c r="G73" s="252"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="158"/>
@@ -13264,17 +13255,17 @@
         <v>162</v>
       </c>
       <c r="D74" s="159"/>
-      <c r="E74" s="262"/>
-      <c r="F74" s="262"/>
-      <c r="G74" s="262"/>
+      <c r="E74" s="261"/>
+      <c r="F74" s="261"/>
+      <c r="G74" s="261"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="227"/>
+      <c r="B75" s="226"/>
       <c r="C75" s="172"/>
       <c r="D75" s="172"/>
-      <c r="E75" s="227"/>
+      <c r="E75" s="226"/>
       <c r="F75" s="172"/>
-      <c r="G75" s="263"/>
+      <c r="G75" s="262"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13837,18 +13828,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="264" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
+    <row r="2" s="263" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="264"/>
+      <c r="C2" s="265" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="268"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13899,16 +13890,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="96"/>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="268" t="s">
         <v>164</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="96"/>
@@ -13948,15 +13939,15 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="96"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="270"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="271"/>
-      <c r="K7" s="103"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="269"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="96"/>
@@ -13970,32 +13961,32 @@
       <c r="J8" s="97"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="104"/>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="105"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="105"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="105"/>
-      <c r="J9" s="106"/>
-    </row>
-    <row r="10" s="264" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="272"/>
-      <c r="C10" s="273" t="s">
+      <c r="B9" s="105"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+    </row>
+    <row r="10" s="263" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="271"/>
+      <c r="C10" s="272" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="274"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="278" t="s">
+      <c r="D10" s="273"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="277" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="278" t="s">
+      <c r="I10" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="278"/>
+      <c r="J10" s="277"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -14048,144 +14039,144 @@
       <c r="B11" s="96"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="279"/>
+      <c r="E11" s="278"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="115"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="116"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="96"/>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="D12" s="98"/>
-      <c r="E12" s="280"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="74"/>
-      <c r="G12" s="281"/>
+      <c r="G12" s="280"/>
       <c r="H12" s="179"/>
-      <c r="I12" s="282"/>
-      <c r="J12" s="283"/>
+      <c r="I12" s="281"/>
+      <c r="J12" s="282"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="96"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="280"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="279"/>
       <c r="F13" s="74"/>
-      <c r="G13" s="281"/>
+      <c r="G13" s="280"/>
       <c r="H13" s="179"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="283"/>
+      <c r="I13" s="281"/>
+      <c r="J13" s="282"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="96"/>
-      <c r="C14" s="98" t="s">
+      <c r="C14" s="99" t="s">
         <v>168</v>
       </c>
-      <c r="D14" s="98"/>
-      <c r="E14" s="280"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="74"/>
-      <c r="G14" s="281"/>
+      <c r="G14" s="280"/>
       <c r="H14" s="179"/>
-      <c r="I14" s="282"/>
-      <c r="J14" s="283"/>
+      <c r="I14" s="281"/>
+      <c r="J14" s="282"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="96"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="280"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="74"/>
-      <c r="G15" s="281"/>
+      <c r="G15" s="280"/>
       <c r="H15" s="179"/>
-      <c r="I15" s="282"/>
-      <c r="J15" s="283"/>
+      <c r="I15" s="281"/>
+      <c r="J15" s="282"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="96"/>
-      <c r="C16" s="284" t="s">
+      <c r="C16" s="283" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="98"/>
-      <c r="E16" s="280"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="279"/>
       <c r="F16" s="74"/>
-      <c r="G16" s="281"/>
+      <c r="G16" s="280"/>
       <c r="H16" s="179"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="283"/>
+      <c r="I16" s="281"/>
+      <c r="J16" s="282"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="96"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="283" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="98"/>
-      <c r="E17" s="280"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="279"/>
       <c r="F17" s="74"/>
-      <c r="G17" s="281"/>
+      <c r="G17" s="280"/>
       <c r="H17" s="179"/>
-      <c r="I17" s="282"/>
-      <c r="J17" s="283"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="282"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="96"/>
-      <c r="C18" s="284"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="280"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="279"/>
       <c r="F18" s="74"/>
-      <c r="G18" s="280"/>
+      <c r="G18" s="279"/>
       <c r="H18" s="179"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="283"/>
+      <c r="I18" s="281"/>
+      <c r="J18" s="282"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="96"/>
-      <c r="C19" s="98" t="s">
+      <c r="C19" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
       <c r="H19" s="179"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="283"/>
+      <c r="I19" s="281"/>
+      <c r="J19" s="282"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="104"/>
-      <c r="C20" s="285"/>
-      <c r="D20" s="285"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="287"/>
-    </row>
-    <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="272"/>
-      <c r="C21" s="273" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="286"/>
+    </row>
+    <row r="21" s="263" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="271"/>
+      <c r="C21" s="272" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="273"/>
-      <c r="E21" s="288" t="s">
+      <c r="D21" s="272"/>
+      <c r="E21" s="287" t="s">
         <v>172</v>
       </c>
-      <c r="F21" s="289" t="s">
+      <c r="F21" s="288" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="288" t="s">
+      <c r="G21" s="287" t="s">
         <v>174</v>
       </c>
-      <c r="H21" s="289" t="s">
+      <c r="H21" s="288" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="289" t="s">
+      <c r="I21" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="289"/>
+      <c r="J21" s="288"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14236,211 +14227,211 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="90"/>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="293"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="295"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="294"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="96"/>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="99" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="98"/>
+      <c r="D23" s="99"/>
       <c r="E23" s="179"/>
-      <c r="F23" s="296" t="s">
+      <c r="F23" s="295" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="120" t="n">
+      <c r="G23" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="297"/>
-      <c r="I23" s="282"/>
-      <c r="J23" s="283"/>
+      <c r="H23" s="296"/>
+      <c r="I23" s="281"/>
+      <c r="J23" s="282"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="96"/>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="D24" s="98"/>
+      <c r="D24" s="99"/>
       <c r="E24" s="179"/>
-      <c r="F24" s="296" t="s">
+      <c r="F24" s="295" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="120" t="n">
+      <c r="G24" s="121" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="297"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="283"/>
+      <c r="H24" s="296"/>
+      <c r="I24" s="281"/>
+      <c r="J24" s="282"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="96"/>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="D25" s="98"/>
+      <c r="D25" s="99"/>
       <c r="E25" s="179"/>
-      <c r="F25" s="296" t="s">
+      <c r="F25" s="295" t="s">
         <v>178</v>
       </c>
-      <c r="G25" s="120" t="n">
+      <c r="G25" s="121" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="297"/>
-      <c r="I25" s="282"/>
-      <c r="J25" s="283"/>
+      <c r="H25" s="296"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="96"/>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="99" t="s">
         <v>180</v>
       </c>
-      <c r="D26" s="98"/>
+      <c r="D26" s="99"/>
       <c r="E26" s="179"/>
-      <c r="F26" s="296" t="s">
+      <c r="F26" s="295" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="120" t="n">
+      <c r="G26" s="121" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="297"/>
-      <c r="I26" s="282"/>
-      <c r="J26" s="283"/>
+      <c r="H26" s="296"/>
+      <c r="I26" s="281"/>
+      <c r="J26" s="282"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="96"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
+      <c r="C27" s="297"/>
+      <c r="D27" s="297"/>
       <c r="E27" s="179"/>
-      <c r="F27" s="299"/>
+      <c r="F27" s="298"/>
       <c r="G27" s="179"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="283"/>
+      <c r="H27" s="296"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="282"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="96"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="298"/>
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
       <c r="E28" s="179"/>
-      <c r="F28" s="299"/>
+      <c r="F28" s="298"/>
       <c r="G28" s="179"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="282"/>
-      <c r="J28" s="283"/>
+      <c r="H28" s="296"/>
+      <c r="I28" s="281"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="96"/>
-      <c r="C29" s="300" t="s">
+      <c r="C29" s="299" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="300"/>
+      <c r="D29" s="299"/>
       <c r="E29" s="179"/>
-      <c r="F29" s="299"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="179"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="283"/>
+      <c r="H29" s="296"/>
+      <c r="I29" s="281"/>
+      <c r="J29" s="282"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="96"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="300"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="299"/>
       <c r="E30" s="179"/>
-      <c r="F30" s="299"/>
+      <c r="F30" s="298"/>
       <c r="G30" s="179"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="283"/>
+      <c r="H30" s="296"/>
+      <c r="I30" s="281"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="96"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="300"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
       <c r="E31" s="179"/>
-      <c r="F31" s="299"/>
+      <c r="F31" s="298"/>
       <c r="G31" s="179"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="282"/>
-      <c r="J31" s="283"/>
+      <c r="H31" s="296"/>
+      <c r="I31" s="281"/>
+      <c r="J31" s="282"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="96"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="300"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="299"/>
       <c r="E32" s="179"/>
-      <c r="F32" s="299"/>
+      <c r="F32" s="298"/>
       <c r="G32" s="179"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="283"/>
+      <c r="H32" s="296"/>
+      <c r="I32" s="281"/>
+      <c r="J32" s="282"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="96"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
+      <c r="C33" s="297"/>
+      <c r="D33" s="297"/>
       <c r="E33" s="179"/>
-      <c r="F33" s="299"/>
+      <c r="F33" s="298"/>
       <c r="G33" s="179"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="283"/>
+      <c r="H33" s="296"/>
+      <c r="I33" s="281"/>
+      <c r="J33" s="282"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="104"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="301"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="302"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="287"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="300"/>
+      <c r="D34" s="300"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="301"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="286"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="96"/>
-      <c r="C35" s="273" t="s">
+      <c r="C35" s="272" t="s">
         <v>183</v>
       </c>
-      <c r="D35" s="273"/>
-      <c r="E35" s="280"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="279"/>
       <c r="F35" s="74"/>
-      <c r="G35" s="280"/>
-      <c r="H35" s="304"/>
-      <c r="I35" s="305"/>
-      <c r="J35" s="283"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="303"/>
+      <c r="I35" s="304"/>
+      <c r="J35" s="282"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="96"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="280"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="279"/>
       <c r="F36" s="74"/>
-      <c r="G36" s="280"/>
-      <c r="H36" s="110" t="s">
+      <c r="G36" s="279"/>
+      <c r="H36" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="110" t="s">
+      <c r="I36" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="J36" s="110"/>
+      <c r="J36" s="111"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="90"/>
-      <c r="C37" s="306"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="307"/>
-      <c r="F37" s="308"/>
-      <c r="G37" s="308"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="310"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="305"/>
+      <c r="E37" s="306"/>
+      <c r="F37" s="307"/>
+      <c r="G37" s="307"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="308"/>
+      <c r="J37" s="309"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="96"/>
@@ -14448,23 +14439,23 @@
         <v>184</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="311"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="312"/>
+      <c r="E38" s="310"/>
+      <c r="F38" s="311"/>
+      <c r="G38" s="311"/>
       <c r="H38" s="179"/>
-      <c r="I38" s="305"/>
-      <c r="J38" s="283"/>
+      <c r="I38" s="304"/>
+      <c r="J38" s="282"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="96"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="311"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
+      <c r="E39" s="310"/>
+      <c r="F39" s="311"/>
+      <c r="G39" s="311"/>
       <c r="H39" s="179"/>
-      <c r="I39" s="305"/>
-      <c r="J39" s="283"/>
+      <c r="I39" s="304"/>
+      <c r="J39" s="282"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="96"/>
@@ -14472,23 +14463,23 @@
         <v>185</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="311"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
+      <c r="E40" s="310"/>
+      <c r="F40" s="311"/>
+      <c r="G40" s="311"/>
       <c r="H40" s="179"/>
-      <c r="I40" s="305"/>
-      <c r="J40" s="283"/>
+      <c r="I40" s="304"/>
+      <c r="J40" s="282"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="96"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="311"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
+      <c r="E41" s="310"/>
+      <c r="F41" s="311"/>
+      <c r="G41" s="311"/>
       <c r="H41" s="179"/>
-      <c r="I41" s="305"/>
-      <c r="J41" s="283"/>
+      <c r="I41" s="304"/>
+      <c r="J41" s="282"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="96"/>
@@ -14496,23 +14487,23 @@
         <v>186</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="311"/>
-      <c r="F42" s="312"/>
-      <c r="G42" s="312"/>
+      <c r="E42" s="310"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="311"/>
       <c r="H42" s="179"/>
-      <c r="I42" s="305"/>
-      <c r="J42" s="283"/>
+      <c r="I42" s="304"/>
+      <c r="J42" s="282"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="96"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="311"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="311"/>
+      <c r="G43" s="311"/>
       <c r="H43" s="179"/>
-      <c r="I43" s="305"/>
-      <c r="J43" s="283"/>
+      <c r="I43" s="304"/>
+      <c r="J43" s="282"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="96"/>
@@ -14520,23 +14511,23 @@
         <v>146</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="311"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
+      <c r="E44" s="310"/>
+      <c r="F44" s="311"/>
+      <c r="G44" s="311"/>
       <c r="H44" s="179"/>
-      <c r="I44" s="305"/>
-      <c r="J44" s="283"/>
+      <c r="I44" s="304"/>
+      <c r="J44" s="282"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="96"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="311"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
+      <c r="E45" s="310"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="311"/>
       <c r="H45" s="179"/>
-      <c r="I45" s="305"/>
-      <c r="J45" s="283"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="282"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="96"/>
@@ -14547,89 +14538,89 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="313"/>
-      <c r="J46" s="314"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="312"/>
+      <c r="J46" s="313"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="104"/>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="316"/>
-      <c r="G47" s="316"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="316"/>
-      <c r="J47" s="143"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="314"/>
+      <c r="D47" s="314"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="315"/>
+      <c r="G47" s="315"/>
+      <c r="H47" s="316"/>
+      <c r="I47" s="315"/>
+      <c r="J47" s="144"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="90"/>
-      <c r="C48" s="318" t="s">
+      <c r="C48" s="317" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="318"/>
-      <c r="E48" s="318"/>
-      <c r="F48" s="318"/>
-      <c r="G48" s="318"/>
-      <c r="H48" s="318"/>
-      <c r="I48" s="318"/>
-      <c r="J48" s="318"/>
+      <c r="D48" s="317"/>
+      <c r="E48" s="317"/>
+      <c r="F48" s="317"/>
+      <c r="G48" s="317"/>
+      <c r="H48" s="317"/>
+      <c r="I48" s="317"/>
+      <c r="J48" s="317"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="96"/>
-      <c r="C49" s="318"/>
-      <c r="D49" s="318"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
+      <c r="C49" s="317"/>
+      <c r="D49" s="317"/>
+      <c r="E49" s="317"/>
+      <c r="F49" s="317"/>
+      <c r="G49" s="317"/>
+      <c r="H49" s="317"/>
+      <c r="I49" s="317"/>
+      <c r="J49" s="317"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="96"/>
-      <c r="C50" s="318"/>
-      <c r="D50" s="318"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="318"/>
-      <c r="G50" s="318"/>
-      <c r="H50" s="318"/>
-      <c r="I50" s="318"/>
-      <c r="J50" s="318"/>
+      <c r="C50" s="317"/>
+      <c r="D50" s="317"/>
+      <c r="E50" s="317"/>
+      <c r="F50" s="317"/>
+      <c r="G50" s="317"/>
+      <c r="H50" s="317"/>
+      <c r="I50" s="317"/>
+      <c r="J50" s="317"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="96"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="318"/>
-      <c r="E51" s="318"/>
-      <c r="F51" s="318"/>
-      <c r="G51" s="318"/>
-      <c r="H51" s="318"/>
-      <c r="I51" s="318"/>
-      <c r="J51" s="318"/>
+      <c r="C51" s="317"/>
+      <c r="D51" s="317"/>
+      <c r="E51" s="317"/>
+      <c r="F51" s="317"/>
+      <c r="G51" s="317"/>
+      <c r="H51" s="317"/>
+      <c r="I51" s="317"/>
+      <c r="J51" s="317"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="96"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="317"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="317"/>
+      <c r="G52" s="317"/>
+      <c r="H52" s="317"/>
+      <c r="I52" s="317"/>
+      <c r="J52" s="317"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="141"/>
-      <c r="C53" s="318"/>
-      <c r="D53" s="318"/>
-      <c r="E53" s="318"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="318"/>
-      <c r="I53" s="318"/>
-      <c r="J53" s="318"/>
-      <c r="K53" s="118"/>
+      <c r="B53" s="142"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="317"/>
+      <c r="F53" s="317"/>
+      <c r="G53" s="317"/>
+      <c r="H53" s="317"/>
+      <c r="I53" s="317"/>
+      <c r="J53" s="317"/>
+      <c r="K53" s="119"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15211,14 +15202,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="319" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="320" t="s">
+    <row r="2" s="318" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="319" t="s">
         <v>188</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
+      <c r="C2" s="319"/>
+      <c r="D2" s="319"/>
+      <c r="E2" s="319"/>
+      <c r="F2" s="319"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15251,446 +15242,446 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="320" t="s">
         <v>189</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="320"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="321" t="s">
         <v>190</v>
       </c>
       <c r="C4" s="93"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="324"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="323"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="325" t="s">
+      <c r="B11" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="325"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="325"/>
+      <c r="C11" s="324"/>
+      <c r="D11" s="324"/>
+      <c r="E11" s="324"/>
+      <c r="F11" s="324"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
+      <c r="C12" s="326"/>
+      <c r="D12" s="326"/>
+      <c r="E12" s="326"/>
+      <c r="F12" s="326"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="327"/>
-      <c r="D13" s="327"/>
-      <c r="E13" s="327"/>
-      <c r="F13" s="327"/>
+      <c r="C13" s="326"/>
+      <c r="D13" s="326"/>
+      <c r="E13" s="326"/>
+      <c r="F13" s="326"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="326" t="n">
+      <c r="B14" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="327"/>
-      <c r="D14" s="327"/>
-      <c r="E14" s="327"/>
-      <c r="F14" s="327"/>
+      <c r="C14" s="326"/>
+      <c r="D14" s="326"/>
+      <c r="E14" s="326"/>
+      <c r="F14" s="326"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="328"/>
-      <c r="C15" s="329" t="s">
+      <c r="B15" s="327"/>
+      <c r="C15" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="329" t="s">
+      <c r="D15" s="328" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="329" t="s">
+      <c r="E15" s="328" t="s">
         <v>194</v>
       </c>
-      <c r="F15" s="330" t="s">
+      <c r="F15" s="329" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="331"/>
-      <c r="C16" s="110" t="s">
+      <c r="B16" s="330"/>
+      <c r="C16" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="F16" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="326" t="n">
+      <c r="B18" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
+      <c r="C18" s="331"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="331"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="326" t="n">
+      <c r="B19" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
+      <c r="C19" s="331"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="332" t="s">
         <v>196</v>
       </c>
       <c r="C20" s="93"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="334"/>
+      <c r="D20" s="322"/>
+      <c r="E20" s="322"/>
+      <c r="F20" s="333"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="298"/>
+      <c r="C21" s="298"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="302"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="325" t="s">
+      <c r="B27" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="327"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="327"/>
+      <c r="C28" s="326"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
+      <c r="C29" s="326"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="326" t="n">
+      <c r="B30" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="327"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="327"/>
+      <c r="C30" s="326"/>
+      <c r="D30" s="326"/>
+      <c r="E30" s="326"/>
+      <c r="F30" s="326"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="329" t="s">
+      <c r="B31" s="334"/>
+      <c r="C31" s="328" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="329" t="s">
+      <c r="D31" s="328" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="328" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="330" t="s">
+      <c r="F31" s="329" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="335"/>
-      <c r="C32" s="110" t="s">
+      <c r="B32" s="334"/>
+      <c r="C32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="110" t="s">
+      <c r="E32" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="110" t="s">
+      <c r="F32" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="331"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="331"/>
+      <c r="F33" s="331"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="331"/>
+      <c r="D34" s="331"/>
+      <c r="E34" s="331"/>
+      <c r="F34" s="331"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="326" t="n">
+      <c r="B35" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
+      <c r="F35" s="331"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="333" t="s">
+      <c r="B36" s="332" t="s">
         <v>199</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="335"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="334"/>
+      <c r="F36" s="333"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="298"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="298"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="302"/>
-      <c r="C42" s="302"/>
-      <c r="D42" s="302"/>
-      <c r="E42" s="302"/>
-      <c r="F42" s="302"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="325" t="s">
+      <c r="B43" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="325"/>
-      <c r="D43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="F43" s="325"/>
+      <c r="C43" s="324"/>
+      <c r="D43" s="324"/>
+      <c r="E43" s="324"/>
+      <c r="F43" s="324"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="326" t="n">
+      <c r="B44" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="327"/>
-      <c r="D44" s="327"/>
-      <c r="E44" s="327"/>
-      <c r="F44" s="327"/>
+      <c r="C44" s="326"/>
+      <c r="D44" s="326"/>
+      <c r="E44" s="326"/>
+      <c r="F44" s="326"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="326" t="n">
+      <c r="B45" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="327"/>
-      <c r="D45" s="327"/>
-      <c r="E45" s="327"/>
-      <c r="F45" s="327"/>
+      <c r="C45" s="326"/>
+      <c r="D45" s="326"/>
+      <c r="E45" s="326"/>
+      <c r="F45" s="326"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="326" t="n">
+      <c r="B46" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="327"/>
-      <c r="D46" s="327"/>
-      <c r="E46" s="327"/>
-      <c r="F46" s="327"/>
+      <c r="C46" s="326"/>
+      <c r="D46" s="326"/>
+      <c r="E46" s="326"/>
+      <c r="F46" s="326"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="335"/>
-      <c r="C47" s="329" t="s">
+      <c r="B47" s="334"/>
+      <c r="C47" s="328" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="329" t="s">
+      <c r="D47" s="328" t="s">
         <v>197</v>
       </c>
-      <c r="E47" s="329" t="s">
+      <c r="E47" s="328" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="330" t="s">
+      <c r="F47" s="329" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="335"/>
-      <c r="C48" s="110" t="s">
+      <c r="B48" s="334"/>
+      <c r="C48" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="110" t="s">
+      <c r="D48" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E48" s="110" t="s">
+      <c r="E48" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F48" s="110" t="s">
+      <c r="F48" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="326" t="n">
+      <c r="B49" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
+      <c r="C49" s="331"/>
+      <c r="D49" s="331"/>
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="326" t="n">
+      <c r="B50" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
+      <c r="C50" s="331"/>
+      <c r="D50" s="331"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="331"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="326" t="n">
+      <c r="B51" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15910,466 +15901,466 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="321" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="93"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="324"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="323"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="302"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="336" t="s">
         <v>191</v>
       </c>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="336"/>
+      <c r="D10" s="336"/>
+      <c r="E10" s="336"/>
+      <c r="F10" s="336"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="326" t="n">
+      <c r="B11" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
+      <c r="C11" s="337"/>
+      <c r="D11" s="337"/>
+      <c r="E11" s="337"/>
+      <c r="F11" s="337"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="338"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="338"/>
-      <c r="F12" s="338"/>
+      <c r="C12" s="337"/>
+      <c r="D12" s="337"/>
+      <c r="E12" s="337"/>
+      <c r="F12" s="337"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
+      <c r="C13" s="337"/>
+      <c r="D13" s="337"/>
+      <c r="E13" s="337"/>
+      <c r="F13" s="337"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="335"/>
-      <c r="C14" s="329" t="s">
+      <c r="B14" s="334"/>
+      <c r="C14" s="328" t="s">
         <v>200</v>
       </c>
-      <c r="D14" s="329" t="s">
+      <c r="D14" s="328" t="s">
         <v>197</v>
       </c>
-      <c r="E14" s="329" t="s">
+      <c r="E14" s="328" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="330" t="s">
+      <c r="F14" s="329" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="335"/>
-      <c r="C15" s="110" t="s">
+      <c r="B15" s="334"/>
+      <c r="C15" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="326" t="n">
+      <c r="B16" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
+      <c r="C16" s="331"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="331"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
     </row>
     <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="333" t="s">
+      <c r="B18" s="332" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="336"/>
+      <c r="C18" s="335"/>
       <c r="D18" s="13"/>
       <c r="E18" s="13"/>
-      <c r="F18" s="334"/>
+      <c r="F18" s="333"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="298"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="298"/>
+      <c r="C21" s="298"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
     </row>
     <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="337" t="s">
+      <c r="B26" s="336" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="337"/>
-      <c r="D26" s="337"/>
-      <c r="E26" s="337"/>
-      <c r="F26" s="337"/>
+      <c r="C26" s="336"/>
+      <c r="D26" s="336"/>
+      <c r="E26" s="336"/>
+      <c r="F26" s="336"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="326" t="n">
+      <c r="B27" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C27" s="338"/>
-      <c r="D27" s="338"/>
-      <c r="E27" s="338"/>
-      <c r="F27" s="338"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="337"/>
+      <c r="E27" s="337"/>
+      <c r="F27" s="337"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C28" s="338"/>
-      <c r="D28" s="338"/>
-      <c r="E28" s="338"/>
-      <c r="F28" s="338"/>
+      <c r="C28" s="337"/>
+      <c r="D28" s="337"/>
+      <c r="E28" s="337"/>
+      <c r="F28" s="337"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="338"/>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
+      <c r="C29" s="337"/>
+      <c r="D29" s="337"/>
+      <c r="E29" s="337"/>
+      <c r="F29" s="337"/>
     </row>
     <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="335"/>
-      <c r="C30" s="329" t="s">
+      <c r="B30" s="334"/>
+      <c r="C30" s="328" t="s">
         <v>200</v>
       </c>
-      <c r="D30" s="329" t="s">
+      <c r="D30" s="328" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="329" t="s">
+      <c r="E30" s="328" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="330" t="s">
+      <c r="F30" s="329" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="110" t="s">
+      <c r="B31" s="334"/>
+      <c r="C31" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="110" t="s">
+      <c r="E31" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="111" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="326" t="n">
+      <c r="B32" s="325" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
+      <c r="C32" s="331"/>
+      <c r="D32" s="331"/>
+      <c r="E32" s="331"/>
+      <c r="F32" s="331"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="325" t="n">
         <v>2</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="331"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="331"/>
+      <c r="F33" s="331"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="325" t="n">
         <v>3</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="331"/>
+      <c r="D34" s="331"/>
+      <c r="E34" s="331"/>
+      <c r="F34" s="331"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="339" t="s">
+      <c r="B35" s="338" t="s">
         <v>203</v>
       </c>
-      <c r="C35" s="339"/>
-      <c r="D35" s="339"/>
-      <c r="E35" s="339"/>
-      <c r="F35" s="339"/>
+      <c r="C35" s="338"/>
+      <c r="D35" s="338"/>
+      <c r="E35" s="338"/>
+      <c r="F35" s="338"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
+      <c r="B36" s="298"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
+      <c r="E36" s="298"/>
+      <c r="F36" s="298"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="298"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="298"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="340"/>
-      <c r="C42" s="340"/>
-      <c r="D42" s="340"/>
-      <c r="E42" s="340"/>
-      <c r="F42" s="340"/>
+      <c r="B42" s="339"/>
+      <c r="C42" s="339"/>
+      <c r="D42" s="339"/>
+      <c r="E42" s="339"/>
+      <c r="F42" s="339"/>
     </row>
     <row r="43" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
+      <c r="B43" s="298"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
+      <c r="B44" s="298"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="298"/>
+      <c r="E44" s="298"/>
+      <c r="F44" s="298"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
+      <c r="B45" s="298"/>
+      <c r="C45" s="298"/>
+      <c r="D45" s="298"/>
+      <c r="E45" s="298"/>
+      <c r="F45" s="298"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
+      <c r="B46" s="298"/>
+      <c r="C46" s="298"/>
+      <c r="D46" s="298"/>
+      <c r="E46" s="298"/>
+      <c r="F46" s="298"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
+      <c r="B47" s="298"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
+      <c r="E47" s="298"/>
+      <c r="F47" s="298"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
+      <c r="B48" s="298"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
+      <c r="E48" s="298"/>
+      <c r="F48" s="298"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
+      <c r="B49" s="298"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="298"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="298"/>
     </row>
     <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="322" t="s">
+      <c r="B51" s="321" t="s">
         <v>204</v>
       </c>
       <c r="C51" s="93"/>
-      <c r="D51" s="323"/>
-      <c r="E51" s="323"/>
-      <c r="F51" s="324"/>
+      <c r="D51" s="322"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="323"/>
     </row>
     <row r="52" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="147"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="4"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="151"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="296" t="s">
+      <c r="B53" s="295" t="s">
         <v>205</v>
       </c>
-      <c r="C53" s="296"/>
-      <c r="D53" s="296"/>
-      <c r="E53" s="296"/>
-      <c r="F53" s="296"/>
+      <c r="C53" s="295"/>
+      <c r="D53" s="295"/>
+      <c r="E53" s="295"/>
+      <c r="F53" s="295"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
+      <c r="B54" s="298"/>
+      <c r="C54" s="298"/>
+      <c r="D54" s="298"/>
+      <c r="E54" s="298"/>
+      <c r="F54" s="298"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
+      <c r="B55" s="298"/>
+      <c r="C55" s="298"/>
+      <c r="D55" s="298"/>
+      <c r="E55" s="298"/>
+      <c r="F55" s="298"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
+      <c r="B56" s="298"/>
+      <c r="C56" s="298"/>
+      <c r="D56" s="298"/>
+      <c r="E56" s="298"/>
+      <c r="F56" s="298"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="141"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="341"/>
+      <c r="B57" s="142"/>
+      <c r="C57" s="143"/>
+      <c r="D57" s="143"/>
+      <c r="E57" s="143"/>
+      <c r="F57" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16538,548 +16529,548 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
+      <c r="B4" s="298"/>
+      <c r="C4" s="298"/>
+      <c r="D4" s="298"/>
+      <c r="E4" s="298"/>
+      <c r="F4" s="298"/>
+      <c r="G4" s="298"/>
+      <c r="H4" s="298"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
+      <c r="B5" s="298"/>
+      <c r="C5" s="298"/>
+      <c r="D5" s="298"/>
+      <c r="E5" s="298"/>
+      <c r="F5" s="298"/>
+      <c r="G5" s="298"/>
+      <c r="H5" s="298"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
+      <c r="B6" s="298"/>
+      <c r="C6" s="298"/>
+      <c r="D6" s="298"/>
+      <c r="E6" s="298"/>
+      <c r="F6" s="298"/>
+      <c r="G6" s="298"/>
+      <c r="H6" s="298"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
+      <c r="B7" s="298"/>
+      <c r="C7" s="298"/>
+      <c r="D7" s="298"/>
+      <c r="E7" s="298"/>
+      <c r="F7" s="298"/>
+      <c r="G7" s="298"/>
+      <c r="H7" s="298"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
+      <c r="B8" s="298"/>
+      <c r="C8" s="298"/>
+      <c r="D8" s="298"/>
+      <c r="E8" s="298"/>
+      <c r="F8" s="298"/>
+      <c r="G8" s="298"/>
+      <c r="H8" s="298"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
+      <c r="B9" s="298"/>
+      <c r="C9" s="298"/>
+      <c r="D9" s="298"/>
+      <c r="E9" s="298"/>
+      <c r="F9" s="298"/>
+      <c r="G9" s="298"/>
+      <c r="H9" s="298"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="298"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
+      <c r="B11" s="298"/>
+      <c r="C11" s="298"/>
+      <c r="D11" s="298"/>
+      <c r="E11" s="298"/>
+      <c r="F11" s="298"/>
+      <c r="G11" s="298"/>
+      <c r="H11" s="298"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
+      <c r="B12" s="298"/>
+      <c r="C12" s="298"/>
+      <c r="D12" s="298"/>
+      <c r="E12" s="298"/>
+      <c r="F12" s="298"/>
+      <c r="G12" s="298"/>
+      <c r="H12" s="298"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="298"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="299"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
+      <c r="B14" s="298"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="298"/>
+      <c r="H14" s="298"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="299"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="298"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="298"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
+      <c r="B17" s="298"/>
+      <c r="C17" s="298"/>
+      <c r="D17" s="298"/>
+      <c r="E17" s="298"/>
+      <c r="F17" s="298"/>
+      <c r="G17" s="298"/>
+      <c r="H17" s="298"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
+      <c r="B18" s="298"/>
+      <c r="C18" s="298"/>
+      <c r="D18" s="298"/>
+      <c r="E18" s="298"/>
+      <c r="F18" s="298"/>
+      <c r="G18" s="298"/>
+      <c r="H18" s="298"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="298"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
+      <c r="B20" s="298"/>
+      <c r="C20" s="298"/>
+      <c r="D20" s="298"/>
+      <c r="E20" s="298"/>
+      <c r="F20" s="298"/>
+      <c r="G20" s="298"/>
+      <c r="H20" s="298"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
+      <c r="B21" s="298"/>
+      <c r="C21" s="298"/>
+      <c r="D21" s="298"/>
+      <c r="E21" s="298"/>
+      <c r="F21" s="298"/>
+      <c r="G21" s="298"/>
+      <c r="H21" s="298"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
+      <c r="B22" s="298"/>
+      <c r="C22" s="298"/>
+      <c r="D22" s="298"/>
+      <c r="E22" s="298"/>
+      <c r="F22" s="298"/>
+      <c r="G22" s="298"/>
+      <c r="H22" s="298"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
+      <c r="B23" s="298"/>
+      <c r="C23" s="298"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="298"/>
+      <c r="G23" s="298"/>
+      <c r="H23" s="298"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
+      <c r="B24" s="298"/>
+      <c r="C24" s="298"/>
+      <c r="D24" s="298"/>
+      <c r="E24" s="298"/>
+      <c r="F24" s="298"/>
+      <c r="G24" s="298"/>
+      <c r="H24" s="298"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
+      <c r="B25" s="298"/>
+      <c r="C25" s="298"/>
+      <c r="D25" s="298"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
+      <c r="H25" s="298"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
+      <c r="B26" s="298"/>
+      <c r="C26" s="298"/>
+      <c r="D26" s="298"/>
+      <c r="E26" s="298"/>
+      <c r="F26" s="298"/>
+      <c r="G26" s="298"/>
+      <c r="H26" s="298"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
+      <c r="B27" s="298"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="298"/>
+      <c r="F27" s="298"/>
+      <c r="G27" s="298"/>
+      <c r="H27" s="298"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
+      <c r="B28" s="298"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="298"/>
+      <c r="F28" s="298"/>
+      <c r="G28" s="298"/>
+      <c r="H28" s="298"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
+      <c r="B29" s="298"/>
+      <c r="C29" s="298"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
+      <c r="G29" s="298"/>
+      <c r="H29" s="298"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
+      <c r="B30" s="298"/>
+      <c r="C30" s="298"/>
+      <c r="D30" s="298"/>
+      <c r="E30" s="298"/>
+      <c r="F30" s="298"/>
+      <c r="G30" s="298"/>
+      <c r="H30" s="298"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
+      <c r="B31" s="298"/>
+      <c r="C31" s="298"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
+      <c r="B32" s="298"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="298"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
+      <c r="B33" s="298"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="298"/>
+      <c r="F33" s="298"/>
+      <c r="G33" s="298"/>
+      <c r="H33" s="298"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
+      <c r="B34" s="298"/>
+      <c r="C34" s="298"/>
+      <c r="D34" s="298"/>
+      <c r="E34" s="298"/>
+      <c r="F34" s="298"/>
+      <c r="G34" s="298"/>
+      <c r="H34" s="298"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
+      <c r="B35" s="298"/>
+      <c r="C35" s="298"/>
+      <c r="D35" s="298"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="298"/>
+      <c r="H35" s="298"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
+      <c r="B36" s="298"/>
+      <c r="C36" s="298"/>
+      <c r="D36" s="298"/>
+      <c r="E36" s="298"/>
+      <c r="F36" s="298"/>
+      <c r="G36" s="298"/>
+      <c r="H36" s="298"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
+      <c r="B37" s="298"/>
+      <c r="C37" s="298"/>
+      <c r="D37" s="298"/>
+      <c r="E37" s="298"/>
+      <c r="F37" s="298"/>
+      <c r="G37" s="298"/>
+      <c r="H37" s="298"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
+      <c r="B38" s="298"/>
+      <c r="C38" s="298"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="298"/>
+      <c r="F38" s="298"/>
+      <c r="G38" s="298"/>
+      <c r="H38" s="298"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
+      <c r="B39" s="298"/>
+      <c r="C39" s="298"/>
+      <c r="D39" s="298"/>
+      <c r="E39" s="298"/>
+      <c r="F39" s="298"/>
+      <c r="G39" s="298"/>
+      <c r="H39" s="298"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
+      <c r="B40" s="298"/>
+      <c r="C40" s="298"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="298"/>
+      <c r="G40" s="298"/>
+      <c r="H40" s="298"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
+      <c r="B41" s="298"/>
+      <c r="C41" s="298"/>
+      <c r="D41" s="298"/>
+      <c r="E41" s="298"/>
+      <c r="F41" s="298"/>
+      <c r="G41" s="298"/>
+      <c r="H41" s="298"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
+      <c r="B42" s="298"/>
+      <c r="C42" s="298"/>
+      <c r="D42" s="298"/>
+      <c r="E42" s="298"/>
+      <c r="F42" s="298"/>
+      <c r="G42" s="298"/>
+      <c r="H42" s="298"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
-      <c r="G43" s="299"/>
-      <c r="H43" s="299"/>
+      <c r="B43" s="298"/>
+      <c r="C43" s="298"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="298"/>
+      <c r="G43" s="298"/>
+      <c r="H43" s="298"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
-      <c r="G44" s="299"/>
-      <c r="H44" s="299"/>
+      <c r="B44" s="298"/>
+      <c r="C44" s="298"/>
+      <c r="D44" s="298"/>
+      <c r="E44" s="298"/>
+      <c r="F44" s="298"/>
+      <c r="G44" s="298"/>
+      <c r="H44" s="298"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
-      <c r="G45" s="299"/>
-      <c r="H45" s="299"/>
+      <c r="B45" s="298"/>
+      <c r="C45" s="298"/>
+      <c r="D45" s="298"/>
+      <c r="E45" s="298"/>
+      <c r="F45" s="298"/>
+      <c r="G45" s="298"/>
+      <c r="H45" s="298"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
-      <c r="G46" s="299"/>
-      <c r="H46" s="299"/>
+      <c r="B46" s="298"/>
+      <c r="C46" s="298"/>
+      <c r="D46" s="298"/>
+      <c r="E46" s="298"/>
+      <c r="F46" s="298"/>
+      <c r="G46" s="298"/>
+      <c r="H46" s="298"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
-      <c r="G47" s="299"/>
-      <c r="H47" s="299"/>
+      <c r="B47" s="298"/>
+      <c r="C47" s="298"/>
+      <c r="D47" s="298"/>
+      <c r="E47" s="298"/>
+      <c r="F47" s="298"/>
+      <c r="G47" s="298"/>
+      <c r="H47" s="298"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
-      <c r="G48" s="299"/>
-      <c r="H48" s="299"/>
+      <c r="B48" s="298"/>
+      <c r="C48" s="298"/>
+      <c r="D48" s="298"/>
+      <c r="E48" s="298"/>
+      <c r="F48" s="298"/>
+      <c r="G48" s="298"/>
+      <c r="H48" s="298"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
-      <c r="G49" s="299"/>
-      <c r="H49" s="299"/>
+      <c r="B49" s="298"/>
+      <c r="C49" s="298"/>
+      <c r="D49" s="298"/>
+      <c r="E49" s="298"/>
+      <c r="F49" s="298"/>
+      <c r="G49" s="298"/>
+      <c r="H49" s="298"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
-      <c r="G50" s="299"/>
-      <c r="H50" s="299"/>
+      <c r="B50" s="298"/>
+      <c r="C50" s="298"/>
+      <c r="D50" s="298"/>
+      <c r="E50" s="298"/>
+      <c r="F50" s="298"/>
+      <c r="G50" s="298"/>
+      <c r="H50" s="298"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
-      <c r="G51" s="299"/>
-      <c r="H51" s="299"/>
+      <c r="B51" s="298"/>
+      <c r="C51" s="298"/>
+      <c r="D51" s="298"/>
+      <c r="E51" s="298"/>
+      <c r="F51" s="298"/>
+      <c r="G51" s="298"/>
+      <c r="H51" s="298"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="299"/>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
-      <c r="G52" s="299"/>
-      <c r="H52" s="299"/>
+      <c r="B52" s="298"/>
+      <c r="C52" s="298"/>
+      <c r="D52" s="298"/>
+      <c r="E52" s="298"/>
+      <c r="F52" s="298"/>
+      <c r="G52" s="298"/>
+      <c r="H52" s="298"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="299"/>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="299"/>
-      <c r="F53" s="299"/>
-      <c r="G53" s="299"/>
-      <c r="H53" s="299"/>
+      <c r="B53" s="298"/>
+      <c r="C53" s="298"/>
+      <c r="D53" s="298"/>
+      <c r="E53" s="298"/>
+      <c r="F53" s="298"/>
+      <c r="G53" s="298"/>
+      <c r="H53" s="298"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
-      <c r="G54" s="299"/>
-      <c r="H54" s="299"/>
+      <c r="B54" s="298"/>
+      <c r="C54" s="298"/>
+      <c r="D54" s="298"/>
+      <c r="E54" s="298"/>
+      <c r="F54" s="298"/>
+      <c r="G54" s="298"/>
+      <c r="H54" s="298"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
-      <c r="G55" s="299"/>
-      <c r="H55" s="299"/>
+      <c r="B55" s="298"/>
+      <c r="C55" s="298"/>
+      <c r="D55" s="298"/>
+      <c r="E55" s="298"/>
+      <c r="F55" s="298"/>
+      <c r="G55" s="298"/>
+      <c r="H55" s="298"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
-      <c r="G56" s="299"/>
-      <c r="H56" s="299"/>
+      <c r="B56" s="298"/>
+      <c r="C56" s="298"/>
+      <c r="D56" s="298"/>
+      <c r="E56" s="298"/>
+      <c r="F56" s="298"/>
+      <c r="G56" s="298"/>
+      <c r="H56" s="298"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
+      <c r="B57" s="298"/>
+      <c r="C57" s="298"/>
+      <c r="D57" s="298"/>
+      <c r="E57" s="298"/>
+      <c r="F57" s="298"/>
+      <c r="G57" s="298"/>
+      <c r="H57" s="298"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="299"/>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="299"/>
-      <c r="F58" s="299"/>
-      <c r="G58" s="299"/>
-      <c r="H58" s="299"/>
+      <c r="B58" s="298"/>
+      <c r="C58" s="298"/>
+      <c r="D58" s="298"/>
+      <c r="E58" s="298"/>
+      <c r="F58" s="298"/>
+      <c r="G58" s="298"/>
+      <c r="H58" s="298"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="299"/>
-      <c r="C59" s="299"/>
-      <c r="D59" s="299"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="299"/>
-      <c r="G59" s="299"/>
-      <c r="H59" s="299"/>
+      <c r="B59" s="298"/>
+      <c r="C59" s="298"/>
+      <c r="D59" s="298"/>
+      <c r="E59" s="298"/>
+      <c r="F59" s="298"/>
+      <c r="G59" s="298"/>
+      <c r="H59" s="298"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="299"/>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
-      <c r="H60" s="299"/>
+      <c r="B60" s="298"/>
+      <c r="C60" s="298"/>
+      <c r="D60" s="298"/>
+      <c r="E60" s="298"/>
+      <c r="F60" s="298"/>
+      <c r="G60" s="298"/>
+      <c r="H60" s="298"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="141"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="341"/>
+      <c r="B61" s="142"/>
+      <c r="C61" s="143"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm.Print_Area" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$1:$G$78</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm.Print_Area" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$J$55</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm.Print_Area" vbProcedure="false">'6) huomiot 1'!$B$2:$F$53</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$60</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="_xlnm.Print_Area" vbProcedure="false">'7) huomiot 2'!$B$2:$F$61</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="_xlnm.Print_Area" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$H$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'1) etusivu'!$A$1:$Q$50</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'2) E-luokka'!$B$2:$K$59</definedName>
@@ -32,7 +32,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'4) E-luvun laskennan tulokset '!$B$2:$G$76</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'5) toteutunut kulutus'!$B$2:$K$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'6) huomiot 1'!$B$2:$G$52</definedName>
-    <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="6" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'7) huomiot 2'!$B$2:$G$59</definedName>
     <definedName function="false" hidden="false" localSheetId="7" name="Z_202E1614_C6AB_4311_B593_89481D56C4C7_.wvu.PrintArea" vbProcedure="false">'8) lisämerkintöjä'!$B$2:$I$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="211">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -1602,7 +1602,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1882,6 +1882,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF339966"/>
@@ -1956,7 +1963,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC40009"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFC9211E"/>
       </patternFill>
     </fill>
   </fills>
@@ -2367,7 +2374,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3318,11 +3325,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3378,10 +3389,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3390,6 +3397,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3442,11 +3453,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3571,7 +3578,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="379">
+  <dxfs count="363">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -5287,118 +5294,6 @@
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
@@ -6311,7 +6206,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -6342,7 +6237,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFC9211E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -6362,9 +6257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>249480</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6378,7 +6273,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="759600" cy="216360"/>
+          <a:ext cx="759240" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6399,9 +6294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>149040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6415,7 +6310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1103040" cy="216360"/>
+          <a:ext cx="1102680" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6436,9 +6331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>22320</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6452,7 +6347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1409760" cy="216360"/>
+          <a:ext cx="1409400" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6473,9 +6368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>346680</xdr:colOff>
+      <xdr:colOff>346320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6489,7 +6384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1733760" cy="216360"/>
+          <a:ext cx="1733400" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6510,9 +6405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>276840</xdr:rowOff>
+      <xdr:rowOff>276480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6526,7 +6421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2040840" cy="229320"/>
+          <a:ext cx="2040480" cy="228960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6547,9 +6442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>263880</xdr:rowOff>
+      <xdr:rowOff>263520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6563,7 +6458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2377080" cy="216360"/>
+          <a:ext cx="2376720" cy="216000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6584,9 +6479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>103320</xdr:colOff>
+      <xdr:colOff>102960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6596,7 +6491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2689920" cy="215280"/>
+          <a:ext cx="2689560" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6965,9 +6860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6977,7 +6872,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6989040" cy="10558800"/>
+          <a:ext cx="6988680" cy="10558440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7105,9 +7000,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
+      <xdr:colOff>426960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>297360</xdr:rowOff>
+      <xdr:rowOff>297000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7121,7 +7016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1127520" cy="260640"/>
+          <a:ext cx="1127160" cy="260280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7147,9 +7042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>149760</xdr:colOff>
+      <xdr:colOff>149400</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
+      <xdr:rowOff>84600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7159,7 +7054,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7024320" cy="258840"/>
+          <a:ext cx="7023960" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7218,9 +7113,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1014480</xdr:colOff>
+      <xdr:colOff>1014120</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7230,7 +7125,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928520"/>
-          <a:ext cx="7091640" cy="265680"/>
+          <a:ext cx="7091280" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7289,9 +7184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1018080</xdr:colOff>
+      <xdr:colOff>1017720</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7301,7 +7196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7051320" cy="260280"/>
+          <a:ext cx="7050960" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7360,9 +7255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>34560</xdr:colOff>
+      <xdr:colOff>34200</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7372,7 +7267,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6890400" cy="259560"/>
+          <a:ext cx="6890040" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7431,9 +7326,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>60480</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7443,7 +7338,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6986880" cy="360360"/>
+          <a:ext cx="6986520" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7497,13 +7392,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:colOff>62280</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
@@ -7513,8 +7408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="163440" y="10173240"/>
-          <a:ext cx="6995880" cy="371520"/>
+          <a:off x="163440" y="10335960"/>
+          <a:ext cx="6995520" cy="371160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7573,9 +7468,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2880</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7585,7 +7480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7036200" cy="371520"/>
+          <a:ext cx="7035840" cy="371160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7640,7 +7535,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
     </sheetView>
   </sheetViews>
@@ -12541,8 +12436,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F70" activeCellId="0" sqref="F70"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13912,7 +13807,7 @@
   <dimension ref="B2:AMJ55"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14157,7 +14052,9 @@
       <c r="F12" s="76"/>
       <c r="G12" s="281"/>
       <c r="H12" s="180"/>
-      <c r="I12" s="282"/>
+      <c r="I12" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" s="283"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14168,7 +14065,7 @@
       <c r="F13" s="76"/>
       <c r="G13" s="281"/>
       <c r="H13" s="180"/>
-      <c r="I13" s="282"/>
+      <c r="I13" s="284"/>
       <c r="J13" s="283"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14181,7 +14078,9 @@
       <c r="F14" s="76"/>
       <c r="G14" s="281"/>
       <c r="H14" s="180"/>
-      <c r="I14" s="282"/>
+      <c r="I14" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J14" s="283"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14192,12 +14091,12 @@
       <c r="F15" s="76"/>
       <c r="G15" s="281"/>
       <c r="H15" s="180"/>
-      <c r="I15" s="282"/>
+      <c r="I15" s="284"/>
       <c r="J15" s="283"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="284" t="s">
+      <c r="C16" s="285" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="101"/>
@@ -14205,12 +14104,14 @@
       <c r="F16" s="76"/>
       <c r="G16" s="281"/>
       <c r="H16" s="180"/>
-      <c r="I16" s="282"/>
+      <c r="I16" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J16" s="283"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="285" t="s">
         <v>174</v>
       </c>
       <c r="D17" s="101"/>
@@ -14218,18 +14119,20 @@
       <c r="F17" s="76"/>
       <c r="G17" s="281"/>
       <c r="H17" s="180"/>
-      <c r="I17" s="282"/>
+      <c r="I17" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J17" s="283"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="284"/>
+      <c r="C18" s="285"/>
       <c r="D18" s="101"/>
       <c r="E18" s="280"/>
       <c r="F18" s="76"/>
       <c r="G18" s="280"/>
       <c r="H18" s="180"/>
-      <c r="I18" s="282"/>
+      <c r="I18" s="284"/>
       <c r="J18" s="283"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14242,19 +14145,21 @@
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
       <c r="H19" s="180"/>
-      <c r="I19" s="282"/>
+      <c r="I19" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J19" s="283"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="285"/>
-      <c r="D20" s="285"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
+      <c r="C20" s="286"/>
+      <c r="D20" s="286"/>
+      <c r="E20" s="286"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="286"/>
       <c r="H20" s="202"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="287"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="288"/>
     </row>
     <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="272"/>
@@ -14262,22 +14167,22 @@
         <v>175</v>
       </c>
       <c r="D21" s="273"/>
-      <c r="E21" s="288" t="s">
+      <c r="E21" s="289" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="289" t="s">
+      <c r="F21" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="288" t="s">
+      <c r="G21" s="289" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="289" t="s">
+      <c r="H21" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="289" t="s">
+      <c r="I21" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="289"/>
+      <c r="J21" s="290"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14328,14 +14233,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="293"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="295"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="296"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
@@ -14344,14 +14249,18 @@
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="180"/>
-      <c r="F23" s="296" t="s">
+      <c r="F23" s="297" t="s">
         <v>180</v>
       </c>
       <c r="G23" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="297"/>
-      <c r="I23" s="282"/>
+      <c r="H23" s="282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J23" s="283"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14361,14 +14270,18 @@
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="180"/>
-      <c r="F24" s="296" t="s">
+      <c r="F24" s="297" t="s">
         <v>182</v>
       </c>
       <c r="G24" s="121" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="297"/>
-      <c r="I24" s="282"/>
+      <c r="H24" s="282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J24" s="283"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14378,14 +14291,18 @@
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="180"/>
-      <c r="F25" s="296" t="s">
+      <c r="F25" s="297" t="s">
         <v>182</v>
       </c>
       <c r="G25" s="121" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="297"/>
-      <c r="I25" s="282"/>
+      <c r="H25" s="282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J25" s="283"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14395,14 +14312,18 @@
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="180"/>
-      <c r="F26" s="296" t="s">
+      <c r="F26" s="297" t="s">
         <v>185</v>
       </c>
       <c r="G26" s="121" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="297"/>
-      <c r="I26" s="282"/>
+      <c r="H26" s="282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J26" s="283"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14412,8 +14333,8 @@
       <c r="E27" s="180"/>
       <c r="F27" s="299"/>
       <c r="G27" s="180"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="282"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="284"/>
       <c r="J27" s="283"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14423,54 +14344,54 @@
       <c r="E28" s="180"/>
       <c r="F28" s="299"/>
       <c r="G28" s="180"/>
-      <c r="H28" s="297"/>
-      <c r="I28" s="282"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="284"/>
       <c r="J28" s="283"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="300" t="s">
+      <c r="C29" s="301" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="300"/>
+      <c r="D29" s="301"/>
       <c r="E29" s="180"/>
       <c r="F29" s="299"/>
       <c r="G29" s="180"/>
-      <c r="H29" s="297"/>
-      <c r="I29" s="282"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="284"/>
       <c r="J29" s="283"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="300"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
       <c r="E30" s="180"/>
       <c r="F30" s="299"/>
       <c r="G30" s="180"/>
-      <c r="H30" s="297"/>
-      <c r="I30" s="282"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="284"/>
       <c r="J30" s="283"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="300"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
       <c r="E31" s="180"/>
       <c r="F31" s="299"/>
       <c r="G31" s="180"/>
-      <c r="H31" s="297"/>
-      <c r="I31" s="282"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="284"/>
       <c r="J31" s="283"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="300"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="301"/>
       <c r="E32" s="180"/>
       <c r="F32" s="299"/>
       <c r="G32" s="180"/>
-      <c r="H32" s="297"/>
-      <c r="I32" s="282"/>
+      <c r="H32" s="300"/>
+      <c r="I32" s="284"/>
       <c r="J32" s="283"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14480,20 +14401,20 @@
       <c r="E33" s="180"/>
       <c r="F33" s="299"/>
       <c r="G33" s="180"/>
-      <c r="H33" s="297"/>
-      <c r="I33" s="282"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="284"/>
       <c r="J33" s="283"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="301"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
       <c r="E34" s="202"/>
-      <c r="F34" s="302"/>
+      <c r="F34" s="303"/>
       <c r="G34" s="202"/>
-      <c r="H34" s="303"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="287"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="288"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
@@ -14504,8 +14425,8 @@
       <c r="E35" s="280"/>
       <c r="F35" s="76"/>
       <c r="G35" s="280"/>
-      <c r="H35" s="304"/>
-      <c r="I35" s="305"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="306"/>
       <c r="J35" s="283"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14525,14 +14446,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="306"/>
-      <c r="D37" s="306"/>
-      <c r="E37" s="307"/>
-      <c r="F37" s="308"/>
-      <c r="G37" s="308"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
       <c r="H37" s="206"/>
-      <c r="I37" s="309"/>
-      <c r="J37" s="310"/>
+      <c r="I37" s="310"/>
+      <c r="J37" s="311"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
@@ -14540,22 +14461,24 @@
         <v>188</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="311"/>
-      <c r="F38" s="312"/>
-      <c r="G38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="313"/>
       <c r="H38" s="180"/>
-      <c r="I38" s="305"/>
+      <c r="I38" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J38" s="283"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="311"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
       <c r="H39" s="180"/>
-      <c r="I39" s="305"/>
+      <c r="I39" s="306"/>
       <c r="J39" s="283"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14564,22 +14487,24 @@
         <v>189</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="311"/>
-      <c r="F40" s="312"/>
-      <c r="G40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
       <c r="H40" s="180"/>
-      <c r="I40" s="305"/>
+      <c r="I40" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J40" s="283"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="311"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
       <c r="H41" s="180"/>
-      <c r="I41" s="305"/>
+      <c r="I41" s="306"/>
       <c r="J41" s="283"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14588,22 +14513,24 @@
         <v>190</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="311"/>
-      <c r="F42" s="312"/>
-      <c r="G42" s="312"/>
+      <c r="E42" s="312"/>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
       <c r="H42" s="180"/>
-      <c r="I42" s="305"/>
+      <c r="I42" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J42" s="283"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="311"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
       <c r="H43" s="180"/>
-      <c r="I43" s="305"/>
+      <c r="I43" s="306"/>
       <c r="J43" s="283"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14612,22 +14539,24 @@
         <v>150</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="311"/>
-      <c r="F44" s="312"/>
-      <c r="G44" s="312"/>
+      <c r="E44" s="312"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
       <c r="H44" s="180"/>
-      <c r="I44" s="305"/>
+      <c r="I44" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J44" s="283"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="311"/>
-      <c r="F45" s="312"/>
-      <c r="G45" s="312"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
       <c r="H45" s="180"/>
-      <c r="I45" s="305"/>
+      <c r="I45" s="306"/>
       <c r="J45" s="283"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14639,8 +14568,12 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="122"/>
-      <c r="I46" s="313"/>
+      <c r="H46" s="282" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" s="282" t="s">
+        <v>14</v>
+      </c>
       <c r="J46" s="314"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14739,7 +14672,7 @@
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="C48:J53"/>
   </mergeCells>
-  <conditionalFormatting sqref="L46:GZ47 L53:GZ54 K53 L37:GZ45 K32:K47 J5:J9 C10 H10 B55:GZ65353 B2:J2 B54:J54 B5:I6 B9:I9 E11:H11 B46:E47 F12:F13 L2:GZ6 B37:D45 B8:D8 F8:I8 K2:K24 L7:GZ7 B4:J4 B3:C3 C35 I19:I20 H12:H20 L8:GZ24 B10:B24 H23:I35 L32:GZ36 B32:B36 E23:E36 G27:G36">
+  <conditionalFormatting sqref="L46:GZ47 L53:GZ54 K53 L37:GZ45 K32:K47 J5:J9 C10 H10 B55:GZ65353 B2:J2 B54:J54 B5:I6 B9:I9 E11:H11 B46:E47 F12:F13 L2:GZ6 B37:D45 B8:D8 F8:I8 K2:K24 L7:GZ7 B4:J4 B3:C3 C35 I20 H12:H20 L8:GZ24 B10:B24 H27:I35 L32:GZ36 B32:B36 E23:E36 G27:G36">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
       <formula>"*"</formula>
     </cfRule>
@@ -15054,213 +14987,133 @@
       <formula>LEFT(F28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I40 I42 I44 H46:I46">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I13">
+  <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I40 I42 I44 H46:I46">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I18 I15">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
+  <conditionalFormatting sqref="I18 I15">
     <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I18">
+  <conditionalFormatting sqref="I39 I45 I37 I43">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I18">
+  <conditionalFormatting sqref="I39 I45 I37 I43">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H26">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H26">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H26">
+  <conditionalFormatting sqref="F12:F18">
     <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="E37:E41">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="E12:E13">
     <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="E14:E18">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H26">
+  <conditionalFormatting sqref="G12:G18">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H37:H39 H42:H45">
     <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H23:H26">
+  <conditionalFormatting sqref="C21:D22">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="E21:E22">
     <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="G21:G22">
     <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="H21:H22">
     <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I39 I42:I45">
+  <conditionalFormatting sqref="I21:I22">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37:I39 I42:I45">
+  <conditionalFormatting sqref="H36">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="I36">
     <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="C19:G19">
     <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F12:F18">
+  <conditionalFormatting sqref="I41">
     <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:E41">
+  <conditionalFormatting sqref="H40:H41">
     <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14:E18">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12:G18">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37:H39 H42:H45">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:D22">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G22">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H22">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21:I22">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19:G19">
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I41">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:I41">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40:H41">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15289,7 +15142,7 @@
   <dimension ref="B1:AMJ52"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15397,11 +15250,11 @@
       <c r="F9" s="299"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="302"/>
-      <c r="C10" s="302"/>
-      <c r="D10" s="302"/>
-      <c r="E10" s="302"/>
-      <c r="F10" s="302"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="325" t="s">
@@ -15541,11 +15394,13 @@
       <c r="F25" s="299"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="302"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
-      <c r="E26" s="302"/>
-      <c r="F26" s="302"/>
+      <c r="B26" s="303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="325" t="s">
@@ -15685,11 +15540,11 @@
       <c r="F41" s="299"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="302"/>
-      <c r="C42" s="302"/>
-      <c r="D42" s="302"/>
-      <c r="E42" s="302"/>
-      <c r="F42" s="302"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="303"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="325" t="s">
@@ -15823,142 +15678,142 @@
     <mergeCell ref="B47:B48"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:AMJ3 H54:AMJ1048576 B2:B3 H11:AMJ14 H4:AMJ10 B20:F26 H16:AMJ31 B33:F42 G33:AMJ47 G2:G3 A54:G1048576 G11:G14 A4:G10 G16:G31 A52:AMJ53">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:AMJ51">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C30 B27">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F19">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C14 B11">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:F51">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C46 B43">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:AMJ32">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:AMJ48">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:E48">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15984,10 +15839,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="B1:G57"/>
+  <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16055,11 +15910,11 @@
       <c r="F8" s="299"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="302"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="302"/>
-      <c r="E9" s="302"/>
-      <c r="F9" s="302"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="337" t="s">
@@ -16138,28 +15993,30 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="332"/>
       <c r="D17" s="332"/>
       <c r="E17" s="332"/>
       <c r="F17" s="332"/>
     </row>
-    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="333" t="s">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="326" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="332"/>
+      <c r="D18" s="332"/>
+      <c r="E18" s="332"/>
+      <c r="F18" s="332"/>
+    </row>
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="333" t="s">
         <v>206</v>
       </c>
-      <c r="C18" s="336"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="334"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
+      <c r="C19" s="336"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="334"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="299"/>
@@ -16203,27 +16060,25 @@
       <c r="E25" s="299"/>
       <c r="F25" s="299"/>
     </row>
-    <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="337" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="299"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="299"/>
+      <c r="F26" s="299"/>
+    </row>
+    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="337" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="337"/>
-      <c r="D26" s="337"/>
-      <c r="E26" s="337"/>
-      <c r="F26" s="337"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="338"/>
-      <c r="D27" s="338"/>
-      <c r="E27" s="338"/>
-      <c r="F27" s="338"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="337"/>
+      <c r="E27" s="337"/>
+      <c r="F27" s="337"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28" s="338"/>
       <c r="D28" s="338"/>
@@ -16232,55 +16087,55 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="338"/>
       <c r="D29" s="338"/>
       <c r="E29" s="338"/>
       <c r="F29" s="338"/>
     </row>
-    <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="335"/>
-      <c r="C30" s="329" t="s">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="326" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="338"/>
+    </row>
+    <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="335"/>
+      <c r="C31" s="329" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="329" t="s">
+      <c r="D31" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="E30" s="329" t="s">
+      <c r="E31" s="329" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="330" t="s">
+      <c r="F31" s="330" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="113" t="s">
+    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="335"/>
+      <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="113" t="s">
+      <c r="D32" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="E31" s="113" t="s">
+      <c r="E32" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F32" s="113" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="326" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="332"/>
       <c r="D33" s="332"/>
@@ -16289,28 +16144,30 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C34" s="332"/>
       <c r="D34" s="332"/>
       <c r="E34" s="332"/>
       <c r="F34" s="332"/>
     </row>
-    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="339" t="s">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="326" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="339" t="s">
         <v>207</v>
       </c>
-      <c r="C35" s="339"/>
-      <c r="D35" s="339"/>
-      <c r="E35" s="339"/>
-      <c r="F35" s="339"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
+      <c r="C36" s="339"/>
+      <c r="D36" s="339"/>
+      <c r="E36" s="339"/>
+      <c r="F36" s="339"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="299"/>
@@ -16348,20 +16205,20 @@
       <c r="F41" s="299"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="340"/>
-      <c r="C42" s="340"/>
-      <c r="D42" s="340"/>
-      <c r="E42" s="340"/>
-      <c r="F42" s="340"/>
-    </row>
-    <row r="43" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="299"/>
+      <c r="E42" s="299"/>
+      <c r="F42" s="299"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="299"/>
       <c r="C44" s="299"/>
       <c r="D44" s="299"/>
@@ -16410,37 +16267,37 @@
       <c r="E50" s="299"/>
       <c r="F50" s="299"/>
     </row>
-    <row r="51" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="322" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="299"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="299"/>
+      <c r="E51" s="299"/>
+      <c r="F51" s="299"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="95"/>
-      <c r="D51" s="323"/>
-      <c r="E51" s="323"/>
-      <c r="F51" s="324"/>
-    </row>
-    <row r="52" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="151"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="154"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="296" t="s">
+      <c r="C52" s="95"/>
+      <c r="D52" s="323"/>
+      <c r="E52" s="323"/>
+      <c r="F52" s="324"/>
+    </row>
+    <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="151"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="154"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="297" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="296"/>
-      <c r="D53" s="296"/>
-      <c r="E53" s="296"/>
-      <c r="F53" s="296"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
+      <c r="C54" s="297"/>
+      <c r="D54" s="297"/>
+      <c r="E54" s="297"/>
+      <c r="F54" s="297"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="299"/>
@@ -16456,12 +16313,19 @@
       <c r="E56" s="299"/>
       <c r="F56" s="299"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="145"/>
-      <c r="C57" s="146"/>
-      <c r="D57" s="146"/>
-      <c r="E57" s="146"/>
-      <c r="F57" s="341"/>
+    <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="299"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
+      <c r="E57" s="299"/>
+      <c r="F57" s="299"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="145"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="341"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16477,7 +16341,6 @@
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
     <mergeCell ref="B22:F22"/>
@@ -16485,11 +16348,11 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
-    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="B27:F27"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C29:F29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B36:F36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="B38:F38"/>
@@ -16505,93 +16368,94 @@
     <mergeCell ref="B48:F48"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B50:F50"/>
-    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="B51:F51"/>
     <mergeCell ref="B54:F54"/>
     <mergeCell ref="B55:F55"/>
     <mergeCell ref="B56:F56"/>
+    <mergeCell ref="B57:F57"/>
   </mergeCells>
-  <conditionalFormatting sqref="H10:AMJ14 B38:B42 B50:F50 H52:AMJ52 H32:AMJ50 B36:F37 B35 B11:C13 B10 H61:AMJ1048576 H51:AMJ51 H2:AMJ9 H16:AMJ30 B16:F25 G53:AMJ56 B54:B56 G10:G14 D52:G52 G32:G50 A61:G1048576 A51:G51 A2:G9 G16:G30 A57:AMJ60">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+  <conditionalFormatting sqref="H10:AMJ14 B39:B43 B51:F51 H53:AMJ53 H33:AMJ51 B37:F38 B36 B11:C13 B10 H62:AMJ1048576 H52:AMJ52 H2:AMJ9 H18:AMJ31 G54:AMJ57 B55:B57 G10:G14 D53:G53 G33:G51 A62:G1048576 A52:G52 A2:G9 G18:G31 A58:AMJ61 B18:F26 B16:AMJ17">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B27:C29 B26 B32:F34">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B30:C30">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B43:B49">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D30">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C30 B27 B33:F35">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:B50">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G31:AMJ31">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31:E31">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:AMJ32">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:E32">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:B13 B16:F17 B27:B29 B32:F34" type="custom">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:B13 B16:F18 B28:B30 B33:F35" type="custom">
       <formula1>OR(ISNUMBER(B32),B32="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16615,7 +16479,7 @@
   <dimension ref="B1:I61"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17235,8 +17099,8 @@
     <mergeCell ref="B59:H59"/>
     <mergeCell ref="B60:H60"/>
   </mergeCells>
-  <conditionalFormatting sqref="J2:AMJ2 B2 A3:AMJ1048576 I2">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
+  <conditionalFormatting sqref="I2:AMJ2 B2 A3:AMJ1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -2196,7 +2196,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="343">
+  <cellXfs count="342">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2805,16 +2805,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3560,6 +3552,10 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -3873,13 +3869,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -3932,13 +3921,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
       </font>
@@ -3993,6 +3975,20 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF209740"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6257,9 +6253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>249120</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6273,7 +6269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="759240" cy="216000"/>
+          <a:ext cx="758520" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6294,9 +6290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6310,7 +6306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1102680" cy="216000"/>
+          <a:ext cx="1101960" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6331,9 +6327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>22320</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6347,7 +6343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1409400" cy="216000"/>
+          <a:ext cx="1408680" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6368,9 +6364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>346320</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6384,7 +6380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1733400" cy="216000"/>
+          <a:ext cx="1732680" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6405,9 +6401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219600</xdr:colOff>
+      <xdr:colOff>218880</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>276480</xdr:rowOff>
+      <xdr:rowOff>275760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6421,7 +6417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2040480" cy="228960"/>
+          <a:ext cx="2039760" cy="228240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6442,9 +6438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>262800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6458,7 +6454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2376720" cy="216000"/>
+          <a:ext cx="2376000" cy="215280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6479,9 +6475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102960</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>263160</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6491,7 +6487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2689560" cy="214920"/>
+          <a:ext cx="2688840" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6860,9 +6856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>102960</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6872,7 +6868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6988680" cy="10558440"/>
+          <a:ext cx="6987960" cy="10557720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7000,9 +6996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>297000</xdr:rowOff>
+      <xdr:rowOff>296280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7016,7 +7012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1127160" cy="260280"/>
+          <a:ext cx="1126440" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7042,9 +7038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>149400</xdr:colOff>
+      <xdr:colOff>148680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7054,7 +7050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7023960" cy="258480"/>
+          <a:ext cx="7023240" cy="257760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7109,13 +7105,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>104040</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1014120</xdr:colOff>
+      <xdr:colOff>1013400</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7124,8 +7120,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="396000" y="10928520"/>
-          <a:ext cx="7091280" cy="265320"/>
+          <a:off x="396000" y="10928880"/>
+          <a:ext cx="7090560" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7184,9 +7180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1017720</xdr:colOff>
+      <xdr:colOff>1017000</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7196,7 +7192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7050960" cy="259920"/>
+          <a:ext cx="7050240" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7255,9 +7251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
+      <xdr:colOff>33480</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7267,7 +7263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6890040" cy="259200"/>
+          <a:ext cx="6889320" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7326,9 +7322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52920</xdr:colOff>
+      <xdr:colOff>52200</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7338,7 +7334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6986520" cy="360000"/>
+          <a:ext cx="6985800" cy="359280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7397,9 +7393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>62280</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7409,7 +7405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10335960"/>
-          <a:ext cx="6995520" cy="371160"/>
+          <a:ext cx="6994800" cy="370440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7468,9 +7464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>1800</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7480,7 +7476,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7035840" cy="371160"/>
+          <a:ext cx="7035120" cy="370440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7535,8 +7531,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U32" activeCellId="0" sqref="U32"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9079,8 +9075,8 @@
   </sheetPr>
   <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10191,14 +10187,14 @@
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="151"/>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99"/>
-      <c r="E38" s="99"/>
-      <c r="F38" s="99"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99"/>
-      <c r="J38" s="99"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="152"/>
+      <c r="F38" s="152"/>
+      <c r="G38" s="152"/>
+      <c r="H38" s="152"/>
+      <c r="I38" s="152"/>
+      <c r="J38" s="152"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10218,14 +10214,14 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="99"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="152"/>
+      <c r="H39" s="152"/>
+      <c r="I39" s="152"/>
+      <c r="J39" s="152"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -10272,14 +10268,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="152"/>
+      <c r="H41" s="152"/>
+      <c r="I41" s="152"/>
+      <c r="J41" s="152"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -10299,14 +10295,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="152"/>
+      <c r="H42" s="152"/>
+      <c r="I42" s="152"/>
+      <c r="J42" s="152"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -10326,14 +10322,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="152"/>
+      <c r="I43" s="152"/>
+      <c r="J43" s="152"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -10353,14 +10349,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
+      <c r="H44" s="152"/>
+      <c r="I44" s="152"/>
+      <c r="J44" s="152"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -10380,14 +10376,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
+      <c r="C45" s="152"/>
+      <c r="D45" s="152"/>
+      <c r="E45" s="152"/>
+      <c r="F45" s="152"/>
+      <c r="G45" s="152"/>
+      <c r="H45" s="152"/>
+      <c r="I45" s="152"/>
+      <c r="J45" s="152"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -10407,14 +10403,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="152"/>
+      <c r="F46" s="152"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="152"/>
+      <c r="I46" s="152"/>
+      <c r="J46" s="152"/>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -10434,14 +10430,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="98"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -10461,14 +10457,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="98"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
+      <c r="C48" s="152"/>
+      <c r="D48" s="152"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -10488,14 +10484,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
+      <c r="C49" s="152"/>
+      <c r="D49" s="152"/>
+      <c r="E49" s="152"/>
+      <c r="F49" s="152"/>
+      <c r="G49" s="152"/>
+      <c r="H49" s="152"/>
+      <c r="I49" s="152"/>
+      <c r="J49" s="152"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -10515,14 +10511,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
+      <c r="C50" s="152"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -10542,14 +10538,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
+      <c r="C51" s="152"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -10569,14 +10565,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="152"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -10596,14 +10592,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="98"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="152"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -10623,14 +10619,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="98"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="152"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="152"/>
+      <c r="H54" s="152"/>
+      <c r="I54" s="152"/>
+      <c r="J54" s="152"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -10650,14 +10646,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="98"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="152"/>
+      <c r="F55" s="152"/>
+      <c r="G55" s="152"/>
+      <c r="H55" s="152"/>
+      <c r="I55" s="152"/>
+      <c r="J55" s="152"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -10677,14 +10673,14 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="151"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="154"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="152"/>
+      <c r="E56" s="152"/>
+      <c r="F56" s="152"/>
+      <c r="G56" s="152"/>
+      <c r="H56" s="152"/>
+      <c r="I56" s="152"/>
+      <c r="J56" s="152"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -10703,17 +10699,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="153" t="s">
         <v>48</v>
       </c>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
+      <c r="C57" s="153"/>
+      <c r="D57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -10825,23 +10821,23 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="156"/>
+      <c r="O64" s="154"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
-      <c r="P65" s="156"/>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="156"/>
-      <c r="S65" s="156"/>
-      <c r="T65" s="156"/>
-      <c r="U65" s="156"/>
-      <c r="V65" s="156"/>
-      <c r="W65" s="156"/>
-      <c r="X65" s="156"/>
+      <c r="N65" s="154"/>
+      <c r="O65" s="154"/>
+      <c r="P65" s="154"/>
+      <c r="Q65" s="154"/>
+      <c r="R65" s="154"/>
+      <c r="S65" s="154"/>
+      <c r="T65" s="154"/>
+      <c r="U65" s="154"/>
+      <c r="V65" s="154"/>
+      <c r="W65" s="154"/>
+      <c r="X65" s="154"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="21">
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="F6:J6"/>
     <mergeCell ref="F7:J7"/>
@@ -10861,23 +10857,7 @@
     <mergeCell ref="C31:I34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C36:I36"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C45:J45"/>
-    <mergeCell ref="C46:J46"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="C55:J55"/>
+    <mergeCell ref="C38:J56"/>
     <mergeCell ref="B57:J57"/>
   </mergeCells>
   <conditionalFormatting sqref="K40 B39:J39 C55">
@@ -10960,97 +10940,97 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7 D7:E7 K7 AB7:IU7">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
+      <formula>"Täytä lähtötietoihin!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="expression" priority="23" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
+      <formula>LEFT(C14,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15:C20">
+    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+      <formula>LEFT(C15,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F19 G14:I18">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I20">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
+      <formula>"G"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
+      <formula>"E"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
+      <formula>"D"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
+      <formula>"C"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+      <formula>"B"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C41:C54">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7 D7:E7 K7 AB7:IU7">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>"Täytä lähtötietoihin!"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="expression" priority="24" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
-      <formula>LEFT(C14,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15:C20">
-    <cfRule type="expression" priority="25" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
-      <formula>LEFT(C15,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F19 G14:I18">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I20">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>"G"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>"F"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>"E"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>"D"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>"C"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
-      <formula>"B"</formula>
-    </cfRule>
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
-      <formula>"A"</formula>
+      <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -11078,7 +11058,7 @@
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11092,14 +11072,14 @@
   </cols>
   <sheetData>
     <row r="2" s="91" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="AKY2" s="0"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
@@ -11140,21 +11120,21 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159" t="s">
+      <c r="B3" s="156"/>
+      <c r="C3" s="157" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="162"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="87" t="s">
         <v>14</v>
       </c>
@@ -11167,81 +11147,81 @@
       <c r="L4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="161"/>
-      <c r="C5" s="162" t="s">
+      <c r="B5" s="159"/>
+      <c r="C5" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="163"/>
-      <c r="E5" s="162" t="s">
+      <c r="D5" s="161"/>
+      <c r="E5" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165" t="s">
+      <c r="F5" s="162"/>
+      <c r="G5" s="163" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="B6" s="164"/>
+      <c r="C6" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="D6" s="166"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="168"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="161"/>
-      <c r="C7" s="162" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="160" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172" t="s">
+      <c r="D7" s="169"/>
+      <c r="E7" s="170" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="172"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="161"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176" t="s">
+      <c r="B8" s="159"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="174" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="174" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="177" t="s">
+      <c r="G8" s="175" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="161"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="178" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="178" t="s">
+      <c r="G9" s="176" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="161"/>
-      <c r="C10" s="165" t="s">
+      <c r="B10" s="159"/>
+      <c r="C10" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="178"/>
+      <c r="F10" s="179"/>
       <c r="G10" s="87" t="s">
         <v>14</v>
       </c>
@@ -11254,13 +11234,13 @@
       <c r="N10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="161"/>
-      <c r="C11" s="165" t="s">
+      <c r="B11" s="159"/>
+      <c r="C11" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="178"/>
+      <c r="F11" s="179"/>
       <c r="G11" s="87" t="s">
         <v>14</v>
       </c>
@@ -11273,13 +11253,13 @@
       <c r="N11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="161"/>
-      <c r="C12" s="165" t="s">
+      <c r="B12" s="159"/>
+      <c r="C12" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="178"/>
+      <c r="F12" s="179"/>
       <c r="G12" s="87" t="s">
         <v>14</v>
       </c>
@@ -11292,13 +11272,13 @@
       <c r="N12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="161"/>
-      <c r="C13" s="165" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="179"/>
       <c r="G13" s="87" t="s">
         <v>14</v>
       </c>
@@ -11311,13 +11291,13 @@
       <c r="N13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="161"/>
-      <c r="C14" s="165" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="178"/>
+      <c r="F14" s="179"/>
       <c r="G14" s="87" t="s">
         <v>14</v>
       </c>
@@ -11330,17 +11310,17 @@
       <c r="N14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="161"/>
-      <c r="C15" s="165" t="s">
+      <c r="B15" s="159"/>
+      <c r="C15" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="180"/>
+      <c r="F15" s="178"/>
       <c r="G15" s="87" t="s">
         <v>14</v>
       </c>
@@ -11353,562 +11333,562 @@
       <c r="N15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167" t="s">
+      <c r="B16" s="164"/>
+      <c r="C16" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
+      <c r="D16" s="166"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="168"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="161"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="184" t="s">
+      <c r="B17" s="159"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="184" t="s">
+      <c r="E17" s="182" t="s">
         <v>58</v>
       </c>
-      <c r="F17" s="185" t="s">
+      <c r="F17" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="186"/>
+      <c r="G17" s="184"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="161"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="178" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="176" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="176" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="186"/>
+      <c r="G18" s="184"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="161"/>
-      <c r="C19" s="162" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="160" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="186"/>
+      <c r="D19" s="178"/>
+      <c r="E19" s="178"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="184"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="160" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="186"/>
+      <c r="D20" s="178"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="184"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="161"/>
-      <c r="C21" s="162" t="s">
+      <c r="B21" s="159"/>
+      <c r="C21" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="186"/>
+      <c r="D21" s="178"/>
+      <c r="E21" s="178"/>
+      <c r="F21" s="162"/>
+      <c r="G21" s="184"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="161"/>
-      <c r="C22" s="162" t="s">
+      <c r="B22" s="159"/>
+      <c r="C22" s="160" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="186"/>
+      <c r="D22" s="178"/>
+      <c r="E22" s="178"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="184"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="161"/>
-      <c r="C23" s="162" t="s">
+      <c r="B23" s="159"/>
+      <c r="C23" s="160" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="186"/>
+      <c r="D23" s="178"/>
+      <c r="E23" s="178"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="184"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="161"/>
-      <c r="C24" s="162" t="s">
+      <c r="B24" s="159"/>
+      <c r="C24" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="186"/>
+      <c r="D24" s="178"/>
+      <c r="E24" s="178"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="184"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="161"/>
-      <c r="C25" s="162" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="186"/>
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="162"/>
+      <c r="G25" s="184"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="161"/>
-      <c r="C26" s="162" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="186"/>
+      <c r="D26" s="178"/>
+      <c r="E26" s="178"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="184"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="158"/>
-      <c r="C27" s="159" t="s">
+      <c r="B27" s="156"/>
+      <c r="C27" s="157" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="161"/>
-      <c r="C28" s="165" t="s">
+      <c r="B28" s="159"/>
+      <c r="C28" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="189"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
+      <c r="B29" s="187"/>
+      <c r="C29" s="172"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="189"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="161"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193" t="s">
+      <c r="B30" s="159"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="191" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="176" t="s">
+      <c r="F30" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="174" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="161"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="194" t="s">
+      <c r="B31" s="159"/>
+      <c r="C31" s="190"/>
+      <c r="D31" s="192" t="s">
         <v>86</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="182" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="182" t="s">
         <v>88</v>
       </c>
-      <c r="G31" s="184"/>
+      <c r="G31" s="182"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="161"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="195" t="s">
+      <c r="B32" s="159"/>
+      <c r="C32" s="190"/>
+      <c r="D32" s="193" t="s">
         <v>89</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="196" t="s">
+      <c r="G32" s="194" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="161"/>
-      <c r="C33" s="165" t="s">
+      <c r="B33" s="159"/>
+      <c r="C33" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="180"/>
+      <c r="D33" s="195"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="196"/>
+      <c r="G33" s="178"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="161"/>
-      <c r="C34" s="165" t="s">
+      <c r="B34" s="159"/>
+      <c r="C34" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="181" t="s">
+      <c r="D34" s="195"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="199" t="s">
+      <c r="G34" s="197" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="189"/>
-      <c r="C35" s="200" t="s">
+      <c r="B35" s="187"/>
+      <c r="C35" s="198" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="201"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203" t="s">
+      <c r="D35" s="199"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="204" t="s">
+      <c r="G35" s="202" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="161"/>
-      <c r="C36" s="205" t="s">
+      <c r="B36" s="159"/>
+      <c r="C36" s="203" t="s">
         <v>94</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="158"/>
-      <c r="C37" s="159" t="s">
+      <c r="B37" s="156"/>
+      <c r="C37" s="157" t="s">
         <v>95</v>
       </c>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="161"/>
-      <c r="C38" s="162" t="s">
+      <c r="B38" s="159"/>
+      <c r="C38" s="160" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
+      <c r="D38" s="205"/>
+      <c r="E38" s="205"/>
+      <c r="F38" s="205"/>
+      <c r="G38" s="205"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="161"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="206"/>
+      <c r="E39" s="206"/>
+      <c r="F39" s="206"/>
+      <c r="G39" s="206"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="209"/>
-      <c r="C40" s="210"/>
-      <c r="D40" s="176" t="s">
+      <c r="B40" s="207"/>
+      <c r="C40" s="208"/>
+      <c r="D40" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="211" t="s">
+      <c r="E40" s="209" t="s">
         <v>98</v>
       </c>
-      <c r="F40" s="176" t="s">
+      <c r="F40" s="174" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="174" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="161"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="184" t="s">
+      <c r="B41" s="159"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="182" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="212" t="s">
+      <c r="E41" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184" t="s">
+      <c r="F41" s="182"/>
+      <c r="G41" s="182" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="161"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="213" t="s">
+      <c r="B42" s="159"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="213" t="s">
+      <c r="E42" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="213" t="s">
+      <c r="F42" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="178" t="s">
+      <c r="G42" s="176" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="161"/>
-      <c r="C43" s="162" t="s">
+      <c r="B43" s="159"/>
+      <c r="C43" s="160" t="s">
         <v>103</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
+      <c r="D43" s="196"/>
+      <c r="E43" s="196"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="161"/>
-      <c r="C44" s="162" t="s">
+      <c r="B44" s="159"/>
+      <c r="C44" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
+      <c r="D44" s="196"/>
+      <c r="E44" s="196"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="178"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="161"/>
-      <c r="C45" s="214" t="s">
+      <c r="B45" s="159"/>
+      <c r="C45" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-      <c r="G45" s="215"/>
+      <c r="D45" s="213"/>
+      <c r="E45" s="213"/>
+      <c r="F45" s="213"/>
+      <c r="G45" s="213"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="161"/>
-      <c r="C46" s="214" t="s">
+      <c r="B46" s="159"/>
+      <c r="C46" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="165"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="163"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="161"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="217"/>
+      <c r="B47" s="159"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="214"/>
+      <c r="E47" s="214"/>
+      <c r="F47" s="214"/>
+      <c r="G47" s="215"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="161"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="176" t="s">
+      <c r="B48" s="159"/>
+      <c r="C48" s="173"/>
+      <c r="D48" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="E48" s="176" t="s">
+      <c r="E48" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="218"/>
-      <c r="G48" s="191"/>
+      <c r="F48" s="216"/>
+      <c r="G48" s="189"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="161"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="178" t="s">
+      <c r="B49" s="159"/>
+      <c r="C49" s="173"/>
+      <c r="D49" s="176" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="178" t="s">
+      <c r="E49" s="176" t="s">
         <v>110</v>
       </c>
-      <c r="F49" s="218"/>
-      <c r="G49" s="191"/>
+      <c r="F49" s="216"/>
+      <c r="G49" s="189"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="161"/>
-      <c r="C50" s="162" t="s">
+      <c r="B50" s="159"/>
+      <c r="C50" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="191"/>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="216"/>
+      <c r="G50" s="189"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="161"/>
-      <c r="C51" s="162" t="s">
+      <c r="B51" s="159"/>
+      <c r="C51" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="191"/>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="216"/>
+      <c r="G51" s="189"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="158"/>
-      <c r="C52" s="159" t="s">
+      <c r="B52" s="156"/>
+      <c r="C52" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
+      <c r="D52" s="158"/>
+      <c r="E52" s="158"/>
+      <c r="F52" s="158"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="161"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="219" t="s">
+      <c r="B53" s="159"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="194"/>
-      <c r="F53" s="194"/>
-      <c r="G53" s="191"/>
+      <c r="E53" s="192"/>
+      <c r="F53" s="192"/>
+      <c r="G53" s="189"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="161"/>
-      <c r="C54" s="175"/>
-      <c r="D54" s="220" t="s">
+      <c r="B54" s="159"/>
+      <c r="C54" s="173"/>
+      <c r="D54" s="218" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="220"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="191"/>
+      <c r="E54" s="218"/>
+      <c r="F54" s="192"/>
+      <c r="G54" s="189"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="161"/>
-      <c r="C55" s="162" t="s">
+      <c r="B55" s="159"/>
+      <c r="C55" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D55" s="164"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="191"/>
+      <c r="D55" s="162"/>
+      <c r="E55" s="219"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="189"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="158"/>
-      <c r="C56" s="159" t="s">
+      <c r="B56" s="156"/>
+      <c r="C56" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
+      <c r="D56" s="158"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="161"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="222" t="s">
+      <c r="B57" s="159"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="220" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="223" t="s">
+      <c r="E57" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="F57" s="190"/>
-      <c r="G57" s="191"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="189"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="161"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="224" t="s">
+      <c r="B58" s="159"/>
+      <c r="C58" s="173"/>
+      <c r="D58" s="222" t="s">
         <v>118</v>
       </c>
-      <c r="E58" s="178" t="s">
+      <c r="E58" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="190"/>
-      <c r="G58" s="191"/>
+      <c r="F58" s="188"/>
+      <c r="G58" s="189"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="161"/>
-      <c r="C59" s="162" t="s">
+      <c r="B59" s="159"/>
+      <c r="C59" s="160" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="225"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="226" t="s">
+      <c r="D59" s="223"/>
+      <c r="E59" s="178"/>
+      <c r="F59" s="224" t="s">
         <v>119</v>
       </c>
-      <c r="G59" s="191"/>
+      <c r="G59" s="189"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="158"/>
-      <c r="C60" s="159" t="s">
+      <c r="B60" s="156"/>
+      <c r="C60" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="227"/>
+      <c r="D60" s="158"/>
+      <c r="E60" s="158"/>
+      <c r="F60" s="158"/>
+      <c r="G60" s="225"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="161"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="184" t="s">
+      <c r="B61" s="159"/>
+      <c r="C61" s="173"/>
+      <c r="D61" s="182" t="s">
         <v>121</v>
       </c>
-      <c r="E61" s="184" t="s">
+      <c r="E61" s="182" t="s">
         <v>122</v>
       </c>
-      <c r="F61" s="218" t="s">
+      <c r="F61" s="216" t="s">
         <v>123</v>
       </c>
-      <c r="G61" s="184" t="s">
+      <c r="G61" s="182" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="161"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="178" t="s">
+      <c r="B62" s="159"/>
+      <c r="C62" s="173"/>
+      <c r="D62" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="178" t="s">
+      <c r="E62" s="176" t="s">
         <v>125</v>
       </c>
-      <c r="F62" s="224" t="s">
+      <c r="F62" s="222" t="s">
         <v>125</v>
       </c>
-      <c r="G62" s="178" t="s">
+      <c r="G62" s="176" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="161"/>
+      <c r="B63" s="159"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="180"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="178"/>
+      <c r="F63" s="223"/>
+      <c r="G63" s="178"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="161"/>
+      <c r="B64" s="159"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="180"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="178"/>
+      <c r="F64" s="223"/>
+      <c r="G64" s="178"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="228"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="229"/>
-      <c r="E65" s="229"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="229"/>
+      <c r="B65" s="226"/>
+      <c r="C65" s="171"/>
+      <c r="D65" s="227"/>
+      <c r="E65" s="227"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="227"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12436,8 +12416,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12452,14 +12432,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="230"/>
-      <c r="C2" s="231" t="s">
+      <c r="B2" s="228"/>
+      <c r="C2" s="229" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="233"/>
+      <c r="D2" s="230"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="230"/>
+      <c r="G2" s="231"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12499,66 +12479,66 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="234"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="232"/>
+      <c r="C3" s="233" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="237"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="235"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="161"/>
-      <c r="C4" s="238" t="s">
+      <c r="B4" s="159"/>
+      <c r="C4" s="236" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="239" t="s">
+      <c r="D4" s="237" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
+      <c r="E4" s="237"/>
+      <c r="F4" s="237"/>
+      <c r="G4" s="237"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="161"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="236"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="237"/>
+      <c r="G5" s="237"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="161"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="241"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="236"/>
+      <c r="D6" s="238"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="161"/>
-      <c r="C7" s="163" t="s">
+      <c r="B7" s="159"/>
+      <c r="C7" s="161" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="165"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="241"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="163"/>
     </row>
     <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="161"/>
-      <c r="C8" s="163" t="s">
+      <c r="B8" s="159"/>
+      <c r="C8" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="D8" s="242"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="192"/>
+      <c r="D8" s="240"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="188"/>
+      <c r="G8" s="190"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="161"/>
-      <c r="C9" s="219" t="s">
+      <c r="B9" s="159"/>
+      <c r="C9" s="217" t="s">
         <v>129</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -12573,734 +12553,734 @@
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="189"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="187"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="243"/>
+      <c r="E10" s="243"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="172"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="234"/>
-      <c r="C11" s="235" t="s">
+      <c r="B11" s="232"/>
+      <c r="C11" s="233" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="237"/>
+      <c r="D11" s="234"/>
+      <c r="E11" s="234"/>
+      <c r="F11" s="234"/>
+      <c r="G11" s="235"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="161"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="188"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="189"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="161"/>
-      <c r="C13" s="244" t="s">
+      <c r="B13" s="159"/>
+      <c r="C13" s="242" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="182" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="184" t="s">
+      <c r="E13" s="182" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="185"/>
+      <c r="G13" s="183"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="161"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="184" t="s">
+      <c r="B14" s="159"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="182" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="F14" s="183" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="185"/>
+      <c r="G14" s="183"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="189"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="178" t="s">
+      <c r="B15" s="187"/>
+      <c r="C15" s="245"/>
+      <c r="D15" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="176" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="222" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="187" t="s">
+      <c r="G15" s="185" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="161"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="185"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="182"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="183"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="161"/>
-      <c r="C17" s="248" t="s">
+      <c r="B17" s="159"/>
+      <c r="C17" s="246" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="249" t="s">
+      <c r="D17" s="178"/>
+      <c r="E17" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="249" t="s">
+      <c r="F17" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="249" t="s">
+      <c r="G17" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="161"/>
-      <c r="C18" s="248" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="246" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="249" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="249" t="s">
+      <c r="F18" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="249" t="s">
+      <c r="G18" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="161"/>
-      <c r="C19" s="250" t="s">
+      <c r="B19" s="159"/>
+      <c r="C19" s="248" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="249" t="s">
+      <c r="D19" s="178"/>
+      <c r="E19" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="249" t="s">
+      <c r="G19" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="161"/>
-      <c r="C20" s="250" t="s">
+      <c r="B20" s="159"/>
+      <c r="C20" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="249" t="s">
+      <c r="D20" s="178"/>
+      <c r="E20" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="249" t="s">
+      <c r="F20" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="249" t="s">
+      <c r="G20" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="161"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249" t="s">
+      <c r="B21" s="159"/>
+      <c r="C21" s="249"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="249" t="s">
+      <c r="F21" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="249" t="s">
+      <c r="G21" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="161"/>
-      <c r="C22" s="244" t="s">
+      <c r="B22" s="159"/>
+      <c r="C22" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="249" t="s">
+      <c r="E22" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="249" t="s">
+      <c r="F22" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="249" t="s">
+      <c r="G22" s="247" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="161"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="191"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="188"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="189"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="234"/>
-      <c r="C24" s="235" t="s">
+      <c r="B24" s="232"/>
+      <c r="C24" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="237"/>
+      <c r="D24" s="158"/>
+      <c r="E24" s="234"/>
+      <c r="F24" s="234"/>
+      <c r="G24" s="235"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="209"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="191"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="250"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="244"/>
+      <c r="F25" s="244"/>
+      <c r="G25" s="189"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="161"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="183" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="191"/>
+      <c r="G26" s="189"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="161"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="191"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="189"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="161"/>
-      <c r="C28" s="254" t="s">
+      <c r="B28" s="159"/>
+      <c r="C28" s="252" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="254"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="249" t="s">
+      <c r="D28" s="252"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="255"/>
+      <c r="G28" s="253"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="161"/>
-      <c r="C29" s="254" t="s">
+      <c r="B29" s="159"/>
+      <c r="C29" s="252" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="254"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="249" t="s">
+      <c r="D29" s="252"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="255"/>
+      <c r="G29" s="253"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="161"/>
-      <c r="C30" s="256" t="s">
+      <c r="B30" s="159"/>
+      <c r="C30" s="254" t="s">
         <v>143</v>
       </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="249" t="s">
+      <c r="D30" s="254"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="255"/>
+      <c r="G30" s="253"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="161"/>
-      <c r="C31" s="256" t="s">
+      <c r="B31" s="159"/>
+      <c r="C31" s="254" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="256"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="249" t="s">
+      <c r="D31" s="254"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="255"/>
+      <c r="G31" s="253"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="161"/>
-      <c r="C32" s="256" t="s">
+      <c r="B32" s="159"/>
+      <c r="C32" s="254" t="s">
         <v>145</v>
       </c>
-      <c r="D32" s="256"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="249" t="s">
+      <c r="D32" s="254"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="255"/>
+      <c r="G32" s="253"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="161"/>
-      <c r="C33" s="256" t="s">
+      <c r="B33" s="159"/>
+      <c r="C33" s="254" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="256"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="249" t="s">
+      <c r="D33" s="254"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="255"/>
+      <c r="G33" s="253"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="189"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="191"/>
+      <c r="B34" s="187"/>
+      <c r="C34" s="243"/>
+      <c r="D34" s="172"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="189"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="234"/>
-      <c r="C35" s="235" t="s">
+      <c r="B35" s="232"/>
+      <c r="C35" s="233" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="236"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="236"/>
-      <c r="G35" s="237"/>
+      <c r="D35" s="234"/>
+      <c r="E35" s="234"/>
+      <c r="F35" s="234"/>
+      <c r="G35" s="235"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="161"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
-      <c r="G36" s="246"/>
+      <c r="B36" s="159"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="244"/>
+      <c r="F36" s="244"/>
+      <c r="G36" s="244"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="161"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="184" t="s">
+      <c r="B37" s="159"/>
+      <c r="C37" s="173"/>
+      <c r="D37" s="173"/>
+      <c r="E37" s="182" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="182" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="182" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="161"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="183" t="s">
+      <c r="B38" s="159"/>
+      <c r="C38" s="173"/>
+      <c r="D38" s="173"/>
+      <c r="E38" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="183" t="s">
+      <c r="F38" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="183" t="s">
+      <c r="G38" s="181" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="161"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="175"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="173"/>
+      <c r="D39" s="173"/>
+      <c r="E39" s="182"/>
+      <c r="F39" s="182"/>
+      <c r="G39" s="182"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="161"/>
-      <c r="C40" s="162" t="s">
+      <c r="B40" s="159"/>
+      <c r="C40" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="162"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="182"/>
+      <c r="F40" s="182"/>
+      <c r="G40" s="182"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="161"/>
-      <c r="C41" s="162" t="s">
+      <c r="B41" s="159"/>
+      <c r="C41" s="160" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="162"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="184" t="s">
+      <c r="D41" s="160"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="161"/>
-      <c r="C42" s="162" t="s">
+      <c r="B42" s="159"/>
+      <c r="C42" s="160" t="s">
         <v>152</v>
       </c>
-      <c r="D42" s="162"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="184" t="s">
+      <c r="D42" s="160"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="161"/>
-      <c r="C43" s="162" t="s">
+      <c r="B43" s="159"/>
+      <c r="C43" s="160" t="s">
         <v>153</v>
       </c>
-      <c r="D43" s="162"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="178"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="161"/>
-      <c r="C44" s="162" t="s">
+      <c r="B44" s="159"/>
+      <c r="C44" s="160" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="184" t="s">
+      <c r="D44" s="160"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="184" t="s">
+      <c r="G44" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="161"/>
-      <c r="C45" s="162" t="s">
+      <c r="B45" s="159"/>
+      <c r="C45" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="162"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
+      <c r="D45" s="160"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="178"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="161"/>
-      <c r="C46" s="162" t="s">
+      <c r="B46" s="159"/>
+      <c r="C46" s="160" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="184" t="s">
+      <c r="D46" s="160"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="184" t="s">
+      <c r="G46" s="182" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="161"/>
-      <c r="C47" s="244" t="s">
+      <c r="B47" s="159"/>
+      <c r="C47" s="242" t="s">
         <v>139</v>
       </c>
-      <c r="D47" s="244"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
+      <c r="D47" s="242"/>
+      <c r="E47" s="181"/>
+      <c r="F47" s="181"/>
+      <c r="G47" s="181"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="161"/>
-      <c r="C48" s="214" t="s">
+      <c r="B48" s="159"/>
+      <c r="C48" s="212" t="s">
         <v>156</v>
       </c>
-      <c r="D48" s="244"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
+      <c r="D48" s="242"/>
+      <c r="E48" s="218"/>
+      <c r="F48" s="181"/>
+      <c r="G48" s="181"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="161"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="B49" s="159"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="206"/>
+      <c r="F49" s="206"/>
+      <c r="G49" s="206"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="234"/>
-      <c r="C50" s="235" t="s">
+      <c r="B50" s="232"/>
+      <c r="C50" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="237"/>
+      <c r="D50" s="234"/>
+      <c r="E50" s="234"/>
+      <c r="F50" s="234"/>
+      <c r="G50" s="235"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="161"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="246"/>
-      <c r="G51" s="246"/>
+      <c r="B51" s="159"/>
+      <c r="C51" s="188"/>
+      <c r="D51" s="188"/>
+      <c r="E51" s="244"/>
+      <c r="F51" s="244"/>
+      <c r="G51" s="244"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="161"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="183" t="s">
+      <c r="B52" s="159"/>
+      <c r="C52" s="173"/>
+      <c r="D52" s="173"/>
+      <c r="E52" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="183" t="s">
+      <c r="F52" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="183"/>
+      <c r="G52" s="181"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="161"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="184"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="184"/>
+      <c r="B53" s="159"/>
+      <c r="C53" s="173"/>
+      <c r="D53" s="173"/>
+      <c r="E53" s="182"/>
+      <c r="F53" s="182"/>
+      <c r="G53" s="182"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="161"/>
-      <c r="C54" s="162" t="s">
+      <c r="B54" s="159"/>
+      <c r="C54" s="160" t="s">
         <v>158</v>
       </c>
-      <c r="D54" s="162"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="249" t="s">
+      <c r="D54" s="160"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="183"/>
+      <c r="G54" s="181"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="161"/>
-      <c r="C55" s="162" t="s">
+      <c r="B55" s="159"/>
+      <c r="C55" s="160" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="249" t="s">
+      <c r="D55" s="160"/>
+      <c r="E55" s="178"/>
+      <c r="F55" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="184"/>
+      <c r="G55" s="182"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="161"/>
-      <c r="C56" s="162" t="s">
+      <c r="B56" s="159"/>
+      <c r="C56" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="D56" s="162"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="249" t="s">
+      <c r="D56" s="160"/>
+      <c r="E56" s="178"/>
+      <c r="F56" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="183"/>
+      <c r="G56" s="181"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="161"/>
-      <c r="C57" s="162" t="s">
+      <c r="B57" s="159"/>
+      <c r="C57" s="160" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="249" t="s">
+      <c r="D57" s="160"/>
+      <c r="E57" s="178"/>
+      <c r="F57" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="184"/>
+      <c r="G57" s="182"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="161"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="258"/>
+      <c r="B58" s="159"/>
+      <c r="C58" s="160"/>
+      <c r="D58" s="160"/>
+      <c r="E58" s="255"/>
+      <c r="F58" s="255"/>
+      <c r="G58" s="256"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="161"/>
-      <c r="C59" s="214" t="s">
+      <c r="B59" s="159"/>
+      <c r="C59" s="212" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="259"/>
-      <c r="E59" s="260"/>
-      <c r="F59" s="260"/>
-      <c r="G59" s="258"/>
+      <c r="D59" s="257"/>
+      <c r="E59" s="258"/>
+      <c r="F59" s="258"/>
+      <c r="G59" s="256"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="161"/>
-      <c r="C60" s="214" t="s">
+      <c r="B60" s="159"/>
+      <c r="C60" s="212" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="259"/>
-      <c r="E60" s="260"/>
-      <c r="F60" s="260"/>
-      <c r="G60" s="261"/>
+      <c r="D60" s="257"/>
+      <c r="E60" s="258"/>
+      <c r="F60" s="258"/>
+      <c r="G60" s="259"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="161"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
+      <c r="B61" s="159"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="206"/>
+      <c r="F61" s="206"/>
+      <c r="G61" s="206"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="234"/>
-      <c r="C62" s="235" t="s">
+      <c r="B62" s="232"/>
+      <c r="C62" s="233" t="s">
         <v>163</v>
       </c>
-      <c r="D62" s="236"/>
-      <c r="E62" s="236"/>
-      <c r="F62" s="236"/>
-      <c r="G62" s="237"/>
+      <c r="D62" s="234"/>
+      <c r="E62" s="234"/>
+      <c r="F62" s="234"/>
+      <c r="G62" s="235"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="161"/>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
+      <c r="B63" s="159"/>
+      <c r="C63" s="188"/>
+      <c r="D63" s="188"/>
+      <c r="E63" s="244"/>
+      <c r="F63" s="244"/>
+      <c r="G63" s="244"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="161"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="183" t="s">
+      <c r="B64" s="159"/>
+      <c r="C64" s="173"/>
+      <c r="D64" s="173"/>
+      <c r="E64" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="183" t="s">
+      <c r="F64" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="184"/>
+      <c r="G64" s="182"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="161"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="184"/>
-      <c r="F65" s="184"/>
-      <c r="G65" s="184"/>
+      <c r="B65" s="159"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="173"/>
+      <c r="E65" s="182"/>
+      <c r="F65" s="182"/>
+      <c r="G65" s="182"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="161"/>
-      <c r="C66" s="162" t="s">
+      <c r="B66" s="159"/>
+      <c r="C66" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="D66" s="162"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="249" t="s">
+      <c r="D66" s="160"/>
+      <c r="E66" s="178"/>
+      <c r="F66" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="184"/>
+      <c r="G66" s="182"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="161"/>
-      <c r="C67" s="162" t="s">
+      <c r="B67" s="159"/>
+      <c r="C67" s="160" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="162"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="249" t="s">
+      <c r="D67" s="160"/>
+      <c r="E67" s="178"/>
+      <c r="F67" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="184"/>
+      <c r="G67" s="182"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="161"/>
-      <c r="C68" s="162" t="s">
+      <c r="B68" s="159"/>
+      <c r="C68" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="162"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="249" t="s">
+      <c r="D68" s="160"/>
+      <c r="E68" s="178"/>
+      <c r="F68" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="184"/>
+      <c r="G68" s="182"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="161"/>
-      <c r="C69" s="162" t="s">
+      <c r="B69" s="159"/>
+      <c r="C69" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="D69" s="162"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="249" t="s">
+      <c r="D69" s="160"/>
+      <c r="E69" s="178"/>
+      <c r="F69" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="184"/>
+      <c r="G69" s="182"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="161"/>
-      <c r="C70" s="162" t="s">
+      <c r="B70" s="159"/>
+      <c r="C70" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="162"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="249" t="s">
+      <c r="D70" s="160"/>
+      <c r="E70" s="178"/>
+      <c r="F70" s="247" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="184"/>
+      <c r="G70" s="182"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="161"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="208"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
+      <c r="B71" s="159"/>
+      <c r="C71" s="160"/>
+      <c r="D71" s="188"/>
+      <c r="E71" s="206"/>
+      <c r="F71" s="206"/>
+      <c r="G71" s="206"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="234"/>
-      <c r="C72" s="235" t="s">
+      <c r="B72" s="232"/>
+      <c r="C72" s="233" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="236"/>
-      <c r="E72" s="236"/>
-      <c r="F72" s="236"/>
-      <c r="G72" s="237"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="234"/>
+      <c r="G72" s="235"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="161"/>
-      <c r="C73" s="190"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="209"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="253"/>
+      <c r="B73" s="159"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="207"/>
+      <c r="F73" s="250"/>
+      <c r="G73" s="251"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="161"/>
-      <c r="C74" s="162" t="s">
+      <c r="B74" s="159"/>
+      <c r="C74" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="D74" s="162"/>
-      <c r="E74" s="262"/>
-      <c r="F74" s="262"/>
-      <c r="G74" s="262"/>
+      <c r="D74" s="160"/>
+      <c r="E74" s="260"/>
+      <c r="F74" s="260"/>
+      <c r="G74" s="260"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="228"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="228"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="263"/>
+      <c r="B75" s="226"/>
+      <c r="C75" s="171"/>
+      <c r="D75" s="171"/>
+      <c r="E75" s="226"/>
+      <c r="F75" s="171"/>
+      <c r="G75" s="261"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13806,7 +13786,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -13824,18 +13804,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="264" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
+    <row r="2" s="262" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="263"/>
+      <c r="C2" s="264" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="268"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13886,16 +13866,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="267" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="267"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13938,11 +13918,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="270"/>
+      <c r="F7" s="268"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="271"/>
+      <c r="J7" s="269"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13967,22 +13947,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="264" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="272"/>
-      <c r="C10" s="273" t="s">
+    <row r="10" s="262" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="270"/>
+      <c r="C10" s="271" t="s">
         <v>170</v>
       </c>
-      <c r="D10" s="274"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="278" t="s">
+      <c r="D10" s="272"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="274"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="276" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="278" t="s">
+      <c r="I10" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="278"/>
+      <c r="J10" s="276"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -14035,7 +14015,7 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="279"/>
+      <c r="E11" s="277"/>
       <c r="F11" s="46"/>
       <c r="G11" s="118"/>
       <c r="H11" s="116"/>
@@ -14048,25 +14028,25 @@
         <v>171</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="280"/>
+      <c r="E12" s="278"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="281"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="282" t="s">
+      <c r="G12" s="279"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="283"/>
+      <c r="J12" s="281"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="280"/>
+      <c r="E13" s="278"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="283"/>
+      <c r="G13" s="279"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="281"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
@@ -14074,66 +14054,66 @@
         <v>172</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="280"/>
+      <c r="E14" s="278"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="282" t="s">
+      <c r="G14" s="279"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="283"/>
+      <c r="J14" s="281"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="280"/>
+      <c r="E15" s="278"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="283"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="281"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="285" t="s">
+      <c r="C16" s="283" t="s">
         <v>173</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="280"/>
+      <c r="E16" s="278"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="282" t="s">
+      <c r="G16" s="279"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="283"/>
+      <c r="J16" s="281"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="285" t="s">
+      <c r="C17" s="283" t="s">
         <v>174</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="280"/>
+      <c r="E17" s="278"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="281"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="282" t="s">
+      <c r="G17" s="279"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="283"/>
+      <c r="J17" s="281"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="285"/>
+      <c r="C18" s="283"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="280"/>
+      <c r="E18" s="278"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="283"/>
+      <c r="G18" s="278"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="282"/>
+      <c r="J18" s="281"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
@@ -14144,45 +14124,45 @@
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="282" t="s">
+      <c r="H19" s="178"/>
+      <c r="I19" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="283"/>
+      <c r="J19" s="281"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="288"/>
-    </row>
-    <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="272"/>
-      <c r="C21" s="273" t="s">
+      <c r="C20" s="284"/>
+      <c r="D20" s="284"/>
+      <c r="E20" s="284"/>
+      <c r="F20" s="284"/>
+      <c r="G20" s="284"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="285"/>
+      <c r="J20" s="286"/>
+    </row>
+    <row r="21" s="262" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="270"/>
+      <c r="C21" s="271" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="273"/>
-      <c r="E21" s="289" t="s">
+      <c r="D21" s="271"/>
+      <c r="E21" s="287" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="290" t="s">
+      <c r="F21" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="289" t="s">
+      <c r="G21" s="287" t="s">
         <v>178</v>
       </c>
-      <c r="H21" s="290" t="s">
+      <c r="H21" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="290" t="s">
+      <c r="I21" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="290"/>
+      <c r="J21" s="288"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14233,14 +14213,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="293"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="295"/>
-      <c r="J22" s="296"/>
+      <c r="C22" s="289"/>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="291"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="294"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
@@ -14248,20 +14228,20 @@
         <v>179</v>
       </c>
       <c r="D23" s="101"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="297" t="s">
+      <c r="E23" s="178"/>
+      <c r="F23" s="295" t="s">
         <v>180</v>
       </c>
       <c r="G23" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="282" t="s">
+      <c r="H23" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="282" t="s">
+      <c r="I23" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="283"/>
+      <c r="J23" s="281"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
@@ -14269,20 +14249,20 @@
         <v>181</v>
       </c>
       <c r="D24" s="101"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="297" t="s">
+      <c r="E24" s="178"/>
+      <c r="F24" s="295" t="s">
         <v>182</v>
       </c>
       <c r="G24" s="121" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="282" t="s">
+      <c r="H24" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="282" t="s">
+      <c r="I24" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="283"/>
+      <c r="J24" s="281"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
@@ -14290,20 +14270,20 @@
         <v>183</v>
       </c>
       <c r="D25" s="101"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="297" t="s">
+      <c r="E25" s="178"/>
+      <c r="F25" s="295" t="s">
         <v>182</v>
       </c>
       <c r="G25" s="121" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="282" t="s">
+      <c r="H25" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="282" t="s">
+      <c r="I25" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="283"/>
+      <c r="J25" s="281"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
@@ -14311,131 +14291,131 @@
         <v>184</v>
       </c>
       <c r="D26" s="101"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="297" t="s">
+      <c r="E26" s="178"/>
+      <c r="F26" s="295" t="s">
         <v>185</v>
       </c>
       <c r="G26" s="121" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="282" t="s">
+      <c r="H26" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="282" t="s">
+      <c r="I26" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="283"/>
+      <c r="J26" s="281"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="300"/>
-      <c r="I27" s="284"/>
-      <c r="J27" s="283"/>
+      <c r="C27" s="296"/>
+      <c r="D27" s="296"/>
+      <c r="E27" s="178"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="178"/>
+      <c r="H27" s="298"/>
+      <c r="I27" s="282"/>
+      <c r="J27" s="281"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="283"/>
+      <c r="C28" s="296"/>
+      <c r="D28" s="296"/>
+      <c r="E28" s="178"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="178"/>
+      <c r="H28" s="298"/>
+      <c r="I28" s="282"/>
+      <c r="J28" s="281"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="301" t="s">
+      <c r="C29" s="299" t="s">
         <v>186</v>
       </c>
-      <c r="D29" s="301"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="300"/>
-      <c r="I29" s="284"/>
-      <c r="J29" s="283"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="178"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="178"/>
+      <c r="H29" s="298"/>
+      <c r="I29" s="282"/>
+      <c r="J29" s="281"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="300"/>
-      <c r="I30" s="284"/>
-      <c r="J30" s="283"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="299"/>
+      <c r="E30" s="178"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="298"/>
+      <c r="I30" s="282"/>
+      <c r="J30" s="281"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="300"/>
-      <c r="I31" s="284"/>
-      <c r="J31" s="283"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="282"/>
+      <c r="J31" s="281"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="301"/>
-      <c r="D32" s="301"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="300"/>
-      <c r="I32" s="284"/>
-      <c r="J32" s="283"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="299"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="298"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="281"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="284"/>
-      <c r="J33" s="283"/>
+      <c r="C33" s="296"/>
+      <c r="D33" s="296"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="297"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="298"/>
+      <c r="I33" s="282"/>
+      <c r="J33" s="281"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="303"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="304"/>
-      <c r="I34" s="287"/>
-      <c r="J34" s="288"/>
+      <c r="C34" s="300"/>
+      <c r="D34" s="300"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="301"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="302"/>
+      <c r="I34" s="285"/>
+      <c r="J34" s="286"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="273" t="s">
+      <c r="C35" s="271" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="273"/>
-      <c r="E35" s="280"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="278"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="280"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="306"/>
-      <c r="J35" s="283"/>
+      <c r="G35" s="278"/>
+      <c r="H35" s="303"/>
+      <c r="I35" s="304"/>
+      <c r="J35" s="281"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="280"/>
+      <c r="C36" s="271"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="278"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="280"/>
+      <c r="G36" s="278"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14446,14 +14426,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="307"/>
-      <c r="D37" s="307"/>
-      <c r="E37" s="308"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="310"/>
-      <c r="J37" s="311"/>
+      <c r="C37" s="305"/>
+      <c r="D37" s="305"/>
+      <c r="E37" s="306"/>
+      <c r="F37" s="307"/>
+      <c r="G37" s="307"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="308"/>
+      <c r="J37" s="309"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
@@ -14461,25 +14441,25 @@
         <v>188</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="282" t="s">
+      <c r="E38" s="310"/>
+      <c r="F38" s="311"/>
+      <c r="G38" s="311"/>
+      <c r="H38" s="178"/>
+      <c r="I38" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="283"/>
+      <c r="J38" s="281"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="306"/>
-      <c r="J39" s="283"/>
+      <c r="E39" s="310"/>
+      <c r="F39" s="311"/>
+      <c r="G39" s="311"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="304"/>
+      <c r="J39" s="281"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
@@ -14487,25 +14467,25 @@
         <v>189</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="282" t="s">
+      <c r="E40" s="310"/>
+      <c r="F40" s="311"/>
+      <c r="G40" s="311"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="283"/>
+      <c r="J40" s="281"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="306"/>
-      <c r="J41" s="283"/>
+      <c r="E41" s="310"/>
+      <c r="F41" s="311"/>
+      <c r="G41" s="311"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="304"/>
+      <c r="J41" s="281"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
@@ -14513,25 +14493,25 @@
         <v>190</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="282" t="s">
+      <c r="E42" s="310"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="311"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="283"/>
+      <c r="J42" s="281"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="306"/>
-      <c r="J43" s="283"/>
+      <c r="E43" s="310"/>
+      <c r="F43" s="311"/>
+      <c r="G43" s="311"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="304"/>
+      <c r="J43" s="281"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
@@ -14539,25 +14519,25 @@
         <v>150</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="282" t="s">
+      <c r="E44" s="310"/>
+      <c r="F44" s="311"/>
+      <c r="G44" s="311"/>
+      <c r="H44" s="178"/>
+      <c r="I44" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="283"/>
+      <c r="J44" s="281"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="313"/>
-      <c r="G45" s="313"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="306"/>
-      <c r="J45" s="283"/>
+      <c r="E45" s="310"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="311"/>
+      <c r="H45" s="178"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="281"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
@@ -14568,92 +14548,92 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="282" t="s">
+      <c r="H46" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="282" t="s">
+      <c r="I46" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="314"/>
+      <c r="J46" s="312"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
+      <c r="C47" s="313"/>
+      <c r="D47" s="313"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="316"/>
-      <c r="G47" s="316"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="316"/>
+      <c r="F47" s="314"/>
+      <c r="G47" s="314"/>
+      <c r="H47" s="315"/>
+      <c r="I47" s="314"/>
       <c r="J47" s="147"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="318" t="s">
+      <c r="C48" s="316" t="s">
         <v>191</v>
       </c>
-      <c r="D48" s="318"/>
-      <c r="E48" s="318"/>
-      <c r="F48" s="318"/>
-      <c r="G48" s="318"/>
-      <c r="H48" s="318"/>
-      <c r="I48" s="318"/>
-      <c r="J48" s="318"/>
+      <c r="D48" s="316"/>
+      <c r="E48" s="316"/>
+      <c r="F48" s="316"/>
+      <c r="G48" s="316"/>
+      <c r="H48" s="316"/>
+      <c r="I48" s="316"/>
+      <c r="J48" s="316"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="318"/>
-      <c r="D49" s="318"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
+      <c r="C49" s="316"/>
+      <c r="D49" s="316"/>
+      <c r="E49" s="316"/>
+      <c r="F49" s="316"/>
+      <c r="G49" s="316"/>
+      <c r="H49" s="316"/>
+      <c r="I49" s="316"/>
+      <c r="J49" s="316"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="318"/>
-      <c r="D50" s="318"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="318"/>
-      <c r="G50" s="318"/>
-      <c r="H50" s="318"/>
-      <c r="I50" s="318"/>
-      <c r="J50" s="318"/>
+      <c r="C50" s="316"/>
+      <c r="D50" s="316"/>
+      <c r="E50" s="316"/>
+      <c r="F50" s="316"/>
+      <c r="G50" s="316"/>
+      <c r="H50" s="316"/>
+      <c r="I50" s="316"/>
+      <c r="J50" s="316"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="318"/>
-      <c r="E51" s="318"/>
-      <c r="F51" s="318"/>
-      <c r="G51" s="318"/>
-      <c r="H51" s="318"/>
-      <c r="I51" s="318"/>
-      <c r="J51" s="318"/>
+      <c r="C51" s="316"/>
+      <c r="D51" s="316"/>
+      <c r="E51" s="316"/>
+      <c r="F51" s="316"/>
+      <c r="G51" s="316"/>
+      <c r="H51" s="316"/>
+      <c r="I51" s="316"/>
+      <c r="J51" s="316"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
+      <c r="C52" s="316"/>
+      <c r="D52" s="316"/>
+      <c r="E52" s="316"/>
+      <c r="F52" s="316"/>
+      <c r="G52" s="316"/>
+      <c r="H52" s="316"/>
+      <c r="I52" s="316"/>
+      <c r="J52" s="316"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="145"/>
-      <c r="C53" s="318"/>
-      <c r="D53" s="318"/>
-      <c r="E53" s="318"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="318"/>
-      <c r="I53" s="318"/>
-      <c r="J53" s="318"/>
+      <c r="C53" s="316"/>
+      <c r="D53" s="316"/>
+      <c r="E53" s="316"/>
+      <c r="F53" s="316"/>
+      <c r="G53" s="316"/>
+      <c r="H53" s="316"/>
+      <c r="I53" s="316"/>
+      <c r="J53" s="316"/>
       <c r="K53" s="123"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15142,7 +15122,7 @@
   <dimension ref="B1:AMJ52"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15156,14 +15136,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="319" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="320" t="s">
+    <row r="2" s="317" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="318" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
+      <c r="C2" s="318"/>
+      <c r="D2" s="318"/>
+      <c r="E2" s="318"/>
+      <c r="F2" s="318"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15196,119 +15176,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="319" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
+      <c r="C3" s="319"/>
+      <c r="D3" s="319"/>
+      <c r="E3" s="319"/>
+      <c r="F3" s="319"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="320" t="s">
         <v>194</v>
       </c>
       <c r="C4" s="95"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="324"/>
+      <c r="D4" s="321"/>
+      <c r="E4" s="321"/>
+      <c r="F4" s="322"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="297"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="303"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="325" t="s">
+      <c r="B11" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="325"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="325"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="323"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
+      <c r="C12" s="325"/>
+      <c r="D12" s="325"/>
+      <c r="E12" s="325"/>
+      <c r="F12" s="325"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="327"/>
-      <c r="D13" s="327"/>
-      <c r="E13" s="327"/>
-      <c r="F13" s="327"/>
+      <c r="C13" s="325"/>
+      <c r="D13" s="325"/>
+      <c r="E13" s="325"/>
+      <c r="F13" s="325"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="326" t="n">
+      <c r="B14" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="327"/>
-      <c r="D14" s="327"/>
-      <c r="E14" s="327"/>
-      <c r="F14" s="327"/>
+      <c r="C14" s="325"/>
+      <c r="D14" s="325"/>
+      <c r="E14" s="325"/>
+      <c r="F14" s="325"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="328"/>
-      <c r="C15" s="329" t="s">
+      <c r="B15" s="326"/>
+      <c r="C15" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="329" t="s">
+      <c r="D15" s="327" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="329" t="s">
+      <c r="E15" s="327" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="330" t="s">
+      <c r="F15" s="328" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="331"/>
+      <c r="B16" s="329"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15323,138 +15303,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="326" t="n">
+      <c r="B18" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="326" t="n">
+      <c r="B19" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="331" t="s">
         <v>200</v>
       </c>
       <c r="C20" s="95"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="334"/>
+      <c r="D20" s="321"/>
+      <c r="E20" s="321"/>
+      <c r="F20" s="332"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="297"/>
+      <c r="D21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="297"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="297"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="297"/>
+      <c r="D23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="F23" s="297"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="297"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="297"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="297"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="303" t="s">
+      <c r="B26" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="325" t="s">
+      <c r="B27" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="323"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="327"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="327"/>
+      <c r="C28" s="325"/>
+      <c r="D28" s="325"/>
+      <c r="E28" s="325"/>
+      <c r="F28" s="325"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
+      <c r="C29" s="325"/>
+      <c r="D29" s="325"/>
+      <c r="E29" s="325"/>
+      <c r="F29" s="325"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="326" t="n">
+      <c r="B30" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="327"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="327"/>
+      <c r="C30" s="325"/>
+      <c r="D30" s="325"/>
+      <c r="E30" s="325"/>
+      <c r="F30" s="325"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="329" t="s">
+      <c r="B31" s="333"/>
+      <c r="C31" s="327" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="329" t="s">
+      <c r="D31" s="327" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="327" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="330" t="s">
+      <c r="F31" s="328" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="335"/>
+      <c r="B32" s="333"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15469,136 +15449,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="330"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="330"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="326" t="n">
+      <c r="B35" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="333" t="s">
+      <c r="B36" s="331" t="s">
         <v>203</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="334"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="334"/>
+      <c r="F36" s="332"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="297"/>
+      <c r="C37" s="297"/>
+      <c r="D37" s="297"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="297"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="297"/>
+      <c r="C39" s="297"/>
+      <c r="D39" s="297"/>
+      <c r="E39" s="297"/>
+      <c r="F39" s="297"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="297"/>
+      <c r="C40" s="297"/>
+      <c r="D40" s="297"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="297"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="303"/>
-      <c r="C42" s="303"/>
-      <c r="D42" s="303"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="303"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="325" t="s">
+      <c r="B43" s="323" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="325"/>
-      <c r="D43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="F43" s="325"/>
+      <c r="C43" s="323"/>
+      <c r="D43" s="323"/>
+      <c r="E43" s="323"/>
+      <c r="F43" s="323"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="326" t="n">
+      <c r="B44" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="327"/>
-      <c r="D44" s="327"/>
-      <c r="E44" s="327"/>
-      <c r="F44" s="327"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="325"/>
+      <c r="E44" s="325"/>
+      <c r="F44" s="325"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="326" t="n">
+      <c r="B45" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="327"/>
-      <c r="D45" s="327"/>
-      <c r="E45" s="327"/>
-      <c r="F45" s="327"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="325"/>
+      <c r="E45" s="325"/>
+      <c r="F45" s="325"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="326" t="n">
+      <c r="B46" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="327"/>
-      <c r="D46" s="327"/>
-      <c r="E46" s="327"/>
-      <c r="F46" s="327"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="325"/>
+      <c r="E46" s="325"/>
+      <c r="F46" s="325"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="335"/>
-      <c r="C47" s="329" t="s">
+      <c r="B47" s="333"/>
+      <c r="C47" s="327" t="s">
         <v>204</v>
       </c>
-      <c r="D47" s="329" t="s">
+      <c r="D47" s="327" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="329" t="s">
+      <c r="E47" s="327" t="s">
         <v>202</v>
       </c>
-      <c r="F47" s="330" t="s">
+      <c r="F47" s="328" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="335"/>
+      <c r="B48" s="333"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15613,31 +15593,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="326" t="n">
+      <c r="B49" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
+      <c r="C49" s="330"/>
+      <c r="D49" s="330"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="330"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="326" t="n">
+      <c r="B50" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="330"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="326" t="n">
+      <c r="B51" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
+      <c r="C51" s="330"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15841,8 +15821,8 @@
   </sheetPr>
   <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15857,118 +15837,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="320" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="324"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="322"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="303"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="335" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="335"/>
+      <c r="D10" s="335"/>
+      <c r="E10" s="335"/>
+      <c r="F10" s="335"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="326" t="n">
+      <c r="B11" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
+      <c r="C11" s="336"/>
+      <c r="D11" s="336"/>
+      <c r="E11" s="336"/>
+      <c r="F11" s="336"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="338"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="338"/>
-      <c r="F12" s="338"/>
+      <c r="C12" s="336"/>
+      <c r="D12" s="336"/>
+      <c r="E12" s="336"/>
+      <c r="F12" s="336"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
+      <c r="C13" s="336"/>
+      <c r="D13" s="336"/>
+      <c r="E13" s="336"/>
+      <c r="F13" s="336"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="335"/>
-      <c r="C14" s="329" t="s">
+      <c r="B14" s="333"/>
+      <c r="C14" s="327" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="329" t="s">
+      <c r="D14" s="327" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="329" t="s">
+      <c r="E14" s="327" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="330" t="s">
+      <c r="F14" s="328" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="335"/>
+      <c r="B15" s="333"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15983,143 +15963,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="326" t="n">
+      <c r="B16" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="326" t="n">
+      <c r="B18" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="333" t="s">
+      <c r="B19" s="331" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="336"/>
+      <c r="C19" s="334"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="334"/>
+      <c r="F19" s="332"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="B20" s="297"/>
+      <c r="C20" s="297"/>
+      <c r="D20" s="297"/>
+      <c r="E20" s="297"/>
+      <c r="F20" s="297"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="297"/>
+      <c r="D21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="297"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="297"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="297"/>
+      <c r="D23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="F23" s="297"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="297"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="297"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="297"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="297"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="335" t="s">
         <v>195</v>
       </c>
-      <c r="C27" s="337"/>
-      <c r="D27" s="337"/>
-      <c r="E27" s="337"/>
-      <c r="F27" s="337"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="335"/>
+      <c r="E27" s="335"/>
+      <c r="F27" s="335"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="338"/>
-      <c r="D28" s="338"/>
-      <c r="E28" s="338"/>
-      <c r="F28" s="338"/>
+      <c r="C28" s="336"/>
+      <c r="D28" s="336"/>
+      <c r="E28" s="336"/>
+      <c r="F28" s="336"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="338"/>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
+      <c r="C29" s="336"/>
+      <c r="D29" s="336"/>
+      <c r="E29" s="336"/>
+      <c r="F29" s="336"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="326" t="n">
+      <c r="B30" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="338"/>
-      <c r="D30" s="338"/>
-      <c r="E30" s="338"/>
-      <c r="F30" s="338"/>
+      <c r="C30" s="336"/>
+      <c r="D30" s="336"/>
+      <c r="E30" s="336"/>
+      <c r="F30" s="336"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="329" t="s">
+      <c r="B31" s="333"/>
+      <c r="C31" s="327" t="s">
         <v>204</v>
       </c>
-      <c r="D31" s="329" t="s">
+      <c r="D31" s="327" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="327" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="330" t="s">
+      <c r="F31" s="328" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="335"/>
+      <c r="B32" s="333"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16134,198 +16114,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="324" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="330"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="324" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="330"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="326" t="n">
+      <c r="B35" s="324" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="339" t="s">
+      <c r="B36" s="337" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="339"/>
-      <c r="D36" s="339"/>
-      <c r="E36" s="339"/>
-      <c r="F36" s="339"/>
+      <c r="C36" s="337"/>
+      <c r="D36" s="337"/>
+      <c r="E36" s="337"/>
+      <c r="F36" s="337"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="297"/>
+      <c r="C37" s="297"/>
+      <c r="D37" s="297"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="297"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="297"/>
+      <c r="C39" s="297"/>
+      <c r="D39" s="297"/>
+      <c r="E39" s="297"/>
+      <c r="F39" s="297"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="297"/>
+      <c r="C40" s="297"/>
+      <c r="D40" s="297"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="297"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
+      <c r="B42" s="297"/>
+      <c r="C42" s="297"/>
+      <c r="D42" s="297"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
+      <c r="B43" s="338"/>
+      <c r="C43" s="338"/>
+      <c r="D43" s="338"/>
+      <c r="E43" s="338"/>
+      <c r="F43" s="338"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
+      <c r="B44" s="297"/>
+      <c r="C44" s="297"/>
+      <c r="D44" s="297"/>
+      <c r="E44" s="297"/>
+      <c r="F44" s="297"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
+      <c r="B45" s="297"/>
+      <c r="C45" s="297"/>
+      <c r="D45" s="297"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="297"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
+      <c r="B46" s="297"/>
+      <c r="C46" s="297"/>
+      <c r="D46" s="297"/>
+      <c r="E46" s="297"/>
+      <c r="F46" s="297"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
+      <c r="B47" s="297"/>
+      <c r="C47" s="297"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="297"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="297"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
+      <c r="B49" s="297"/>
+      <c r="C49" s="297"/>
+      <c r="D49" s="297"/>
+      <c r="E49" s="297"/>
+      <c r="F49" s="297"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
+      <c r="B50" s="297"/>
+      <c r="C50" s="297"/>
+      <c r="D50" s="297"/>
+      <c r="E50" s="297"/>
+      <c r="F50" s="297"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="297"/>
+      <c r="D51" s="297"/>
+      <c r="E51" s="297"/>
+      <c r="F51" s="297"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="322" t="s">
+      <c r="B52" s="320" t="s">
         <v>208</v>
       </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="323"/>
-      <c r="E52" s="323"/>
-      <c r="F52" s="324"/>
+      <c r="D52" s="321"/>
+      <c r="E52" s="321"/>
+      <c r="F52" s="322"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="151"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="154"/>
+      <c r="F53" s="339"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="297" t="s">
+      <c r="B54" s="295" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="297"/>
-      <c r="D54" s="297"/>
-      <c r="E54" s="297"/>
-      <c r="F54" s="297"/>
+      <c r="C54" s="295"/>
+      <c r="D54" s="295"/>
+      <c r="E54" s="295"/>
+      <c r="F54" s="295"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
+      <c r="B55" s="297"/>
+      <c r="C55" s="297"/>
+      <c r="D55" s="297"/>
+      <c r="E55" s="297"/>
+      <c r="F55" s="297"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
+      <c r="B56" s="297"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="297"/>
+      <c r="E56" s="297"/>
+      <c r="F56" s="297"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
+      <c r="B57" s="297"/>
+      <c r="C57" s="297"/>
+      <c r="D57" s="297"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="297"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="145"/>
       <c r="C58" s="146"/>
       <c r="D58" s="146"/>
       <c r="E58" s="146"/>
-      <c r="F58" s="341"/>
+      <c r="F58" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16494,539 +16474,539 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="342" t="s">
+      <c r="B2" s="341" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
+      <c r="B3" s="297"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
+      <c r="B4" s="297"/>
+      <c r="C4" s="297"/>
+      <c r="D4" s="297"/>
+      <c r="E4" s="297"/>
+      <c r="F4" s="297"/>
+      <c r="G4" s="297"/>
+      <c r="H4" s="297"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
+      <c r="B6" s="297"/>
+      <c r="C6" s="297"/>
+      <c r="D6" s="297"/>
+      <c r="E6" s="297"/>
+      <c r="F6" s="297"/>
+      <c r="G6" s="297"/>
+      <c r="H6" s="297"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
+      <c r="B7" s="297"/>
+      <c r="C7" s="297"/>
+      <c r="D7" s="297"/>
+      <c r="E7" s="297"/>
+      <c r="F7" s="297"/>
+      <c r="G7" s="297"/>
+      <c r="H7" s="297"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
+      <c r="B8" s="297"/>
+      <c r="C8" s="297"/>
+      <c r="D8" s="297"/>
+      <c r="E8" s="297"/>
+      <c r="F8" s="297"/>
+      <c r="G8" s="297"/>
+      <c r="H8" s="297"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
+      <c r="B9" s="297"/>
+      <c r="C9" s="297"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="297"/>
+      <c r="F9" s="297"/>
+      <c r="G9" s="297"/>
+      <c r="H9" s="297"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
+      <c r="B10" s="297"/>
+      <c r="C10" s="297"/>
+      <c r="D10" s="297"/>
+      <c r="E10" s="297"/>
+      <c r="F10" s="297"/>
+      <c r="G10" s="297"/>
+      <c r="H10" s="297"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
+      <c r="B11" s="297"/>
+      <c r="C11" s="297"/>
+      <c r="D11" s="297"/>
+      <c r="E11" s="297"/>
+      <c r="F11" s="297"/>
+      <c r="G11" s="297"/>
+      <c r="H11" s="297"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
+      <c r="B12" s="297"/>
+      <c r="C12" s="297"/>
+      <c r="D12" s="297"/>
+      <c r="E12" s="297"/>
+      <c r="F12" s="297"/>
+      <c r="G12" s="297"/>
+      <c r="H12" s="297"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
+      <c r="B13" s="297"/>
+      <c r="C13" s="297"/>
+      <c r="D13" s="297"/>
+      <c r="E13" s="297"/>
+      <c r="F13" s="297"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="297"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="299"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
+      <c r="B14" s="297"/>
+      <c r="C14" s="297"/>
+      <c r="D14" s="297"/>
+      <c r="E14" s="297"/>
+      <c r="F14" s="297"/>
+      <c r="G14" s="297"/>
+      <c r="H14" s="297"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="299"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="297"/>
+      <c r="C15" s="297"/>
+      <c r="D15" s="297"/>
+      <c r="E15" s="297"/>
+      <c r="F15" s="297"/>
+      <c r="G15" s="297"/>
+      <c r="H15" s="297"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
+      <c r="B16" s="297"/>
+      <c r="C16" s="297"/>
+      <c r="D16" s="297"/>
+      <c r="E16" s="297"/>
+      <c r="F16" s="297"/>
+      <c r="G16" s="297"/>
+      <c r="H16" s="297"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
+      <c r="B17" s="297"/>
+      <c r="C17" s="297"/>
+      <c r="D17" s="297"/>
+      <c r="E17" s="297"/>
+      <c r="F17" s="297"/>
+      <c r="G17" s="297"/>
+      <c r="H17" s="297"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
+      <c r="B18" s="297"/>
+      <c r="C18" s="297"/>
+      <c r="D18" s="297"/>
+      <c r="E18" s="297"/>
+      <c r="F18" s="297"/>
+      <c r="G18" s="297"/>
+      <c r="H18" s="297"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
+      <c r="B19" s="297"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
+      <c r="B20" s="297"/>
+      <c r="C20" s="297"/>
+      <c r="D20" s="297"/>
+      <c r="E20" s="297"/>
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="297"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
+      <c r="B21" s="297"/>
+      <c r="C21" s="297"/>
+      <c r="D21" s="297"/>
+      <c r="E21" s="297"/>
+      <c r="F21" s="297"/>
+      <c r="G21" s="297"/>
+      <c r="H21" s="297"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
+      <c r="B22" s="297"/>
+      <c r="C22" s="297"/>
+      <c r="D22" s="297"/>
+      <c r="E22" s="297"/>
+      <c r="F22" s="297"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="297"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
+      <c r="B23" s="297"/>
+      <c r="C23" s="297"/>
+      <c r="D23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="F23" s="297"/>
+      <c r="G23" s="297"/>
+      <c r="H23" s="297"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
+      <c r="B24" s="297"/>
+      <c r="C24" s="297"/>
+      <c r="D24" s="297"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="297"/>
+      <c r="G24" s="297"/>
+      <c r="H24" s="297"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
+      <c r="B25" s="297"/>
+      <c r="C25" s="297"/>
+      <c r="D25" s="297"/>
+      <c r="E25" s="297"/>
+      <c r="F25" s="297"/>
+      <c r="G25" s="297"/>
+      <c r="H25" s="297"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
+      <c r="B26" s="297"/>
+      <c r="C26" s="297"/>
+      <c r="D26" s="297"/>
+      <c r="E26" s="297"/>
+      <c r="F26" s="297"/>
+      <c r="G26" s="297"/>
+      <c r="H26" s="297"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
+      <c r="B27" s="297"/>
+      <c r="C27" s="297"/>
+      <c r="D27" s="297"/>
+      <c r="E27" s="297"/>
+      <c r="F27" s="297"/>
+      <c r="G27" s="297"/>
+      <c r="H27" s="297"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
+      <c r="B28" s="297"/>
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="297"/>
+      <c r="H28" s="297"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
+      <c r="B29" s="297"/>
+      <c r="C29" s="297"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="297"/>
+      <c r="H29" s="297"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
+      <c r="B30" s="297"/>
+      <c r="C30" s="297"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
+      <c r="G30" s="297"/>
+      <c r="H30" s="297"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
+      <c r="B31" s="297"/>
+      <c r="C31" s="297"/>
+      <c r="D31" s="297"/>
+      <c r="E31" s="297"/>
+      <c r="F31" s="297"/>
+      <c r="G31" s="297"/>
+      <c r="H31" s="297"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
+      <c r="B32" s="297"/>
+      <c r="C32" s="297"/>
+      <c r="D32" s="297"/>
+      <c r="E32" s="297"/>
+      <c r="F32" s="297"/>
+      <c r="G32" s="297"/>
+      <c r="H32" s="297"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
+      <c r="B33" s="297"/>
+      <c r="C33" s="297"/>
+      <c r="D33" s="297"/>
+      <c r="E33" s="297"/>
+      <c r="F33" s="297"/>
+      <c r="G33" s="297"/>
+      <c r="H33" s="297"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
+      <c r="B34" s="297"/>
+      <c r="C34" s="297"/>
+      <c r="D34" s="297"/>
+      <c r="E34" s="297"/>
+      <c r="F34" s="297"/>
+      <c r="G34" s="297"/>
+      <c r="H34" s="297"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
+      <c r="B35" s="297"/>
+      <c r="C35" s="297"/>
+      <c r="D35" s="297"/>
+      <c r="E35" s="297"/>
+      <c r="F35" s="297"/>
+      <c r="G35" s="297"/>
+      <c r="H35" s="297"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
+      <c r="B36" s="297"/>
+      <c r="C36" s="297"/>
+      <c r="D36" s="297"/>
+      <c r="E36" s="297"/>
+      <c r="F36" s="297"/>
+      <c r="G36" s="297"/>
+      <c r="H36" s="297"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
+      <c r="B37" s="297"/>
+      <c r="C37" s="297"/>
+      <c r="D37" s="297"/>
+      <c r="E37" s="297"/>
+      <c r="F37" s="297"/>
+      <c r="G37" s="297"/>
+      <c r="H37" s="297"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
+      <c r="G38" s="297"/>
+      <c r="H38" s="297"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
+      <c r="B39" s="297"/>
+      <c r="C39" s="297"/>
+      <c r="D39" s="297"/>
+      <c r="E39" s="297"/>
+      <c r="F39" s="297"/>
+      <c r="G39" s="297"/>
+      <c r="H39" s="297"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
+      <c r="B40" s="297"/>
+      <c r="C40" s="297"/>
+      <c r="D40" s="297"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="297"/>
+      <c r="G40" s="297"/>
+      <c r="H40" s="297"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
+      <c r="B41" s="297"/>
+      <c r="C41" s="297"/>
+      <c r="D41" s="297"/>
+      <c r="E41" s="297"/>
+      <c r="F41" s="297"/>
+      <c r="G41" s="297"/>
+      <c r="H41" s="297"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
+      <c r="B42" s="297"/>
+      <c r="C42" s="297"/>
+      <c r="D42" s="297"/>
+      <c r="E42" s="297"/>
+      <c r="F42" s="297"/>
+      <c r="G42" s="297"/>
+      <c r="H42" s="297"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
-      <c r="G43" s="299"/>
-      <c r="H43" s="299"/>
+      <c r="B43" s="297"/>
+      <c r="C43" s="297"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="297"/>
+      <c r="G43" s="297"/>
+      <c r="H43" s="297"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
-      <c r="G44" s="299"/>
-      <c r="H44" s="299"/>
+      <c r="B44" s="297"/>
+      <c r="C44" s="297"/>
+      <c r="D44" s="297"/>
+      <c r="E44" s="297"/>
+      <c r="F44" s="297"/>
+      <c r="G44" s="297"/>
+      <c r="H44" s="297"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
-      <c r="G45" s="299"/>
-      <c r="H45" s="299"/>
+      <c r="B45" s="297"/>
+      <c r="C45" s="297"/>
+      <c r="D45" s="297"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="297"/>
+      <c r="G45" s="297"/>
+      <c r="H45" s="297"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
-      <c r="G46" s="299"/>
-      <c r="H46" s="299"/>
+      <c r="B46" s="297"/>
+      <c r="C46" s="297"/>
+      <c r="D46" s="297"/>
+      <c r="E46" s="297"/>
+      <c r="F46" s="297"/>
+      <c r="G46" s="297"/>
+      <c r="H46" s="297"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
-      <c r="G47" s="299"/>
-      <c r="H47" s="299"/>
+      <c r="B47" s="297"/>
+      <c r="C47" s="297"/>
+      <c r="D47" s="297"/>
+      <c r="E47" s="297"/>
+      <c r="F47" s="297"/>
+      <c r="G47" s="297"/>
+      <c r="H47" s="297"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
-      <c r="G48" s="299"/>
-      <c r="H48" s="299"/>
+      <c r="B48" s="297"/>
+      <c r="C48" s="297"/>
+      <c r="D48" s="297"/>
+      <c r="E48" s="297"/>
+      <c r="F48" s="297"/>
+      <c r="G48" s="297"/>
+      <c r="H48" s="297"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
-      <c r="G49" s="299"/>
-      <c r="H49" s="299"/>
+      <c r="B49" s="297"/>
+      <c r="C49" s="297"/>
+      <c r="D49" s="297"/>
+      <c r="E49" s="297"/>
+      <c r="F49" s="297"/>
+      <c r="G49" s="297"/>
+      <c r="H49" s="297"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
-      <c r="G50" s="299"/>
-      <c r="H50" s="299"/>
+      <c r="B50" s="297"/>
+      <c r="C50" s="297"/>
+      <c r="D50" s="297"/>
+      <c r="E50" s="297"/>
+      <c r="F50" s="297"/>
+      <c r="G50" s="297"/>
+      <c r="H50" s="297"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
-      <c r="G51" s="299"/>
-      <c r="H51" s="299"/>
+      <c r="B51" s="297"/>
+      <c r="C51" s="297"/>
+      <c r="D51" s="297"/>
+      <c r="E51" s="297"/>
+      <c r="F51" s="297"/>
+      <c r="G51" s="297"/>
+      <c r="H51" s="297"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="299"/>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
-      <c r="G52" s="299"/>
-      <c r="H52" s="299"/>
+      <c r="B52" s="297"/>
+      <c r="C52" s="297"/>
+      <c r="D52" s="297"/>
+      <c r="E52" s="297"/>
+      <c r="F52" s="297"/>
+      <c r="G52" s="297"/>
+      <c r="H52" s="297"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="299"/>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="299"/>
-      <c r="F53" s="299"/>
-      <c r="G53" s="299"/>
-      <c r="H53" s="299"/>
+      <c r="B53" s="297"/>
+      <c r="C53" s="297"/>
+      <c r="D53" s="297"/>
+      <c r="E53" s="297"/>
+      <c r="F53" s="297"/>
+      <c r="G53" s="297"/>
+      <c r="H53" s="297"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
-      <c r="G54" s="299"/>
-      <c r="H54" s="299"/>
+      <c r="B54" s="297"/>
+      <c r="C54" s="297"/>
+      <c r="D54" s="297"/>
+      <c r="E54" s="297"/>
+      <c r="F54" s="297"/>
+      <c r="G54" s="297"/>
+      <c r="H54" s="297"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
-      <c r="G55" s="299"/>
-      <c r="H55" s="299"/>
+      <c r="B55" s="297"/>
+      <c r="C55" s="297"/>
+      <c r="D55" s="297"/>
+      <c r="E55" s="297"/>
+      <c r="F55" s="297"/>
+      <c r="G55" s="297"/>
+      <c r="H55" s="297"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
-      <c r="G56" s="299"/>
-      <c r="H56" s="299"/>
+      <c r="B56" s="297"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="297"/>
+      <c r="E56" s="297"/>
+      <c r="F56" s="297"/>
+      <c r="G56" s="297"/>
+      <c r="H56" s="297"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
+      <c r="B57" s="297"/>
+      <c r="C57" s="297"/>
+      <c r="D57" s="297"/>
+      <c r="E57" s="297"/>
+      <c r="F57" s="297"/>
+      <c r="G57" s="297"/>
+      <c r="H57" s="297"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="299"/>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="299"/>
-      <c r="F58" s="299"/>
-      <c r="G58" s="299"/>
-      <c r="H58" s="299"/>
+      <c r="B58" s="297"/>
+      <c r="C58" s="297"/>
+      <c r="D58" s="297"/>
+      <c r="E58" s="297"/>
+      <c r="F58" s="297"/>
+      <c r="G58" s="297"/>
+      <c r="H58" s="297"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="299"/>
-      <c r="C59" s="299"/>
-      <c r="D59" s="299"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="299"/>
-      <c r="G59" s="299"/>
-      <c r="H59" s="299"/>
+      <c r="B59" s="297"/>
+      <c r="C59" s="297"/>
+      <c r="D59" s="297"/>
+      <c r="E59" s="297"/>
+      <c r="F59" s="297"/>
+      <c r="G59" s="297"/>
+      <c r="H59" s="297"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="299"/>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
-      <c r="H60" s="299"/>
+      <c r="B60" s="297"/>
+      <c r="C60" s="297"/>
+      <c r="D60" s="297"/>
+      <c r="E60" s="297"/>
+      <c r="F60" s="297"/>
+      <c r="G60" s="297"/>
+      <c r="H60" s="297"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="145"/>
@@ -17035,7 +17015,7 @@
       <c r="E61" s="146"/>
       <c r="F61" s="146"/>
       <c r="G61" s="146"/>
-      <c r="H61" s="341"/>
+      <c r="H61" s="340"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="210">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t xml:space="preserve">kaukolämpö</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mistä nämä</t>
   </si>
   <si>
     <t xml:space="preserve">sähkö</t>
@@ -1602,7 +1599,7 @@
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1739,14 +1736,6 @@
     <font>
       <sz val="16"/>
       <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFF4000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2196,7 +2185,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="342">
+  <cellXfs count="344">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2374,7 +2363,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2677,11 +2666,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2701,7 +2694,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2717,47 +2710,47 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="4" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="5" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="6" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="8" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="9" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="10" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2769,11 +2762,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2897,7 +2890,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2973,15 +2966,67 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2989,63 +3034,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3053,11 +3046,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3081,7 +3074,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3093,7 +3086,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3225,11 +3218,11 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3269,7 +3262,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3317,7 +3310,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="38" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3373,12 +3366,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3393,7 +3390,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3445,7 +3442,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6253,9 +6250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6269,7 +6266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="758520" cy="215280"/>
+          <a:ext cx="758160" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6290,9 +6287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6306,7 +6303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1101960" cy="215280"/>
+          <a:ext cx="1101600" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6327,9 +6324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6343,7 +6340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1408680" cy="215280"/>
+          <a:ext cx="1408320" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6364,9 +6361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>345600</xdr:colOff>
+      <xdr:colOff>345240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6380,7 +6377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1732680" cy="215280"/>
+          <a:ext cx="1732320" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6401,9 +6398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>275760</xdr:rowOff>
+      <xdr:rowOff>275400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6417,7 +6414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2039760" cy="228240"/>
+          <a:ext cx="2039400" cy="227880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6438,9 +6435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6454,7 +6451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2376000" cy="215280"/>
+          <a:ext cx="2375640" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6475,9 +6472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6487,7 +6484,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2688840" cy="214200"/>
+          <a:ext cx="2688480" cy="213840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6856,9 +6853,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6868,7 +6865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6987960" cy="10557720"/>
+          <a:ext cx="6987600" cy="10557360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6996,9 +6993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
+      <xdr:colOff>425880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>296280</xdr:rowOff>
+      <xdr:rowOff>295920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7012,7 +7009,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1126440" cy="259560"/>
+          <a:ext cx="1126080" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7038,9 +7035,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7050,7 +7047,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7023240" cy="257760"/>
+          <a:ext cx="7022880" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7109,9 +7106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1013400</xdr:colOff>
+      <xdr:colOff>1013040</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7121,7 +7118,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928880"/>
-          <a:ext cx="7090560" cy="264240"/>
+          <a:ext cx="7090200" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7180,9 +7177,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1017000</xdr:colOff>
+      <xdr:colOff>1016640</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7192,7 +7189,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7050240" cy="259200"/>
+          <a:ext cx="7049880" cy="258840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7251,9 +7248,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7263,7 +7260,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6889320" cy="258480"/>
+          <a:ext cx="6888960" cy="258120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7322,9 +7319,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7334,7 +7331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6985800" cy="359280"/>
+          <a:ext cx="6985440" cy="358920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7393,9 +7390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7405,7 +7402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10335960"/>
-          <a:ext cx="6994800" cy="370440"/>
+          <a:ext cx="6994440" cy="370080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7464,9 +7461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7476,7 +7473,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7035120" cy="370440"/>
+          <a:ext cx="7034760" cy="370080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7531,7 +7528,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -9075,8 +9072,8 @@
   </sheetPr>
   <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9475,19 +9472,11 @@
       </c>
       <c r="D14" s="119"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="121"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="122"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -9508,23 +9497,15 @@
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="119"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="121"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="122"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -9545,23 +9526,15 @@
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
       <c r="C16" s="119" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="119"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="121"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="122"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -9582,23 +9555,15 @@
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
       <c r="C17" s="119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="119"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="121"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="122"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -9619,23 +9584,15 @@
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
       <c r="C18" s="119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="119"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="120" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="121"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -9658,11 +9615,11 @@
       <c r="C19" s="119"/>
       <c r="D19" s="119"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
-      <c r="J19" s="126"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -9681,17 +9638,17 @@
       <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="127"/>
-      <c r="C20" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -9712,7 +9669,7 @@
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="94"/>
       <c r="C21" s="95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="95"/>
       <c r="E21" s="96"/>
@@ -9768,7 +9725,7 @@
     <row r="23" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
       <c r="C23" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="15"/>
       <c r="E23" s="4"/>
@@ -9778,7 +9735,7 @@
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
+      <c r="J23" s="131"/>
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -9800,7 +9757,7 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="130"/>
+      <c r="D24" s="132"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="46"/>
@@ -9827,14 +9784,14 @@
     <row r="25" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
       <c r="C25" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="134"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="135"/>
       <c r="J25" s="131"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
@@ -9859,9 +9816,9 @@
       <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="137"/>
+      <c r="G26" s="136"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="138"/>
       <c r="J26" s="131"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
@@ -9886,9 +9843,9 @@
       <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
       <c r="J27" s="131"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
@@ -9913,9 +9870,9 @@
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="140"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
       <c r="J28" s="131"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
@@ -9937,14 +9894,14 @@
     <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
       <c r="C29" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
       <c r="J29" s="131"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
@@ -9965,11 +9922,11 @@
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="132"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
       <c r="H30" s="46"/>
       <c r="I30" s="4"/>
       <c r="J30" s="131"/>
@@ -9992,15 +9949,15 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="144" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="144"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="144"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
+      <c r="C31" s="145" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="145"/>
+      <c r="I31" s="145"/>
       <c r="J31" s="131"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
@@ -10021,13 +9978,13 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="144"/>
-      <c r="D32" s="144"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="144"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="145"/>
+      <c r="I32" s="145"/>
       <c r="J32" s="131"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
@@ -10048,13 +10005,13 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
+      <c r="C33" s="145"/>
+      <c r="D33" s="145"/>
+      <c r="E33" s="145"/>
+      <c r="F33" s="145"/>
+      <c r="G33" s="145"/>
+      <c r="H33" s="145"/>
+      <c r="I33" s="145"/>
       <c r="J33" s="131"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
@@ -10075,13 +10032,13 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="98"/>
-      <c r="C34" s="144"/>
-      <c r="D34" s="144"/>
-      <c r="E34" s="144"/>
-      <c r="F34" s="144"/>
-      <c r="G34" s="144"/>
-      <c r="H34" s="144"/>
-      <c r="I34" s="144"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="145"/>
+      <c r="I34" s="145"/>
       <c r="J34" s="131"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
@@ -10101,15 +10058,15 @@
       <c r="AA34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -10128,17 +10085,17 @@
       <c r="AA35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="148"/>
-      <c r="C36" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="150"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="151"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -10159,7 +10116,7 @@
     <row r="37" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="94"/>
       <c r="C37" s="95" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="95"/>
       <c r="E37" s="96"/>
@@ -10186,15 +10143,15 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="151"/>
-      <c r="C38" s="152"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="152"/>
-      <c r="G38" s="152"/>
-      <c r="H38" s="152"/>
-      <c r="I38" s="152"/>
-      <c r="J38" s="152"/>
+      <c r="B38" s="152"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
+      <c r="G38" s="153"/>
+      <c r="H38" s="153"/>
+      <c r="I38" s="153"/>
+      <c r="J38" s="153"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10214,14 +10171,14 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
-      <c r="C39" s="152"/>
-      <c r="D39" s="152"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="152"/>
-      <c r="G39" s="152"/>
-      <c r="H39" s="152"/>
-      <c r="I39" s="152"/>
-      <c r="J39" s="152"/>
+      <c r="C39" s="153"/>
+      <c r="D39" s="153"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="153"/>
+      <c r="I39" s="153"/>
+      <c r="J39" s="153"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -10241,14 +10198,14 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
-      <c r="C40" s="152"/>
-      <c r="D40" s="152"/>
-      <c r="E40" s="152"/>
-      <c r="F40" s="152"/>
-      <c r="G40" s="152"/>
-      <c r="H40" s="152"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="153"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="153"/>
+      <c r="I40" s="153"/>
+      <c r="J40" s="153"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -10268,14 +10225,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
-      <c r="C41" s="152"/>
-      <c r="D41" s="152"/>
-      <c r="E41" s="152"/>
-      <c r="F41" s="152"/>
-      <c r="G41" s="152"/>
-      <c r="H41" s="152"/>
-      <c r="I41" s="152"/>
-      <c r="J41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="153"/>
+      <c r="F41" s="153"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="153"/>
+      <c r="I41" s="153"/>
+      <c r="J41" s="153"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -10295,14 +10252,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
-      <c r="C42" s="152"/>
-      <c r="D42" s="152"/>
-      <c r="E42" s="152"/>
-      <c r="F42" s="152"/>
-      <c r="G42" s="152"/>
-      <c r="H42" s="152"/>
-      <c r="I42" s="152"/>
-      <c r="J42" s="152"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="153"/>
+      <c r="F42" s="153"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="153"/>
+      <c r="I42" s="153"/>
+      <c r="J42" s="153"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -10322,14 +10279,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
-      <c r="C43" s="152"/>
-      <c r="D43" s="152"/>
-      <c r="E43" s="152"/>
-      <c r="F43" s="152"/>
-      <c r="G43" s="152"/>
-      <c r="H43" s="152"/>
-      <c r="I43" s="152"/>
-      <c r="J43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="153"/>
+      <c r="F43" s="153"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="153"/>
+      <c r="I43" s="153"/>
+      <c r="J43" s="153"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -10349,14 +10306,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
-      <c r="C44" s="152"/>
-      <c r="D44" s="152"/>
-      <c r="E44" s="152"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
-      <c r="H44" s="152"/>
-      <c r="I44" s="152"/>
-      <c r="J44" s="152"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="153"/>
+      <c r="F44" s="153"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="153"/>
+      <c r="I44" s="153"/>
+      <c r="J44" s="153"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -10376,14 +10333,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
-      <c r="C45" s="152"/>
-      <c r="D45" s="152"/>
-      <c r="E45" s="152"/>
-      <c r="F45" s="152"/>
-      <c r="G45" s="152"/>
-      <c r="H45" s="152"/>
-      <c r="I45" s="152"/>
-      <c r="J45" s="152"/>
+      <c r="C45" s="153"/>
+      <c r="D45" s="153"/>
+      <c r="E45" s="153"/>
+      <c r="F45" s="153"/>
+      <c r="G45" s="153"/>
+      <c r="H45" s="153"/>
+      <c r="I45" s="153"/>
+      <c r="J45" s="153"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -10403,14 +10360,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
-      <c r="C46" s="152"/>
-      <c r="D46" s="152"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="152"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="152"/>
-      <c r="I46" s="152"/>
-      <c r="J46" s="152"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="153"/>
+      <c r="J46" s="153"/>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -10430,14 +10387,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="98"/>
-      <c r="C47" s="152"/>
-      <c r="D47" s="152"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -10457,14 +10414,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="98"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -10484,14 +10441,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="152"/>
-      <c r="D49" s="152"/>
-      <c r="E49" s="152"/>
-      <c r="F49" s="152"/>
-      <c r="G49" s="152"/>
-      <c r="H49" s="152"/>
-      <c r="I49" s="152"/>
-      <c r="J49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="153"/>
+      <c r="F49" s="153"/>
+      <c r="G49" s="153"/>
+      <c r="H49" s="153"/>
+      <c r="I49" s="153"/>
+      <c r="J49" s="153"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -10511,14 +10468,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="152"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -10538,14 +10495,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="152"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -10565,14 +10522,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="152"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -10592,14 +10549,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="98"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="152"/>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="153"/>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -10619,14 +10576,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="98"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="152"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="152"/>
-      <c r="H54" s="152"/>
-      <c r="I54" s="152"/>
-      <c r="J54" s="152"/>
+      <c r="C54" s="153"/>
+      <c r="D54" s="153"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="153"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="153"/>
+      <c r="I54" s="153"/>
+      <c r="J54" s="153"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -10646,14 +10603,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="98"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="152"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="152"/>
-      <c r="I55" s="152"/>
-      <c r="J55" s="152"/>
+      <c r="C55" s="153"/>
+      <c r="D55" s="153"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="153"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="153"/>
+      <c r="I55" s="153"/>
+      <c r="J55" s="153"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -10672,15 +10629,15 @@
       <c r="AA55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="151"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="152"/>
-      <c r="E56" s="152"/>
-      <c r="F56" s="152"/>
-      <c r="G56" s="152"/>
-      <c r="H56" s="152"/>
-      <c r="I56" s="152"/>
-      <c r="J56" s="152"/>
+      <c r="B56" s="152"/>
+      <c r="C56" s="153"/>
+      <c r="D56" s="153"/>
+      <c r="E56" s="153"/>
+      <c r="F56" s="153"/>
+      <c r="G56" s="153"/>
+      <c r="H56" s="153"/>
+      <c r="I56" s="153"/>
+      <c r="J56" s="153"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -10699,17 +10656,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="153" t="s">
-        <v>48</v>
-      </c>
-      <c r="C57" s="153"/>
-      <c r="D57" s="153"/>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
+      <c r="B57" s="154" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -10821,20 +10778,20 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="154"/>
+      <c r="O64" s="155"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="154"/>
-      <c r="O65" s="154"/>
-      <c r="P65" s="154"/>
-      <c r="Q65" s="154"/>
-      <c r="R65" s="154"/>
-      <c r="S65" s="154"/>
-      <c r="T65" s="154"/>
-      <c r="U65" s="154"/>
-      <c r="V65" s="154"/>
-      <c r="W65" s="154"/>
-      <c r="X65" s="154"/>
+      <c r="N65" s="155"/>
+      <c r="O65" s="155"/>
+      <c r="P65" s="155"/>
+      <c r="Q65" s="155"/>
+      <c r="R65" s="155"/>
+      <c r="S65" s="155"/>
+      <c r="T65" s="155"/>
+      <c r="U65" s="155"/>
+      <c r="V65" s="155"/>
+      <c r="W65" s="155"/>
+      <c r="X65" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -10853,7 +10810,7 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="G23:N23"/>
+    <mergeCell ref="G23:I23"/>
     <mergeCell ref="C31:I34"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="C36:I36"/>
@@ -11057,7 +11014,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -11072,14 +11029,14 @@
   </cols>
   <sheetData>
     <row r="2" s="91" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="155" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
+      <c r="B2" s="156" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
       <c r="AKY2" s="0"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
@@ -11120,21 +11077,21 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="156"/>
-      <c r="C3" s="157" t="s">
+      <c r="B3" s="157"/>
+      <c r="C3" s="158" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="160"/>
+      <c r="C4" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="159"/>
-      <c r="C4" s="160" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="160"/>
+      <c r="D4" s="161"/>
       <c r="E4" s="87" t="s">
         <v>14</v>
       </c>
@@ -11147,81 +11104,81 @@
       <c r="L4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="159"/>
-      <c r="C5" s="160" t="s">
+      <c r="B5" s="160"/>
+      <c r="C5" s="161" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="162"/>
+      <c r="E5" s="161" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="163"/>
+      <c r="G5" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="160" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="162"/>
-      <c r="G5" s="163" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="165"/>
+      <c r="C6" s="166" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="164"/>
-      <c r="C6" s="165" t="s">
+      <c r="D6" s="167"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="169"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="160"/>
+      <c r="C7" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="166"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
-    </row>
-    <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="159"/>
-      <c r="C7" s="160" t="s">
+      <c r="D7" s="170"/>
+      <c r="E7" s="171" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="169"/>
-      <c r="E7" s="170" t="s">
+      <c r="F7" s="172"/>
+      <c r="G7" s="173"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="160"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="175" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="159"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174" t="s">
+      <c r="E8" s="175" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="174" t="s">
+      <c r="F8" s="175" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="G8" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="175" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="160"/>
+      <c r="C9" s="174"/>
+      <c r="D9" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="177" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="159"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="176" t="s">
+      <c r="F9" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="176" t="s">
+      <c r="G9" s="177" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="176" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="160"/>
+      <c r="C10" s="164" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="159"/>
-      <c r="C10" s="163" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="177"/>
-      <c r="E10" s="178"/>
-      <c r="F10" s="179"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
       <c r="G10" s="87" t="s">
         <v>14</v>
       </c>
@@ -11234,13 +11191,13 @@
       <c r="N10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="159"/>
-      <c r="C11" s="163" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="177"/>
-      <c r="E11" s="178"/>
-      <c r="F11" s="179"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="164" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="178"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
       <c r="G11" s="87" t="s">
         <v>14</v>
       </c>
@@ -11253,13 +11210,13 @@
       <c r="N11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="159"/>
-      <c r="C12" s="163" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="177"/>
-      <c r="E12" s="178"/>
-      <c r="F12" s="179"/>
+      <c r="B12" s="160"/>
+      <c r="C12" s="164" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="178"/>
+      <c r="E12" s="179"/>
+      <c r="F12" s="180"/>
       <c r="G12" s="87" t="s">
         <v>14</v>
       </c>
@@ -11272,13 +11229,13 @@
       <c r="N12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="159"/>
-      <c r="C13" s="163" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="177"/>
-      <c r="E13" s="178"/>
-      <c r="F13" s="179"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="164" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="178"/>
+      <c r="E13" s="179"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="87" t="s">
         <v>14</v>
       </c>
@@ -11291,13 +11248,13 @@
       <c r="N13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="159"/>
-      <c r="C14" s="163" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
-      <c r="F14" s="179"/>
+      <c r="B14" s="160"/>
+      <c r="C14" s="164" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="178"/>
+      <c r="E14" s="179"/>
+      <c r="F14" s="180"/>
       <c r="G14" s="87" t="s">
         <v>14</v>
       </c>
@@ -11310,17 +11267,17 @@
       <c r="N14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="159"/>
-      <c r="C15" s="163" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="180" t="s">
+      <c r="B15" s="160"/>
+      <c r="C15" s="164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="178"/>
+      <c r="F15" s="179"/>
       <c r="G15" s="87" t="s">
         <v>14</v>
       </c>
@@ -11333,562 +11290,562 @@
       <c r="N15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="164"/>
-      <c r="C16" s="165" t="s">
+      <c r="B16" s="165"/>
+      <c r="C16" s="166" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="168"/>
+      <c r="G16" s="169"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="160"/>
+      <c r="C17" s="174"/>
+      <c r="D17" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="184" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="166"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="168"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="159"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="182" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="182" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="183" t="s">
+      <c r="G17" s="185"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="160"/>
+      <c r="C18" s="174"/>
+      <c r="D18" s="177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="177" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="186" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="185"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="160"/>
+      <c r="C19" s="161" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="184"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="159"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="E18" s="176" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="185" t="s">
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="163"/>
+      <c r="G19" s="185"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="160"/>
+      <c r="C20" s="161" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="185"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="160"/>
+      <c r="C21" s="161" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="179"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="185"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="160"/>
+      <c r="C22" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="185"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="160"/>
+      <c r="C23" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="179"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="185"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="160"/>
+      <c r="C24" s="161" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="179"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="163"/>
+      <c r="G24" s="185"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="160"/>
+      <c r="C25" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="179"/>
+      <c r="E25" s="179"/>
+      <c r="F25" s="163"/>
+      <c r="G25" s="185"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="160"/>
+      <c r="C26" s="161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="163"/>
+      <c r="G26" s="185"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="157"/>
+      <c r="C27" s="158" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="160"/>
+      <c r="C28" s="164" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="187"/>
+      <c r="E28" s="187"/>
+      <c r="F28" s="187"/>
+      <c r="G28" s="187"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="188"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="190"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="160"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="175" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="175" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="160"/>
+      <c r="C31" s="191"/>
+      <c r="D31" s="193" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="183" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="183" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" s="183"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="160"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="194" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="177" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="184"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="159"/>
-      <c r="C19" s="160" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="178"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="184"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="159"/>
-      <c r="C20" s="160" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="178"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="184"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="159"/>
-      <c r="C21" s="160" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="178"/>
-      <c r="E21" s="178"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="184"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="159"/>
-      <c r="C22" s="160" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="178"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="184"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="159"/>
-      <c r="C23" s="160" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="178"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="184"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="159"/>
-      <c r="C24" s="160" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="178"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="184"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="159"/>
-      <c r="C25" s="160" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="162"/>
-      <c r="G25" s="184"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="159"/>
-      <c r="C26" s="160" t="s">
+      <c r="G32" s="195" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="160"/>
+      <c r="C33" s="164" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="196"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="179"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="160"/>
+      <c r="C34" s="164" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="196"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="188"/>
+      <c r="C35" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="184"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="156"/>
-      <c r="C27" s="157" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="158"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="10"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="159"/>
-      <c r="C28" s="163" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="187"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="188"/>
-      <c r="E29" s="188"/>
-      <c r="F29" s="188"/>
-      <c r="G29" s="189"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="159"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="191" t="s">
-        <v>82</v>
-      </c>
-      <c r="E30" s="174" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="174" t="s">
-        <v>84</v>
-      </c>
-      <c r="G30" s="174" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="159"/>
-      <c r="C31" s="190"/>
-      <c r="D31" s="192" t="s">
-        <v>86</v>
-      </c>
-      <c r="E31" s="182" t="s">
-        <v>87</v>
-      </c>
-      <c r="F31" s="182" t="s">
-        <v>88</v>
-      </c>
-      <c r="G31" s="182"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="159"/>
-      <c r="C32" s="190"/>
-      <c r="D32" s="193" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="176" t="s">
-        <v>90</v>
-      </c>
-      <c r="F32" s="176" t="s">
+      <c r="D35" s="200"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="194" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="159"/>
-      <c r="C33" s="163" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="195"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="178"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="159"/>
-      <c r="C34" s="163" t="s">
+      <c r="G35" s="203" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="160"/>
+      <c r="C36" s="204" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="195"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="179" t="s">
+      <c r="D36" s="204"/>
+      <c r="E36" s="205"/>
+      <c r="F36" s="205"/>
+      <c r="G36" s="205"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="157"/>
+      <c r="C37" s="158" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="160"/>
+      <c r="C38" s="161" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="206"/>
+      <c r="G38" s="206"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="160"/>
+      <c r="C39" s="189"/>
+      <c r="D39" s="207"/>
+      <c r="E39" s="207"/>
+      <c r="F39" s="207"/>
+      <c r="G39" s="207"/>
+    </row>
+    <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="208"/>
+      <c r="C40" s="209"/>
+      <c r="D40" s="175" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="210" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="175" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="175" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="160"/>
+      <c r="C41" s="174"/>
+      <c r="D41" s="183" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="183"/>
+      <c r="G41" s="183" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="160"/>
+      <c r="C42" s="174"/>
+      <c r="D42" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="197" t="s">
+      <c r="E42" s="212" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="187"/>
-      <c r="C35" s="198" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="199"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="201" t="s">
+      <c r="F42" s="212" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="202" t="s">
+      <c r="G42" s="177" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="160"/>
+      <c r="C43" s="161" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="160"/>
+      <c r="C44" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D44" s="197"/>
+      <c r="E44" s="197"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="160"/>
+      <c r="C45" s="213" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="214"/>
+      <c r="E45" s="214"/>
+      <c r="F45" s="214"/>
+      <c r="G45" s="214"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="160"/>
+      <c r="C46" s="213" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="161"/>
+      <c r="E46" s="161"/>
+      <c r="F46" s="161"/>
+      <c r="G46" s="164"/>
+    </row>
+    <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="160"/>
+      <c r="C47" s="215"/>
+      <c r="D47" s="215"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="216"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="160"/>
+      <c r="C48" s="174"/>
+      <c r="D48" s="175" t="s">
+        <v>106</v>
+      </c>
+      <c r="E48" s="175" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="217"/>
+      <c r="G48" s="190"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="160"/>
+      <c r="C49" s="174"/>
+      <c r="D49" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="F49" s="217"/>
+      <c r="G49" s="190"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="160"/>
+      <c r="C50" s="161" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="179"/>
+      <c r="E50" s="179"/>
+      <c r="F50" s="217"/>
+      <c r="G50" s="190"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="160"/>
+      <c r="C51" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" s="179"/>
+      <c r="E51" s="179"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="190"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="157"/>
+      <c r="C52" s="158" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="159"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="160"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="218" t="s">
+        <v>113</v>
+      </c>
+      <c r="E53" s="193"/>
+      <c r="F53" s="193"/>
+      <c r="G53" s="190"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="160"/>
+      <c r="C54" s="174"/>
+      <c r="D54" s="219" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="159"/>
-      <c r="C36" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="203"/>
-      <c r="E36" s="204"/>
-      <c r="F36" s="204"/>
-      <c r="G36" s="204"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="156"/>
-      <c r="C37" s="157" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="158"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="10"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="159"/>
-      <c r="C38" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="159"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="206"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="206"/>
-      <c r="G39" s="206"/>
-    </row>
-    <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="207"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="174" t="s">
-        <v>97</v>
-      </c>
-      <c r="E40" s="209" t="s">
-        <v>98</v>
-      </c>
-      <c r="F40" s="174" t="s">
-        <v>99</v>
-      </c>
-      <c r="G40" s="174" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="159"/>
-      <c r="C41" s="173"/>
-      <c r="D41" s="182" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="210" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="182"/>
-      <c r="G41" s="182" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="159"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="211" t="s">
+      <c r="E54" s="219"/>
+      <c r="F54" s="193"/>
+      <c r="G54" s="190"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="160"/>
+      <c r="C55" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="220"/>
+      <c r="F55" s="193"/>
+      <c r="G55" s="190"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="157"/>
+      <c r="C56" s="158" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="10"/>
+    </row>
+    <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="160"/>
+      <c r="C57" s="189"/>
+      <c r="D57" s="221" t="s">
+        <v>115</v>
+      </c>
+      <c r="E57" s="222" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="189"/>
+      <c r="G57" s="190"/>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="160"/>
+      <c r="C58" s="174"/>
+      <c r="D58" s="223" t="s">
+        <v>117</v>
+      </c>
+      <c r="E58" s="177" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="189"/>
+      <c r="G58" s="190"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="160"/>
+      <c r="C59" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="224"/>
+      <c r="E59" s="179"/>
+      <c r="F59" s="225" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="190"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="157"/>
+      <c r="C60" s="158" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" s="159"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="226"/>
+    </row>
+    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="160"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="E61" s="183" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="217" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="183" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="160"/>
+      <c r="C62" s="174"/>
+      <c r="D62" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="211" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="176" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="159"/>
-      <c r="C43" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="159"/>
-      <c r="C44" s="160" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="178"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="159"/>
-      <c r="C45" s="212" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="159"/>
-      <c r="C46" s="212" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" s="160"/>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="163"/>
-    </row>
-    <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="159"/>
-      <c r="C47" s="214"/>
-      <c r="D47" s="214"/>
-      <c r="E47" s="214"/>
-      <c r="F47" s="214"/>
-      <c r="G47" s="215"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="159"/>
-      <c r="C48" s="173"/>
-      <c r="D48" s="174" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="174" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="216"/>
-      <c r="G48" s="189"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="159"/>
-      <c r="C49" s="173"/>
-      <c r="D49" s="176" t="s">
-        <v>109</v>
-      </c>
-      <c r="E49" s="176" t="s">
-        <v>110</v>
-      </c>
-      <c r="F49" s="216"/>
-      <c r="G49" s="189"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="159"/>
-      <c r="C50" s="160" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="216"/>
-      <c r="G50" s="189"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="159"/>
-      <c r="C51" s="160" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="216"/>
-      <c r="G51" s="189"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="156"/>
-      <c r="C52" s="157" t="s">
-        <v>113</v>
-      </c>
-      <c r="D52" s="158"/>
-      <c r="E52" s="158"/>
-      <c r="F52" s="158"/>
-      <c r="G52" s="10"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="159"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="217" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="192"/>
-      <c r="F53" s="192"/>
-      <c r="G53" s="189"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="159"/>
-      <c r="C54" s="173"/>
-      <c r="D54" s="218" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="218"/>
-      <c r="F54" s="192"/>
-      <c r="G54" s="189"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="219"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="189"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="156"/>
-      <c r="C56" s="157" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="10"/>
-    </row>
-    <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="159"/>
-      <c r="C57" s="188"/>
-      <c r="D57" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="221" t="s">
-        <v>117</v>
-      </c>
-      <c r="F57" s="188"/>
-      <c r="G57" s="189"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="159"/>
-      <c r="C58" s="173"/>
-      <c r="D58" s="222" t="s">
-        <v>118</v>
-      </c>
-      <c r="E58" s="176" t="s">
-        <v>31</v>
-      </c>
-      <c r="F58" s="188"/>
-      <c r="G58" s="189"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="159"/>
-      <c r="C59" s="160" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="223"/>
-      <c r="E59" s="178"/>
-      <c r="F59" s="224" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" s="189"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="156"/>
-      <c r="C60" s="157" t="s">
-        <v>120</v>
-      </c>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="225"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="159"/>
-      <c r="C61" s="173"/>
-      <c r="D61" s="182" t="s">
-        <v>121</v>
-      </c>
-      <c r="E61" s="182" t="s">
-        <v>122</v>
-      </c>
-      <c r="F61" s="216" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="182" t="s">
+      <c r="E62" s="177" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="159"/>
-      <c r="C62" s="173"/>
-      <c r="D62" s="176" t="s">
-        <v>32</v>
-      </c>
-      <c r="E62" s="176" t="s">
-        <v>125</v>
-      </c>
-      <c r="F62" s="222" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="176" t="s">
-        <v>125</v>
+      <c r="F62" s="223" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="177" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="159"/>
+      <c r="B63" s="160"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="178"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="178"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="179"/>
+      <c r="F63" s="224"/>
+      <c r="G63" s="179"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="159"/>
+      <c r="B64" s="160"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="196"/>
-      <c r="E64" s="178"/>
-      <c r="F64" s="223"/>
-      <c r="G64" s="178"/>
+      <c r="D64" s="197"/>
+      <c r="E64" s="179"/>
+      <c r="F64" s="224"/>
+      <c r="G64" s="179"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="226"/>
-      <c r="C65" s="171"/>
-      <c r="D65" s="227"/>
-      <c r="E65" s="227"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="227"/>
+      <c r="B65" s="227"/>
+      <c r="C65" s="172"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="228"/>
+      <c r="F65" s="227"/>
+      <c r="G65" s="228"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12416,7 +12373,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -12432,14 +12389,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="228"/>
-      <c r="C2" s="229" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="230"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="230"/>
-      <c r="G2" s="231"/>
+      <c r="B2" s="229"/>
+      <c r="C2" s="230" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="231"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="231"/>
+      <c r="G2" s="232"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12479,67 +12436,67 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="232"/>
-      <c r="C3" s="233" t="s">
+      <c r="B3" s="233"/>
+      <c r="C3" s="234" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="236"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="160"/>
+      <c r="C4" s="237" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="235"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="159"/>
-      <c r="C4" s="236" t="s">
+      <c r="D4" s="238" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="238"/>
+      <c r="F4" s="238"/>
+      <c r="G4" s="238"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="160"/>
+      <c r="C5" s="237"/>
+      <c r="D5" s="238"/>
+      <c r="E5" s="238"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+    </row>
+    <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="160"/>
+      <c r="C6" s="237"/>
+      <c r="D6" s="239"/>
+      <c r="E6" s="239"/>
+      <c r="F6" s="239"/>
+      <c r="G6" s="240"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="160"/>
+      <c r="C7" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="237" t="s">
+      <c r="D7" s="241"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="164"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="160"/>
+      <c r="C8" s="162" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="159"/>
-      <c r="C5" s="236"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="237"/>
-      <c r="G5" s="237"/>
-    </row>
-    <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="159"/>
-      <c r="C6" s="236"/>
-      <c r="D6" s="238"/>
-      <c r="E6" s="238"/>
-      <c r="F6" s="238"/>
-      <c r="G6" s="239"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="159"/>
-      <c r="C7" s="161" t="s">
-        <v>52</v>
-      </c>
-      <c r="D7" s="240"/>
-      <c r="E7" s="241"/>
-      <c r="F7" s="173"/>
-      <c r="G7" s="163"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="159"/>
-      <c r="C8" s="161" t="s">
+      <c r="D8" s="241"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="191"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="160"/>
+      <c r="C9" s="218" t="s">
         <v>128</v>
-      </c>
-      <c r="D8" s="240"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="190"/>
-    </row>
-    <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="159"/>
-      <c r="C9" s="217" t="s">
-        <v>129</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>14</v>
@@ -12553,734 +12510,734 @@
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="187"/>
-      <c r="C10" s="243"/>
-      <c r="D10" s="243"/>
-      <c r="E10" s="243"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="172"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="173"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="232"/>
-      <c r="C11" s="233" t="s">
+      <c r="B11" s="233"/>
+      <c r="C11" s="234" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="236"/>
+    </row>
+    <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="160"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="245"/>
+      <c r="E12" s="245"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="190"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="160"/>
+      <c r="C13" s="243" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="234"/>
-      <c r="E11" s="234"/>
-      <c r="F11" s="234"/>
-      <c r="G11" s="235"/>
-    </row>
-    <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="159"/>
-      <c r="C12" s="188"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="189"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="159"/>
-      <c r="C13" s="242" t="s">
+      <c r="D13" s="183" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="E13" s="183" t="s">
         <v>132</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="F13" s="184" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="G13" s="184"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="160"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="183" t="s">
         <v>134</v>
       </c>
-      <c r="G13" s="183"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="159"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="182" t="s">
+      <c r="E14" s="183" t="s">
         <v>135</v>
       </c>
-      <c r="E14" s="182" t="s">
+      <c r="F14" s="184" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="183" t="s">
+      <c r="G14" s="184"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="188"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="177" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="177" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="223" t="s">
         <v>137</v>
       </c>
-      <c r="G14" s="183"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="187"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="176" t="s">
+      <c r="G15" s="186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="160"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="183"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="184"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="160"/>
+      <c r="C17" s="247" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="179"/>
+      <c r="E17" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="160"/>
+      <c r="C18" s="247" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="179"/>
+      <c r="E18" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="160"/>
+      <c r="C19" s="249" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="179"/>
+      <c r="E19" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="160"/>
+      <c r="C20" s="249" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="179"/>
+      <c r="E20" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="160"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="160"/>
+      <c r="C22" s="243" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="248" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="160"/>
+      <c r="C23" s="189"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="207"/>
+      <c r="F23" s="207"/>
+      <c r="G23" s="190"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="233"/>
+      <c r="C24" s="234" t="s">
+        <v>139</v>
+      </c>
+      <c r="D24" s="159"/>
+      <c r="E24" s="235"/>
+      <c r="F24" s="235"/>
+      <c r="G24" s="236"/>
+    </row>
+    <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="208"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="190"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="160"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="191"/>
+      <c r="E26" s="182" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="176" t="s">
+      <c r="F26" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="190"/>
+    </row>
+    <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="160"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="183"/>
+      <c r="F27" s="183"/>
+      <c r="G27" s="190"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="160"/>
+      <c r="C28" s="253" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="253"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="254"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="160"/>
+      <c r="C29" s="253" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="253"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="254"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="160"/>
+      <c r="C30" s="255" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="255"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="254"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="160"/>
+      <c r="C31" s="255" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="255"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="254"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="160"/>
+      <c r="C32" s="255" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="255"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="254"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="160"/>
+      <c r="C33" s="255" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" s="255"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="248" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="254"/>
+    </row>
+    <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="188"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="173"/>
+      <c r="E34" s="207"/>
+      <c r="F34" s="207"/>
+      <c r="G34" s="190"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="233"/>
+      <c r="C35" s="234" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="235"/>
+      <c r="E35" s="235"/>
+      <c r="F35" s="235"/>
+      <c r="G35" s="236"/>
+    </row>
+    <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="160"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="245"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="245"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="160"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
+      <c r="E37" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="183" t="s">
+        <v>148</v>
+      </c>
+      <c r="G37" s="183" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="160"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="182" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="160"/>
+      <c r="C39" s="174"/>
+      <c r="D39" s="174"/>
+      <c r="E39" s="183"/>
+      <c r="F39" s="183"/>
+      <c r="G39" s="183"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="160"/>
+      <c r="C40" s="161" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="161"/>
+      <c r="E40" s="183"/>
+      <c r="F40" s="183"/>
+      <c r="G40" s="183"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="160"/>
+      <c r="C41" s="161" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="161"/>
+      <c r="E41" s="179"/>
+      <c r="F41" s="179"/>
+      <c r="G41" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="222" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="160"/>
+      <c r="C42" s="161" t="s">
+        <v>151</v>
+      </c>
+      <c r="D42" s="161"/>
+      <c r="E42" s="179"/>
+      <c r="F42" s="179"/>
+      <c r="G42" s="183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="160"/>
+      <c r="C43" s="161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="161"/>
+      <c r="E43" s="179"/>
+      <c r="F43" s="179"/>
+      <c r="G43" s="179"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="160"/>
+      <c r="C44" s="161" t="s">
+        <v>153</v>
+      </c>
+      <c r="D44" s="161"/>
+      <c r="E44" s="179"/>
+      <c r="F44" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="160"/>
+      <c r="C45" s="161" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="161"/>
+      <c r="E45" s="179"/>
+      <c r="F45" s="179"/>
+      <c r="G45" s="179"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="160"/>
+      <c r="C46" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="161"/>
+      <c r="E46" s="179"/>
+      <c r="F46" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="183" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="160"/>
+      <c r="C47" s="243" t="s">
         <v>138</v>
       </c>
-      <c r="G15" s="185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="159"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="182"/>
-      <c r="E16" s="182"/>
-      <c r="F16" s="174"/>
-      <c r="G16" s="183"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="159"/>
-      <c r="C17" s="246" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="178"/>
-      <c r="E17" s="247" t="s">
+      <c r="D47" s="243"/>
+      <c r="E47" s="182"/>
+      <c r="F47" s="182"/>
+      <c r="G47" s="182"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="160"/>
+      <c r="C48" s="213" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="243"/>
+      <c r="E48" s="219"/>
+      <c r="F48" s="182"/>
+      <c r="G48" s="182"/>
+    </row>
+    <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="160"/>
+      <c r="C49" s="189"/>
+      <c r="D49" s="189"/>
+      <c r="E49" s="207"/>
+      <c r="F49" s="207"/>
+      <c r="G49" s="207"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="233"/>
+      <c r="C50" s="234" t="s">
+        <v>156</v>
+      </c>
+      <c r="D50" s="235"/>
+      <c r="E50" s="235"/>
+      <c r="F50" s="235"/>
+      <c r="G50" s="236"/>
+    </row>
+    <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="160"/>
+      <c r="C51" s="189"/>
+      <c r="D51" s="189"/>
+      <c r="E51" s="245"/>
+      <c r="F51" s="245"/>
+      <c r="G51" s="245"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="160"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="182" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="182"/>
+    </row>
+    <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="160"/>
+      <c r="C53" s="174"/>
+      <c r="D53" s="174"/>
+      <c r="E53" s="183"/>
+      <c r="F53" s="183"/>
+      <c r="G53" s="183"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="160"/>
+      <c r="C54" s="161" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="161"/>
+      <c r="E54" s="179"/>
+      <c r="F54" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="247" t="s">
+      <c r="G54" s="182"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="160"/>
+      <c r="C55" s="161" t="s">
+        <v>158</v>
+      </c>
+      <c r="D55" s="161"/>
+      <c r="E55" s="179"/>
+      <c r="F55" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="247" t="s">
+      <c r="G55" s="183"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="160"/>
+      <c r="C56" s="161" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="161"/>
+      <c r="E56" s="179"/>
+      <c r="F56" s="248" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="159"/>
-      <c r="C18" s="246" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="247" t="s">
+      <c r="G56" s="182"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="160"/>
+      <c r="C57" s="161" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" s="161"/>
+      <c r="E57" s="179"/>
+      <c r="F57" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="247" t="s">
+      <c r="G57" s="183"/>
+    </row>
+    <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="160"/>
+      <c r="C58" s="161"/>
+      <c r="D58" s="161"/>
+      <c r="E58" s="256"/>
+      <c r="F58" s="256"/>
+      <c r="G58" s="257"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="160"/>
+      <c r="C59" s="213" t="s">
+        <v>160</v>
+      </c>
+      <c r="D59" s="258"/>
+      <c r="E59" s="259"/>
+      <c r="F59" s="259"/>
+      <c r="G59" s="257"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="160"/>
+      <c r="C60" s="213" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="258"/>
+      <c r="E60" s="259"/>
+      <c r="F60" s="259"/>
+      <c r="G60" s="260"/>
+    </row>
+    <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="160"/>
+      <c r="C61" s="161"/>
+      <c r="D61" s="189"/>
+      <c r="E61" s="207"/>
+      <c r="F61" s="207"/>
+      <c r="G61" s="207"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="233"/>
+      <c r="C62" s="234" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="235"/>
+      <c r="E62" s="235"/>
+      <c r="F62" s="235"/>
+      <c r="G62" s="236"/>
+    </row>
+    <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="160"/>
+      <c r="C63" s="189"/>
+      <c r="D63" s="189"/>
+      <c r="E63" s="245"/>
+      <c r="F63" s="245"/>
+      <c r="G63" s="245"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="160"/>
+      <c r="C64" s="174"/>
+      <c r="D64" s="174"/>
+      <c r="E64" s="182" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="182" t="s">
+        <v>31</v>
+      </c>
+      <c r="G64" s="183"/>
+    </row>
+    <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="160"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="174"/>
+      <c r="E65" s="183"/>
+      <c r="F65" s="183"/>
+      <c r="G65" s="183"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="160"/>
+      <c r="C66" s="161" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="161"/>
+      <c r="E66" s="179"/>
+      <c r="F66" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="247" t="s">
+      <c r="G66" s="183"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="160"/>
+      <c r="C67" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="161"/>
+      <c r="E67" s="179"/>
+      <c r="F67" s="248" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="159"/>
-      <c r="C19" s="248" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="178"/>
-      <c r="E19" s="247" t="s">
+      <c r="G67" s="183"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="160"/>
+      <c r="C68" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="161"/>
+      <c r="E68" s="179"/>
+      <c r="F68" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="247" t="s">
+      <c r="G68" s="183"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="160"/>
+      <c r="C69" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="161"/>
+      <c r="E69" s="179"/>
+      <c r="F69" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="247" t="s">
+      <c r="G69" s="183"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="160"/>
+      <c r="C70" s="161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D70" s="161"/>
+      <c r="E70" s="179"/>
+      <c r="F70" s="248" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="159"/>
-      <c r="C20" s="248" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="178"/>
-      <c r="E20" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="159"/>
-      <c r="C21" s="249"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="159"/>
-      <c r="C22" s="242" t="s">
-        <v>139</v>
-      </c>
-      <c r="D22" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="247" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="159"/>
-      <c r="C23" s="188"/>
-      <c r="D23" s="206"/>
-      <c r="E23" s="206"/>
-      <c r="F23" s="206"/>
-      <c r="G23" s="189"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="232"/>
-      <c r="C24" s="233" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" s="158"/>
-      <c r="E24" s="234"/>
-      <c r="F24" s="234"/>
-      <c r="G24" s="235"/>
-    </row>
-    <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="207"/>
-      <c r="C25" s="250"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="244"/>
-      <c r="F25" s="244"/>
-      <c r="G25" s="189"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="159"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="190"/>
-      <c r="E26" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G26" s="189"/>
-    </row>
-    <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="159"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="190"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="189"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="159"/>
-      <c r="C28" s="252" t="s">
-        <v>141</v>
-      </c>
-      <c r="D28" s="252"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="253"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="159"/>
-      <c r="C29" s="252" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="252"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="253"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="159"/>
-      <c r="C30" s="254" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="254"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="253"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="159"/>
-      <c r="C31" s="254" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="254"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="253"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="159"/>
-      <c r="C32" s="254" t="s">
-        <v>145</v>
-      </c>
-      <c r="D32" s="254"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="253"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="159"/>
-      <c r="C33" s="254" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="254"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="253"/>
-    </row>
-    <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="187"/>
-      <c r="C34" s="243"/>
-      <c r="D34" s="172"/>
-      <c r="E34" s="206"/>
-      <c r="F34" s="206"/>
-      <c r="G34" s="189"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="232"/>
-      <c r="C35" s="233" t="s">
-        <v>147</v>
-      </c>
-      <c r="D35" s="234"/>
-      <c r="E35" s="234"/>
-      <c r="F35" s="234"/>
-      <c r="G35" s="235"/>
-    </row>
-    <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="159"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="244"/>
-      <c r="F36" s="244"/>
-      <c r="G36" s="244"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="159"/>
-      <c r="C37" s="173"/>
-      <c r="D37" s="173"/>
-      <c r="E37" s="182" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="182" t="s">
-        <v>149</v>
-      </c>
-      <c r="G37" s="182" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="159"/>
-      <c r="C38" s="173"/>
-      <c r="D38" s="173"/>
-      <c r="E38" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="181" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="159"/>
-      <c r="C39" s="173"/>
-      <c r="D39" s="173"/>
-      <c r="E39" s="182"/>
-      <c r="F39" s="182"/>
-      <c r="G39" s="182"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="159"/>
-      <c r="C40" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D40" s="160"/>
-      <c r="E40" s="182"/>
-      <c r="F40" s="182"/>
-      <c r="G40" s="182"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="159"/>
-      <c r="C41" s="160" t="s">
-        <v>151</v>
-      </c>
-      <c r="D41" s="160"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="159"/>
-      <c r="C42" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="D42" s="160"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="159"/>
-      <c r="C43" s="160" t="s">
-        <v>153</v>
-      </c>
-      <c r="D43" s="160"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="178"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="159"/>
-      <c r="C44" s="160" t="s">
-        <v>154</v>
-      </c>
-      <c r="D44" s="160"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="159"/>
-      <c r="C45" s="160" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="160"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="178"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="159"/>
-      <c r="C46" s="160" t="s">
-        <v>155</v>
-      </c>
-      <c r="D46" s="160"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="182" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="182" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="159"/>
-      <c r="C47" s="242" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="242"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="159"/>
-      <c r="C48" s="212" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="242"/>
-      <c r="E48" s="218"/>
-      <c r="F48" s="181"/>
-      <c r="G48" s="181"/>
-    </row>
-    <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="159"/>
-      <c r="C49" s="188"/>
-      <c r="D49" s="188"/>
-      <c r="E49" s="206"/>
-      <c r="F49" s="206"/>
-      <c r="G49" s="206"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="232"/>
-      <c r="C50" s="233" t="s">
-        <v>157</v>
-      </c>
-      <c r="D50" s="234"/>
-      <c r="E50" s="234"/>
-      <c r="F50" s="234"/>
-      <c r="G50" s="235"/>
-    </row>
-    <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="159"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="244"/>
-      <c r="F51" s="244"/>
-      <c r="G51" s="244"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="159"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="173"/>
-      <c r="E52" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="181"/>
-    </row>
-    <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="159"/>
-      <c r="C53" s="173"/>
-      <c r="D53" s="173"/>
-      <c r="E53" s="182"/>
-      <c r="F53" s="182"/>
-      <c r="G53" s="182"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="159"/>
-      <c r="C54" s="160" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="160"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="181"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="159"/>
-      <c r="C55" s="160" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="160"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="182"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="159"/>
-      <c r="C56" s="160" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="160"/>
-      <c r="E56" s="178"/>
-      <c r="F56" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="181"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="159"/>
-      <c r="C57" s="160" t="s">
-        <v>160</v>
-      </c>
-      <c r="D57" s="160"/>
-      <c r="E57" s="178"/>
-      <c r="F57" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="182"/>
-    </row>
-    <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="159"/>
-      <c r="C58" s="160"/>
-      <c r="D58" s="160"/>
-      <c r="E58" s="255"/>
-      <c r="F58" s="255"/>
-      <c r="G58" s="256"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="159"/>
-      <c r="C59" s="212" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="257"/>
-      <c r="E59" s="258"/>
-      <c r="F59" s="258"/>
-      <c r="G59" s="256"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="159"/>
-      <c r="C60" s="212" t="s">
-        <v>162</v>
-      </c>
-      <c r="D60" s="257"/>
-      <c r="E60" s="258"/>
-      <c r="F60" s="258"/>
-      <c r="G60" s="259"/>
-    </row>
-    <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="159"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="206"/>
-      <c r="F61" s="206"/>
-      <c r="G61" s="206"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="232"/>
-      <c r="C62" s="233" t="s">
-        <v>163</v>
-      </c>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="235"/>
-    </row>
-    <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="159"/>
-      <c r="C63" s="188"/>
-      <c r="D63" s="188"/>
-      <c r="E63" s="244"/>
-      <c r="F63" s="244"/>
-      <c r="G63" s="244"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="159"/>
-      <c r="C64" s="173"/>
-      <c r="D64" s="173"/>
-      <c r="E64" s="181" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="181" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="182"/>
-    </row>
-    <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="159"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="173"/>
-      <c r="E65" s="182"/>
-      <c r="F65" s="182"/>
-      <c r="G65" s="182"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="159"/>
-      <c r="C66" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="D66" s="160"/>
-      <c r="E66" s="178"/>
-      <c r="F66" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="182"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="159"/>
-      <c r="C67" s="160" t="s">
-        <v>122</v>
-      </c>
-      <c r="D67" s="160"/>
-      <c r="E67" s="178"/>
-      <c r="F67" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="182"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="159"/>
-      <c r="C68" s="160" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" s="160"/>
-      <c r="E68" s="178"/>
-      <c r="F68" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="182"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="159"/>
-      <c r="C69" s="160" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="160"/>
-      <c r="E69" s="178"/>
-      <c r="F69" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="182"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="159"/>
-      <c r="C70" s="160" t="s">
+      <c r="G70" s="183"/>
+    </row>
+    <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="160"/>
+      <c r="C71" s="161"/>
+      <c r="D71" s="189"/>
+      <c r="E71" s="207"/>
+      <c r="F71" s="207"/>
+      <c r="G71" s="207"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="233"/>
+      <c r="C72" s="234" t="s">
         <v>165</v>
       </c>
-      <c r="D70" s="160"/>
-      <c r="E70" s="178"/>
-      <c r="F70" s="247" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="182"/>
-    </row>
-    <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="159"/>
-      <c r="C71" s="160"/>
-      <c r="D71" s="188"/>
-      <c r="E71" s="206"/>
-      <c r="F71" s="206"/>
-      <c r="G71" s="206"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="232"/>
-      <c r="C72" s="233" t="s">
-        <v>166</v>
-      </c>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="235"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="235"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="236"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="159"/>
-      <c r="C73" s="188"/>
-      <c r="D73" s="188"/>
-      <c r="E73" s="207"/>
-      <c r="F73" s="250"/>
-      <c r="G73" s="251"/>
+      <c r="B73" s="160"/>
+      <c r="C73" s="189"/>
+      <c r="D73" s="189"/>
+      <c r="E73" s="208"/>
+      <c r="F73" s="251"/>
+      <c r="G73" s="252"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="159"/>
-      <c r="C74" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="D74" s="160"/>
-      <c r="E74" s="260"/>
-      <c r="F74" s="260"/>
-      <c r="G74" s="260"/>
+      <c r="B74" s="160"/>
+      <c r="C74" s="161" t="s">
+        <v>165</v>
+      </c>
+      <c r="D74" s="161"/>
+      <c r="E74" s="261"/>
+      <c r="F74" s="261"/>
+      <c r="G74" s="261"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="226"/>
-      <c r="C75" s="171"/>
-      <c r="D75" s="171"/>
-      <c r="E75" s="226"/>
-      <c r="F75" s="171"/>
-      <c r="G75" s="261"/>
+      <c r="B75" s="227"/>
+      <c r="C75" s="172"/>
+      <c r="D75" s="172"/>
+      <c r="E75" s="227"/>
+      <c r="F75" s="172"/>
+      <c r="G75" s="262"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13804,18 +13761,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="262" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="263"/>
-      <c r="C2" s="264" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="264"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
+    <row r="2" s="263" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="264"/>
+      <c r="C2" s="265" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="265"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13866,16 +13823,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="267" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="267"/>
+      <c r="C3" s="268" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="268"/>
+      <c r="I3" s="268"/>
+      <c r="J3" s="268"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13891,7 +13848,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="94"/>
       <c r="C5" s="95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="96"/>
@@ -13918,11 +13875,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="268"/>
+      <c r="F7" s="269"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="269"/>
+      <c r="J7" s="270"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13947,22 +13904,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="262" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="270"/>
-      <c r="C10" s="271" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="272"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="274"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="276" t="s">
+    <row r="10" s="263" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="271"/>
+      <c r="C10" s="272" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10" s="273"/>
+      <c r="E10" s="274"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="276" t="s">
+      <c r="I10" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="276"/>
+      <c r="J10" s="277"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -14015,154 +13972,154 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="277"/>
+      <c r="E11" s="278"/>
       <c r="F11" s="46"/>
       <c r="G11" s="118"/>
       <c r="H11" s="116"/>
-      <c r="I11" s="124"/>
+      <c r="I11" s="125"/>
       <c r="J11" s="118"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="98"/>
       <c r="C12" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="278"/>
+      <c r="E12" s="279"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="279"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="280" t="s">
+      <c r="G12" s="280"/>
+      <c r="H12" s="179"/>
+      <c r="I12" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="281"/>
+      <c r="J12" s="282"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="278"/>
+      <c r="E13" s="279"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="281"/>
+      <c r="G13" s="280"/>
+      <c r="H13" s="179"/>
+      <c r="I13" s="283"/>
+      <c r="J13" s="282"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
       <c r="C14" s="101" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="278"/>
+      <c r="E14" s="279"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="279"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="280" t="s">
+      <c r="G14" s="280"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="281"/>
+      <c r="J14" s="282"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="278"/>
+      <c r="E15" s="279"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="279"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="282"/>
-      <c r="J15" s="281"/>
+      <c r="G15" s="280"/>
+      <c r="H15" s="179"/>
+      <c r="I15" s="283"/>
+      <c r="J15" s="282"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="283" t="s">
-        <v>173</v>
+      <c r="C16" s="284" t="s">
+        <v>172</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="278"/>
+      <c r="E16" s="279"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="280" t="s">
+      <c r="G16" s="280"/>
+      <c r="H16" s="179"/>
+      <c r="I16" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="281"/>
+      <c r="J16" s="282"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="283" t="s">
-        <v>174</v>
+      <c r="C17" s="284" t="s">
+        <v>173</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="278"/>
+      <c r="E17" s="279"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="279"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="280" t="s">
+      <c r="G17" s="280"/>
+      <c r="H17" s="179"/>
+      <c r="I17" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="281"/>
+      <c r="J17" s="282"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="283"/>
+      <c r="C18" s="284"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="278"/>
+      <c r="E18" s="279"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="278"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="282"/>
-      <c r="J18" s="281"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="179"/>
+      <c r="I18" s="283"/>
+      <c r="J18" s="282"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
       <c r="C19" s="101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="101"/>
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="280" t="s">
+      <c r="H19" s="179"/>
+      <c r="I19" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="281"/>
+      <c r="J19" s="282"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="284"/>
-      <c r="D20" s="284"/>
-      <c r="E20" s="284"/>
-      <c r="F20" s="284"/>
-      <c r="G20" s="284"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="285"/>
-      <c r="J20" s="286"/>
-    </row>
-    <row r="21" s="262" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="270"/>
-      <c r="C21" s="271" t="s">
+      <c r="C20" s="285"/>
+      <c r="D20" s="285"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="285"/>
+      <c r="G20" s="285"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="286"/>
+      <c r="J20" s="287"/>
+    </row>
+    <row r="21" s="263" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="271"/>
+      <c r="C21" s="272" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="272"/>
+      <c r="E21" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="271"/>
-      <c r="E21" s="287" t="s">
+      <c r="F21" s="289" t="s">
         <v>176</v>
       </c>
-      <c r="F21" s="288" t="s">
+      <c r="G21" s="288" t="s">
         <v>177</v>
       </c>
-      <c r="G21" s="287" t="s">
-        <v>178</v>
-      </c>
-      <c r="H21" s="288" t="s">
+      <c r="H21" s="289" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="288" t="s">
+      <c r="I21" s="289" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="288"/>
+      <c r="J21" s="289"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14213,209 +14170,209 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="289"/>
-      <c r="D22" s="289"/>
-      <c r="E22" s="290"/>
-      <c r="F22" s="291"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="294"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="291"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="295"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
       <c r="C23" s="101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="179"/>
+      <c r="F23" s="296" t="s">
         <v>179</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="295" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="121" t="n">
+      <c r="G23" s="297" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="280" t="s">
+      <c r="H23" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="280" t="s">
+      <c r="I23" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="281"/>
+      <c r="J23" s="282"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
       <c r="C24" s="101" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="179"/>
+      <c r="F24" s="296" t="s">
         <v>181</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="295" t="s">
-        <v>182</v>
-      </c>
-      <c r="G24" s="121" t="n">
+      <c r="G24" s="297" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="280" t="s">
+      <c r="H24" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="280" t="s">
+      <c r="I24" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="281"/>
+      <c r="J24" s="282"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
       <c r="C25" s="101" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="101"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="295" t="s">
-        <v>182</v>
-      </c>
-      <c r="G25" s="121" t="n">
+      <c r="E25" s="179"/>
+      <c r="F25" s="296" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="297" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="280" t="s">
+      <c r="H25" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="280" t="s">
+      <c r="I25" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="281"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
       <c r="C26" s="101" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="296" t="s">
         <v>184</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="295" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="121" t="n">
+      <c r="G26" s="297" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="280" t="s">
+      <c r="H26" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="280" t="s">
+      <c r="I26" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="281"/>
+      <c r="J26" s="282"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="296"/>
-      <c r="D27" s="296"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="298"/>
-      <c r="I27" s="282"/>
-      <c r="J27" s="281"/>
+      <c r="C27" s="298"/>
+      <c r="D27" s="298"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="299"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="300"/>
+      <c r="I27" s="283"/>
+      <c r="J27" s="282"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="296"/>
-      <c r="D28" s="296"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="297"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="298"/>
-      <c r="I28" s="282"/>
-      <c r="J28" s="281"/>
+      <c r="C28" s="298"/>
+      <c r="D28" s="298"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="299"/>
+      <c r="G28" s="179"/>
+      <c r="H28" s="300"/>
+      <c r="I28" s="283"/>
+      <c r="J28" s="282"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="299" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="299"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="298"/>
-      <c r="I29" s="282"/>
-      <c r="J29" s="281"/>
+      <c r="C29" s="301" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="301"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="299"/>
+      <c r="G29" s="179"/>
+      <c r="H29" s="300"/>
+      <c r="I29" s="283"/>
+      <c r="J29" s="282"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="298"/>
-      <c r="I30" s="282"/>
-      <c r="J30" s="281"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="179"/>
+      <c r="H30" s="300"/>
+      <c r="I30" s="283"/>
+      <c r="J30" s="282"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="298"/>
-      <c r="I31" s="282"/>
-      <c r="J31" s="281"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="179"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="179"/>
+      <c r="H31" s="300"/>
+      <c r="I31" s="283"/>
+      <c r="J31" s="282"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="178"/>
-      <c r="H32" s="298"/>
-      <c r="I32" s="282"/>
-      <c r="J32" s="281"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="299"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="300"/>
+      <c r="I32" s="283"/>
+      <c r="J32" s="282"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="296"/>
-      <c r="D33" s="296"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="298"/>
-      <c r="I33" s="282"/>
-      <c r="J33" s="281"/>
+      <c r="C33" s="298"/>
+      <c r="D33" s="298"/>
+      <c r="E33" s="179"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="179"/>
+      <c r="H33" s="300"/>
+      <c r="I33" s="283"/>
+      <c r="J33" s="282"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="301"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="302"/>
-      <c r="I34" s="285"/>
-      <c r="J34" s="286"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="303"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="304"/>
+      <c r="I34" s="286"/>
+      <c r="J34" s="287"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="271" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="271"/>
-      <c r="E35" s="278"/>
+      <c r="C35" s="272" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="272"/>
+      <c r="E35" s="279"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="278"/>
-      <c r="H35" s="303"/>
-      <c r="I35" s="304"/>
-      <c r="J35" s="281"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="305"/>
+      <c r="I35" s="306"/>
+      <c r="J35" s="282"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="278"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="279"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="278"/>
+      <c r="G36" s="279"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14426,215 +14383,215 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="305"/>
-      <c r="D37" s="305"/>
-      <c r="E37" s="306"/>
-      <c r="F37" s="307"/>
-      <c r="G37" s="307"/>
-      <c r="H37" s="204"/>
-      <c r="I37" s="308"/>
-      <c r="J37" s="309"/>
+      <c r="C37" s="307"/>
+      <c r="D37" s="307"/>
+      <c r="E37" s="308"/>
+      <c r="F37" s="309"/>
+      <c r="G37" s="309"/>
+      <c r="H37" s="205"/>
+      <c r="I37" s="310"/>
+      <c r="J37" s="311"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
       <c r="C38" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="310"/>
-      <c r="F38" s="311"/>
-      <c r="G38" s="311"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="280" t="s">
+      <c r="E38" s="312"/>
+      <c r="F38" s="313"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="179"/>
+      <c r="I38" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="281"/>
+      <c r="J38" s="282"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="310"/>
-      <c r="F39" s="311"/>
-      <c r="G39" s="311"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="304"/>
-      <c r="J39" s="281"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="313"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="179"/>
+      <c r="I39" s="306"/>
+      <c r="J39" s="282"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
       <c r="C40" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="310"/>
-      <c r="F40" s="311"/>
-      <c r="G40" s="311"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="280" t="s">
+      <c r="E40" s="312"/>
+      <c r="F40" s="313"/>
+      <c r="G40" s="313"/>
+      <c r="H40" s="179"/>
+      <c r="I40" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="281"/>
+      <c r="J40" s="282"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="310"/>
-      <c r="F41" s="311"/>
-      <c r="G41" s="311"/>
-      <c r="H41" s="178"/>
-      <c r="I41" s="304"/>
-      <c r="J41" s="281"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="313"/>
+      <c r="G41" s="313"/>
+      <c r="H41" s="179"/>
+      <c r="I41" s="306"/>
+      <c r="J41" s="282"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
       <c r="C42" s="30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="310"/>
-      <c r="F42" s="311"/>
-      <c r="G42" s="311"/>
-      <c r="H42" s="178"/>
-      <c r="I42" s="280" t="s">
+      <c r="E42" s="312"/>
+      <c r="F42" s="313"/>
+      <c r="G42" s="313"/>
+      <c r="H42" s="179"/>
+      <c r="I42" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="281"/>
+      <c r="J42" s="282"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="310"/>
-      <c r="F43" s="311"/>
-      <c r="G43" s="311"/>
-      <c r="H43" s="178"/>
-      <c r="I43" s="304"/>
-      <c r="J43" s="281"/>
+      <c r="E43" s="312"/>
+      <c r="F43" s="313"/>
+      <c r="G43" s="313"/>
+      <c r="H43" s="179"/>
+      <c r="I43" s="306"/>
+      <c r="J43" s="282"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
       <c r="C44" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="310"/>
-      <c r="F44" s="311"/>
-      <c r="G44" s="311"/>
-      <c r="H44" s="178"/>
-      <c r="I44" s="280" t="s">
+      <c r="E44" s="312"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="179"/>
+      <c r="I44" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="281"/>
+      <c r="J44" s="282"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="310"/>
-      <c r="F45" s="311"/>
-      <c r="G45" s="311"/>
-      <c r="H45" s="178"/>
-      <c r="I45" s="304"/>
-      <c r="J45" s="281"/>
+      <c r="E45" s="312"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="313"/>
+      <c r="H45" s="179"/>
+      <c r="I45" s="306"/>
+      <c r="J45" s="282"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
       <c r="C46" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="280" t="s">
+      <c r="H46" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="280" t="s">
+      <c r="I46" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="312"/>
+      <c r="J46" s="314"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="313"/>
-      <c r="D47" s="313"/>
+      <c r="C47" s="315"/>
+      <c r="D47" s="315"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="314"/>
-      <c r="G47" s="314"/>
-      <c r="H47" s="315"/>
-      <c r="I47" s="314"/>
-      <c r="J47" s="147"/>
+      <c r="F47" s="316"/>
+      <c r="G47" s="316"/>
+      <c r="H47" s="317"/>
+      <c r="I47" s="316"/>
+      <c r="J47" s="148"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="316" t="s">
-        <v>191</v>
-      </c>
-      <c r="D48" s="316"/>
-      <c r="E48" s="316"/>
-      <c r="F48" s="316"/>
-      <c r="G48" s="316"/>
-      <c r="H48" s="316"/>
-      <c r="I48" s="316"/>
-      <c r="J48" s="316"/>
+      <c r="C48" s="318" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="318"/>
+      <c r="E48" s="318"/>
+      <c r="F48" s="318"/>
+      <c r="G48" s="318"/>
+      <c r="H48" s="318"/>
+      <c r="I48" s="318"/>
+      <c r="J48" s="318"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="316"/>
-      <c r="D49" s="316"/>
-      <c r="E49" s="316"/>
-      <c r="F49" s="316"/>
-      <c r="G49" s="316"/>
-      <c r="H49" s="316"/>
-      <c r="I49" s="316"/>
-      <c r="J49" s="316"/>
+      <c r="C49" s="318"/>
+      <c r="D49" s="318"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
+      <c r="G49" s="318"/>
+      <c r="H49" s="318"/>
+      <c r="I49" s="318"/>
+      <c r="J49" s="318"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="316"/>
-      <c r="D50" s="316"/>
-      <c r="E50" s="316"/>
-      <c r="F50" s="316"/>
-      <c r="G50" s="316"/>
-      <c r="H50" s="316"/>
-      <c r="I50" s="316"/>
-      <c r="J50" s="316"/>
+      <c r="C50" s="318"/>
+      <c r="D50" s="318"/>
+      <c r="E50" s="318"/>
+      <c r="F50" s="318"/>
+      <c r="G50" s="318"/>
+      <c r="H50" s="318"/>
+      <c r="I50" s="318"/>
+      <c r="J50" s="318"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="316"/>
-      <c r="D51" s="316"/>
-      <c r="E51" s="316"/>
-      <c r="F51" s="316"/>
-      <c r="G51" s="316"/>
-      <c r="H51" s="316"/>
-      <c r="I51" s="316"/>
-      <c r="J51" s="316"/>
+      <c r="C51" s="318"/>
+      <c r="D51" s="318"/>
+      <c r="E51" s="318"/>
+      <c r="F51" s="318"/>
+      <c r="G51" s="318"/>
+      <c r="H51" s="318"/>
+      <c r="I51" s="318"/>
+      <c r="J51" s="318"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="316"/>
-      <c r="D52" s="316"/>
-      <c r="E52" s="316"/>
-      <c r="F52" s="316"/>
-      <c r="G52" s="316"/>
-      <c r="H52" s="316"/>
-      <c r="I52" s="316"/>
-      <c r="J52" s="316"/>
+      <c r="C52" s="318"/>
+      <c r="D52" s="318"/>
+      <c r="E52" s="318"/>
+      <c r="F52" s="318"/>
+      <c r="G52" s="318"/>
+      <c r="H52" s="318"/>
+      <c r="I52" s="318"/>
+      <c r="J52" s="318"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="145"/>
-      <c r="C53" s="316"/>
-      <c r="D53" s="316"/>
-      <c r="E53" s="316"/>
-      <c r="F53" s="316"/>
-      <c r="G53" s="316"/>
-      <c r="H53" s="316"/>
-      <c r="I53" s="316"/>
-      <c r="J53" s="316"/>
-      <c r="K53" s="123"/>
+      <c r="B53" s="146"/>
+      <c r="C53" s="318"/>
+      <c r="D53" s="318"/>
+      <c r="E53" s="318"/>
+      <c r="F53" s="318"/>
+      <c r="G53" s="318"/>
+      <c r="H53" s="318"/>
+      <c r="I53" s="318"/>
+      <c r="J53" s="318"/>
+      <c r="K53" s="124"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15136,14 +15093,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="317" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="318" t="s">
-        <v>192</v>
-      </c>
-      <c r="C2" s="318"/>
-      <c r="D2" s="318"/>
-      <c r="E2" s="318"/>
-      <c r="F2" s="318"/>
+    <row r="2" s="319" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="320" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="320"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15176,119 +15133,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="319" t="s">
+      <c r="B3" s="321" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="321"/>
+      <c r="D3" s="321"/>
+      <c r="E3" s="321"/>
+      <c r="F3" s="321"/>
+    </row>
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="322" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="319"/>
-      <c r="D3" s="319"/>
-      <c r="E3" s="319"/>
-      <c r="F3" s="319"/>
-    </row>
-    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="320" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="324"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="299"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="299"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="303"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+    </row>
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="325" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="322"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-    </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="323" t="s">
+      <c r="C11" s="325"/>
+      <c r="D11" s="325"/>
+      <c r="E11" s="325"/>
+      <c r="F11" s="325"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="327"/>
+      <c r="D12" s="327"/>
+      <c r="E12" s="327"/>
+      <c r="F12" s="327"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="326" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="327"/>
+      <c r="D13" s="327"/>
+      <c r="E13" s="327"/>
+      <c r="F13" s="327"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="326" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="327"/>
+      <c r="D14" s="327"/>
+      <c r="E14" s="327"/>
+      <c r="F14" s="327"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="328"/>
+      <c r="C15" s="329" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="323"/>
-      <c r="D11" s="323"/>
-      <c r="E11" s="323"/>
-      <c r="F11" s="323"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="325"/>
-      <c r="D12" s="325"/>
-      <c r="E12" s="325"/>
-      <c r="F12" s="325"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="324" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="325"/>
-      <c r="D13" s="325"/>
-      <c r="E13" s="325"/>
-      <c r="F13" s="325"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="324" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="325"/>
-      <c r="D14" s="325"/>
-      <c r="E14" s="325"/>
-      <c r="F14" s="325"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="326"/>
-      <c r="C15" s="327" t="s">
+      <c r="D15" s="329" t="s">
         <v>196</v>
       </c>
-      <c r="D15" s="327" t="s">
+      <c r="E15" s="329" t="s">
         <v>197</v>
       </c>
-      <c r="E15" s="327" t="s">
+      <c r="F15" s="330" t="s">
         <v>198</v>
       </c>
-      <c r="F15" s="328" t="s">
-        <v>199</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="329"/>
+      <c r="B16" s="331"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15303,138 +15260,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="324" t="n">
+      <c r="B17" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="330"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
+      <c r="C17" s="332"/>
+      <c r="D17" s="332"/>
+      <c r="E17" s="332"/>
+      <c r="F17" s="332"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="324" t="n">
+      <c r="B18" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="330"/>
-      <c r="D18" s="330"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
+      <c r="C18" s="332"/>
+      <c r="D18" s="332"/>
+      <c r="E18" s="332"/>
+      <c r="F18" s="332"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="324" t="n">
+      <c r="B19" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
+      <c r="C19" s="332"/>
+      <c r="D19" s="332"/>
+      <c r="E19" s="332"/>
+      <c r="F19" s="332"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="331" t="s">
+      <c r="B20" s="333" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="323"/>
+      <c r="E20" s="323"/>
+      <c r="F20" s="334"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="299"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="299"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="303" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
+    </row>
+    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="325" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="325"/>
+      <c r="D27" s="325"/>
+      <c r="E27" s="325"/>
+      <c r="F27" s="325"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="327"/>
+      <c r="D28" s="327"/>
+      <c r="E28" s="327"/>
+      <c r="F28" s="327"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="326" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="327"/>
+      <c r="F29" s="327"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="326" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="327"/>
+      <c r="D30" s="327"/>
+      <c r="E30" s="327"/>
+      <c r="F30" s="327"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="335"/>
+      <c r="C31" s="329" t="s">
+        <v>195</v>
+      </c>
+      <c r="D31" s="329" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="321"/>
-      <c r="E20" s="321"/>
-      <c r="F20" s="332"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="297"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="297"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="297"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="297"/>
-      <c r="F23" s="297"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="297"/>
-      <c r="C24" s="297"/>
-      <c r="D24" s="297"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="297"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="297"/>
-      <c r="F25" s="297"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="301" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="301"/>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-    </row>
-    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="323" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="323"/>
-      <c r="D27" s="323"/>
-      <c r="E27" s="323"/>
-      <c r="F27" s="323"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="324" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="325"/>
-      <c r="D28" s="325"/>
-      <c r="E28" s="325"/>
-      <c r="F28" s="325"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="324" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="325"/>
-      <c r="D29" s="325"/>
-      <c r="E29" s="325"/>
-      <c r="F29" s="325"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="324" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="325"/>
-      <c r="D30" s="325"/>
-      <c r="E30" s="325"/>
-      <c r="F30" s="325"/>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="333"/>
-      <c r="C31" s="327" t="s">
-        <v>196</v>
-      </c>
-      <c r="D31" s="327" t="s">
+      <c r="E31" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="327" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="328" t="s">
-        <v>199</v>
+      <c r="F31" s="330" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="333"/>
+      <c r="B32" s="335"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15449,136 +15406,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="324" t="n">
+      <c r="B33" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="330"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
+      <c r="C33" s="332"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="324" t="n">
+      <c r="B34" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="332"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="324" t="n">
+      <c r="B35" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="331" t="s">
-        <v>203</v>
-      </c>
-      <c r="C36" s="334"/>
+      <c r="B36" s="333" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="336"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="332"/>
+      <c r="F36" s="334"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="297"/>
-      <c r="C37" s="297"/>
-      <c r="D37" s="297"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="297"/>
+      <c r="B37" s="299"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="299"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="297"/>
-      <c r="C38" s="297"/>
-      <c r="D38" s="297"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="297"/>
+      <c r="B38" s="299"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="297"/>
-      <c r="C39" s="297"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="297"/>
-      <c r="C40" s="297"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="299"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="297"/>
-      <c r="C41" s="297"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
+      <c r="B41" s="299"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="299"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="299"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="301"/>
-      <c r="C42" s="301"/>
-      <c r="D42" s="301"/>
-      <c r="E42" s="301"/>
-      <c r="F42" s="301"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="303"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="323" t="s">
-        <v>195</v>
-      </c>
-      <c r="C43" s="323"/>
-      <c r="D43" s="323"/>
-      <c r="E43" s="323"/>
-      <c r="F43" s="323"/>
+      <c r="B43" s="325" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="325"/>
+      <c r="D43" s="325"/>
+      <c r="E43" s="325"/>
+      <c r="F43" s="325"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="324" t="n">
+      <c r="B44" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="325"/>
-      <c r="D44" s="325"/>
-      <c r="E44" s="325"/>
-      <c r="F44" s="325"/>
+      <c r="C44" s="327"/>
+      <c r="D44" s="327"/>
+      <c r="E44" s="327"/>
+      <c r="F44" s="327"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="324" t="n">
+      <c r="B45" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="325"/>
-      <c r="D45" s="325"/>
-      <c r="E45" s="325"/>
-      <c r="F45" s="325"/>
+      <c r="C45" s="327"/>
+      <c r="D45" s="327"/>
+      <c r="E45" s="327"/>
+      <c r="F45" s="327"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="324" t="n">
+      <c r="B46" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="325"/>
-      <c r="D46" s="325"/>
-      <c r="E46" s="325"/>
-      <c r="F46" s="325"/>
+      <c r="C46" s="327"/>
+      <c r="D46" s="327"/>
+      <c r="E46" s="327"/>
+      <c r="F46" s="327"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="333"/>
-      <c r="C47" s="327" t="s">
-        <v>204</v>
-      </c>
-      <c r="D47" s="327" t="s">
+      <c r="B47" s="335"/>
+      <c r="C47" s="329" t="s">
+        <v>203</v>
+      </c>
+      <c r="D47" s="329" t="s">
+        <v>200</v>
+      </c>
+      <c r="E47" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="E47" s="327" t="s">
-        <v>202</v>
-      </c>
-      <c r="F47" s="328" t="s">
-        <v>199</v>
+      <c r="F47" s="330" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="333"/>
+      <c r="B48" s="335"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15593,31 +15550,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="324" t="n">
+      <c r="B49" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="330"/>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
-      <c r="F49" s="330"/>
+      <c r="C49" s="332"/>
+      <c r="D49" s="332"/>
+      <c r="E49" s="332"/>
+      <c r="F49" s="332"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="324" t="n">
+      <c r="B50" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="330"/>
-      <c r="D50" s="330"/>
-      <c r="E50" s="330"/>
-      <c r="F50" s="330"/>
+      <c r="C50" s="332"/>
+      <c r="D50" s="332"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="332"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="324" t="n">
+      <c r="B51" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15821,7 +15778,7 @@
   </sheetPr>
   <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -15837,118 +15794,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="320" t="s">
-        <v>205</v>
+      <c r="B2" s="322" t="s">
+        <v>204</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="322"/>
+      <c r="D2" s="323"/>
+      <c r="E2" s="323"/>
+      <c r="F2" s="324"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="301"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="335" t="s">
-        <v>195</v>
-      </c>
-      <c r="C10" s="335"/>
-      <c r="D10" s="335"/>
-      <c r="E10" s="335"/>
-      <c r="F10" s="335"/>
+      <c r="B10" s="337" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="337"/>
+      <c r="D10" s="337"/>
+      <c r="E10" s="337"/>
+      <c r="F10" s="337"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="324" t="n">
+      <c r="B11" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
-      <c r="E11" s="336"/>
-      <c r="F11" s="336"/>
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="324" t="n">
+      <c r="B12" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="336"/>
-      <c r="D12" s="336"/>
-      <c r="E12" s="336"/>
-      <c r="F12" s="336"/>
+      <c r="C12" s="338"/>
+      <c r="D12" s="338"/>
+      <c r="E12" s="338"/>
+      <c r="F12" s="338"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="324" t="n">
+      <c r="B13" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="336"/>
-      <c r="D13" s="336"/>
-      <c r="E13" s="336"/>
-      <c r="F13" s="336"/>
+      <c r="C13" s="338"/>
+      <c r="D13" s="338"/>
+      <c r="E13" s="338"/>
+      <c r="F13" s="338"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="333"/>
-      <c r="C14" s="327" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="327" t="s">
+      <c r="B14" s="335"/>
+      <c r="C14" s="329" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="329" t="s">
+        <v>200</v>
+      </c>
+      <c r="E14" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="E14" s="327" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="328" t="s">
-        <v>199</v>
+      <c r="F14" s="330" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="333"/>
+      <c r="B15" s="335"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15963,143 +15920,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="324" t="n">
+      <c r="B16" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="330"/>
-      <c r="D16" s="330"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="330"/>
+      <c r="C16" s="332"/>
+      <c r="D16" s="332"/>
+      <c r="E16" s="332"/>
+      <c r="F16" s="332"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="324" t="n">
+      <c r="B17" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="330"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
+      <c r="C17" s="332"/>
+      <c r="D17" s="332"/>
+      <c r="E17" s="332"/>
+      <c r="F17" s="332"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="324" t="n">
+      <c r="B18" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="330"/>
-      <c r="D18" s="330"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
+      <c r="C18" s="332"/>
+      <c r="D18" s="332"/>
+      <c r="E18" s="332"/>
+      <c r="F18" s="332"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="331" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="334"/>
+      <c r="B19" s="333" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="336"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="332"/>
+      <c r="F19" s="334"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="297"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="297"/>
-      <c r="F20" s="297"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="297"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
+      <c r="B21" s="299"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="297"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
+      <c r="B22" s="299"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="297"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="297"/>
-      <c r="F23" s="297"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="297"/>
-      <c r="C24" s="297"/>
-      <c r="D24" s="297"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="297"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="297"/>
-      <c r="F25" s="297"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="297"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="297"/>
-      <c r="E26" s="297"/>
-      <c r="F26" s="297"/>
+      <c r="B26" s="299"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="299"/>
+      <c r="F26" s="299"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="335" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="335"/>
-      <c r="D27" s="335"/>
-      <c r="E27" s="335"/>
-      <c r="F27" s="335"/>
+      <c r="B27" s="337" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="337"/>
+      <c r="D27" s="337"/>
+      <c r="E27" s="337"/>
+      <c r="F27" s="337"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="324" t="n">
+      <c r="B28" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="336"/>
-      <c r="D28" s="336"/>
-      <c r="E28" s="336"/>
-      <c r="F28" s="336"/>
+      <c r="C28" s="338"/>
+      <c r="D28" s="338"/>
+      <c r="E28" s="338"/>
+      <c r="F28" s="338"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="324" t="n">
+      <c r="B29" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="336"/>
-      <c r="D29" s="336"/>
-      <c r="E29" s="336"/>
-      <c r="F29" s="336"/>
+      <c r="C29" s="338"/>
+      <c r="D29" s="338"/>
+      <c r="E29" s="338"/>
+      <c r="F29" s="338"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="324" t="n">
+      <c r="B30" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
-      <c r="E30" s="336"/>
-      <c r="F30" s="336"/>
+      <c r="C30" s="338"/>
+      <c r="D30" s="338"/>
+      <c r="E30" s="338"/>
+      <c r="F30" s="338"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="333"/>
-      <c r="C31" s="327" t="s">
-        <v>204</v>
-      </c>
-      <c r="D31" s="327" t="s">
+      <c r="B31" s="335"/>
+      <c r="C31" s="329" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="329" t="s">
+        <v>200</v>
+      </c>
+      <c r="E31" s="329" t="s">
         <v>201</v>
       </c>
-      <c r="E31" s="327" t="s">
-        <v>202</v>
-      </c>
-      <c r="F31" s="328" t="s">
-        <v>199</v>
+      <c r="F31" s="330" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="333"/>
+      <c r="B32" s="335"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16114,198 +16071,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="324" t="n">
+      <c r="B33" s="326" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="330"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
+      <c r="C33" s="332"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="324" t="n">
+      <c r="B34" s="326" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
+      <c r="C34" s="332"/>
+      <c r="D34" s="332"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="324" t="n">
+      <c r="B35" s="326" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="337" t="s">
+      <c r="B36" s="339" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" s="339"/>
+      <c r="D36" s="339"/>
+      <c r="E36" s="339"/>
+      <c r="F36" s="339"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="299"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="299"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="299"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="299"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="299"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="299"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="299"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="299"/>
+      <c r="E42" s="299"/>
+      <c r="F42" s="299"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="299"/>
+      <c r="C44" s="299"/>
+      <c r="D44" s="299"/>
+      <c r="E44" s="299"/>
+      <c r="F44" s="299"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="299"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="299"/>
+      <c r="E45" s="299"/>
+      <c r="F45" s="299"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="299"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="299"/>
+      <c r="E46" s="299"/>
+      <c r="F46" s="299"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="299"/>
+      <c r="C47" s="299"/>
+      <c r="D47" s="299"/>
+      <c r="E47" s="299"/>
+      <c r="F47" s="299"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="299"/>
+      <c r="C48" s="299"/>
+      <c r="D48" s="299"/>
+      <c r="E48" s="299"/>
+      <c r="F48" s="299"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="299"/>
+      <c r="C49" s="299"/>
+      <c r="D49" s="299"/>
+      <c r="E49" s="299"/>
+      <c r="F49" s="299"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="299"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="299"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="299"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="299"/>
+      <c r="E51" s="299"/>
+      <c r="F51" s="299"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="322" t="s">
         <v>207</v>
       </c>
-      <c r="C36" s="337"/>
-      <c r="D36" s="337"/>
-      <c r="E36" s="337"/>
-      <c r="F36" s="337"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="297"/>
-      <c r="C37" s="297"/>
-      <c r="D37" s="297"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="297"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="297"/>
-      <c r="C38" s="297"/>
-      <c r="D38" s="297"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="297"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="297"/>
-      <c r="C39" s="297"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="297"/>
-      <c r="C40" s="297"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="297"/>
-      <c r="C41" s="297"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="297"/>
-      <c r="C42" s="297"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="338"/>
-      <c r="C43" s="338"/>
-      <c r="D43" s="338"/>
-      <c r="E43" s="338"/>
-      <c r="F43" s="338"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="297"/>
-      <c r="C44" s="297"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="297"/>
-      <c r="F44" s="297"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="297"/>
-      <c r="C45" s="297"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="297"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="297"/>
-      <c r="C46" s="297"/>
-      <c r="D46" s="297"/>
-      <c r="E46" s="297"/>
-      <c r="F46" s="297"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="297"/>
-      <c r="C47" s="297"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="297"/>
-      <c r="F47" s="297"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="297"/>
-      <c r="C48" s="297"/>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="297"/>
-      <c r="C49" s="297"/>
-      <c r="D49" s="297"/>
-      <c r="E49" s="297"/>
-      <c r="F49" s="297"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="297"/>
-      <c r="C50" s="297"/>
-      <c r="D50" s="297"/>
-      <c r="E50" s="297"/>
-      <c r="F50" s="297"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="297"/>
-      <c r="C51" s="297"/>
-      <c r="D51" s="297"/>
-      <c r="E51" s="297"/>
-      <c r="F51" s="297"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="320" t="s">
-        <v>208</v>
-      </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="321"/>
-      <c r="E52" s="321"/>
-      <c r="F52" s="322"/>
+      <c r="D52" s="323"/>
+      <c r="E52" s="323"/>
+      <c r="F52" s="324"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="151"/>
+      <c r="B53" s="152"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="339"/>
+      <c r="F53" s="341"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="295" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" s="295"/>
-      <c r="D54" s="295"/>
-      <c r="E54" s="295"/>
-      <c r="F54" s="295"/>
+      <c r="B54" s="296" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="296"/>
+      <c r="D54" s="296"/>
+      <c r="E54" s="296"/>
+      <c r="F54" s="296"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="297"/>
-      <c r="C55" s="297"/>
-      <c r="D55" s="297"/>
-      <c r="E55" s="297"/>
-      <c r="F55" s="297"/>
+      <c r="B55" s="299"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
+      <c r="E55" s="299"/>
+      <c r="F55" s="299"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="297"/>
-      <c r="C56" s="297"/>
-      <c r="D56" s="297"/>
-      <c r="E56" s="297"/>
-      <c r="F56" s="297"/>
+      <c r="B56" s="299"/>
+      <c r="C56" s="299"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="299"/>
+      <c r="F56" s="299"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="297"/>
-      <c r="C57" s="297"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="297"/>
-      <c r="F57" s="297"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
+      <c r="E57" s="299"/>
+      <c r="F57" s="299"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="145"/>
-      <c r="C58" s="146"/>
-      <c r="D58" s="146"/>
-      <c r="E58" s="146"/>
-      <c r="F58" s="340"/>
+      <c r="B58" s="146"/>
+      <c r="C58" s="147"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="147"/>
+      <c r="F58" s="342"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16474,548 +16431,548 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="341" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="341"/>
-      <c r="D2" s="341"/>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
+      <c r="B2" s="343" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="297"/>
-      <c r="C4" s="297"/>
-      <c r="D4" s="297"/>
-      <c r="E4" s="297"/>
-      <c r="F4" s="297"/>
-      <c r="G4" s="297"/>
-      <c r="H4" s="297"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
+      <c r="G4" s="299"/>
+      <c r="H4" s="299"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="299"/>
+      <c r="D5" s="299"/>
+      <c r="E5" s="299"/>
+      <c r="F5" s="299"/>
+      <c r="G5" s="299"/>
+      <c r="H5" s="299"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="297"/>
-      <c r="C6" s="297"/>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297"/>
-      <c r="F6" s="297"/>
-      <c r="G6" s="297"/>
-      <c r="H6" s="297"/>
+      <c r="B6" s="299"/>
+      <c r="C6" s="299"/>
+      <c r="D6" s="299"/>
+      <c r="E6" s="299"/>
+      <c r="F6" s="299"/>
+      <c r="G6" s="299"/>
+      <c r="H6" s="299"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="297"/>
-      <c r="C7" s="297"/>
-      <c r="D7" s="297"/>
-      <c r="E7" s="297"/>
-      <c r="F7" s="297"/>
-      <c r="G7" s="297"/>
-      <c r="H7" s="297"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="299"/>
+      <c r="D7" s="299"/>
+      <c r="E7" s="299"/>
+      <c r="F7" s="299"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="297"/>
+      <c r="B8" s="299"/>
+      <c r="C8" s="299"/>
+      <c r="D8" s="299"/>
+      <c r="E8" s="299"/>
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="297"/>
-      <c r="C9" s="297"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="299"/>
+      <c r="D9" s="299"/>
+      <c r="E9" s="299"/>
+      <c r="F9" s="299"/>
+      <c r="G9" s="299"/>
+      <c r="H9" s="299"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="297"/>
-      <c r="C10" s="297"/>
-      <c r="D10" s="297"/>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
+      <c r="B10" s="299"/>
+      <c r="C10" s="299"/>
+      <c r="D10" s="299"/>
+      <c r="E10" s="299"/>
+      <c r="F10" s="299"/>
+      <c r="G10" s="299"/>
+      <c r="H10" s="299"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="297"/>
-      <c r="C11" s="297"/>
-      <c r="D11" s="297"/>
-      <c r="E11" s="297"/>
-      <c r="F11" s="297"/>
-      <c r="G11" s="297"/>
-      <c r="H11" s="297"/>
+      <c r="B11" s="299"/>
+      <c r="C11" s="299"/>
+      <c r="D11" s="299"/>
+      <c r="E11" s="299"/>
+      <c r="F11" s="299"/>
+      <c r="G11" s="299"/>
+      <c r="H11" s="299"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="297"/>
-      <c r="C12" s="297"/>
-      <c r="D12" s="297"/>
-      <c r="E12" s="297"/>
-      <c r="F12" s="297"/>
-      <c r="G12" s="297"/>
-      <c r="H12" s="297"/>
+      <c r="B12" s="299"/>
+      <c r="C12" s="299"/>
+      <c r="D12" s="299"/>
+      <c r="E12" s="299"/>
+      <c r="F12" s="299"/>
+      <c r="G12" s="299"/>
+      <c r="H12" s="299"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="297"/>
-      <c r="C13" s="297"/>
-      <c r="D13" s="297"/>
-      <c r="E13" s="297"/>
-      <c r="F13" s="297"/>
-      <c r="G13" s="297"/>
-      <c r="H13" s="297"/>
+      <c r="B13" s="299"/>
+      <c r="C13" s="299"/>
+      <c r="D13" s="299"/>
+      <c r="E13" s="299"/>
+      <c r="F13" s="299"/>
+      <c r="G13" s="299"/>
+      <c r="H13" s="299"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="297"/>
-      <c r="C14" s="297"/>
-      <c r="D14" s="297"/>
-      <c r="E14" s="297"/>
-      <c r="F14" s="297"/>
-      <c r="G14" s="297"/>
-      <c r="H14" s="297"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="299"/>
+      <c r="D14" s="299"/>
+      <c r="E14" s="299"/>
+      <c r="F14" s="299"/>
+      <c r="G14" s="299"/>
+      <c r="H14" s="299"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="297"/>
-      <c r="C15" s="297"/>
-      <c r="D15" s="297"/>
-      <c r="E15" s="297"/>
-      <c r="F15" s="297"/>
-      <c r="G15" s="297"/>
-      <c r="H15" s="297"/>
+      <c r="B15" s="299"/>
+      <c r="C15" s="299"/>
+      <c r="D15" s="299"/>
+      <c r="E15" s="299"/>
+      <c r="F15" s="299"/>
+      <c r="G15" s="299"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="297"/>
-      <c r="C16" s="297"/>
-      <c r="D16" s="297"/>
-      <c r="E16" s="297"/>
-      <c r="F16" s="297"/>
-      <c r="G16" s="297"/>
-      <c r="H16" s="297"/>
+      <c r="B16" s="299"/>
+      <c r="C16" s="299"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="299"/>
+      <c r="F16" s="299"/>
+      <c r="G16" s="299"/>
+      <c r="H16" s="299"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="297"/>
-      <c r="C17" s="297"/>
-      <c r="D17" s="297"/>
-      <c r="E17" s="297"/>
-      <c r="F17" s="297"/>
-      <c r="G17" s="297"/>
-      <c r="H17" s="297"/>
+      <c r="B17" s="299"/>
+      <c r="C17" s="299"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="299"/>
+      <c r="F17" s="299"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="299"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="297"/>
-      <c r="C18" s="297"/>
-      <c r="D18" s="297"/>
-      <c r="E18" s="297"/>
-      <c r="F18" s="297"/>
-      <c r="G18" s="297"/>
-      <c r="H18" s="297"/>
+      <c r="B18" s="299"/>
+      <c r="C18" s="299"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="299"/>
+      <c r="F18" s="299"/>
+      <c r="G18" s="299"/>
+      <c r="H18" s="299"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="297"/>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="297"/>
+      <c r="B19" s="299"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="297"/>
-      <c r="C20" s="297"/>
-      <c r="D20" s="297"/>
-      <c r="E20" s="297"/>
-      <c r="F20" s="297"/>
-      <c r="G20" s="297"/>
-      <c r="H20" s="297"/>
+      <c r="B20" s="299"/>
+      <c r="C20" s="299"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="299"/>
+      <c r="F20" s="299"/>
+      <c r="G20" s="299"/>
+      <c r="H20" s="299"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="297"/>
-      <c r="C21" s="297"/>
-      <c r="D21" s="297"/>
-      <c r="E21" s="297"/>
-      <c r="F21" s="297"/>
-      <c r="G21" s="297"/>
-      <c r="H21" s="297"/>
+      <c r="B21" s="299"/>
+      <c r="C21" s="299"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="299"/>
+      <c r="F21" s="299"/>
+      <c r="G21" s="299"/>
+      <c r="H21" s="299"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="297"/>
-      <c r="C22" s="297"/>
-      <c r="D22" s="297"/>
-      <c r="E22" s="297"/>
-      <c r="F22" s="297"/>
-      <c r="G22" s="297"/>
-      <c r="H22" s="297"/>
+      <c r="B22" s="299"/>
+      <c r="C22" s="299"/>
+      <c r="D22" s="299"/>
+      <c r="E22" s="299"/>
+      <c r="F22" s="299"/>
+      <c r="G22" s="299"/>
+      <c r="H22" s="299"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="297"/>
-      <c r="C23" s="297"/>
-      <c r="D23" s="297"/>
-      <c r="E23" s="297"/>
-      <c r="F23" s="297"/>
-      <c r="G23" s="297"/>
-      <c r="H23" s="297"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="299"/>
+      <c r="D23" s="299"/>
+      <c r="E23" s="299"/>
+      <c r="F23" s="299"/>
+      <c r="G23" s="299"/>
+      <c r="H23" s="299"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="297"/>
-      <c r="C24" s="297"/>
-      <c r="D24" s="297"/>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="297"/>
-      <c r="H24" s="297"/>
+      <c r="B24" s="299"/>
+      <c r="C24" s="299"/>
+      <c r="D24" s="299"/>
+      <c r="E24" s="299"/>
+      <c r="F24" s="299"/>
+      <c r="G24" s="299"/>
+      <c r="H24" s="299"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="297"/>
-      <c r="C25" s="297"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="297"/>
-      <c r="F25" s="297"/>
-      <c r="G25" s="297"/>
-      <c r="H25" s="297"/>
+      <c r="B25" s="299"/>
+      <c r="C25" s="299"/>
+      <c r="D25" s="299"/>
+      <c r="E25" s="299"/>
+      <c r="F25" s="299"/>
+      <c r="G25" s="299"/>
+      <c r="H25" s="299"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="297"/>
-      <c r="C26" s="297"/>
-      <c r="D26" s="297"/>
-      <c r="E26" s="297"/>
-      <c r="F26" s="297"/>
-      <c r="G26" s="297"/>
-      <c r="H26" s="297"/>
+      <c r="B26" s="299"/>
+      <c r="C26" s="299"/>
+      <c r="D26" s="299"/>
+      <c r="E26" s="299"/>
+      <c r="F26" s="299"/>
+      <c r="G26" s="299"/>
+      <c r="H26" s="299"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="297"/>
-      <c r="C27" s="297"/>
-      <c r="D27" s="297"/>
-      <c r="E27" s="297"/>
-      <c r="F27" s="297"/>
-      <c r="G27" s="297"/>
-      <c r="H27" s="297"/>
+      <c r="B27" s="299"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="299"/>
+      <c r="F27" s="299"/>
+      <c r="G27" s="299"/>
+      <c r="H27" s="299"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="297"/>
-      <c r="C28" s="297"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="297"/>
-      <c r="F28" s="297"/>
-      <c r="G28" s="297"/>
-      <c r="H28" s="297"/>
+      <c r="B28" s="299"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="299"/>
+      <c r="F28" s="299"/>
+      <c r="G28" s="299"/>
+      <c r="H28" s="299"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="297"/>
-      <c r="C29" s="297"/>
-      <c r="D29" s="297"/>
-      <c r="E29" s="297"/>
-      <c r="F29" s="297"/>
-      <c r="G29" s="297"/>
-      <c r="H29" s="297"/>
+      <c r="B29" s="299"/>
+      <c r="C29" s="299"/>
+      <c r="D29" s="299"/>
+      <c r="E29" s="299"/>
+      <c r="F29" s="299"/>
+      <c r="G29" s="299"/>
+      <c r="H29" s="299"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="297"/>
-      <c r="C30" s="297"/>
-      <c r="D30" s="297"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
-      <c r="G30" s="297"/>
-      <c r="H30" s="297"/>
+      <c r="B30" s="299"/>
+      <c r="C30" s="299"/>
+      <c r="D30" s="299"/>
+      <c r="E30" s="299"/>
+      <c r="F30" s="299"/>
+      <c r="G30" s="299"/>
+      <c r="H30" s="299"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="297"/>
-      <c r="C31" s="297"/>
-      <c r="D31" s="297"/>
-      <c r="E31" s="297"/>
-      <c r="F31" s="297"/>
-      <c r="G31" s="297"/>
-      <c r="H31" s="297"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="299"/>
+      <c r="D31" s="299"/>
+      <c r="E31" s="299"/>
+      <c r="F31" s="299"/>
+      <c r="G31" s="299"/>
+      <c r="H31" s="299"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="297"/>
-      <c r="C32" s="297"/>
-      <c r="D32" s="297"/>
-      <c r="E32" s="297"/>
-      <c r="F32" s="297"/>
-      <c r="G32" s="297"/>
-      <c r="H32" s="297"/>
+      <c r="B32" s="299"/>
+      <c r="C32" s="299"/>
+      <c r="D32" s="299"/>
+      <c r="E32" s="299"/>
+      <c r="F32" s="299"/>
+      <c r="G32" s="299"/>
+      <c r="H32" s="299"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="297"/>
-      <c r="C33" s="297"/>
-      <c r="D33" s="297"/>
-      <c r="E33" s="297"/>
-      <c r="F33" s="297"/>
-      <c r="G33" s="297"/>
-      <c r="H33" s="297"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="299"/>
+      <c r="F33" s="299"/>
+      <c r="G33" s="299"/>
+      <c r="H33" s="299"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="297"/>
-      <c r="C34" s="297"/>
-      <c r="D34" s="297"/>
-      <c r="E34" s="297"/>
-      <c r="F34" s="297"/>
-      <c r="G34" s="297"/>
-      <c r="H34" s="297"/>
+      <c r="B34" s="299"/>
+      <c r="C34" s="299"/>
+      <c r="D34" s="299"/>
+      <c r="E34" s="299"/>
+      <c r="F34" s="299"/>
+      <c r="G34" s="299"/>
+      <c r="H34" s="299"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="297"/>
-      <c r="C35" s="297"/>
-      <c r="D35" s="297"/>
-      <c r="E35" s="297"/>
-      <c r="F35" s="297"/>
-      <c r="G35" s="297"/>
-      <c r="H35" s="297"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="299"/>
+      <c r="D35" s="299"/>
+      <c r="E35" s="299"/>
+      <c r="F35" s="299"/>
+      <c r="G35" s="299"/>
+      <c r="H35" s="299"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="297"/>
-      <c r="C36" s="297"/>
-      <c r="D36" s="297"/>
-      <c r="E36" s="297"/>
-      <c r="F36" s="297"/>
-      <c r="G36" s="297"/>
-      <c r="H36" s="297"/>
+      <c r="B36" s="299"/>
+      <c r="C36" s="299"/>
+      <c r="D36" s="299"/>
+      <c r="E36" s="299"/>
+      <c r="F36" s="299"/>
+      <c r="G36" s="299"/>
+      <c r="H36" s="299"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="297"/>
-      <c r="C37" s="297"/>
-      <c r="D37" s="297"/>
-      <c r="E37" s="297"/>
-      <c r="F37" s="297"/>
-      <c r="G37" s="297"/>
-      <c r="H37" s="297"/>
+      <c r="B37" s="299"/>
+      <c r="C37" s="299"/>
+      <c r="D37" s="299"/>
+      <c r="E37" s="299"/>
+      <c r="F37" s="299"/>
+      <c r="G37" s="299"/>
+      <c r="H37" s="299"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="297"/>
-      <c r="C38" s="297"/>
-      <c r="D38" s="297"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="297"/>
-      <c r="G38" s="297"/>
-      <c r="H38" s="297"/>
+      <c r="B38" s="299"/>
+      <c r="C38" s="299"/>
+      <c r="D38" s="299"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="299"/>
+      <c r="G38" s="299"/>
+      <c r="H38" s="299"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="297"/>
-      <c r="C39" s="297"/>
-      <c r="D39" s="297"/>
-      <c r="E39" s="297"/>
-      <c r="F39" s="297"/>
-      <c r="G39" s="297"/>
-      <c r="H39" s="297"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="299"/>
+      <c r="H39" s="299"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="297"/>
-      <c r="C40" s="297"/>
-      <c r="D40" s="297"/>
-      <c r="E40" s="297"/>
-      <c r="F40" s="297"/>
-      <c r="G40" s="297"/>
-      <c r="H40" s="297"/>
+      <c r="B40" s="299"/>
+      <c r="C40" s="299"/>
+      <c r="D40" s="299"/>
+      <c r="E40" s="299"/>
+      <c r="F40" s="299"/>
+      <c r="G40" s="299"/>
+      <c r="H40" s="299"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="297"/>
-      <c r="C41" s="297"/>
-      <c r="D41" s="297"/>
-      <c r="E41" s="297"/>
-      <c r="F41" s="297"/>
-      <c r="G41" s="297"/>
-      <c r="H41" s="297"/>
+      <c r="B41" s="299"/>
+      <c r="C41" s="299"/>
+      <c r="D41" s="299"/>
+      <c r="E41" s="299"/>
+      <c r="F41" s="299"/>
+      <c r="G41" s="299"/>
+      <c r="H41" s="299"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="297"/>
-      <c r="C42" s="297"/>
-      <c r="D42" s="297"/>
-      <c r="E42" s="297"/>
-      <c r="F42" s="297"/>
-      <c r="G42" s="297"/>
-      <c r="H42" s="297"/>
+      <c r="B42" s="299"/>
+      <c r="C42" s="299"/>
+      <c r="D42" s="299"/>
+      <c r="E42" s="299"/>
+      <c r="F42" s="299"/>
+      <c r="G42" s="299"/>
+      <c r="H42" s="299"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="297"/>
-      <c r="C43" s="297"/>
-      <c r="D43" s="297"/>
-      <c r="E43" s="297"/>
-      <c r="F43" s="297"/>
-      <c r="G43" s="297"/>
-      <c r="H43" s="297"/>
+      <c r="B43" s="299"/>
+      <c r="C43" s="299"/>
+      <c r="D43" s="299"/>
+      <c r="E43" s="299"/>
+      <c r="F43" s="299"/>
+      <c r="G43" s="299"/>
+      <c r="H43" s="299"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="297"/>
-      <c r="C44" s="297"/>
-      <c r="D44" s="297"/>
-      <c r="E44" s="297"/>
-      <c r="F44" s="297"/>
-      <c r="G44" s="297"/>
-      <c r="H44" s="297"/>
+      <c r="B44" s="299"/>
+      <c r="C44" s="299"/>
+      <c r="D44" s="299"/>
+      <c r="E44" s="299"/>
+      <c r="F44" s="299"/>
+      <c r="G44" s="299"/>
+      <c r="H44" s="299"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="297"/>
-      <c r="C45" s="297"/>
-      <c r="D45" s="297"/>
-      <c r="E45" s="297"/>
-      <c r="F45" s="297"/>
-      <c r="G45" s="297"/>
-      <c r="H45" s="297"/>
+      <c r="B45" s="299"/>
+      <c r="C45" s="299"/>
+      <c r="D45" s="299"/>
+      <c r="E45" s="299"/>
+      <c r="F45" s="299"/>
+      <c r="G45" s="299"/>
+      <c r="H45" s="299"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="297"/>
-      <c r="C46" s="297"/>
-      <c r="D46" s="297"/>
-      <c r="E46" s="297"/>
-      <c r="F46" s="297"/>
-      <c r="G46" s="297"/>
-      <c r="H46" s="297"/>
+      <c r="B46" s="299"/>
+      <c r="C46" s="299"/>
+      <c r="D46" s="299"/>
+      <c r="E46" s="299"/>
+      <c r="F46" s="299"/>
+      <c r="G46" s="299"/>
+      <c r="H46" s="299"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="297"/>
-      <c r="C47" s="297"/>
-      <c r="D47" s="297"/>
-      <c r="E47" s="297"/>
-      <c r="F47" s="297"/>
-      <c r="G47" s="297"/>
-      <c r="H47" s="297"/>
+      <c r="B47" s="299"/>
+      <c r="C47" s="299"/>
+      <c r="D47" s="299"/>
+      <c r="E47" s="299"/>
+      <c r="F47" s="299"/>
+      <c r="G47" s="299"/>
+      <c r="H47" s="299"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="297"/>
-      <c r="C48" s="297"/>
-      <c r="D48" s="297"/>
-      <c r="E48" s="297"/>
-      <c r="F48" s="297"/>
-      <c r="G48" s="297"/>
-      <c r="H48" s="297"/>
+      <c r="B48" s="299"/>
+      <c r="C48" s="299"/>
+      <c r="D48" s="299"/>
+      <c r="E48" s="299"/>
+      <c r="F48" s="299"/>
+      <c r="G48" s="299"/>
+      <c r="H48" s="299"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="297"/>
-      <c r="C49" s="297"/>
-      <c r="D49" s="297"/>
-      <c r="E49" s="297"/>
-      <c r="F49" s="297"/>
-      <c r="G49" s="297"/>
-      <c r="H49" s="297"/>
+      <c r="B49" s="299"/>
+      <c r="C49" s="299"/>
+      <c r="D49" s="299"/>
+      <c r="E49" s="299"/>
+      <c r="F49" s="299"/>
+      <c r="G49" s="299"/>
+      <c r="H49" s="299"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="297"/>
-      <c r="C50" s="297"/>
-      <c r="D50" s="297"/>
-      <c r="E50" s="297"/>
-      <c r="F50" s="297"/>
-      <c r="G50" s="297"/>
-      <c r="H50" s="297"/>
+      <c r="B50" s="299"/>
+      <c r="C50" s="299"/>
+      <c r="D50" s="299"/>
+      <c r="E50" s="299"/>
+      <c r="F50" s="299"/>
+      <c r="G50" s="299"/>
+      <c r="H50" s="299"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="297"/>
-      <c r="C51" s="297"/>
-      <c r="D51" s="297"/>
-      <c r="E51" s="297"/>
-      <c r="F51" s="297"/>
-      <c r="G51" s="297"/>
-      <c r="H51" s="297"/>
+      <c r="B51" s="299"/>
+      <c r="C51" s="299"/>
+      <c r="D51" s="299"/>
+      <c r="E51" s="299"/>
+      <c r="F51" s="299"/>
+      <c r="G51" s="299"/>
+      <c r="H51" s="299"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="297"/>
-      <c r="C52" s="297"/>
-      <c r="D52" s="297"/>
-      <c r="E52" s="297"/>
-      <c r="F52" s="297"/>
-      <c r="G52" s="297"/>
-      <c r="H52" s="297"/>
+      <c r="B52" s="299"/>
+      <c r="C52" s="299"/>
+      <c r="D52" s="299"/>
+      <c r="E52" s="299"/>
+      <c r="F52" s="299"/>
+      <c r="G52" s="299"/>
+      <c r="H52" s="299"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="297"/>
-      <c r="C53" s="297"/>
-      <c r="D53" s="297"/>
-      <c r="E53" s="297"/>
-      <c r="F53" s="297"/>
-      <c r="G53" s="297"/>
-      <c r="H53" s="297"/>
+      <c r="B53" s="299"/>
+      <c r="C53" s="299"/>
+      <c r="D53" s="299"/>
+      <c r="E53" s="299"/>
+      <c r="F53" s="299"/>
+      <c r="G53" s="299"/>
+      <c r="H53" s="299"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="297"/>
-      <c r="C54" s="297"/>
-      <c r="D54" s="297"/>
-      <c r="E54" s="297"/>
-      <c r="F54" s="297"/>
-      <c r="G54" s="297"/>
-      <c r="H54" s="297"/>
+      <c r="B54" s="299"/>
+      <c r="C54" s="299"/>
+      <c r="D54" s="299"/>
+      <c r="E54" s="299"/>
+      <c r="F54" s="299"/>
+      <c r="G54" s="299"/>
+      <c r="H54" s="299"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="297"/>
-      <c r="C55" s="297"/>
-      <c r="D55" s="297"/>
-      <c r="E55" s="297"/>
-      <c r="F55" s="297"/>
-      <c r="G55" s="297"/>
-      <c r="H55" s="297"/>
+      <c r="B55" s="299"/>
+      <c r="C55" s="299"/>
+      <c r="D55" s="299"/>
+      <c r="E55" s="299"/>
+      <c r="F55" s="299"/>
+      <c r="G55" s="299"/>
+      <c r="H55" s="299"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="297"/>
-      <c r="C56" s="297"/>
-      <c r="D56" s="297"/>
-      <c r="E56" s="297"/>
-      <c r="F56" s="297"/>
-      <c r="G56" s="297"/>
-      <c r="H56" s="297"/>
+      <c r="B56" s="299"/>
+      <c r="C56" s="299"/>
+      <c r="D56" s="299"/>
+      <c r="E56" s="299"/>
+      <c r="F56" s="299"/>
+      <c r="G56" s="299"/>
+      <c r="H56" s="299"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="297"/>
-      <c r="C57" s="297"/>
-      <c r="D57" s="297"/>
-      <c r="E57" s="297"/>
-      <c r="F57" s="297"/>
-      <c r="G57" s="297"/>
-      <c r="H57" s="297"/>
+      <c r="B57" s="299"/>
+      <c r="C57" s="299"/>
+      <c r="D57" s="299"/>
+      <c r="E57" s="299"/>
+      <c r="F57" s="299"/>
+      <c r="G57" s="299"/>
+      <c r="H57" s="299"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="297"/>
-      <c r="C58" s="297"/>
-      <c r="D58" s="297"/>
-      <c r="E58" s="297"/>
-      <c r="F58" s="297"/>
-      <c r="G58" s="297"/>
-      <c r="H58" s="297"/>
+      <c r="B58" s="299"/>
+      <c r="C58" s="299"/>
+      <c r="D58" s="299"/>
+      <c r="E58" s="299"/>
+      <c r="F58" s="299"/>
+      <c r="G58" s="299"/>
+      <c r="H58" s="299"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="297"/>
-      <c r="C59" s="297"/>
-      <c r="D59" s="297"/>
-      <c r="E59" s="297"/>
-      <c r="F59" s="297"/>
-      <c r="G59" s="297"/>
-      <c r="H59" s="297"/>
+      <c r="B59" s="299"/>
+      <c r="C59" s="299"/>
+      <c r="D59" s="299"/>
+      <c r="E59" s="299"/>
+      <c r="F59" s="299"/>
+      <c r="G59" s="299"/>
+      <c r="H59" s="299"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="297"/>
-      <c r="C60" s="297"/>
-      <c r="D60" s="297"/>
-      <c r="E60" s="297"/>
-      <c r="F60" s="297"/>
-      <c r="G60" s="297"/>
-      <c r="H60" s="297"/>
+      <c r="B60" s="299"/>
+      <c r="C60" s="299"/>
+      <c r="D60" s="299"/>
+      <c r="E60" s="299"/>
+      <c r="F60" s="299"/>
+      <c r="G60" s="299"/>
+      <c r="H60" s="299"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="145"/>
-      <c r="C61" s="146"/>
-      <c r="D61" s="146"/>
-      <c r="E61" s="146"/>
-      <c r="F61" s="146"/>
-      <c r="G61" s="146"/>
-      <c r="H61" s="340"/>
+      <c r="B61" s="146"/>
+      <c r="C61" s="147"/>
+      <c r="D61" s="147"/>
+      <c r="E61" s="147"/>
+      <c r="F61" s="147"/>
+      <c r="G61" s="147"/>
+      <c r="H61" s="342"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -1590,14 +1590,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-409]M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="[$-40B]0.00"/>
     <numFmt numFmtId="170" formatCode="0"/>
+    <numFmt numFmtId="171" formatCode="@"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2185,7 +2186,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="344">
+  <cellXfs count="345">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2363,7 +2364,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2670,7 +2671,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2970,7 +2975,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2986,7 +2991,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -6250,9 +6255,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6266,7 +6271,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="758160" cy="214920"/>
+          <a:ext cx="757800" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6287,9 +6292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6303,7 +6308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1101600" cy="214920"/>
+          <a:ext cx="1101240" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6324,9 +6329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6340,7 +6345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1408320" cy="214920"/>
+          <a:ext cx="1407960" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6361,9 +6366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>345240</xdr:colOff>
+      <xdr:colOff>344880</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6377,7 +6382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1732320" cy="214920"/>
+          <a:ext cx="1731960" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6398,9 +6403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>275400</xdr:rowOff>
+      <xdr:rowOff>275040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6414,7 +6419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2039400" cy="227880"/>
+          <a:ext cx="2039040" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6435,9 +6440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>161280</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6451,7 +6456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2375640" cy="214920"/>
+          <a:ext cx="2375280" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6472,9 +6477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6484,7 +6489,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2688480" cy="213840"/>
+          <a:ext cx="2688120" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6853,9 +6858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6865,7 +6870,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6987600" cy="10557360"/>
+          <a:ext cx="6987240" cy="10557000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6993,9 +6998,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:colOff>425520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>295920</xdr:rowOff>
+      <xdr:rowOff>295560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7009,7 +7014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1126080" cy="259200"/>
+          <a:ext cx="1125720" cy="258840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7035,9 +7040,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7047,7 +7052,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7022880" cy="257400"/>
+          <a:ext cx="7022520" cy="257040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7106,9 +7111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1013040</xdr:colOff>
+      <xdr:colOff>1012680</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7118,7 +7123,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928880"/>
-          <a:ext cx="7090200" cy="263880"/>
+          <a:ext cx="7089840" cy="263520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7177,9 +7182,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1016640</xdr:colOff>
+      <xdr:colOff>1016280</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>57960</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7189,7 +7194,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7049880" cy="258840"/>
+          <a:ext cx="7049520" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7248,9 +7253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7260,7 +7265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6888960" cy="258120"/>
+          <a:ext cx="6888600" cy="257760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7319,9 +7324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>51840</xdr:colOff>
+      <xdr:colOff>51480</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>59040</xdr:rowOff>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7331,7 +7336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6985440" cy="358920"/>
+          <a:ext cx="6985080" cy="358560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7390,9 +7395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>61200</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7402,7 +7407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10335960"/>
-          <a:ext cx="6994440" cy="370080"/>
+          <a:ext cx="6994080" cy="369720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7461,9 +7466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7473,7 +7478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7034760" cy="370080"/>
+          <a:ext cx="7034400" cy="369720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9073,7 +9078,7 @@
   <dimension ref="B1:AA65"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9474,9 +9479,9 @@
       <c r="E14" s="4"/>
       <c r="F14" s="120"/>
       <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="123"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -9503,9 +9508,9 @@
       <c r="E15" s="4"/>
       <c r="F15" s="120"/>
       <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="123"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -9532,9 +9537,9 @@
       <c r="E16" s="4"/>
       <c r="F16" s="120"/>
       <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -9561,9 +9566,9 @@
       <c r="E17" s="4"/>
       <c r="F17" s="120"/>
       <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -9590,9 +9595,9 @@
       <c r="E18" s="4"/>
       <c r="F18" s="120"/>
       <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -9615,11 +9620,11 @@
       <c r="C19" s="119"/>
       <c r="D19" s="119"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="125"/>
+      <c r="H19" s="126"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -9638,17 +9643,17 @@
       <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="128"/>
-      <c r="C20" s="129" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -9735,7 +9740,7 @@
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
-      <c r="J23" s="131"/>
+      <c r="J23" s="132"/>
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -9757,13 +9762,13 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="132"/>
+      <c r="D24" s="133"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="131"/>
+      <c r="J24" s="132"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -9789,10 +9794,10 @@
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="135"/>
-      <c r="J25" s="131"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="135"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="132"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -9816,10 +9821,10 @@
       <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="137"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="131"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="132"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -9843,10 +9848,10 @@
       <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="131"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="132"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -9870,10 +9875,10 @@
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="131"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="132"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -9899,10 +9904,10 @@
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="131"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="132"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -9922,14 +9927,14 @@
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="144"/>
-      <c r="G30" s="144"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
       <c r="H30" s="46"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="131"/>
+      <c r="J30" s="132"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -9949,16 +9954,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="145" t="s">
+      <c r="C31" s="146" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="131"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="132"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -9978,14 +9983,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="145"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="131"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="132"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -10005,14 +10010,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="145"/>
-      <c r="D33" s="145"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="131"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="132"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
@@ -10032,14 +10037,14 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="98"/>
-      <c r="C34" s="145"/>
-      <c r="D34" s="145"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="131"/>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="146"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="132"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -10058,15 +10063,15 @@
       <c r="AA34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="146"/>
-      <c r="C35" s="147"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="148"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -10085,17 +10090,17 @@
       <c r="AA35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="149"/>
-      <c r="C36" s="150" t="s">
+      <c r="B36" s="150"/>
+      <c r="C36" s="151" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="151"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
+      <c r="F36" s="151"/>
+      <c r="G36" s="151"/>
+      <c r="H36" s="151"/>
+      <c r="I36" s="151"/>
+      <c r="J36" s="152"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -10143,15 +10148,15 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="152"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
-      <c r="G38" s="153"/>
-      <c r="H38" s="153"/>
-      <c r="I38" s="153"/>
-      <c r="J38" s="153"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="154"/>
+      <c r="D38" s="154"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="154"/>
+      <c r="G38" s="154"/>
+      <c r="H38" s="154"/>
+      <c r="I38" s="154"/>
+      <c r="J38" s="154"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10171,14 +10176,14 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
-      <c r="C39" s="153"/>
-      <c r="D39" s="153"/>
-      <c r="E39" s="153"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="C39" s="154"/>
+      <c r="D39" s="154"/>
+      <c r="E39" s="154"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -10198,14 +10203,14 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="C40" s="154"/>
+      <c r="D40" s="154"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -10225,14 +10230,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="154"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -10252,14 +10257,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="153"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="C42" s="154"/>
+      <c r="D42" s="154"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -10279,14 +10284,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="153"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -10306,14 +10311,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="153"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="C44" s="154"/>
+      <c r="D44" s="154"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -10333,14 +10338,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
-      <c r="C45" s="153"/>
-      <c r="D45" s="153"/>
-      <c r="E45" s="153"/>
-      <c r="F45" s="153"/>
-      <c r="G45" s="153"/>
-      <c r="H45" s="153"/>
-      <c r="I45" s="153"/>
-      <c r="J45" s="153"/>
+      <c r="C45" s="154"/>
+      <c r="D45" s="154"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="154"/>
+      <c r="G45" s="154"/>
+      <c r="H45" s="154"/>
+      <c r="I45" s="154"/>
+      <c r="J45" s="154"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -10360,14 +10365,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="153"/>
-      <c r="J46" s="153"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -10387,14 +10392,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="98"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
+      <c r="C47" s="154"/>
+      <c r="D47" s="154"/>
+      <c r="E47" s="154"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -10414,14 +10419,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="98"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
+      <c r="C48" s="154"/>
+      <c r="D48" s="154"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -10441,14 +10446,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="153"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
+      <c r="C49" s="154"/>
+      <c r="D49" s="154"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -10468,14 +10473,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
+      <c r="C50" s="154"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -10495,14 +10500,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
+      <c r="C51" s="154"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -10522,14 +10527,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="C52" s="154"/>
+      <c r="D52" s="154"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -10549,14 +10554,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="98"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
+      <c r="C53" s="154"/>
+      <c r="D53" s="154"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="154"/>
+      <c r="G53" s="154"/>
+      <c r="H53" s="154"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -10576,14 +10581,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="98"/>
-      <c r="C54" s="153"/>
-      <c r="D54" s="153"/>
-      <c r="E54" s="153"/>
-      <c r="F54" s="153"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="153"/>
-      <c r="I54" s="153"/>
-      <c r="J54" s="153"/>
+      <c r="C54" s="154"/>
+      <c r="D54" s="154"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="154"/>
+      <c r="G54" s="154"/>
+      <c r="H54" s="154"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -10603,14 +10608,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="98"/>
-      <c r="C55" s="153"/>
-      <c r="D55" s="153"/>
-      <c r="E55" s="153"/>
-      <c r="F55" s="153"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="153"/>
-      <c r="I55" s="153"/>
-      <c r="J55" s="153"/>
+      <c r="C55" s="154"/>
+      <c r="D55" s="154"/>
+      <c r="E55" s="154"/>
+      <c r="F55" s="154"/>
+      <c r="G55" s="154"/>
+      <c r="H55" s="154"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -10629,15 +10634,15 @@
       <c r="AA55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="152"/>
-      <c r="C56" s="153"/>
-      <c r="D56" s="153"/>
-      <c r="E56" s="153"/>
-      <c r="F56" s="153"/>
-      <c r="G56" s="153"/>
-      <c r="H56" s="153"/>
-      <c r="I56" s="153"/>
-      <c r="J56" s="153"/>
+      <c r="B56" s="153"/>
+      <c r="C56" s="154"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -10656,17 +10661,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
+      <c r="C57" s="155"/>
+      <c r="D57" s="155"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -10778,20 +10783,20 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="155"/>
+      <c r="O64" s="156"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="155"/>
-      <c r="O65" s="155"/>
-      <c r="P65" s="155"/>
-      <c r="Q65" s="155"/>
-      <c r="R65" s="155"/>
-      <c r="S65" s="155"/>
-      <c r="T65" s="155"/>
-      <c r="U65" s="155"/>
-      <c r="V65" s="155"/>
-      <c r="W65" s="155"/>
-      <c r="X65" s="155"/>
+      <c r="N65" s="156"/>
+      <c r="O65" s="156"/>
+      <c r="P65" s="156"/>
+      <c r="Q65" s="156"/>
+      <c r="R65" s="156"/>
+      <c r="S65" s="156"/>
+      <c r="T65" s="156"/>
+      <c r="U65" s="156"/>
+      <c r="V65" s="156"/>
+      <c r="W65" s="156"/>
+      <c r="X65" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -11029,14 +11034,14 @@
   </cols>
   <sheetData>
     <row r="2" s="91" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="156" t="s">
+      <c r="B2" s="157" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
       <c r="AKY2" s="0"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
@@ -11077,21 +11082,21 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="157"/>
-      <c r="C3" s="158" t="s">
+      <c r="B3" s="158"/>
+      <c r="C3" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
+      <c r="D3" s="160"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="160"/>
-      <c r="C4" s="161" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="162" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="161"/>
+      <c r="D4" s="162"/>
       <c r="E4" s="87" t="s">
         <v>14</v>
       </c>
@@ -11104,81 +11109,81 @@
       <c r="L4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="160"/>
-      <c r="C5" s="161" t="s">
+      <c r="B5" s="161"/>
+      <c r="C5" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="161" t="s">
+      <c r="D5" s="163"/>
+      <c r="E5" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="163"/>
-      <c r="G5" s="164" t="s">
+      <c r="F5" s="164"/>
+      <c r="G5" s="165" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="165"/>
-      <c r="C6" s="166" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="169"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="169"/>
+      <c r="G6" s="170"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="160"/>
-      <c r="C7" s="161" t="s">
+      <c r="B7" s="161"/>
+      <c r="C7" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="170"/>
-      <c r="E7" s="171" t="s">
+      <c r="D7" s="171"/>
+      <c r="E7" s="172" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="172"/>
-      <c r="G7" s="173"/>
+      <c r="F7" s="173"/>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="160"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="175" t="s">
+      <c r="B8" s="161"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="176" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="175" t="s">
+      <c r="F8" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="176" t="s">
+      <c r="G8" s="177" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="160"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="177" t="s">
+      <c r="B9" s="161"/>
+      <c r="C9" s="175"/>
+      <c r="D9" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="177" t="s">
+      <c r="F9" s="178" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="177" t="s">
+      <c r="G9" s="178" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="160"/>
-      <c r="C10" s="164" t="s">
+      <c r="B10" s="161"/>
+      <c r="C10" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="178"/>
-      <c r="E10" s="179"/>
-      <c r="F10" s="180"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="181"/>
       <c r="G10" s="87" t="s">
         <v>14</v>
       </c>
@@ -11191,13 +11196,13 @@
       <c r="N10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="160"/>
-      <c r="C11" s="164" t="s">
+      <c r="B11" s="161"/>
+      <c r="C11" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="178"/>
-      <c r="E11" s="179"/>
-      <c r="F11" s="180"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="181"/>
       <c r="G11" s="87" t="s">
         <v>14</v>
       </c>
@@ -11210,13 +11215,13 @@
       <c r="N11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="160"/>
-      <c r="C12" s="164" t="s">
+      <c r="B12" s="161"/>
+      <c r="C12" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="178"/>
-      <c r="E12" s="179"/>
-      <c r="F12" s="180"/>
+      <c r="D12" s="179"/>
+      <c r="E12" s="180"/>
+      <c r="F12" s="181"/>
       <c r="G12" s="87" t="s">
         <v>14</v>
       </c>
@@ -11229,13 +11234,13 @@
       <c r="N12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="160"/>
-      <c r="C13" s="164" t="s">
+      <c r="B13" s="161"/>
+      <c r="C13" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="178"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="180"/>
+      <c r="D13" s="179"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="181"/>
       <c r="G13" s="87" t="s">
         <v>14</v>
       </c>
@@ -11248,13 +11253,13 @@
       <c r="N13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="160"/>
-      <c r="C14" s="164" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="178"/>
-      <c r="E14" s="179"/>
-      <c r="F14" s="180"/>
+      <c r="D14" s="179"/>
+      <c r="E14" s="180"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="87" t="s">
         <v>14</v>
       </c>
@@ -11267,17 +11272,17 @@
       <c r="N14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="160"/>
-      <c r="C15" s="164" t="s">
+      <c r="B15" s="161"/>
+      <c r="C15" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="181" t="s">
+      <c r="D15" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="179"/>
+      <c r="F15" s="180"/>
       <c r="G15" s="87" t="s">
         <v>14</v>
       </c>
@@ -11290,562 +11295,562 @@
       <c r="N15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="165"/>
-      <c r="C16" s="166" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="167"/>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="169"/>
+      <c r="D16" s="168"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="160"/>
-      <c r="C17" s="174"/>
-      <c r="D17" s="183" t="s">
+      <c r="B17" s="161"/>
+      <c r="C17" s="175"/>
+      <c r="D17" s="184" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="183" t="s">
+      <c r="E17" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="184" t="s">
+      <c r="F17" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="185"/>
+      <c r="G17" s="186"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="160"/>
-      <c r="C18" s="174"/>
-      <c r="D18" s="177" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="175"/>
+      <c r="D18" s="178" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="177" t="s">
+      <c r="E18" s="178" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="186" t="s">
+      <c r="F18" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="185"/>
+      <c r="G18" s="186"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="160"/>
-      <c r="C19" s="161" t="s">
+      <c r="B19" s="161"/>
+      <c r="C19" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="179"/>
-      <c r="F19" s="163"/>
-      <c r="G19" s="185"/>
+      <c r="D19" s="180"/>
+      <c r="E19" s="180"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="160"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="161"/>
+      <c r="C20" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="179"/>
-      <c r="F20" s="163"/>
-      <c r="G20" s="185"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="186"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="160"/>
-      <c r="C21" s="161" t="s">
+      <c r="B21" s="161"/>
+      <c r="C21" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="179"/>
-      <c r="E21" s="179"/>
-      <c r="F21" s="163"/>
-      <c r="G21" s="185"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="186"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="160"/>
-      <c r="C22" s="161" t="s">
+      <c r="B22" s="161"/>
+      <c r="C22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="179"/>
-      <c r="E22" s="179"/>
-      <c r="F22" s="163"/>
-      <c r="G22" s="185"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="186"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="160"/>
-      <c r="C23" s="161" t="s">
+      <c r="B23" s="161"/>
+      <c r="C23" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="179"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="185"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="186"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="160"/>
-      <c r="C24" s="161" t="s">
+      <c r="B24" s="161"/>
+      <c r="C24" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="179"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="185"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="186"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="160"/>
-      <c r="C25" s="161" t="s">
+      <c r="B25" s="161"/>
+      <c r="C25" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="179"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="163"/>
-      <c r="G25" s="185"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="186"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="160"/>
-      <c r="C26" s="161" t="s">
+      <c r="B26" s="161"/>
+      <c r="C26" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="163"/>
-      <c r="G26" s="185"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="186"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="157"/>
-      <c r="C27" s="158" t="s">
+      <c r="B27" s="158"/>
+      <c r="C27" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="159"/>
-      <c r="F27" s="159"/>
+      <c r="D27" s="160"/>
+      <c r="E27" s="160"/>
+      <c r="F27" s="160"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="160"/>
-      <c r="C28" s="164" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
+      <c r="D28" s="188"/>
+      <c r="E28" s="188"/>
+      <c r="F28" s="188"/>
+      <c r="G28" s="188"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="188"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="189"/>
-      <c r="E29" s="189"/>
-      <c r="F29" s="189"/>
-      <c r="G29" s="190"/>
+      <c r="B29" s="189"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="191"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="160"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="192" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="193" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="175" t="s">
+      <c r="E30" s="176" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="175" t="s">
+      <c r="F30" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="175" t="s">
+      <c r="G30" s="176" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="160"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="193" t="s">
+      <c r="B31" s="161"/>
+      <c r="C31" s="192"/>
+      <c r="D31" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="183" t="s">
+      <c r="E31" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="183" t="s">
+      <c r="F31" s="184" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="183"/>
+      <c r="G31" s="184"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="160"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="194" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="192"/>
+      <c r="D32" s="195" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="177" t="s">
+      <c r="E32" s="178" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="177" t="s">
+      <c r="F32" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="195" t="s">
+      <c r="G32" s="196" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="160"/>
-      <c r="C33" s="164" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="196"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="179"/>
+      <c r="D33" s="197"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="180"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="160"/>
-      <c r="C34" s="164" t="s">
+      <c r="B34" s="161"/>
+      <c r="C34" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="196"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="180" t="s">
+      <c r="D34" s="197"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="198" t="s">
+      <c r="G34" s="199" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="188"/>
-      <c r="C35" s="199" t="s">
+      <c r="B35" s="189"/>
+      <c r="C35" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="201"/>
-      <c r="F35" s="202" t="s">
+      <c r="D35" s="201"/>
+      <c r="E35" s="202"/>
+      <c r="F35" s="203" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="203" t="s">
+      <c r="G35" s="204" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="160"/>
-      <c r="C36" s="204" t="s">
+      <c r="B36" s="161"/>
+      <c r="C36" s="205" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="157"/>
-      <c r="C37" s="158" t="s">
+      <c r="B37" s="158"/>
+      <c r="C37" s="159" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="160"/>
+      <c r="F37" s="160"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="160"/>
-      <c r="C38" s="161" t="s">
+      <c r="B38" s="161"/>
+      <c r="C38" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="206"/>
-      <c r="G38" s="206"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="207"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="160"/>
-      <c r="C39" s="189"/>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="190"/>
+      <c r="D39" s="208"/>
+      <c r="E39" s="208"/>
+      <c r="F39" s="208"/>
+      <c r="G39" s="208"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="208"/>
-      <c r="C40" s="209"/>
-      <c r="D40" s="175" t="s">
+      <c r="B40" s="209"/>
+      <c r="C40" s="210"/>
+      <c r="D40" s="176" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="175" t="s">
+      <c r="F40" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="175" t="s">
+      <c r="G40" s="176" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="160"/>
-      <c r="C41" s="174"/>
-      <c r="D41" s="183" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="175"/>
+      <c r="D41" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="211" t="s">
+      <c r="E41" s="212" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="183"/>
-      <c r="G41" s="183" t="s">
+      <c r="F41" s="184"/>
+      <c r="G41" s="184" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="160"/>
-      <c r="C42" s="174"/>
-      <c r="D42" s="212" t="s">
+      <c r="B42" s="161"/>
+      <c r="C42" s="175"/>
+      <c r="D42" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="212" t="s">
+      <c r="E42" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="212" t="s">
+      <c r="F42" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="177" t="s">
+      <c r="G42" s="178" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="160"/>
-      <c r="C43" s="161" t="s">
+      <c r="B43" s="161"/>
+      <c r="C43" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="197"/>
-      <c r="E43" s="197"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="179"/>
+      <c r="D43" s="198"/>
+      <c r="E43" s="198"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="160"/>
-      <c r="C44" s="161" t="s">
+      <c r="B44" s="161"/>
+      <c r="C44" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="197"/>
-      <c r="E44" s="197"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
+      <c r="D44" s="198"/>
+      <c r="E44" s="198"/>
+      <c r="F44" s="180"/>
+      <c r="G44" s="180"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="160"/>
-      <c r="C45" s="213" t="s">
+      <c r="B45" s="161"/>
+      <c r="C45" s="214" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="214"/>
-      <c r="E45" s="214"/>
-      <c r="F45" s="214"/>
-      <c r="G45" s="214"/>
+      <c r="D45" s="215"/>
+      <c r="E45" s="215"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="160"/>
-      <c r="C46" s="213" t="s">
+      <c r="B46" s="161"/>
+      <c r="C46" s="214" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="161"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="164"/>
+      <c r="D46" s="162"/>
+      <c r="E46" s="162"/>
+      <c r="F46" s="162"/>
+      <c r="G46" s="165"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="160"/>
-      <c r="C47" s="215"/>
-      <c r="D47" s="215"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="215"/>
-      <c r="G47" s="216"/>
+      <c r="B47" s="161"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="217"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="160"/>
-      <c r="C48" s="174"/>
-      <c r="D48" s="175" t="s">
+      <c r="B48" s="161"/>
+      <c r="C48" s="175"/>
+      <c r="D48" s="176" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="175" t="s">
+      <c r="E48" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="217"/>
-      <c r="G48" s="190"/>
+      <c r="F48" s="218"/>
+      <c r="G48" s="191"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="160"/>
-      <c r="C49" s="174"/>
-      <c r="D49" s="177" t="s">
+      <c r="B49" s="161"/>
+      <c r="C49" s="175"/>
+      <c r="D49" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="177" t="s">
+      <c r="E49" s="178" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="217"/>
-      <c r="G49" s="190"/>
+      <c r="F49" s="218"/>
+      <c r="G49" s="191"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="160"/>
-      <c r="C50" s="161" t="s">
+      <c r="B50" s="161"/>
+      <c r="C50" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="179"/>
-      <c r="E50" s="179"/>
-      <c r="F50" s="217"/>
-      <c r="G50" s="190"/>
+      <c r="D50" s="180"/>
+      <c r="E50" s="180"/>
+      <c r="F50" s="218"/>
+      <c r="G50" s="191"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="160"/>
-      <c r="C51" s="161" t="s">
+      <c r="B51" s="161"/>
+      <c r="C51" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="179"/>
-      <c r="E51" s="179"/>
-      <c r="F51" s="217"/>
-      <c r="G51" s="190"/>
+      <c r="D51" s="180"/>
+      <c r="E51" s="180"/>
+      <c r="F51" s="218"/>
+      <c r="G51" s="191"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="157"/>
-      <c r="C52" s="158" t="s">
+      <c r="B52" s="158"/>
+      <c r="C52" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="159"/>
+      <c r="D52" s="160"/>
+      <c r="E52" s="160"/>
+      <c r="F52" s="160"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="160"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="218" t="s">
+      <c r="B53" s="161"/>
+      <c r="C53" s="175"/>
+      <c r="D53" s="219" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="193"/>
-      <c r="F53" s="193"/>
-      <c r="G53" s="190"/>
+      <c r="E53" s="194"/>
+      <c r="F53" s="194"/>
+      <c r="G53" s="191"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="160"/>
-      <c r="C54" s="174"/>
-      <c r="D54" s="219" t="s">
+      <c r="B54" s="161"/>
+      <c r="C54" s="175"/>
+      <c r="D54" s="220" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="219"/>
-      <c r="F54" s="193"/>
-      <c r="G54" s="190"/>
+      <c r="E54" s="220"/>
+      <c r="F54" s="194"/>
+      <c r="G54" s="191"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="160"/>
-      <c r="C55" s="161" t="s">
+      <c r="B55" s="161"/>
+      <c r="C55" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="163"/>
-      <c r="E55" s="220"/>
-      <c r="F55" s="193"/>
-      <c r="G55" s="190"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="221"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="191"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="157"/>
-      <c r="C56" s="158" t="s">
+      <c r="B56" s="158"/>
+      <c r="C56" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="159"/>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
+      <c r="D56" s="160"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="160"/>
-      <c r="C57" s="189"/>
-      <c r="D57" s="221" t="s">
+      <c r="B57" s="161"/>
+      <c r="C57" s="190"/>
+      <c r="D57" s="222" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="222" t="s">
+      <c r="E57" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="189"/>
-      <c r="G57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="191"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="160"/>
-      <c r="C58" s="174"/>
-      <c r="D58" s="223" t="s">
+      <c r="B58" s="161"/>
+      <c r="C58" s="175"/>
+      <c r="D58" s="224" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="177" t="s">
+      <c r="E58" s="178" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="189"/>
-      <c r="G58" s="190"/>
+      <c r="F58" s="190"/>
+      <c r="G58" s="191"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="160"/>
-      <c r="C59" s="161" t="s">
+      <c r="B59" s="161"/>
+      <c r="C59" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="224"/>
-      <c r="E59" s="179"/>
-      <c r="F59" s="225" t="s">
+      <c r="D59" s="225"/>
+      <c r="E59" s="180"/>
+      <c r="F59" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="190"/>
+      <c r="G59" s="191"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="157"/>
-      <c r="C60" s="158" t="s">
+      <c r="B60" s="158"/>
+      <c r="C60" s="159" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="159"/>
-      <c r="E60" s="159"/>
-      <c r="F60" s="159"/>
-      <c r="G60" s="226"/>
+      <c r="D60" s="160"/>
+      <c r="E60" s="160"/>
+      <c r="F60" s="160"/>
+      <c r="G60" s="227"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="160"/>
-      <c r="C61" s="174"/>
-      <c r="D61" s="183" t="s">
+      <c r="B61" s="161"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="184" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="183" t="s">
+      <c r="E61" s="184" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="217" t="s">
+      <c r="F61" s="218" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="183" t="s">
+      <c r="G61" s="184" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="160"/>
-      <c r="C62" s="174"/>
-      <c r="D62" s="177" t="s">
+      <c r="B62" s="161"/>
+      <c r="C62" s="175"/>
+      <c r="D62" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="177" t="s">
+      <c r="E62" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="223" t="s">
+      <c r="F62" s="224" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="177" t="s">
+      <c r="G62" s="178" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="160"/>
+      <c r="B63" s="161"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="197"/>
-      <c r="E63" s="179"/>
-      <c r="F63" s="224"/>
-      <c r="G63" s="179"/>
+      <c r="D63" s="198"/>
+      <c r="E63" s="180"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="180"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="160"/>
+      <c r="B64" s="161"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="197"/>
-      <c r="E64" s="179"/>
-      <c r="F64" s="224"/>
-      <c r="G64" s="179"/>
+      <c r="D64" s="198"/>
+      <c r="E64" s="180"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="180"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="227"/>
-      <c r="C65" s="172"/>
-      <c r="D65" s="228"/>
-      <c r="E65" s="228"/>
-      <c r="F65" s="227"/>
-      <c r="G65" s="228"/>
+      <c r="B65" s="228"/>
+      <c r="C65" s="173"/>
+      <c r="D65" s="229"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="229"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12389,14 +12394,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="229"/>
-      <c r="C2" s="230" t="s">
+      <c r="B2" s="230"/>
+      <c r="C2" s="231" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="231"/>
-      <c r="E2" s="230"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="232"/>
+      <c r="D2" s="232"/>
+      <c r="E2" s="231"/>
+      <c r="F2" s="232"/>
+      <c r="G2" s="233"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12436,66 +12441,66 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="233"/>
-      <c r="C3" s="234" t="s">
+      <c r="B3" s="234"/>
+      <c r="C3" s="235" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="235"/>
-      <c r="G3" s="236"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="237"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="160"/>
-      <c r="C4" s="237" t="s">
+      <c r="B4" s="161"/>
+      <c r="C4" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="238" t="s">
+      <c r="D4" s="239" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="238"/>
-      <c r="F4" s="238"/>
-      <c r="G4" s="238"/>
+      <c r="E4" s="239"/>
+      <c r="F4" s="239"/>
+      <c r="G4" s="239"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="160"/>
-      <c r="C5" s="237"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="238"/>
-      <c r="G5" s="238"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="239"/>
+      <c r="E5" s="239"/>
+      <c r="F5" s="239"/>
+      <c r="G5" s="239"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="160"/>
-      <c r="C6" s="237"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="239"/>
-      <c r="F6" s="239"/>
-      <c r="G6" s="240"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="238"/>
+      <c r="D6" s="240"/>
+      <c r="E6" s="240"/>
+      <c r="F6" s="240"/>
+      <c r="G6" s="241"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="160"/>
-      <c r="C7" s="162" t="s">
+      <c r="B7" s="161"/>
+      <c r="C7" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="241"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="164"/>
+      <c r="D7" s="242"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="165"/>
     </row>
     <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="160"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="161"/>
+      <c r="C8" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="241"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="191"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="192"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="160"/>
-      <c r="C9" s="218" t="s">
+      <c r="B9" s="161"/>
+      <c r="C9" s="219" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -12510,734 +12515,734 @@
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="188"/>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="173"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="245"/>
+      <c r="D10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="174"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="233"/>
-      <c r="C11" s="234" t="s">
+      <c r="B11" s="234"/>
+      <c r="C11" s="235" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
-      <c r="G11" s="236"/>
+      <c r="D11" s="236"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="236"/>
+      <c r="G11" s="237"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="160"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="245"/>
-      <c r="E12" s="245"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="190"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="190"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="191"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="160"/>
-      <c r="C13" s="243" t="s">
+      <c r="B13" s="161"/>
+      <c r="C13" s="244" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="183" t="s">
+      <c r="D13" s="184" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="183" t="s">
+      <c r="E13" s="184" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="184" t="s">
+      <c r="F13" s="185" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="184"/>
+      <c r="G13" s="185"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="160"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="183" t="s">
+      <c r="B14" s="161"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="184" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="183" t="s">
+      <c r="E14" s="184" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="184" t="s">
+      <c r="F14" s="185" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="184"/>
+      <c r="G14" s="185"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="188"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="177" t="s">
+      <c r="B15" s="189"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="178" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="177" t="s">
+      <c r="E15" s="178" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="223" t="s">
+      <c r="F15" s="224" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="186" t="s">
+      <c r="G15" s="187" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="160"/>
-      <c r="C16" s="174"/>
-      <c r="D16" s="183"/>
-      <c r="E16" s="183"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="184"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="175"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="185"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="160"/>
-      <c r="C17" s="247" t="s">
+      <c r="B17" s="161"/>
+      <c r="C17" s="248" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="179"/>
-      <c r="E17" s="248" t="s">
+      <c r="D17" s="180"/>
+      <c r="E17" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="248" t="s">
+      <c r="F17" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="248" t="s">
+      <c r="G17" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="160"/>
-      <c r="C18" s="247" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="179"/>
-      <c r="E18" s="248" t="s">
+      <c r="D18" s="180"/>
+      <c r="E18" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="248" t="s">
+      <c r="F18" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="248" t="s">
+      <c r="G18" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="160"/>
-      <c r="C19" s="249" t="s">
+      <c r="B19" s="161"/>
+      <c r="C19" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="179"/>
-      <c r="E19" s="248" t="s">
+      <c r="D19" s="180"/>
+      <c r="E19" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="248" t="s">
+      <c r="F19" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="248" t="s">
+      <c r="G19" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="160"/>
-      <c r="C20" s="249" t="s">
+      <c r="B20" s="161"/>
+      <c r="C20" s="250" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="179"/>
-      <c r="E20" s="248" t="s">
+      <c r="D20" s="180"/>
+      <c r="E20" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="248" t="s">
+      <c r="F20" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="248" t="s">
+      <c r="G20" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="160"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="248"/>
-      <c r="E21" s="248" t="s">
+      <c r="B21" s="161"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="249"/>
+      <c r="E21" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="248" t="s">
+      <c r="F21" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="248" t="s">
+      <c r="G21" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="160"/>
-      <c r="C22" s="243" t="s">
+      <c r="B22" s="161"/>
+      <c r="C22" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="248" t="s">
+      <c r="D22" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="248" t="s">
+      <c r="E22" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="248" t="s">
+      <c r="F22" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="248" t="s">
+      <c r="G22" s="249" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="160"/>
-      <c r="C23" s="189"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="207"/>
-      <c r="F23" s="207"/>
-      <c r="G23" s="190"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="190"/>
+      <c r="D23" s="208"/>
+      <c r="E23" s="208"/>
+      <c r="F23" s="208"/>
+      <c r="G23" s="191"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="233"/>
-      <c r="C24" s="234" t="s">
+      <c r="B24" s="234"/>
+      <c r="C24" s="235" t="s">
         <v>139</v>
       </c>
-      <c r="D24" s="159"/>
-      <c r="E24" s="235"/>
-      <c r="F24" s="235"/>
-      <c r="G24" s="236"/>
+      <c r="D24" s="160"/>
+      <c r="E24" s="236"/>
+      <c r="F24" s="236"/>
+      <c r="G24" s="237"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="208"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="245"/>
-      <c r="F25" s="245"/>
-      <c r="G25" s="190"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="252"/>
+      <c r="D25" s="253"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="191"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="160"/>
-      <c r="C26" s="174"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="182" t="s">
+      <c r="B26" s="161"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="182" t="s">
+      <c r="F26" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="190"/>
+      <c r="G26" s="191"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="160"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="183"/>
-      <c r="F27" s="183"/>
-      <c r="G27" s="190"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="175"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="191"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="160"/>
-      <c r="C28" s="253" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="254" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="253"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="248" t="s">
+      <c r="D28" s="254"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="254"/>
+      <c r="G28" s="255"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="160"/>
-      <c r="C29" s="253" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="254" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="253"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="248" t="s">
+      <c r="D29" s="254"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="254"/>
+      <c r="G29" s="255"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="160"/>
-      <c r="C30" s="255" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="256" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="255"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="248" t="s">
+      <c r="D30" s="256"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="254"/>
+      <c r="G30" s="255"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="160"/>
-      <c r="C31" s="255" t="s">
+      <c r="B31" s="161"/>
+      <c r="C31" s="256" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="255"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="248" t="s">
+      <c r="D31" s="256"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="254"/>
+      <c r="G31" s="255"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="160"/>
-      <c r="C32" s="255" t="s">
+      <c r="B32" s="161"/>
+      <c r="C32" s="256" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="255"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="248" t="s">
+      <c r="D32" s="256"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="254"/>
+      <c r="G32" s="255"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="160"/>
-      <c r="C33" s="255" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="256" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="255"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="248" t="s">
+      <c r="D33" s="256"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="254"/>
+      <c r="G33" s="255"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="188"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="173"/>
-      <c r="E34" s="207"/>
-      <c r="F34" s="207"/>
-      <c r="G34" s="190"/>
+      <c r="B34" s="189"/>
+      <c r="C34" s="245"/>
+      <c r="D34" s="174"/>
+      <c r="E34" s="208"/>
+      <c r="F34" s="208"/>
+      <c r="G34" s="191"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="233"/>
-      <c r="C35" s="234" t="s">
+      <c r="B35" s="234"/>
+      <c r="C35" s="235" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="235"/>
-      <c r="E35" s="235"/>
-      <c r="F35" s="235"/>
-      <c r="G35" s="236"/>
+      <c r="D35" s="236"/>
+      <c r="E35" s="236"/>
+      <c r="F35" s="236"/>
+      <c r="G35" s="237"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="160"/>
-      <c r="C36" s="189"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="245"/>
-      <c r="F36" s="245"/>
-      <c r="G36" s="245"/>
+      <c r="B36" s="161"/>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="246"/>
+      <c r="F36" s="246"/>
+      <c r="G36" s="246"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="160"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
-      <c r="E37" s="183" t="s">
+      <c r="B37" s="161"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="183" t="s">
+      <c r="F37" s="184" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="183" t="s">
+      <c r="G37" s="184" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="160"/>
-      <c r="C38" s="174"/>
-      <c r="D38" s="174"/>
-      <c r="E38" s="182" t="s">
+      <c r="B38" s="161"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="182" t="s">
+      <c r="F38" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="182" t="s">
+      <c r="G38" s="183" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="160"/>
-      <c r="C39" s="174"/>
-      <c r="D39" s="174"/>
-      <c r="E39" s="183"/>
-      <c r="F39" s="183"/>
-      <c r="G39" s="183"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="160"/>
-      <c r="C40" s="161" t="s">
+      <c r="B40" s="161"/>
+      <c r="C40" s="162" t="s">
         <v>94</v>
       </c>
-      <c r="D40" s="161"/>
-      <c r="E40" s="183"/>
-      <c r="F40" s="183"/>
-      <c r="G40" s="183"/>
+      <c r="D40" s="162"/>
+      <c r="E40" s="184"/>
+      <c r="F40" s="184"/>
+      <c r="G40" s="184"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="160"/>
-      <c r="C41" s="161" t="s">
+      <c r="B41" s="161"/>
+      <c r="C41" s="162" t="s">
         <v>150</v>
       </c>
-      <c r="D41" s="161"/>
-      <c r="E41" s="179"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="183" t="s">
+      <c r="D41" s="162"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="184" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="160"/>
-      <c r="C42" s="161" t="s">
+      <c r="B42" s="161"/>
+      <c r="C42" s="162" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="161"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="183" t="s">
+      <c r="D42" s="162"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="184" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="160"/>
-      <c r="C43" s="161" t="s">
+      <c r="B43" s="161"/>
+      <c r="C43" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="D43" s="161"/>
-      <c r="E43" s="179"/>
-      <c r="F43" s="179"/>
-      <c r="G43" s="179"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="180"/>
+      <c r="F43" s="180"/>
+      <c r="G43" s="180"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="160"/>
-      <c r="C44" s="161" t="s">
+      <c r="B44" s="161"/>
+      <c r="C44" s="162" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="161"/>
-      <c r="E44" s="179"/>
-      <c r="F44" s="183" t="s">
+      <c r="D44" s="162"/>
+      <c r="E44" s="180"/>
+      <c r="F44" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="183" t="s">
+      <c r="G44" s="184" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="160"/>
-      <c r="C45" s="161" t="s">
+      <c r="B45" s="161"/>
+      <c r="C45" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="D45" s="161"/>
-      <c r="E45" s="179"/>
-      <c r="F45" s="179"/>
-      <c r="G45" s="179"/>
+      <c r="D45" s="162"/>
+      <c r="E45" s="180"/>
+      <c r="F45" s="180"/>
+      <c r="G45" s="180"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="160"/>
-      <c r="C46" s="161" t="s">
+      <c r="B46" s="161"/>
+      <c r="C46" s="162" t="s">
         <v>154</v>
       </c>
-      <c r="D46" s="161"/>
-      <c r="E46" s="179"/>
-      <c r="F46" s="183" t="s">
+      <c r="D46" s="162"/>
+      <c r="E46" s="180"/>
+      <c r="F46" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="183" t="s">
+      <c r="G46" s="184" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="160"/>
-      <c r="C47" s="243" t="s">
+      <c r="B47" s="161"/>
+      <c r="C47" s="244" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="243"/>
-      <c r="E47" s="182"/>
-      <c r="F47" s="182"/>
-      <c r="G47" s="182"/>
+      <c r="D47" s="244"/>
+      <c r="E47" s="183"/>
+      <c r="F47" s="183"/>
+      <c r="G47" s="183"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="160"/>
-      <c r="C48" s="213" t="s">
+      <c r="B48" s="161"/>
+      <c r="C48" s="214" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="243"/>
-      <c r="E48" s="219"/>
-      <c r="F48" s="182"/>
-      <c r="G48" s="182"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="220"/>
+      <c r="F48" s="183"/>
+      <c r="G48" s="183"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="160"/>
-      <c r="C49" s="189"/>
-      <c r="D49" s="189"/>
-      <c r="E49" s="207"/>
-      <c r="F49" s="207"/>
-      <c r="G49" s="207"/>
+      <c r="B49" s="161"/>
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="208"/>
+      <c r="F49" s="208"/>
+      <c r="G49" s="208"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="233"/>
-      <c r="C50" s="234" t="s">
+      <c r="B50" s="234"/>
+      <c r="C50" s="235" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="235"/>
-      <c r="E50" s="235"/>
-      <c r="F50" s="235"/>
-      <c r="G50" s="236"/>
+      <c r="D50" s="236"/>
+      <c r="E50" s="236"/>
+      <c r="F50" s="236"/>
+      <c r="G50" s="237"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="160"/>
-      <c r="C51" s="189"/>
-      <c r="D51" s="189"/>
-      <c r="E51" s="245"/>
-      <c r="F51" s="245"/>
-      <c r="G51" s="245"/>
+      <c r="B51" s="161"/>
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="246"/>
+      <c r="F51" s="246"/>
+      <c r="G51" s="246"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="160"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="182" t="s">
+      <c r="B52" s="161"/>
+      <c r="C52" s="175"/>
+      <c r="D52" s="175"/>
+      <c r="E52" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="182" t="s">
+      <c r="F52" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="182"/>
+      <c r="G52" s="183"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="160"/>
-      <c r="C53" s="174"/>
-      <c r="D53" s="174"/>
-      <c r="E53" s="183"/>
-      <c r="F53" s="183"/>
-      <c r="G53" s="183"/>
+      <c r="B53" s="161"/>
+      <c r="C53" s="175"/>
+      <c r="D53" s="175"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="160"/>
-      <c r="C54" s="161" t="s">
+      <c r="B54" s="161"/>
+      <c r="C54" s="162" t="s">
         <v>157</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="179"/>
-      <c r="F54" s="248" t="s">
+      <c r="D54" s="162"/>
+      <c r="E54" s="180"/>
+      <c r="F54" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="182"/>
+      <c r="G54" s="183"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="160"/>
-      <c r="C55" s="161" t="s">
+      <c r="B55" s="161"/>
+      <c r="C55" s="162" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="161"/>
-      <c r="E55" s="179"/>
-      <c r="F55" s="248" t="s">
+      <c r="D55" s="162"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="183"/>
+      <c r="G55" s="184"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="160"/>
-      <c r="C56" s="161" t="s">
+      <c r="B56" s="161"/>
+      <c r="C56" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="161"/>
-      <c r="E56" s="179"/>
-      <c r="F56" s="248" t="s">
+      <c r="D56" s="162"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="182"/>
+      <c r="G56" s="183"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="160"/>
-      <c r="C57" s="161" t="s">
+      <c r="B57" s="161"/>
+      <c r="C57" s="162" t="s">
         <v>159</v>
       </c>
-      <c r="D57" s="161"/>
-      <c r="E57" s="179"/>
-      <c r="F57" s="248" t="s">
+      <c r="D57" s="162"/>
+      <c r="E57" s="180"/>
+      <c r="F57" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="183"/>
+      <c r="G57" s="184"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="160"/>
-      <c r="C58" s="161"/>
-      <c r="D58" s="161"/>
-      <c r="E58" s="256"/>
-      <c r="F58" s="256"/>
-      <c r="G58" s="257"/>
+      <c r="B58" s="161"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="162"/>
+      <c r="E58" s="257"/>
+      <c r="F58" s="257"/>
+      <c r="G58" s="258"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="160"/>
-      <c r="C59" s="213" t="s">
+      <c r="B59" s="161"/>
+      <c r="C59" s="214" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="258"/>
-      <c r="E59" s="259"/>
-      <c r="F59" s="259"/>
-      <c r="G59" s="257"/>
+      <c r="D59" s="259"/>
+      <c r="E59" s="260"/>
+      <c r="F59" s="260"/>
+      <c r="G59" s="258"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="160"/>
-      <c r="C60" s="213" t="s">
+      <c r="B60" s="161"/>
+      <c r="C60" s="214" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="258"/>
-      <c r="E60" s="259"/>
-      <c r="F60" s="259"/>
-      <c r="G60" s="260"/>
+      <c r="D60" s="259"/>
+      <c r="E60" s="260"/>
+      <c r="F60" s="260"/>
+      <c r="G60" s="261"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="160"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="189"/>
-      <c r="E61" s="207"/>
-      <c r="F61" s="207"/>
-      <c r="G61" s="207"/>
+      <c r="B61" s="161"/>
+      <c r="C61" s="162"/>
+      <c r="D61" s="190"/>
+      <c r="E61" s="208"/>
+      <c r="F61" s="208"/>
+      <c r="G61" s="208"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="233"/>
-      <c r="C62" s="234" t="s">
+      <c r="B62" s="234"/>
+      <c r="C62" s="235" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="235"/>
-      <c r="E62" s="235"/>
-      <c r="F62" s="235"/>
-      <c r="G62" s="236"/>
+      <c r="D62" s="236"/>
+      <c r="E62" s="236"/>
+      <c r="F62" s="236"/>
+      <c r="G62" s="237"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="160"/>
-      <c r="C63" s="189"/>
-      <c r="D63" s="189"/>
-      <c r="E63" s="245"/>
-      <c r="F63" s="245"/>
-      <c r="G63" s="245"/>
+      <c r="B63" s="161"/>
+      <c r="C63" s="190"/>
+      <c r="D63" s="190"/>
+      <c r="E63" s="246"/>
+      <c r="F63" s="246"/>
+      <c r="G63" s="246"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="160"/>
-      <c r="C64" s="174"/>
-      <c r="D64" s="174"/>
-      <c r="E64" s="182" t="s">
+      <c r="B64" s="161"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="182" t="s">
+      <c r="F64" s="183" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="183"/>
+      <c r="G64" s="184"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="160"/>
-      <c r="C65" s="174"/>
-      <c r="D65" s="174"/>
-      <c r="E65" s="183"/>
-      <c r="F65" s="183"/>
-      <c r="G65" s="183"/>
+      <c r="B65" s="161"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="175"/>
+      <c r="E65" s="184"/>
+      <c r="F65" s="184"/>
+      <c r="G65" s="184"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="160"/>
-      <c r="C66" s="161" t="s">
+      <c r="B66" s="161"/>
+      <c r="C66" s="162" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="161"/>
-      <c r="E66" s="179"/>
-      <c r="F66" s="248" t="s">
+      <c r="D66" s="162"/>
+      <c r="E66" s="180"/>
+      <c r="F66" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="183"/>
+      <c r="G66" s="184"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="160"/>
-      <c r="C67" s="161" t="s">
+      <c r="B67" s="161"/>
+      <c r="C67" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="161"/>
-      <c r="E67" s="179"/>
-      <c r="F67" s="248" t="s">
+      <c r="D67" s="162"/>
+      <c r="E67" s="180"/>
+      <c r="F67" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="183"/>
+      <c r="G67" s="184"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="160"/>
-      <c r="C68" s="161" t="s">
+      <c r="B68" s="161"/>
+      <c r="C68" s="162" t="s">
         <v>122</v>
       </c>
-      <c r="D68" s="161"/>
-      <c r="E68" s="179"/>
-      <c r="F68" s="248" t="s">
+      <c r="D68" s="162"/>
+      <c r="E68" s="180"/>
+      <c r="F68" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="183"/>
+      <c r="G68" s="184"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="160"/>
-      <c r="C69" s="161" t="s">
+      <c r="B69" s="161"/>
+      <c r="C69" s="162" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="161"/>
-      <c r="E69" s="179"/>
-      <c r="F69" s="248" t="s">
+      <c r="D69" s="162"/>
+      <c r="E69" s="180"/>
+      <c r="F69" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="183"/>
+      <c r="G69" s="184"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="160"/>
-      <c r="C70" s="161" t="s">
+      <c r="B70" s="161"/>
+      <c r="C70" s="162" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="161"/>
-      <c r="E70" s="179"/>
-      <c r="F70" s="248" t="s">
+      <c r="D70" s="162"/>
+      <c r="E70" s="180"/>
+      <c r="F70" s="249" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="183"/>
+      <c r="G70" s="184"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="160"/>
-      <c r="C71" s="161"/>
-      <c r="D71" s="189"/>
-      <c r="E71" s="207"/>
-      <c r="F71" s="207"/>
-      <c r="G71" s="207"/>
+      <c r="B71" s="161"/>
+      <c r="C71" s="162"/>
+      <c r="D71" s="190"/>
+      <c r="E71" s="208"/>
+      <c r="F71" s="208"/>
+      <c r="G71" s="208"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="233"/>
-      <c r="C72" s="234" t="s">
+      <c r="B72" s="234"/>
+      <c r="C72" s="235" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="235"/>
-      <c r="E72" s="235"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="236"/>
+      <c r="D72" s="236"/>
+      <c r="E72" s="236"/>
+      <c r="F72" s="236"/>
+      <c r="G72" s="237"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="160"/>
-      <c r="C73" s="189"/>
-      <c r="D73" s="189"/>
-      <c r="E73" s="208"/>
-      <c r="F73" s="251"/>
-      <c r="G73" s="252"/>
+      <c r="B73" s="161"/>
+      <c r="C73" s="190"/>
+      <c r="D73" s="190"/>
+      <c r="E73" s="209"/>
+      <c r="F73" s="252"/>
+      <c r="G73" s="253"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="160"/>
-      <c r="C74" s="161" t="s">
+      <c r="B74" s="161"/>
+      <c r="C74" s="162" t="s">
         <v>165</v>
       </c>
-      <c r="D74" s="161"/>
-      <c r="E74" s="261"/>
-      <c r="F74" s="261"/>
-      <c r="G74" s="261"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="262"/>
+      <c r="F74" s="262"/>
+      <c r="G74" s="262"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="227"/>
-      <c r="C75" s="172"/>
-      <c r="D75" s="172"/>
-      <c r="E75" s="227"/>
-      <c r="F75" s="172"/>
-      <c r="G75" s="262"/>
+      <c r="B75" s="228"/>
+      <c r="C75" s="173"/>
+      <c r="D75" s="173"/>
+      <c r="E75" s="228"/>
+      <c r="F75" s="173"/>
+      <c r="G75" s="263"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13761,18 +13766,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="263" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="264"/>
-      <c r="C2" s="265" t="s">
+    <row r="2" s="264" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="265"/>
+      <c r="C2" s="266" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="265"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
+      <c r="H2" s="267"/>
+      <c r="I2" s="267"/>
+      <c r="J2" s="268"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13823,16 +13828,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="268"/>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="269"/>
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13875,11 +13880,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="269"/>
+      <c r="F7" s="270"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="270"/>
+      <c r="J7" s="271"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13904,22 +13909,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="263" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="271"/>
-      <c r="C10" s="272" t="s">
+    <row r="10" s="264" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="272"/>
+      <c r="C10" s="273" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="273"/>
-      <c r="E10" s="274"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="277" t="s">
+      <c r="D10" s="274"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="277" t="s">
+      <c r="I10" s="278" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="277"/>
+      <c r="J10" s="278"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -13972,11 +13977,11 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="278"/>
+      <c r="E11" s="279"/>
       <c r="F11" s="46"/>
       <c r="G11" s="118"/>
       <c r="H11" s="116"/>
-      <c r="I11" s="125"/>
+      <c r="I11" s="126"/>
       <c r="J11" s="118"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13985,25 +13990,25 @@
         <v>170</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="279"/>
+      <c r="E12" s="280"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="280"/>
-      <c r="H12" s="179"/>
-      <c r="I12" s="281" t="s">
+      <c r="G12" s="281"/>
+      <c r="H12" s="180"/>
+      <c r="I12" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="282"/>
+      <c r="J12" s="283"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="279"/>
+      <c r="E13" s="280"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="280"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="283"/>
-      <c r="J13" s="282"/>
+      <c r="G13" s="281"/>
+      <c r="H13" s="180"/>
+      <c r="I13" s="284"/>
+      <c r="J13" s="283"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
@@ -14011,66 +14016,66 @@
         <v>171</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="279"/>
+      <c r="E14" s="280"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="280"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="281" t="s">
+      <c r="G14" s="281"/>
+      <c r="H14" s="180"/>
+      <c r="I14" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="282"/>
+      <c r="J14" s="283"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="279"/>
+      <c r="E15" s="280"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="280"/>
-      <c r="H15" s="179"/>
-      <c r="I15" s="283"/>
-      <c r="J15" s="282"/>
+      <c r="G15" s="281"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="283"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="284" t="s">
+      <c r="C16" s="285" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="279"/>
+      <c r="E16" s="280"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="281" t="s">
+      <c r="G16" s="281"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="282"/>
+      <c r="J16" s="283"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="285" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="279"/>
+      <c r="E17" s="280"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="280"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="281" t="s">
+      <c r="G17" s="281"/>
+      <c r="H17" s="180"/>
+      <c r="I17" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="282"/>
+      <c r="J17" s="283"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="284"/>
+      <c r="C18" s="285"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="279"/>
+      <c r="E18" s="280"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="279"/>
-      <c r="H18" s="179"/>
-      <c r="I18" s="283"/>
-      <c r="J18" s="282"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="180"/>
+      <c r="I18" s="284"/>
+      <c r="J18" s="283"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
@@ -14081,45 +14086,45 @@
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
-      <c r="H19" s="179"/>
-      <c r="I19" s="281" t="s">
+      <c r="H19" s="180"/>
+      <c r="I19" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="282"/>
+      <c r="J19" s="283"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="285"/>
-      <c r="D20" s="285"/>
-      <c r="E20" s="285"/>
-      <c r="F20" s="285"/>
-      <c r="G20" s="285"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="286"/>
-      <c r="J20" s="287"/>
-    </row>
-    <row r="21" s="263" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="271"/>
-      <c r="C21" s="272" t="s">
+      <c r="C20" s="286"/>
+      <c r="D20" s="286"/>
+      <c r="E20" s="286"/>
+      <c r="F20" s="286"/>
+      <c r="G20" s="286"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="287"/>
+      <c r="J20" s="288"/>
+    </row>
+    <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="272"/>
+      <c r="C21" s="273" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="272"/>
-      <c r="E21" s="288" t="s">
+      <c r="D21" s="273"/>
+      <c r="E21" s="289" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="289" t="s">
+      <c r="F21" s="290" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="288" t="s">
+      <c r="G21" s="289" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="289" t="s">
+      <c r="H21" s="290" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="289" t="s">
+      <c r="I21" s="290" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="289"/>
+      <c r="J21" s="290"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14170,14 +14175,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="290"/>
-      <c r="D22" s="290"/>
-      <c r="E22" s="291"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="293"/>
-      <c r="H22" s="293"/>
-      <c r="I22" s="294"/>
-      <c r="J22" s="295"/>
+      <c r="C22" s="291"/>
+      <c r="D22" s="291"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="296"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
@@ -14185,20 +14190,20 @@
         <v>178</v>
       </c>
       <c r="D23" s="101"/>
-      <c r="E23" s="179"/>
-      <c r="F23" s="296" t="s">
+      <c r="E23" s="180"/>
+      <c r="F23" s="297" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="297" t="n">
+      <c r="G23" s="298" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="281" t="s">
+      <c r="H23" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="281" t="s">
+      <c r="I23" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="282"/>
+      <c r="J23" s="283"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
@@ -14206,20 +14211,20 @@
         <v>180</v>
       </c>
       <c r="D24" s="101"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="296" t="s">
+      <c r="E24" s="180"/>
+      <c r="F24" s="297" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="297" t="n">
+      <c r="G24" s="298" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="281" t="s">
+      <c r="H24" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="281" t="s">
+      <c r="I24" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="282"/>
+      <c r="J24" s="283"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
@@ -14227,20 +14232,20 @@
         <v>182</v>
       </c>
       <c r="D25" s="101"/>
-      <c r="E25" s="179"/>
-      <c r="F25" s="296" t="s">
+      <c r="E25" s="180"/>
+      <c r="F25" s="297" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="297" t="n">
+      <c r="G25" s="298" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="281" t="s">
+      <c r="H25" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="281" t="s">
+      <c r="I25" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="282"/>
+      <c r="J25" s="283"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
@@ -14248,131 +14253,131 @@
         <v>183</v>
       </c>
       <c r="D26" s="101"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="296" t="s">
+      <c r="E26" s="180"/>
+      <c r="F26" s="297" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="297" t="n">
+      <c r="G26" s="298" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="281" t="s">
+      <c r="H26" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="281" t="s">
+      <c r="I26" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="282"/>
+      <c r="J26" s="283"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="298"/>
-      <c r="D27" s="298"/>
-      <c r="E27" s="179"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="300"/>
-      <c r="I27" s="283"/>
-      <c r="J27" s="282"/>
+      <c r="C27" s="299"/>
+      <c r="D27" s="299"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="284"/>
+      <c r="J27" s="283"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="298"/>
-      <c r="D28" s="298"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="300"/>
-      <c r="I28" s="283"/>
-      <c r="J28" s="282"/>
+      <c r="C28" s="299"/>
+      <c r="D28" s="299"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="301"/>
+      <c r="I28" s="284"/>
+      <c r="J28" s="283"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="301" t="s">
+      <c r="C29" s="302" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="301"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="300"/>
-      <c r="I29" s="283"/>
-      <c r="J29" s="282"/>
+      <c r="D29" s="302"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="301"/>
+      <c r="I29" s="284"/>
+      <c r="J29" s="283"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="300"/>
-      <c r="I30" s="283"/>
-      <c r="J30" s="282"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="302"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="301"/>
+      <c r="I30" s="284"/>
+      <c r="J30" s="283"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="179"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="179"/>
-      <c r="H31" s="300"/>
-      <c r="I31" s="283"/>
-      <c r="J31" s="282"/>
+      <c r="C31" s="302"/>
+      <c r="D31" s="302"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="301"/>
+      <c r="I31" s="284"/>
+      <c r="J31" s="283"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="301"/>
-      <c r="D32" s="301"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="300"/>
-      <c r="I32" s="283"/>
-      <c r="J32" s="282"/>
+      <c r="C32" s="302"/>
+      <c r="D32" s="302"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="300"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="283"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="298"/>
-      <c r="D33" s="298"/>
-      <c r="E33" s="179"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="179"/>
-      <c r="H33" s="300"/>
-      <c r="I33" s="283"/>
-      <c r="J33" s="282"/>
+      <c r="C33" s="299"/>
+      <c r="D33" s="299"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="300"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="301"/>
+      <c r="I33" s="284"/>
+      <c r="J33" s="283"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="302"/>
-      <c r="D34" s="302"/>
-      <c r="E34" s="201"/>
-      <c r="F34" s="303"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="304"/>
-      <c r="I34" s="286"/>
-      <c r="J34" s="287"/>
+      <c r="C34" s="303"/>
+      <c r="D34" s="303"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="304"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="305"/>
+      <c r="I34" s="287"/>
+      <c r="J34" s="288"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="272" t="s">
+      <c r="C35" s="273" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="272"/>
-      <c r="E35" s="279"/>
+      <c r="D35" s="273"/>
+      <c r="E35" s="280"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="279"/>
-      <c r="H35" s="305"/>
-      <c r="I35" s="306"/>
-      <c r="J35" s="282"/>
+      <c r="G35" s="280"/>
+      <c r="H35" s="306"/>
+      <c r="I35" s="307"/>
+      <c r="J35" s="283"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="279"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="280"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="279"/>
+      <c r="G36" s="280"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14383,14 +14388,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="307"/>
-      <c r="D37" s="307"/>
-      <c r="E37" s="308"/>
-      <c r="F37" s="309"/>
-      <c r="G37" s="309"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="310"/>
-      <c r="J37" s="311"/>
+      <c r="C37" s="308"/>
+      <c r="D37" s="308"/>
+      <c r="E37" s="309"/>
+      <c r="F37" s="310"/>
+      <c r="G37" s="310"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="311"/>
+      <c r="J37" s="312"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
@@ -14398,25 +14403,25 @@
         <v>187</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="281" t="s">
+      <c r="E38" s="313"/>
+      <c r="F38" s="314"/>
+      <c r="G38" s="314"/>
+      <c r="H38" s="180"/>
+      <c r="I38" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="282"/>
+      <c r="J38" s="283"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="179"/>
-      <c r="I39" s="306"/>
-      <c r="J39" s="282"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="314"/>
+      <c r="G39" s="314"/>
+      <c r="H39" s="180"/>
+      <c r="I39" s="307"/>
+      <c r="J39" s="283"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
@@ -14424,25 +14429,25 @@
         <v>188</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="312"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="179"/>
-      <c r="I40" s="281" t="s">
+      <c r="E40" s="313"/>
+      <c r="F40" s="314"/>
+      <c r="G40" s="314"/>
+      <c r="H40" s="180"/>
+      <c r="I40" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="282"/>
+      <c r="J40" s="283"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="306"/>
-      <c r="J41" s="282"/>
+      <c r="E41" s="313"/>
+      <c r="F41" s="314"/>
+      <c r="G41" s="314"/>
+      <c r="H41" s="180"/>
+      <c r="I41" s="307"/>
+      <c r="J41" s="283"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
@@ -14450,25 +14455,25 @@
         <v>189</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="312"/>
-      <c r="F42" s="313"/>
-      <c r="G42" s="313"/>
-      <c r="H42" s="179"/>
-      <c r="I42" s="281" t="s">
+      <c r="E42" s="313"/>
+      <c r="F42" s="314"/>
+      <c r="G42" s="314"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="282"/>
+      <c r="J42" s="283"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="313"/>
-      <c r="G43" s="313"/>
-      <c r="H43" s="179"/>
-      <c r="I43" s="306"/>
-      <c r="J43" s="282"/>
+      <c r="E43" s="313"/>
+      <c r="F43" s="314"/>
+      <c r="G43" s="314"/>
+      <c r="H43" s="180"/>
+      <c r="I43" s="307"/>
+      <c r="J43" s="283"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
@@ -14476,25 +14481,25 @@
         <v>149</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="312"/>
-      <c r="F44" s="313"/>
-      <c r="G44" s="313"/>
-      <c r="H44" s="179"/>
-      <c r="I44" s="281" t="s">
+      <c r="E44" s="313"/>
+      <c r="F44" s="314"/>
+      <c r="G44" s="314"/>
+      <c r="H44" s="180"/>
+      <c r="I44" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="282"/>
+      <c r="J44" s="283"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="312"/>
-      <c r="F45" s="313"/>
-      <c r="G45" s="313"/>
-      <c r="H45" s="179"/>
-      <c r="I45" s="306"/>
-      <c r="J45" s="282"/>
+      <c r="E45" s="313"/>
+      <c r="F45" s="314"/>
+      <c r="G45" s="314"/>
+      <c r="H45" s="180"/>
+      <c r="I45" s="307"/>
+      <c r="J45" s="283"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
@@ -14505,93 +14510,93 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="281" t="s">
+      <c r="H46" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="281" t="s">
+      <c r="I46" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="314"/>
+      <c r="J46" s="315"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
+      <c r="C47" s="316"/>
+      <c r="D47" s="316"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="316"/>
-      <c r="G47" s="316"/>
-      <c r="H47" s="317"/>
-      <c r="I47" s="316"/>
-      <c r="J47" s="148"/>
+      <c r="F47" s="317"/>
+      <c r="G47" s="317"/>
+      <c r="H47" s="318"/>
+      <c r="I47" s="317"/>
+      <c r="J47" s="149"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="318" t="s">
+      <c r="C48" s="319" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="318"/>
-      <c r="E48" s="318"/>
-      <c r="F48" s="318"/>
-      <c r="G48" s="318"/>
-      <c r="H48" s="318"/>
-      <c r="I48" s="318"/>
-      <c r="J48" s="318"/>
+      <c r="D48" s="319"/>
+      <c r="E48" s="319"/>
+      <c r="F48" s="319"/>
+      <c r="G48" s="319"/>
+      <c r="H48" s="319"/>
+      <c r="I48" s="319"/>
+      <c r="J48" s="319"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="318"/>
-      <c r="D49" s="318"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
-      <c r="G49" s="318"/>
-      <c r="H49" s="318"/>
-      <c r="I49" s="318"/>
-      <c r="J49" s="318"/>
+      <c r="C49" s="319"/>
+      <c r="D49" s="319"/>
+      <c r="E49" s="319"/>
+      <c r="F49" s="319"/>
+      <c r="G49" s="319"/>
+      <c r="H49" s="319"/>
+      <c r="I49" s="319"/>
+      <c r="J49" s="319"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="318"/>
-      <c r="D50" s="318"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="318"/>
-      <c r="G50" s="318"/>
-      <c r="H50" s="318"/>
-      <c r="I50" s="318"/>
-      <c r="J50" s="318"/>
+      <c r="C50" s="319"/>
+      <c r="D50" s="319"/>
+      <c r="E50" s="319"/>
+      <c r="F50" s="319"/>
+      <c r="G50" s="319"/>
+      <c r="H50" s="319"/>
+      <c r="I50" s="319"/>
+      <c r="J50" s="319"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="318"/>
-      <c r="D51" s="318"/>
-      <c r="E51" s="318"/>
-      <c r="F51" s="318"/>
-      <c r="G51" s="318"/>
-      <c r="H51" s="318"/>
-      <c r="I51" s="318"/>
-      <c r="J51" s="318"/>
+      <c r="C51" s="319"/>
+      <c r="D51" s="319"/>
+      <c r="E51" s="319"/>
+      <c r="F51" s="319"/>
+      <c r="G51" s="319"/>
+      <c r="H51" s="319"/>
+      <c r="I51" s="319"/>
+      <c r="J51" s="319"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="318"/>
-      <c r="D52" s="318"/>
-      <c r="E52" s="318"/>
-      <c r="F52" s="318"/>
-      <c r="G52" s="318"/>
-      <c r="H52" s="318"/>
-      <c r="I52" s="318"/>
-      <c r="J52" s="318"/>
+      <c r="C52" s="319"/>
+      <c r="D52" s="319"/>
+      <c r="E52" s="319"/>
+      <c r="F52" s="319"/>
+      <c r="G52" s="319"/>
+      <c r="H52" s="319"/>
+      <c r="I52" s="319"/>
+      <c r="J52" s="319"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="146"/>
-      <c r="C53" s="318"/>
-      <c r="D53" s="318"/>
-      <c r="E53" s="318"/>
-      <c r="F53" s="318"/>
-      <c r="G53" s="318"/>
-      <c r="H53" s="318"/>
-      <c r="I53" s="318"/>
-      <c r="J53" s="318"/>
-      <c r="K53" s="124"/>
+      <c r="B53" s="147"/>
+      <c r="C53" s="319"/>
+      <c r="D53" s="319"/>
+      <c r="E53" s="319"/>
+      <c r="F53" s="319"/>
+      <c r="G53" s="319"/>
+      <c r="H53" s="319"/>
+      <c r="I53" s="319"/>
+      <c r="J53" s="319"/>
+      <c r="K53" s="125"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15093,14 +15098,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="319" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="320" t="s">
+    <row r="2" s="320" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="321" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="320"/>
+      <c r="C2" s="321"/>
+      <c r="D2" s="321"/>
+      <c r="E2" s="321"/>
+      <c r="F2" s="321"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15133,119 +15138,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="321" t="s">
+      <c r="B3" s="322" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="321"/>
-      <c r="D3" s="321"/>
-      <c r="E3" s="321"/>
-      <c r="F3" s="321"/>
+      <c r="C3" s="322"/>
+      <c r="D3" s="322"/>
+      <c r="E3" s="322"/>
+      <c r="F3" s="322"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="322" t="s">
+      <c r="B4" s="323" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="95"/>
-      <c r="D4" s="323"/>
-      <c r="E4" s="323"/>
-      <c r="F4" s="324"/>
+      <c r="D4" s="324"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="325"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="300"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="303"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
+      <c r="B10" s="304"/>
+      <c r="C10" s="304"/>
+      <c r="D10" s="304"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="325" t="s">
+      <c r="B11" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="325"/>
-      <c r="D11" s="325"/>
-      <c r="E11" s="325"/>
-      <c r="F11" s="325"/>
+      <c r="C11" s="326"/>
+      <c r="D11" s="326"/>
+      <c r="E11" s="326"/>
+      <c r="F11" s="326"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="327"/>
-      <c r="D12" s="327"/>
-      <c r="E12" s="327"/>
-      <c r="F12" s="327"/>
+      <c r="C12" s="328"/>
+      <c r="D12" s="328"/>
+      <c r="E12" s="328"/>
+      <c r="F12" s="328"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="327"/>
-      <c r="D13" s="327"/>
-      <c r="E13" s="327"/>
-      <c r="F13" s="327"/>
+      <c r="C13" s="328"/>
+      <c r="D13" s="328"/>
+      <c r="E13" s="328"/>
+      <c r="F13" s="328"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="326" t="n">
+      <c r="B14" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="327"/>
-      <c r="D14" s="327"/>
-      <c r="E14" s="327"/>
-      <c r="F14" s="327"/>
+      <c r="C14" s="328"/>
+      <c r="D14" s="328"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="328"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="328"/>
-      <c r="C15" s="329" t="s">
+      <c r="B15" s="329"/>
+      <c r="C15" s="330" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="329" t="s">
+      <c r="D15" s="330" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="329" t="s">
+      <c r="E15" s="330" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="330" t="s">
+      <c r="F15" s="331" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="331"/>
+      <c r="B16" s="332"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15260,138 +15265,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="333"/>
+      <c r="D17" s="333"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="333"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="326" t="n">
+      <c r="B18" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
+      <c r="C18" s="333"/>
+      <c r="D18" s="333"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="333"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="326" t="n">
+      <c r="B19" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
+      <c r="C19" s="333"/>
+      <c r="D19" s="333"/>
+      <c r="E19" s="333"/>
+      <c r="F19" s="333"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="333" t="s">
+      <c r="B20" s="334" t="s">
         <v>199</v>
       </c>
       <c r="C20" s="95"/>
-      <c r="D20" s="323"/>
-      <c r="E20" s="323"/>
-      <c r="F20" s="334"/>
+      <c r="D20" s="324"/>
+      <c r="E20" s="324"/>
+      <c r="F20" s="335"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="300"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="300"/>
+      <c r="F24" s="300"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="300"/>
+      <c r="F25" s="300"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="303" t="s">
+      <c r="B26" s="304" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="325" t="s">
+      <c r="B27" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="325"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
+      <c r="C27" s="326"/>
+      <c r="D27" s="326"/>
+      <c r="E27" s="326"/>
+      <c r="F27" s="326"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="327"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="327"/>
+      <c r="C28" s="328"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="327"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
+      <c r="C29" s="328"/>
+      <c r="D29" s="328"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="326" t="n">
+      <c r="B30" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="327"/>
-      <c r="D30" s="327"/>
-      <c r="E30" s="327"/>
-      <c r="F30" s="327"/>
+      <c r="C30" s="328"/>
+      <c r="D30" s="328"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="329" t="s">
+      <c r="B31" s="336"/>
+      <c r="C31" s="330" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="329" t="s">
+      <c r="D31" s="330" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="330" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="330" t="s">
+      <c r="F31" s="331" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="335"/>
+      <c r="B32" s="336"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15406,136 +15411,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="326" t="n">
+      <c r="B35" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="333" t="s">
+      <c r="B36" s="334" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="336"/>
+      <c r="C36" s="337"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="334"/>
+      <c r="F36" s="335"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="300"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="300"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="300"/>
+      <c r="C38" s="300"/>
+      <c r="D38" s="300"/>
+      <c r="E38" s="300"/>
+      <c r="F38" s="300"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="300"/>
+      <c r="D39" s="300"/>
+      <c r="E39" s="300"/>
+      <c r="F39" s="300"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="300"/>
+      <c r="D40" s="300"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="300"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="300"/>
+      <c r="D41" s="300"/>
+      <c r="E41" s="300"/>
+      <c r="F41" s="300"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="303"/>
-      <c r="C42" s="303"/>
-      <c r="D42" s="303"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="303"/>
+      <c r="B42" s="304"/>
+      <c r="C42" s="304"/>
+      <c r="D42" s="304"/>
+      <c r="E42" s="304"/>
+      <c r="F42" s="304"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="325" t="s">
+      <c r="B43" s="326" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="325"/>
-      <c r="D43" s="325"/>
-      <c r="E43" s="325"/>
-      <c r="F43" s="325"/>
+      <c r="C43" s="326"/>
+      <c r="D43" s="326"/>
+      <c r="E43" s="326"/>
+      <c r="F43" s="326"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="326" t="n">
+      <c r="B44" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="327"/>
-      <c r="D44" s="327"/>
-      <c r="E44" s="327"/>
-      <c r="F44" s="327"/>
+      <c r="C44" s="328"/>
+      <c r="D44" s="328"/>
+      <c r="E44" s="328"/>
+      <c r="F44" s="328"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="326" t="n">
+      <c r="B45" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="327"/>
-      <c r="D45" s="327"/>
-      <c r="E45" s="327"/>
-      <c r="F45" s="327"/>
+      <c r="C45" s="328"/>
+      <c r="D45" s="328"/>
+      <c r="E45" s="328"/>
+      <c r="F45" s="328"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="326" t="n">
+      <c r="B46" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="327"/>
-      <c r="D46" s="327"/>
-      <c r="E46" s="327"/>
-      <c r="F46" s="327"/>
+      <c r="C46" s="328"/>
+      <c r="D46" s="328"/>
+      <c r="E46" s="328"/>
+      <c r="F46" s="328"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="335"/>
-      <c r="C47" s="329" t="s">
+      <c r="B47" s="336"/>
+      <c r="C47" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="329" t="s">
+      <c r="D47" s="330" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="329" t="s">
+      <c r="E47" s="330" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="330" t="s">
+      <c r="F47" s="331" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="335"/>
+      <c r="B48" s="336"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15550,31 +15555,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="326" t="n">
+      <c r="B49" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
+      <c r="C49" s="333"/>
+      <c r="D49" s="333"/>
+      <c r="E49" s="333"/>
+      <c r="F49" s="333"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="326" t="n">
+      <c r="B50" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
+      <c r="C50" s="333"/>
+      <c r="D50" s="333"/>
+      <c r="E50" s="333"/>
+      <c r="F50" s="333"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="326" t="n">
+      <c r="B51" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
+      <c r="C51" s="333"/>
+      <c r="D51" s="333"/>
+      <c r="E51" s="333"/>
+      <c r="F51" s="333"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15794,118 +15799,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="322" t="s">
+      <c r="B2" s="323" t="s">
         <v>204</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="323"/>
-      <c r="E2" s="323"/>
-      <c r="F2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="325"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="300"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="303"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
+      <c r="B9" s="304"/>
+      <c r="C9" s="304"/>
+      <c r="D9" s="304"/>
+      <c r="E9" s="304"/>
+      <c r="F9" s="304"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="337" t="s">
+      <c r="B10" s="338" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="337"/>
-      <c r="D10" s="337"/>
-      <c r="E10" s="337"/>
-      <c r="F10" s="337"/>
+      <c r="C10" s="338"/>
+      <c r="D10" s="338"/>
+      <c r="E10" s="338"/>
+      <c r="F10" s="338"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="326" t="n">
+      <c r="B11" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="338"/>
-      <c r="D11" s="338"/>
-      <c r="E11" s="338"/>
-      <c r="F11" s="338"/>
+      <c r="C11" s="339"/>
+      <c r="D11" s="339"/>
+      <c r="E11" s="339"/>
+      <c r="F11" s="339"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="326" t="n">
+      <c r="B12" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="338"/>
-      <c r="D12" s="338"/>
-      <c r="E12" s="338"/>
-      <c r="F12" s="338"/>
+      <c r="C12" s="339"/>
+      <c r="D12" s="339"/>
+      <c r="E12" s="339"/>
+      <c r="F12" s="339"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="326" t="n">
+      <c r="B13" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="338"/>
-      <c r="D13" s="338"/>
-      <c r="E13" s="338"/>
-      <c r="F13" s="338"/>
+      <c r="C13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="339"/>
+      <c r="F13" s="339"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="335"/>
-      <c r="C14" s="329" t="s">
+      <c r="B14" s="336"/>
+      <c r="C14" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="329" t="s">
+      <c r="D14" s="330" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="329" t="s">
+      <c r="E14" s="330" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="330" t="s">
+      <c r="F14" s="331" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="335"/>
+      <c r="B15" s="336"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15920,143 +15925,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="326" t="n">
+      <c r="B16" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
+      <c r="C16" s="333"/>
+      <c r="D16" s="333"/>
+      <c r="E16" s="333"/>
+      <c r="F16" s="333"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="326" t="n">
+      <c r="B17" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
+      <c r="C17" s="333"/>
+      <c r="D17" s="333"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="333"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="326" t="n">
+      <c r="B18" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
+      <c r="C18" s="333"/>
+      <c r="D18" s="333"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="333"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="333" t="s">
+      <c r="B19" s="334" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="336"/>
+      <c r="C19" s="337"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="334"/>
+      <c r="F19" s="335"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="300"/>
+      <c r="E20" s="300"/>
+      <c r="F20" s="300"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="300"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="300"/>
+      <c r="F24" s="300"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="300"/>
+      <c r="F25" s="300"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="300"/>
+      <c r="E26" s="300"/>
+      <c r="F26" s="300"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="337" t="s">
+      <c r="B27" s="338" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="337"/>
-      <c r="D27" s="337"/>
-      <c r="E27" s="337"/>
-      <c r="F27" s="337"/>
+      <c r="C27" s="338"/>
+      <c r="D27" s="338"/>
+      <c r="E27" s="338"/>
+      <c r="F27" s="338"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="326" t="n">
+      <c r="B28" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="338"/>
-      <c r="D28" s="338"/>
-      <c r="E28" s="338"/>
-      <c r="F28" s="338"/>
+      <c r="C28" s="339"/>
+      <c r="D28" s="339"/>
+      <c r="E28" s="339"/>
+      <c r="F28" s="339"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="326" t="n">
+      <c r="B29" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="338"/>
-      <c r="D29" s="338"/>
-      <c r="E29" s="338"/>
-      <c r="F29" s="338"/>
+      <c r="C29" s="339"/>
+      <c r="D29" s="339"/>
+      <c r="E29" s="339"/>
+      <c r="F29" s="339"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="326" t="n">
+      <c r="B30" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="338"/>
-      <c r="D30" s="338"/>
-      <c r="E30" s="338"/>
-      <c r="F30" s="338"/>
+      <c r="C30" s="339"/>
+      <c r="D30" s="339"/>
+      <c r="E30" s="339"/>
+      <c r="F30" s="339"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="335"/>
-      <c r="C31" s="329" t="s">
+      <c r="B31" s="336"/>
+      <c r="C31" s="330" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="329" t="s">
+      <c r="D31" s="330" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="329" t="s">
+      <c r="E31" s="330" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="330" t="s">
+      <c r="F31" s="331" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="335"/>
+      <c r="B32" s="336"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16071,198 +16076,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="326" t="n">
+      <c r="B33" s="327" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
+      <c r="C33" s="333"/>
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="326" t="n">
+      <c r="B34" s="327" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
+      <c r="C34" s="333"/>
+      <c r="D34" s="333"/>
+      <c r="E34" s="333"/>
+      <c r="F34" s="333"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="326" t="n">
+      <c r="B35" s="327" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
+      <c r="C35" s="333"/>
+      <c r="D35" s="333"/>
+      <c r="E35" s="333"/>
+      <c r="F35" s="333"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="339" t="s">
+      <c r="B36" s="340" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="339"/>
-      <c r="D36" s="339"/>
-      <c r="E36" s="339"/>
-      <c r="F36" s="339"/>
+      <c r="C36" s="340"/>
+      <c r="D36" s="340"/>
+      <c r="E36" s="340"/>
+      <c r="F36" s="340"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="300"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="300"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
+      <c r="B38" s="300"/>
+      <c r="C38" s="300"/>
+      <c r="D38" s="300"/>
+      <c r="E38" s="300"/>
+      <c r="F38" s="300"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="300"/>
+      <c r="D39" s="300"/>
+      <c r="E39" s="300"/>
+      <c r="F39" s="300"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="300"/>
+      <c r="D40" s="300"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="300"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="300"/>
+      <c r="D41" s="300"/>
+      <c r="E41" s="300"/>
+      <c r="F41" s="300"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
+      <c r="B42" s="300"/>
+      <c r="C42" s="300"/>
+      <c r="D42" s="300"/>
+      <c r="E42" s="300"/>
+      <c r="F42" s="300"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
+      <c r="B43" s="341"/>
+      <c r="C43" s="341"/>
+      <c r="D43" s="341"/>
+      <c r="E43" s="341"/>
+      <c r="F43" s="341"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
+      <c r="B44" s="300"/>
+      <c r="C44" s="300"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="300"/>
+      <c r="F44" s="300"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="300"/>
+      <c r="F45" s="300"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
+      <c r="B46" s="300"/>
+      <c r="C46" s="300"/>
+      <c r="D46" s="300"/>
+      <c r="E46" s="300"/>
+      <c r="F46" s="300"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
+      <c r="B47" s="300"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="300"/>
+      <c r="E47" s="300"/>
+      <c r="F47" s="300"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
+      <c r="B48" s="300"/>
+      <c r="C48" s="300"/>
+      <c r="D48" s="300"/>
+      <c r="E48" s="300"/>
+      <c r="F48" s="300"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
+      <c r="B49" s="300"/>
+      <c r="C49" s="300"/>
+      <c r="D49" s="300"/>
+      <c r="E49" s="300"/>
+      <c r="F49" s="300"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="300"/>
+      <c r="E50" s="300"/>
+      <c r="F50" s="300"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
+      <c r="B51" s="300"/>
+      <c r="C51" s="300"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="300"/>
+      <c r="F51" s="300"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="322" t="s">
+      <c r="B52" s="323" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="323"/>
-      <c r="E52" s="323"/>
-      <c r="F52" s="324"/>
+      <c r="D52" s="324"/>
+      <c r="E52" s="324"/>
+      <c r="F52" s="325"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="152"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="341"/>
+      <c r="F53" s="342"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="296" t="s">
+      <c r="B54" s="297" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="296"/>
-      <c r="D54" s="296"/>
-      <c r="E54" s="296"/>
-      <c r="F54" s="296"/>
+      <c r="C54" s="297"/>
+      <c r="D54" s="297"/>
+      <c r="E54" s="297"/>
+      <c r="F54" s="297"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
+      <c r="B55" s="300"/>
+      <c r="C55" s="300"/>
+      <c r="D55" s="300"/>
+      <c r="E55" s="300"/>
+      <c r="F55" s="300"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
+      <c r="B56" s="300"/>
+      <c r="C56" s="300"/>
+      <c r="D56" s="300"/>
+      <c r="E56" s="300"/>
+      <c r="F56" s="300"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
+      <c r="B57" s="300"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="146"/>
-      <c r="C58" s="147"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="147"/>
-      <c r="F58" s="342"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="148"/>
+      <c r="D58" s="148"/>
+      <c r="E58" s="148"/>
+      <c r="F58" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16431,548 +16436,548 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="343" t="s">
+      <c r="B2" s="344" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="299"/>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
+      <c r="B3" s="300"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="299"/>
-      <c r="C4" s="299"/>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299"/>
-      <c r="F4" s="299"/>
-      <c r="G4" s="299"/>
-      <c r="H4" s="299"/>
+      <c r="B4" s="300"/>
+      <c r="C4" s="300"/>
+      <c r="D4" s="300"/>
+      <c r="E4" s="300"/>
+      <c r="F4" s="300"/>
+      <c r="G4" s="300"/>
+      <c r="H4" s="300"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="299"/>
-      <c r="C5" s="299"/>
-      <c r="D5" s="299"/>
-      <c r="E5" s="299"/>
-      <c r="F5" s="299"/>
-      <c r="G5" s="299"/>
-      <c r="H5" s="299"/>
+      <c r="B5" s="300"/>
+      <c r="C5" s="300"/>
+      <c r="D5" s="300"/>
+      <c r="E5" s="300"/>
+      <c r="F5" s="300"/>
+      <c r="G5" s="300"/>
+      <c r="H5" s="300"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="299"/>
-      <c r="C6" s="299"/>
-      <c r="D6" s="299"/>
-      <c r="E6" s="299"/>
-      <c r="F6" s="299"/>
-      <c r="G6" s="299"/>
-      <c r="H6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="299"/>
-      <c r="C7" s="299"/>
-      <c r="D7" s="299"/>
-      <c r="E7" s="299"/>
-      <c r="F7" s="299"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="299"/>
-      <c r="C8" s="299"/>
-      <c r="D8" s="299"/>
-      <c r="E8" s="299"/>
-      <c r="F8" s="299"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
+      <c r="B8" s="300"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="300"/>
+      <c r="E8" s="300"/>
+      <c r="F8" s="300"/>
+      <c r="G8" s="300"/>
+      <c r="H8" s="300"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="299"/>
-      <c r="C9" s="299"/>
-      <c r="D9" s="299"/>
-      <c r="E9" s="299"/>
-      <c r="F9" s="299"/>
-      <c r="G9" s="299"/>
-      <c r="H9" s="299"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="300"/>
+      <c r="E9" s="300"/>
+      <c r="F9" s="300"/>
+      <c r="G9" s="300"/>
+      <c r="H9" s="300"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="299"/>
-      <c r="C10" s="299"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
+      <c r="B10" s="300"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="300"/>
+      <c r="E10" s="300"/>
+      <c r="F10" s="300"/>
+      <c r="G10" s="300"/>
+      <c r="H10" s="300"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="299"/>
-      <c r="C11" s="299"/>
-      <c r="D11" s="299"/>
-      <c r="E11" s="299"/>
-      <c r="F11" s="299"/>
-      <c r="G11" s="299"/>
-      <c r="H11" s="299"/>
+      <c r="B11" s="300"/>
+      <c r="C11" s="300"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="299"/>
-      <c r="C12" s="299"/>
-      <c r="D12" s="299"/>
-      <c r="E12" s="299"/>
-      <c r="F12" s="299"/>
-      <c r="G12" s="299"/>
-      <c r="H12" s="299"/>
+      <c r="B12" s="300"/>
+      <c r="C12" s="300"/>
+      <c r="D12" s="300"/>
+      <c r="E12" s="300"/>
+      <c r="F12" s="300"/>
+      <c r="G12" s="300"/>
+      <c r="H12" s="300"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="299"/>
-      <c r="C13" s="299"/>
-      <c r="D13" s="299"/>
-      <c r="E13" s="299"/>
-      <c r="F13" s="299"/>
-      <c r="G13" s="299"/>
-      <c r="H13" s="299"/>
+      <c r="B13" s="300"/>
+      <c r="C13" s="300"/>
+      <c r="D13" s="300"/>
+      <c r="E13" s="300"/>
+      <c r="F13" s="300"/>
+      <c r="G13" s="300"/>
+      <c r="H13" s="300"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="299"/>
-      <c r="C14" s="299"/>
-      <c r="D14" s="299"/>
-      <c r="E14" s="299"/>
-      <c r="F14" s="299"/>
-      <c r="G14" s="299"/>
-      <c r="H14" s="299"/>
+      <c r="B14" s="300"/>
+      <c r="C14" s="300"/>
+      <c r="D14" s="300"/>
+      <c r="E14" s="300"/>
+      <c r="F14" s="300"/>
+      <c r="G14" s="300"/>
+      <c r="H14" s="300"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="299"/>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="299"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="300"/>
+      <c r="C15" s="300"/>
+      <c r="D15" s="300"/>
+      <c r="E15" s="300"/>
+      <c r="F15" s="300"/>
+      <c r="G15" s="300"/>
+      <c r="H15" s="300"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="299"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="299"/>
-      <c r="H16" s="299"/>
+      <c r="B16" s="300"/>
+      <c r="C16" s="300"/>
+      <c r="D16" s="300"/>
+      <c r="E16" s="300"/>
+      <c r="F16" s="300"/>
+      <c r="G16" s="300"/>
+      <c r="H16" s="300"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="299"/>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
+      <c r="B17" s="300"/>
+      <c r="C17" s="300"/>
+      <c r="D17" s="300"/>
+      <c r="E17" s="300"/>
+      <c r="F17" s="300"/>
+      <c r="G17" s="300"/>
+      <c r="H17" s="300"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="299"/>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
+      <c r="B18" s="300"/>
+      <c r="C18" s="300"/>
+      <c r="D18" s="300"/>
+      <c r="E18" s="300"/>
+      <c r="F18" s="300"/>
+      <c r="G18" s="300"/>
+      <c r="H18" s="300"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="299"/>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
+      <c r="B19" s="300"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="299"/>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
+      <c r="B20" s="300"/>
+      <c r="C20" s="300"/>
+      <c r="D20" s="300"/>
+      <c r="E20" s="300"/>
+      <c r="F20" s="300"/>
+      <c r="G20" s="300"/>
+      <c r="H20" s="300"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="299"/>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
+      <c r="D21" s="300"/>
+      <c r="E21" s="300"/>
+      <c r="F21" s="300"/>
+      <c r="G21" s="300"/>
+      <c r="H21" s="300"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="299"/>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
+      <c r="B22" s="300"/>
+      <c r="C22" s="300"/>
+      <c r="D22" s="300"/>
+      <c r="E22" s="300"/>
+      <c r="F22" s="300"/>
+      <c r="G22" s="300"/>
+      <c r="H22" s="300"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="299"/>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="299"/>
-      <c r="H23" s="299"/>
+      <c r="B23" s="300"/>
+      <c r="C23" s="300"/>
+      <c r="D23" s="300"/>
+      <c r="E23" s="300"/>
+      <c r="F23" s="300"/>
+      <c r="G23" s="300"/>
+      <c r="H23" s="300"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="299"/>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="299"/>
-      <c r="H24" s="299"/>
+      <c r="B24" s="300"/>
+      <c r="C24" s="300"/>
+      <c r="D24" s="300"/>
+      <c r="E24" s="300"/>
+      <c r="F24" s="300"/>
+      <c r="G24" s="300"/>
+      <c r="H24" s="300"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="299"/>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="299"/>
-      <c r="H25" s="299"/>
+      <c r="B25" s="300"/>
+      <c r="C25" s="300"/>
+      <c r="D25" s="300"/>
+      <c r="E25" s="300"/>
+      <c r="F25" s="300"/>
+      <c r="G25" s="300"/>
+      <c r="H25" s="300"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="299"/>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="299"/>
+      <c r="B26" s="300"/>
+      <c r="C26" s="300"/>
+      <c r="D26" s="300"/>
+      <c r="E26" s="300"/>
+      <c r="F26" s="300"/>
+      <c r="G26" s="300"/>
+      <c r="H26" s="300"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="299"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="299"/>
-      <c r="F27" s="299"/>
-      <c r="G27" s="299"/>
-      <c r="H27" s="299"/>
+      <c r="B27" s="300"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="300"/>
+      <c r="F27" s="300"/>
+      <c r="G27" s="300"/>
+      <c r="H27" s="300"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="299"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="299"/>
-      <c r="F28" s="299"/>
-      <c r="G28" s="299"/>
-      <c r="H28" s="299"/>
+      <c r="B28" s="300"/>
+      <c r="C28" s="300"/>
+      <c r="D28" s="300"/>
+      <c r="E28" s="300"/>
+      <c r="F28" s="300"/>
+      <c r="G28" s="300"/>
+      <c r="H28" s="300"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="299"/>
-      <c r="C29" s="299"/>
-      <c r="D29" s="299"/>
-      <c r="E29" s="299"/>
-      <c r="F29" s="299"/>
-      <c r="G29" s="299"/>
-      <c r="H29" s="299"/>
+      <c r="B29" s="300"/>
+      <c r="C29" s="300"/>
+      <c r="D29" s="300"/>
+      <c r="E29" s="300"/>
+      <c r="F29" s="300"/>
+      <c r="G29" s="300"/>
+      <c r="H29" s="300"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="299"/>
-      <c r="C30" s="299"/>
-      <c r="D30" s="299"/>
-      <c r="E30" s="299"/>
-      <c r="F30" s="299"/>
-      <c r="G30" s="299"/>
-      <c r="H30" s="299"/>
+      <c r="B30" s="300"/>
+      <c r="C30" s="300"/>
+      <c r="D30" s="300"/>
+      <c r="E30" s="300"/>
+      <c r="F30" s="300"/>
+      <c r="G30" s="300"/>
+      <c r="H30" s="300"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="299"/>
-      <c r="C31" s="299"/>
-      <c r="D31" s="299"/>
-      <c r="E31" s="299"/>
-      <c r="F31" s="299"/>
-      <c r="G31" s="299"/>
-      <c r="H31" s="299"/>
+      <c r="B31" s="300"/>
+      <c r="C31" s="300"/>
+      <c r="D31" s="300"/>
+      <c r="E31" s="300"/>
+      <c r="F31" s="300"/>
+      <c r="G31" s="300"/>
+      <c r="H31" s="300"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="299"/>
-      <c r="C32" s="299"/>
-      <c r="D32" s="299"/>
-      <c r="E32" s="299"/>
-      <c r="F32" s="299"/>
-      <c r="G32" s="299"/>
-      <c r="H32" s="299"/>
+      <c r="B32" s="300"/>
+      <c r="C32" s="300"/>
+      <c r="D32" s="300"/>
+      <c r="E32" s="300"/>
+      <c r="F32" s="300"/>
+      <c r="G32" s="300"/>
+      <c r="H32" s="300"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="299"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="299"/>
-      <c r="F33" s="299"/>
-      <c r="G33" s="299"/>
-      <c r="H33" s="299"/>
+      <c r="B33" s="300"/>
+      <c r="C33" s="300"/>
+      <c r="D33" s="300"/>
+      <c r="E33" s="300"/>
+      <c r="F33" s="300"/>
+      <c r="G33" s="300"/>
+      <c r="H33" s="300"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="299"/>
-      <c r="C34" s="299"/>
-      <c r="D34" s="299"/>
-      <c r="E34" s="299"/>
-      <c r="F34" s="299"/>
-      <c r="G34" s="299"/>
-      <c r="H34" s="299"/>
+      <c r="B34" s="300"/>
+      <c r="C34" s="300"/>
+      <c r="D34" s="300"/>
+      <c r="E34" s="300"/>
+      <c r="F34" s="300"/>
+      <c r="G34" s="300"/>
+      <c r="H34" s="300"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="299"/>
-      <c r="C35" s="299"/>
-      <c r="D35" s="299"/>
-      <c r="E35" s="299"/>
-      <c r="F35" s="299"/>
-      <c r="G35" s="299"/>
-      <c r="H35" s="299"/>
+      <c r="B35" s="300"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="300"/>
+      <c r="E35" s="300"/>
+      <c r="F35" s="300"/>
+      <c r="G35" s="300"/>
+      <c r="H35" s="300"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="299"/>
-      <c r="C36" s="299"/>
-      <c r="D36" s="299"/>
-      <c r="E36" s="299"/>
-      <c r="F36" s="299"/>
-      <c r="G36" s="299"/>
-      <c r="H36" s="299"/>
+      <c r="B36" s="300"/>
+      <c r="C36" s="300"/>
+      <c r="D36" s="300"/>
+      <c r="E36" s="300"/>
+      <c r="F36" s="300"/>
+      <c r="G36" s="300"/>
+      <c r="H36" s="300"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="299"/>
-      <c r="C37" s="299"/>
-      <c r="D37" s="299"/>
-      <c r="E37" s="299"/>
-      <c r="F37" s="299"/>
-      <c r="G37" s="299"/>
-      <c r="H37" s="299"/>
+      <c r="B37" s="300"/>
+      <c r="C37" s="300"/>
+      <c r="D37" s="300"/>
+      <c r="E37" s="300"/>
+      <c r="F37" s="300"/>
+      <c r="G37" s="300"/>
+      <c r="H37" s="300"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="299"/>
-      <c r="C38" s="299"/>
-      <c r="D38" s="299"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="299"/>
-      <c r="G38" s="299"/>
-      <c r="H38" s="299"/>
+      <c r="B38" s="300"/>
+      <c r="C38" s="300"/>
+      <c r="D38" s="300"/>
+      <c r="E38" s="300"/>
+      <c r="F38" s="300"/>
+      <c r="G38" s="300"/>
+      <c r="H38" s="300"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
+      <c r="B39" s="300"/>
+      <c r="C39" s="300"/>
+      <c r="D39" s="300"/>
+      <c r="E39" s="300"/>
+      <c r="F39" s="300"/>
+      <c r="G39" s="300"/>
+      <c r="H39" s="300"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="299"/>
-      <c r="C40" s="299"/>
-      <c r="D40" s="299"/>
-      <c r="E40" s="299"/>
-      <c r="F40" s="299"/>
-      <c r="G40" s="299"/>
-      <c r="H40" s="299"/>
+      <c r="B40" s="300"/>
+      <c r="C40" s="300"/>
+      <c r="D40" s="300"/>
+      <c r="E40" s="300"/>
+      <c r="F40" s="300"/>
+      <c r="G40" s="300"/>
+      <c r="H40" s="300"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="299"/>
-      <c r="C41" s="299"/>
-      <c r="D41" s="299"/>
-      <c r="E41" s="299"/>
-      <c r="F41" s="299"/>
-      <c r="G41" s="299"/>
-      <c r="H41" s="299"/>
+      <c r="B41" s="300"/>
+      <c r="C41" s="300"/>
+      <c r="D41" s="300"/>
+      <c r="E41" s="300"/>
+      <c r="F41" s="300"/>
+      <c r="G41" s="300"/>
+      <c r="H41" s="300"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="299"/>
-      <c r="C42" s="299"/>
-      <c r="D42" s="299"/>
-      <c r="E42" s="299"/>
-      <c r="F42" s="299"/>
-      <c r="G42" s="299"/>
-      <c r="H42" s="299"/>
+      <c r="B42" s="300"/>
+      <c r="C42" s="300"/>
+      <c r="D42" s="300"/>
+      <c r="E42" s="300"/>
+      <c r="F42" s="300"/>
+      <c r="G42" s="300"/>
+      <c r="H42" s="300"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="299"/>
-      <c r="C43" s="299"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="299"/>
-      <c r="F43" s="299"/>
-      <c r="G43" s="299"/>
-      <c r="H43" s="299"/>
+      <c r="B43" s="300"/>
+      <c r="C43" s="300"/>
+      <c r="D43" s="300"/>
+      <c r="E43" s="300"/>
+      <c r="F43" s="300"/>
+      <c r="G43" s="300"/>
+      <c r="H43" s="300"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="299"/>
-      <c r="C44" s="299"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="299"/>
-      <c r="F44" s="299"/>
-      <c r="G44" s="299"/>
-      <c r="H44" s="299"/>
+      <c r="B44" s="300"/>
+      <c r="C44" s="300"/>
+      <c r="D44" s="300"/>
+      <c r="E44" s="300"/>
+      <c r="F44" s="300"/>
+      <c r="G44" s="300"/>
+      <c r="H44" s="300"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="299"/>
-      <c r="C45" s="299"/>
-      <c r="D45" s="299"/>
-      <c r="E45" s="299"/>
-      <c r="F45" s="299"/>
-      <c r="G45" s="299"/>
-      <c r="H45" s="299"/>
+      <c r="B45" s="300"/>
+      <c r="C45" s="300"/>
+      <c r="D45" s="300"/>
+      <c r="E45" s="300"/>
+      <c r="F45" s="300"/>
+      <c r="G45" s="300"/>
+      <c r="H45" s="300"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="299"/>
-      <c r="C46" s="299"/>
-      <c r="D46" s="299"/>
-      <c r="E46" s="299"/>
-      <c r="F46" s="299"/>
-      <c r="G46" s="299"/>
-      <c r="H46" s="299"/>
+      <c r="B46" s="300"/>
+      <c r="C46" s="300"/>
+      <c r="D46" s="300"/>
+      <c r="E46" s="300"/>
+      <c r="F46" s="300"/>
+      <c r="G46" s="300"/>
+      <c r="H46" s="300"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="299"/>
-      <c r="C47" s="299"/>
-      <c r="D47" s="299"/>
-      <c r="E47" s="299"/>
-      <c r="F47" s="299"/>
-      <c r="G47" s="299"/>
-      <c r="H47" s="299"/>
+      <c r="B47" s="300"/>
+      <c r="C47" s="300"/>
+      <c r="D47" s="300"/>
+      <c r="E47" s="300"/>
+      <c r="F47" s="300"/>
+      <c r="G47" s="300"/>
+      <c r="H47" s="300"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="299"/>
-      <c r="C48" s="299"/>
-      <c r="D48" s="299"/>
-      <c r="E48" s="299"/>
-      <c r="F48" s="299"/>
-      <c r="G48" s="299"/>
-      <c r="H48" s="299"/>
+      <c r="B48" s="300"/>
+      <c r="C48" s="300"/>
+      <c r="D48" s="300"/>
+      <c r="E48" s="300"/>
+      <c r="F48" s="300"/>
+      <c r="G48" s="300"/>
+      <c r="H48" s="300"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="299"/>
-      <c r="C49" s="299"/>
-      <c r="D49" s="299"/>
-      <c r="E49" s="299"/>
-      <c r="F49" s="299"/>
-      <c r="G49" s="299"/>
-      <c r="H49" s="299"/>
+      <c r="B49" s="300"/>
+      <c r="C49" s="300"/>
+      <c r="D49" s="300"/>
+      <c r="E49" s="300"/>
+      <c r="F49" s="300"/>
+      <c r="G49" s="300"/>
+      <c r="H49" s="300"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="299"/>
-      <c r="C50" s="299"/>
-      <c r="D50" s="299"/>
-      <c r="E50" s="299"/>
-      <c r="F50" s="299"/>
-      <c r="G50" s="299"/>
-      <c r="H50" s="299"/>
+      <c r="B50" s="300"/>
+      <c r="C50" s="300"/>
+      <c r="D50" s="300"/>
+      <c r="E50" s="300"/>
+      <c r="F50" s="300"/>
+      <c r="G50" s="300"/>
+      <c r="H50" s="300"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299"/>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
-      <c r="G51" s="299"/>
-      <c r="H51" s="299"/>
+      <c r="B51" s="300"/>
+      <c r="C51" s="300"/>
+      <c r="D51" s="300"/>
+      <c r="E51" s="300"/>
+      <c r="F51" s="300"/>
+      <c r="G51" s="300"/>
+      <c r="H51" s="300"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="299"/>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299"/>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
-      <c r="G52" s="299"/>
-      <c r="H52" s="299"/>
+      <c r="B52" s="300"/>
+      <c r="C52" s="300"/>
+      <c r="D52" s="300"/>
+      <c r="E52" s="300"/>
+      <c r="F52" s="300"/>
+      <c r="G52" s="300"/>
+      <c r="H52" s="300"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="299"/>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="299"/>
-      <c r="F53" s="299"/>
-      <c r="G53" s="299"/>
-      <c r="H53" s="299"/>
+      <c r="B53" s="300"/>
+      <c r="C53" s="300"/>
+      <c r="D53" s="300"/>
+      <c r="E53" s="300"/>
+      <c r="F53" s="300"/>
+      <c r="G53" s="300"/>
+      <c r="H53" s="300"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299"/>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
-      <c r="G54" s="299"/>
-      <c r="H54" s="299"/>
+      <c r="B54" s="300"/>
+      <c r="C54" s="300"/>
+      <c r="D54" s="300"/>
+      <c r="E54" s="300"/>
+      <c r="F54" s="300"/>
+      <c r="G54" s="300"/>
+      <c r="H54" s="300"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299"/>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
-      <c r="G55" s="299"/>
-      <c r="H55" s="299"/>
+      <c r="B55" s="300"/>
+      <c r="C55" s="300"/>
+      <c r="D55" s="300"/>
+      <c r="E55" s="300"/>
+      <c r="F55" s="300"/>
+      <c r="G55" s="300"/>
+      <c r="H55" s="300"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299"/>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
-      <c r="G56" s="299"/>
-      <c r="H56" s="299"/>
+      <c r="B56" s="300"/>
+      <c r="C56" s="300"/>
+      <c r="D56" s="300"/>
+      <c r="E56" s="300"/>
+      <c r="F56" s="300"/>
+      <c r="G56" s="300"/>
+      <c r="H56" s="300"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
-      <c r="G57" s="299"/>
-      <c r="H57" s="299"/>
+      <c r="B57" s="300"/>
+      <c r="C57" s="300"/>
+      <c r="D57" s="300"/>
+      <c r="E57" s="300"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="299"/>
-      <c r="C58" s="299"/>
-      <c r="D58" s="299"/>
-      <c r="E58" s="299"/>
-      <c r="F58" s="299"/>
-      <c r="G58" s="299"/>
-      <c r="H58" s="299"/>
+      <c r="B58" s="300"/>
+      <c r="C58" s="300"/>
+      <c r="D58" s="300"/>
+      <c r="E58" s="300"/>
+      <c r="F58" s="300"/>
+      <c r="G58" s="300"/>
+      <c r="H58" s="300"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="299"/>
-      <c r="C59" s="299"/>
-      <c r="D59" s="299"/>
-      <c r="E59" s="299"/>
-      <c r="F59" s="299"/>
-      <c r="G59" s="299"/>
-      <c r="H59" s="299"/>
+      <c r="B59" s="300"/>
+      <c r="C59" s="300"/>
+      <c r="D59" s="300"/>
+      <c r="E59" s="300"/>
+      <c r="F59" s="300"/>
+      <c r="G59" s="300"/>
+      <c r="H59" s="300"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="299"/>
-      <c r="C60" s="299"/>
-      <c r="D60" s="299"/>
-      <c r="E60" s="299"/>
-      <c r="F60" s="299"/>
-      <c r="G60" s="299"/>
-      <c r="H60" s="299"/>
+      <c r="B60" s="300"/>
+      <c r="C60" s="300"/>
+      <c r="D60" s="300"/>
+      <c r="E60" s="300"/>
+      <c r="F60" s="300"/>
+      <c r="G60" s="300"/>
+      <c r="H60" s="300"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="146"/>
-      <c r="C61" s="147"/>
-      <c r="D61" s="147"/>
-      <c r="E61" s="147"/>
-      <c r="F61" s="147"/>
-      <c r="G61" s="147"/>
-      <c r="H61" s="342"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="148"/>
+      <c r="H61" s="343"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="210">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -1590,7 +1590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
@@ -1598,7 +1598,8 @@
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="[$-40B]0.00"/>
     <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="@"/>
+    <numFmt numFmtId="171" formatCode="[$-409]@"/>
+    <numFmt numFmtId="172" formatCode="@"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2186,7 +2187,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="346">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2839,6 +2840,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2975,7 +2980,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2991,7 +2996,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -7533,7 +7538,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
     </sheetView>
   </sheetViews>
@@ -9077,8 +9082,8 @@
   </sheetPr>
   <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11019,8 +11024,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11097,11 +11102,9 @@
         <v>50</v>
       </c>
       <c r="D4" s="162"/>
-      <c r="E4" s="87" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="E4" s="163"/>
+      <c r="F4" s="163"/>
+      <c r="G4" s="163"/>
       <c r="H4" s="87"/>
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
@@ -11113,80 +11116,78 @@
       <c r="C5" s="162" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="163"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="164"/>
-      <c r="G5" s="165" t="s">
+      <c r="F5" s="165"/>
+      <c r="G5" s="166" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="166"/>
-      <c r="C6" s="167" t="s">
+      <c r="B6" s="167"/>
+      <c r="C6" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="168"/>
-      <c r="E6" s="169"/>
-      <c r="F6" s="169"/>
-      <c r="G6" s="170"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="161"/>
       <c r="C7" s="162" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="171"/>
-      <c r="E7" s="172" t="s">
+      <c r="D7" s="172"/>
+      <c r="E7" s="173" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="173"/>
-      <c r="G7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="175"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="161"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="176" t="s">
+      <c r="C8" s="176"/>
+      <c r="D8" s="177" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="176" t="s">
+      <c r="E8" s="177" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="176" t="s">
+      <c r="F8" s="177" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="177" t="s">
+      <c r="G8" s="178" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="161"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="178" t="s">
+      <c r="C9" s="176"/>
+      <c r="D9" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="178" t="s">
+      <c r="E9" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="178" t="s">
+      <c r="F9" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="178" t="s">
+      <c r="G9" s="179" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="161"/>
-      <c r="C10" s="165" t="s">
+      <c r="C10" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="179"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="D10" s="180"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
       <c r="J10" s="87"/>
@@ -11197,15 +11198,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="161"/>
-      <c r="C11" s="165" t="s">
+      <c r="C11" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="179"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="D11" s="180"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
@@ -11216,15 +11215,13 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="161"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="179"/>
-      <c r="E12" s="180"/>
-      <c r="F12" s="181"/>
-      <c r="G12" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="D12" s="180"/>
+      <c r="E12" s="181"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
       <c r="J12" s="87"/>
@@ -11235,15 +11232,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="161"/>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="179"/>
-      <c r="E13" s="180"/>
-      <c r="F13" s="181"/>
-      <c r="G13" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="D13" s="180"/>
+      <c r="E13" s="181"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
@@ -11254,15 +11249,13 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="161"/>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="166" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="179"/>
-      <c r="E14" s="180"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="181"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
@@ -11273,19 +11266,17 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="161"/>
-      <c r="C15" s="165" t="s">
+      <c r="C15" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="182" t="s">
+      <c r="D15" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="183" t="s">
+      <c r="E15" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="180"/>
-      <c r="G15" s="87" t="s">
-        <v>14</v>
-      </c>
+      <c r="F15" s="181"/>
+      <c r="G15" s="181"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
@@ -11295,122 +11286,122 @@
       <c r="N15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="166"/>
-      <c r="C16" s="167" t="s">
+      <c r="B16" s="167"/>
+      <c r="C16" s="168" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="170"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="161"/>
-      <c r="C17" s="175"/>
-      <c r="D17" s="184" t="s">
+      <c r="C17" s="176"/>
+      <c r="D17" s="185" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="184" t="s">
+      <c r="E17" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="185" t="s">
+      <c r="F17" s="186" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="186"/>
+      <c r="G17" s="187"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="161"/>
-      <c r="C18" s="175"/>
-      <c r="D18" s="178" t="s">
+      <c r="C18" s="176"/>
+      <c r="D18" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="178" t="s">
+      <c r="E18" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="187" t="s">
+      <c r="F18" s="188" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="186"/>
+      <c r="G18" s="187"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="161"/>
       <c r="C19" s="162" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="180"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="186"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="187"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="161"/>
       <c r="C20" s="162" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="180"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="186"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="187"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="161"/>
       <c r="C21" s="162" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="186"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="187"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="161"/>
       <c r="C22" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="180"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="186"/>
+      <c r="D22" s="181"/>
+      <c r="E22" s="181"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="187"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="161"/>
       <c r="C23" s="162" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="186"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="187"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="161"/>
       <c r="C24" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="180"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="186"/>
+      <c r="D24" s="181"/>
+      <c r="E24" s="181"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="187"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="161"/>
       <c r="C25" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="186"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="187"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="161"/>
       <c r="C26" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="180"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="164"/>
-      <c r="G26" s="186"/>
+      <c r="D26" s="181"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="187"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="158"/>
@@ -11424,115 +11415,115 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="161"/>
-      <c r="C28" s="165" t="s">
+      <c r="C28" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="188"/>
-      <c r="E28" s="188"/>
-      <c r="F28" s="188"/>
-      <c r="G28" s="188"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="189"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="189"/>
-      <c r="C29" s="174"/>
-      <c r="D29" s="190"/>
-      <c r="E29" s="190"/>
-      <c r="F29" s="190"/>
-      <c r="G29" s="191"/>
+      <c r="B29" s="190"/>
+      <c r="C29" s="175"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="191"/>
+      <c r="F29" s="191"/>
+      <c r="G29" s="192"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="161"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="193" t="s">
+      <c r="C30" s="193"/>
+      <c r="D30" s="194" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="176" t="s">
+      <c r="E30" s="177" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="176" t="s">
+      <c r="F30" s="177" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="176" t="s">
+      <c r="G30" s="177" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="161"/>
-      <c r="C31" s="192"/>
-      <c r="D31" s="194" t="s">
+      <c r="C31" s="193"/>
+      <c r="D31" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="184" t="s">
+      <c r="E31" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="184" t="s">
+      <c r="F31" s="185" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="184"/>
+      <c r="G31" s="185"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="161"/>
-      <c r="C32" s="192"/>
-      <c r="D32" s="195" t="s">
+      <c r="C32" s="193"/>
+      <c r="D32" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="178" t="s">
+      <c r="E32" s="179" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="178" t="s">
+      <c r="F32" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="196" t="s">
+      <c r="G32" s="197" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="161"/>
-      <c r="C33" s="165" t="s">
+      <c r="C33" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="197"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="180"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="199"/>
+      <c r="G33" s="181"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="161"/>
-      <c r="C34" s="165" t="s">
+      <c r="C34" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="197"/>
-      <c r="E34" s="180"/>
-      <c r="F34" s="181" t="s">
+      <c r="D34" s="198"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="199" t="s">
+      <c r="G34" s="200" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="189"/>
-      <c r="C35" s="200" t="s">
+      <c r="B35" s="190"/>
+      <c r="C35" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="201"/>
-      <c r="E35" s="202"/>
-      <c r="F35" s="203" t="s">
+      <c r="D35" s="202"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="204" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="204" t="s">
+      <c r="G35" s="205" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="161"/>
-      <c r="C36" s="205" t="s">
+      <c r="C36" s="206" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="205"/>
-      <c r="E36" s="206"/>
-      <c r="F36" s="206"/>
-      <c r="G36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="158"/>
@@ -11549,62 +11540,62 @@
       <c r="C38" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="207"/>
+      <c r="D38" s="208"/>
+      <c r="E38" s="208"/>
+      <c r="F38" s="208"/>
+      <c r="G38" s="208"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="161"/>
-      <c r="C39" s="190"/>
-      <c r="D39" s="208"/>
-      <c r="E39" s="208"/>
-      <c r="F39" s="208"/>
-      <c r="G39" s="208"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="209"/>
+      <c r="E39" s="209"/>
+      <c r="F39" s="209"/>
+      <c r="G39" s="209"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="209"/>
-      <c r="C40" s="210"/>
-      <c r="D40" s="176" t="s">
+      <c r="B40" s="210"/>
+      <c r="C40" s="211"/>
+      <c r="D40" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="211" t="s">
+      <c r="E40" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="176" t="s">
+      <c r="F40" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="176" t="s">
+      <c r="G40" s="177" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="161"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="184" t="s">
+      <c r="C41" s="176"/>
+      <c r="D41" s="185" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="212" t="s">
+      <c r="E41" s="213" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="184"/>
-      <c r="G41" s="184" t="s">
+      <c r="F41" s="185"/>
+      <c r="G41" s="185" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="161"/>
-      <c r="C42" s="175"/>
-      <c r="D42" s="213" t="s">
+      <c r="C42" s="176"/>
+      <c r="D42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="213" t="s">
+      <c r="E42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="213" t="s">
+      <c r="F42" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="178" t="s">
+      <c r="G42" s="179" t="s">
         <v>31</v>
       </c>
     </row>
@@ -11613,92 +11604,92 @@
       <c r="C43" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
+      <c r="D43" s="199"/>
+      <c r="E43" s="199"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="161"/>
       <c r="C44" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="180"/>
-      <c r="G44" s="180"/>
+      <c r="D44" s="199"/>
+      <c r="E44" s="199"/>
+      <c r="F44" s="181"/>
+      <c r="G44" s="181"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="161"/>
-      <c r="C45" s="214" t="s">
+      <c r="C45" s="215" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="215"/>
-      <c r="E45" s="215"/>
-      <c r="F45" s="215"/>
-      <c r="G45" s="215"/>
+      <c r="D45" s="216"/>
+      <c r="E45" s="216"/>
+      <c r="F45" s="216"/>
+      <c r="G45" s="216"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="161"/>
-      <c r="C46" s="214" t="s">
+      <c r="C46" s="215" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="162"/>
       <c r="E46" s="162"/>
       <c r="F46" s="162"/>
-      <c r="G46" s="165"/>
+      <c r="G46" s="166"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="161"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="216"/>
-      <c r="E47" s="216"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="217"/>
+      <c r="C47" s="217"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="218"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="161"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="176" t="s">
+      <c r="C48" s="176"/>
+      <c r="D48" s="177" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="176" t="s">
+      <c r="E48" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="218"/>
-      <c r="G48" s="191"/>
+      <c r="F48" s="219"/>
+      <c r="G48" s="192"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="161"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="178" t="s">
+      <c r="C49" s="176"/>
+      <c r="D49" s="179" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="178" t="s">
+      <c r="E49" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="218"/>
-      <c r="G49" s="191"/>
+      <c r="F49" s="219"/>
+      <c r="G49" s="192"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="161"/>
       <c r="C50" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="180"/>
-      <c r="E50" s="180"/>
-      <c r="F50" s="218"/>
-      <c r="G50" s="191"/>
+      <c r="D50" s="181"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="219"/>
+      <c r="G50" s="192"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="161"/>
       <c r="C51" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="180"/>
-      <c r="E51" s="180"/>
-      <c r="F51" s="218"/>
-      <c r="G51" s="191"/>
+      <c r="D51" s="181"/>
+      <c r="E51" s="181"/>
+      <c r="F51" s="219"/>
+      <c r="G51" s="192"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="158"/>
@@ -11712,33 +11703,33 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="161"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="219" t="s">
+      <c r="C53" s="176"/>
+      <c r="D53" s="220" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="194"/>
-      <c r="F53" s="194"/>
-      <c r="G53" s="191"/>
+      <c r="E53" s="195"/>
+      <c r="F53" s="195"/>
+      <c r="G53" s="192"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="161"/>
-      <c r="C54" s="175"/>
-      <c r="D54" s="220" t="s">
+      <c r="C54" s="176"/>
+      <c r="D54" s="221" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="220"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="191"/>
+      <c r="E54" s="221"/>
+      <c r="F54" s="195"/>
+      <c r="G54" s="192"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="161"/>
       <c r="C55" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="164"/>
-      <c r="E55" s="221"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="191"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="222"/>
+      <c r="F55" s="195"/>
+      <c r="G55" s="192"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="158"/>
@@ -11752,39 +11743,39 @@
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="161"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="222" t="s">
+      <c r="C57" s="191"/>
+      <c r="D57" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="223" t="s">
+      <c r="E57" s="224" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="190"/>
-      <c r="G57" s="191"/>
+      <c r="F57" s="191"/>
+      <c r="G57" s="192"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="161"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="224" t="s">
+      <c r="C58" s="176"/>
+      <c r="D58" s="225" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="178" t="s">
+      <c r="E58" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="190"/>
-      <c r="G58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="192"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="161"/>
       <c r="C59" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="225"/>
-      <c r="E59" s="180"/>
-      <c r="F59" s="226" t="s">
+      <c r="D59" s="226"/>
+      <c r="E59" s="181"/>
+      <c r="F59" s="227" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="191"/>
+      <c r="G59" s="192"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="158"/>
@@ -11794,63 +11785,63 @@
       <c r="D60" s="160"/>
       <c r="E60" s="160"/>
       <c r="F60" s="160"/>
-      <c r="G60" s="227"/>
+      <c r="G60" s="228"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="161"/>
-      <c r="C61" s="175"/>
-      <c r="D61" s="184" t="s">
+      <c r="C61" s="176"/>
+      <c r="D61" s="185" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="184" t="s">
+      <c r="E61" s="185" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="218" t="s">
+      <c r="F61" s="219" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="184" t="s">
+      <c r="G61" s="185" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="161"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="178" t="s">
+      <c r="C62" s="176"/>
+      <c r="D62" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="178" t="s">
+      <c r="E62" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="224" t="s">
+      <c r="F62" s="225" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="178" t="s">
+      <c r="G62" s="179" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="161"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="198"/>
-      <c r="E63" s="180"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="180"/>
+      <c r="D63" s="199"/>
+      <c r="E63" s="181"/>
+      <c r="F63" s="226"/>
+      <c r="G63" s="181"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="161"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="198"/>
-      <c r="E64" s="180"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="180"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="181"/>
+      <c r="F64" s="226"/>
+      <c r="G64" s="181"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="228"/>
-      <c r="C65" s="173"/>
-      <c r="D65" s="229"/>
-      <c r="E65" s="229"/>
-      <c r="F65" s="228"/>
-      <c r="G65" s="229"/>
+      <c r="B65" s="229"/>
+      <c r="C65" s="174"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="230"/>
+      <c r="F65" s="229"/>
+      <c r="G65" s="230"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -11869,16 +11860,10 @@
       <c r="G67" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="8">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="E4:G4"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:G36"/>
@@ -12140,7 +12125,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F14">
+  <conditionalFormatting sqref="F10:G14">
     <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>"*"</formula>
     </cfRule>
@@ -12165,7 +12150,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F15:G15">
     <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>"*"</formula>
     </cfRule>
@@ -12345,17 +12330,17 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4 G10:G15">
+  <conditionalFormatting sqref="E4">
     <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4 G10:G15" type="custom">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4" type="custom">
       <formula1>OR(ISNUMBER(B50),B50="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D5 F5 D7 D10:E14 F15 D19:F26 E33:G33 E34:E36 D43:G44 D50:E51 D55 D59:E59 D63:G64" type="custom">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D5 F5 D7 D10:E14 F15:G15 D19:F26 E33:G33 E34:E36 D43:G44 D50:E51 D55 D59:E59 D63:G64" type="custom">
       <formula1>OR(ISNUMBER(D7),D7="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12378,7 +12363,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -12394,14 +12379,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="230"/>
-      <c r="C2" s="231" t="s">
+      <c r="B2" s="231"/>
+      <c r="C2" s="232" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="232"/>
-      <c r="G2" s="233"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="232"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="234"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12441,66 +12426,66 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="234"/>
-      <c r="C3" s="235" t="s">
+      <c r="B3" s="235"/>
+      <c r="C3" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="236"/>
-      <c r="E3" s="236"/>
-      <c r="F3" s="236"/>
-      <c r="G3" s="237"/>
+      <c r="D3" s="237"/>
+      <c r="E3" s="237"/>
+      <c r="F3" s="237"/>
+      <c r="G3" s="238"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="161"/>
-      <c r="C4" s="238" t="s">
+      <c r="C4" s="239" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="239" t="s">
+      <c r="D4" s="240" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="239"/>
-      <c r="F4" s="239"/>
-      <c r="G4" s="239"/>
+      <c r="E4" s="240"/>
+      <c r="F4" s="240"/>
+      <c r="G4" s="240"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="161"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
+      <c r="C5" s="239"/>
+      <c r="D5" s="240"/>
+      <c r="E5" s="240"/>
+      <c r="F5" s="240"/>
+      <c r="G5" s="240"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="161"/>
-      <c r="C6" s="238"/>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="241"/>
+      <c r="C6" s="239"/>
+      <c r="D6" s="241"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="242"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="161"/>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="165"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="166"/>
     </row>
     <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="161"/>
-      <c r="C8" s="163" t="s">
+      <c r="C8" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="242"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="192"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="245"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="193"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="161"/>
-      <c r="C9" s="219" t="s">
+      <c r="C9" s="220" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -12515,360 +12500,360 @@
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="189"/>
-      <c r="C10" s="245"/>
-      <c r="D10" s="245"/>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="174"/>
+      <c r="B10" s="190"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="175"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="234"/>
-      <c r="C11" s="235" t="s">
+      <c r="B11" s="235"/>
+      <c r="C11" s="236" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="236"/>
-      <c r="G11" s="237"/>
+      <c r="D11" s="237"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="237"/>
+      <c r="G11" s="238"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="161"/>
-      <c r="C12" s="190"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="191"/>
+      <c r="C12" s="191"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="247"/>
+      <c r="F12" s="191"/>
+      <c r="G12" s="192"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="161"/>
-      <c r="C13" s="244" t="s">
+      <c r="C13" s="245" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="184" t="s">
+      <c r="D13" s="185" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="184" t="s">
+      <c r="E13" s="185" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="185" t="s">
+      <c r="F13" s="186" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="185"/>
+      <c r="G13" s="186"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="161"/>
-      <c r="C14" s="175"/>
-      <c r="D14" s="184" t="s">
+      <c r="C14" s="176"/>
+      <c r="D14" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="184" t="s">
+      <c r="E14" s="185" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="185" t="s">
+      <c r="F14" s="186" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="185"/>
+      <c r="G14" s="186"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="189"/>
-      <c r="C15" s="247"/>
-      <c r="D15" s="178" t="s">
+      <c r="B15" s="190"/>
+      <c r="C15" s="248"/>
+      <c r="D15" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="178" t="s">
+      <c r="E15" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="224" t="s">
+      <c r="F15" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="187" t="s">
+      <c r="G15" s="188" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="161"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="185"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="185"/>
+      <c r="E16" s="185"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="186"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="161"/>
-      <c r="C17" s="248" t="s">
+      <c r="C17" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="180"/>
-      <c r="E17" s="249" t="s">
+      <c r="D17" s="181"/>
+      <c r="E17" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="249" t="s">
+      <c r="F17" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="249" t="s">
+      <c r="G17" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="161"/>
-      <c r="C18" s="248" t="s">
+      <c r="C18" s="249" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="180"/>
-      <c r="E18" s="249" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="249" t="s">
+      <c r="F18" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="249" t="s">
+      <c r="G18" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="161"/>
-      <c r="C19" s="250" t="s">
+      <c r="C19" s="251" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="180"/>
-      <c r="E19" s="249" t="s">
+      <c r="D19" s="181"/>
+      <c r="E19" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="249" t="s">
+      <c r="F19" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="249" t="s">
+      <c r="G19" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="161"/>
-      <c r="C20" s="250" t="s">
+      <c r="C20" s="251" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="180"/>
-      <c r="E20" s="249" t="s">
+      <c r="D20" s="181"/>
+      <c r="E20" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="249" t="s">
+      <c r="F20" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="249" t="s">
+      <c r="G20" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="161"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="249"/>
-      <c r="E21" s="249" t="s">
+      <c r="C21" s="252"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="249" t="s">
+      <c r="F21" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="249" t="s">
+      <c r="G21" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="161"/>
-      <c r="C22" s="244" t="s">
+      <c r="C22" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="249" t="s">
+      <c r="E22" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="249" t="s">
+      <c r="F22" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="249" t="s">
+      <c r="G22" s="250" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="161"/>
-      <c r="C23" s="190"/>
-      <c r="D23" s="208"/>
-      <c r="E23" s="208"/>
-      <c r="F23" s="208"/>
-      <c r="G23" s="191"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="209"/>
+      <c r="F23" s="209"/>
+      <c r="G23" s="192"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="234"/>
-      <c r="C24" s="235" t="s">
+      <c r="B24" s="235"/>
+      <c r="C24" s="236" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="160"/>
-      <c r="E24" s="236"/>
-      <c r="F24" s="236"/>
-      <c r="G24" s="237"/>
+      <c r="E24" s="237"/>
+      <c r="F24" s="237"/>
+      <c r="G24" s="238"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="209"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="191"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="253"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="192"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="161"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="183" t="s">
+      <c r="C26" s="176"/>
+      <c r="D26" s="193"/>
+      <c r="E26" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="183" t="s">
+      <c r="F26" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="191"/>
+      <c r="G26" s="192"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="161"/>
-      <c r="C27" s="175"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="191"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="193"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="192"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="161"/>
-      <c r="C28" s="254" t="s">
+      <c r="C28" s="255" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="254"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="249" t="s">
+      <c r="D28" s="255"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="255"/>
+      <c r="G28" s="256"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="161"/>
-      <c r="C29" s="254" t="s">
+      <c r="C29" s="255" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="254"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="249" t="s">
+      <c r="D29" s="255"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="255"/>
+      <c r="G29" s="256"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="161"/>
-      <c r="C30" s="256" t="s">
+      <c r="C30" s="257" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="256"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="249" t="s">
+      <c r="D30" s="257"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="255"/>
+      <c r="G30" s="256"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="161"/>
-      <c r="C31" s="256" t="s">
+      <c r="C31" s="257" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="256"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="249" t="s">
+      <c r="D31" s="257"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="255"/>
+      <c r="G31" s="256"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="161"/>
-      <c r="C32" s="256" t="s">
+      <c r="C32" s="257" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="256"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="249" t="s">
+      <c r="D32" s="257"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="255"/>
+      <c r="G32" s="256"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="161"/>
-      <c r="C33" s="256" t="s">
+      <c r="C33" s="257" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="256"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="249" t="s">
+      <c r="D33" s="257"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="255"/>
+      <c r="G33" s="256"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="189"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="174"/>
-      <c r="E34" s="208"/>
-      <c r="F34" s="208"/>
-      <c r="G34" s="191"/>
+      <c r="B34" s="190"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="209"/>
+      <c r="F34" s="209"/>
+      <c r="G34" s="192"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="234"/>
-      <c r="C35" s="235" t="s">
+      <c r="B35" s="235"/>
+      <c r="C35" s="236" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="236"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="236"/>
-      <c r="G35" s="237"/>
+      <c r="D35" s="237"/>
+      <c r="E35" s="237"/>
+      <c r="F35" s="237"/>
+      <c r="G35" s="238"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="161"/>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="246"/>
-      <c r="F36" s="246"/>
-      <c r="G36" s="246"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="247"/>
+      <c r="F36" s="247"/>
+      <c r="G36" s="247"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="161"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
-      <c r="E37" s="184" t="s">
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="185" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="184" t="s">
+      <c r="F37" s="185" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="184" t="s">
+      <c r="G37" s="185" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="161"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="183" t="s">
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
+      <c r="E38" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="183" t="s">
+      <c r="F38" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="183" t="s">
+      <c r="G38" s="184" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="161"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="175"/>
-      <c r="E39" s="184"/>
-      <c r="F39" s="184"/>
-      <c r="G39" s="184"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="161"/>
@@ -12876,9 +12861,9 @@
         <v>94</v>
       </c>
       <c r="D40" s="162"/>
-      <c r="E40" s="184"/>
-      <c r="F40" s="184"/>
-      <c r="G40" s="184"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="161"/>
@@ -12886,9 +12871,9 @@
         <v>150</v>
       </c>
       <c r="D41" s="162"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="180"/>
-      <c r="G41" s="184" t="s">
+      <c r="E41" s="181"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="185" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12898,9 +12883,9 @@
         <v>151</v>
       </c>
       <c r="D42" s="162"/>
-      <c r="E42" s="180"/>
-      <c r="F42" s="180"/>
-      <c r="G42" s="184" t="s">
+      <c r="E42" s="181"/>
+      <c r="F42" s="181"/>
+      <c r="G42" s="185" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12910,9 +12895,9 @@
         <v>152</v>
       </c>
       <c r="D43" s="162"/>
-      <c r="E43" s="180"/>
-      <c r="F43" s="180"/>
-      <c r="G43" s="180"/>
+      <c r="E43" s="181"/>
+      <c r="F43" s="181"/>
+      <c r="G43" s="181"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="161"/>
@@ -12920,11 +12905,11 @@
         <v>153</v>
       </c>
       <c r="D44" s="162"/>
-      <c r="E44" s="180"/>
-      <c r="F44" s="184" t="s">
+      <c r="E44" s="181"/>
+      <c r="F44" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="184" t="s">
+      <c r="G44" s="185" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12934,9 +12919,9 @@
         <v>112</v>
       </c>
       <c r="D45" s="162"/>
-      <c r="E45" s="180"/>
-      <c r="F45" s="180"/>
-      <c r="G45" s="180"/>
+      <c r="E45" s="181"/>
+      <c r="F45" s="181"/>
+      <c r="G45" s="181"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="161"/>
@@ -12944,79 +12929,79 @@
         <v>154</v>
       </c>
       <c r="D46" s="162"/>
-      <c r="E46" s="180"/>
-      <c r="F46" s="184" t="s">
+      <c r="E46" s="181"/>
+      <c r="F46" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="184" t="s">
+      <c r="G46" s="185" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="161"/>
-      <c r="C47" s="244" t="s">
+      <c r="C47" s="245" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="244"/>
-      <c r="E47" s="183"/>
-      <c r="F47" s="183"/>
-      <c r="G47" s="183"/>
+      <c r="D47" s="245"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="161"/>
-      <c r="C48" s="214" t="s">
+      <c r="C48" s="215" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="244"/>
-      <c r="E48" s="220"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
+      <c r="D48" s="245"/>
+      <c r="E48" s="221"/>
+      <c r="F48" s="184"/>
+      <c r="G48" s="184"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="161"/>
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="208"/>
-      <c r="F49" s="208"/>
-      <c r="G49" s="208"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="209"/>
+      <c r="F49" s="209"/>
+      <c r="G49" s="209"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="234"/>
-      <c r="C50" s="235" t="s">
+      <c r="B50" s="235"/>
+      <c r="C50" s="236" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="236"/>
-      <c r="E50" s="236"/>
-      <c r="F50" s="236"/>
-      <c r="G50" s="237"/>
+      <c r="D50" s="237"/>
+      <c r="E50" s="237"/>
+      <c r="F50" s="237"/>
+      <c r="G50" s="238"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="161"/>
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
-      <c r="E51" s="246"/>
-      <c r="F51" s="246"/>
-      <c r="G51" s="246"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="247"/>
+      <c r="F51" s="247"/>
+      <c r="G51" s="247"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="161"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="175"/>
-      <c r="E52" s="183" t="s">
+      <c r="C52" s="176"/>
+      <c r="D52" s="176"/>
+      <c r="E52" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="183" t="s">
+      <c r="F52" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="183"/>
+      <c r="G52" s="184"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="161"/>
-      <c r="C53" s="175"/>
-      <c r="D53" s="175"/>
-      <c r="E53" s="184"/>
-      <c r="F53" s="184"/>
-      <c r="G53" s="184"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="176"/>
+      <c r="E53" s="185"/>
+      <c r="F53" s="185"/>
+      <c r="G53" s="185"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="161"/>
@@ -13024,11 +13009,11 @@
         <v>157</v>
       </c>
       <c r="D54" s="162"/>
-      <c r="E54" s="180"/>
-      <c r="F54" s="249" t="s">
+      <c r="E54" s="181"/>
+      <c r="F54" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="183"/>
+      <c r="G54" s="184"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="161"/>
@@ -13036,11 +13021,11 @@
         <v>158</v>
       </c>
       <c r="D55" s="162"/>
-      <c r="E55" s="180"/>
-      <c r="F55" s="249" t="s">
+      <c r="E55" s="181"/>
+      <c r="F55" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="184"/>
+      <c r="G55" s="185"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="161"/>
@@ -13048,11 +13033,11 @@
         <v>103</v>
       </c>
       <c r="D56" s="162"/>
-      <c r="E56" s="180"/>
-      <c r="F56" s="249" t="s">
+      <c r="E56" s="181"/>
+      <c r="F56" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="183"/>
+      <c r="G56" s="184"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="161"/>
@@ -13060,85 +13045,85 @@
         <v>159</v>
       </c>
       <c r="D57" s="162"/>
-      <c r="E57" s="180"/>
-      <c r="F57" s="249" t="s">
+      <c r="E57" s="181"/>
+      <c r="F57" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="184"/>
+      <c r="G57" s="185"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="161"/>
       <c r="C58" s="162"/>
       <c r="D58" s="162"/>
-      <c r="E58" s="257"/>
-      <c r="F58" s="257"/>
-      <c r="G58" s="258"/>
+      <c r="E58" s="258"/>
+      <c r="F58" s="258"/>
+      <c r="G58" s="259"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="161"/>
-      <c r="C59" s="214" t="s">
+      <c r="C59" s="215" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="259"/>
-      <c r="E59" s="260"/>
-      <c r="F59" s="260"/>
-      <c r="G59" s="258"/>
+      <c r="D59" s="260"/>
+      <c r="E59" s="261"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="259"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="161"/>
-      <c r="C60" s="214" t="s">
+      <c r="C60" s="215" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="259"/>
-      <c r="E60" s="260"/>
-      <c r="F60" s="260"/>
-      <c r="G60" s="261"/>
+      <c r="D60" s="260"/>
+      <c r="E60" s="261"/>
+      <c r="F60" s="261"/>
+      <c r="G60" s="262"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="161"/>
       <c r="C61" s="162"/>
-      <c r="D61" s="190"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
+      <c r="D61" s="191"/>
+      <c r="E61" s="209"/>
+      <c r="F61" s="209"/>
+      <c r="G61" s="209"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="234"/>
-      <c r="C62" s="235" t="s">
+      <c r="B62" s="235"/>
+      <c r="C62" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="236"/>
-      <c r="E62" s="236"/>
-      <c r="F62" s="236"/>
-      <c r="G62" s="237"/>
+      <c r="D62" s="237"/>
+      <c r="E62" s="237"/>
+      <c r="F62" s="237"/>
+      <c r="G62" s="238"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="161"/>
-      <c r="C63" s="190"/>
-      <c r="D63" s="190"/>
-      <c r="E63" s="246"/>
-      <c r="F63" s="246"/>
-      <c r="G63" s="246"/>
+      <c r="C63" s="191"/>
+      <c r="D63" s="191"/>
+      <c r="E63" s="247"/>
+      <c r="F63" s="247"/>
+      <c r="G63" s="247"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="161"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="183" t="s">
+      <c r="C64" s="176"/>
+      <c r="D64" s="176"/>
+      <c r="E64" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="183" t="s">
+      <c r="F64" s="184" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="184"/>
+      <c r="G64" s="185"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="161"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="184"/>
-      <c r="F65" s="184"/>
-      <c r="G65" s="184"/>
+      <c r="C65" s="176"/>
+      <c r="D65" s="176"/>
+      <c r="E65" s="185"/>
+      <c r="F65" s="185"/>
+      <c r="G65" s="185"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="161"/>
@@ -13146,11 +13131,11 @@
         <v>163</v>
       </c>
       <c r="D66" s="162"/>
-      <c r="E66" s="180"/>
-      <c r="F66" s="249" t="s">
+      <c r="E66" s="181"/>
+      <c r="F66" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="184"/>
+      <c r="G66" s="185"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="161"/>
@@ -13158,11 +13143,11 @@
         <v>121</v>
       </c>
       <c r="D67" s="162"/>
-      <c r="E67" s="180"/>
-      <c r="F67" s="249" t="s">
+      <c r="E67" s="181"/>
+      <c r="F67" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="184"/>
+      <c r="G67" s="185"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="161"/>
@@ -13170,11 +13155,11 @@
         <v>122</v>
       </c>
       <c r="D68" s="162"/>
-      <c r="E68" s="180"/>
-      <c r="F68" s="249" t="s">
+      <c r="E68" s="181"/>
+      <c r="F68" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="184"/>
+      <c r="G68" s="185"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="161"/>
@@ -13182,11 +13167,11 @@
         <v>123</v>
       </c>
       <c r="D69" s="162"/>
-      <c r="E69" s="180"/>
-      <c r="F69" s="249" t="s">
+      <c r="E69" s="181"/>
+      <c r="F69" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="184"/>
+      <c r="G69" s="185"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="161"/>
@@ -13194,37 +13179,37 @@
         <v>164</v>
       </c>
       <c r="D70" s="162"/>
-      <c r="E70" s="180"/>
-      <c r="F70" s="249" t="s">
+      <c r="E70" s="181"/>
+      <c r="F70" s="250" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="184"/>
+      <c r="G70" s="185"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="161"/>
       <c r="C71" s="162"/>
-      <c r="D71" s="190"/>
-      <c r="E71" s="208"/>
-      <c r="F71" s="208"/>
-      <c r="G71" s="208"/>
+      <c r="D71" s="191"/>
+      <c r="E71" s="209"/>
+      <c r="F71" s="209"/>
+      <c r="G71" s="209"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="234"/>
-      <c r="C72" s="235" t="s">
+      <c r="B72" s="235"/>
+      <c r="C72" s="236" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="236"/>
-      <c r="E72" s="236"/>
-      <c r="F72" s="236"/>
-      <c r="G72" s="237"/>
+      <c r="D72" s="237"/>
+      <c r="E72" s="237"/>
+      <c r="F72" s="237"/>
+      <c r="G72" s="238"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="161"/>
-      <c r="C73" s="190"/>
-      <c r="D73" s="190"/>
-      <c r="E73" s="209"/>
-      <c r="F73" s="252"/>
-      <c r="G73" s="253"/>
+      <c r="C73" s="191"/>
+      <c r="D73" s="191"/>
+      <c r="E73" s="210"/>
+      <c r="F73" s="253"/>
+      <c r="G73" s="254"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="161"/>
@@ -13232,17 +13217,17 @@
         <v>165</v>
       </c>
       <c r="D74" s="162"/>
-      <c r="E74" s="262"/>
-      <c r="F74" s="262"/>
-      <c r="G74" s="262"/>
+      <c r="E74" s="263"/>
+      <c r="F74" s="263"/>
+      <c r="G74" s="263"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="228"/>
-      <c r="C75" s="173"/>
-      <c r="D75" s="173"/>
-      <c r="E75" s="228"/>
-      <c r="F75" s="173"/>
-      <c r="G75" s="263"/>
+      <c r="B75" s="229"/>
+      <c r="C75" s="174"/>
+      <c r="D75" s="174"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="174"/>
+      <c r="G75" s="264"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13748,7 +13733,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -13766,18 +13751,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="264" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="265"/>
-      <c r="C2" s="266" t="s">
+    <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="266"/>
+      <c r="C2" s="267" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="267"/>
-      <c r="F2" s="267"/>
-      <c r="G2" s="267"/>
-      <c r="H2" s="267"/>
-      <c r="I2" s="267"/>
-      <c r="J2" s="268"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
+      <c r="H2" s="268"/>
+      <c r="I2" s="268"/>
+      <c r="J2" s="269"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13828,16 +13813,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="269" t="s">
+      <c r="C3" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="269"/>
-      <c r="I3" s="269"/>
-      <c r="J3" s="269"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13880,11 +13865,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="270"/>
+      <c r="F7" s="271"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="271"/>
+      <c r="J7" s="272"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13909,22 +13894,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="264" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="272"/>
-      <c r="C10" s="273" t="s">
+    <row r="10" s="265" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="273"/>
+      <c r="C10" s="274" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="274"/>
-      <c r="E10" s="275"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="278" t="s">
+      <c r="D10" s="275"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="277"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="279" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="278" t="s">
+      <c r="I10" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="278"/>
+      <c r="J10" s="279"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -13977,7 +13962,7 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="279"/>
+      <c r="E11" s="280"/>
       <c r="F11" s="46"/>
       <c r="G11" s="118"/>
       <c r="H11" s="116"/>
@@ -13990,25 +13975,25 @@
         <v>170</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="280"/>
+      <c r="E12" s="281"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="281"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="282" t="s">
+      <c r="G12" s="282"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="283"/>
+      <c r="J12" s="284"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="280"/>
+      <c r="E13" s="281"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="281"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="284"/>
-      <c r="J13" s="283"/>
+      <c r="G13" s="282"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="285"/>
+      <c r="J13" s="284"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
@@ -14016,66 +14001,66 @@
         <v>171</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="280"/>
+      <c r="E14" s="281"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="180"/>
-      <c r="I14" s="282" t="s">
+      <c r="G14" s="282"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="283"/>
+      <c r="J14" s="284"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="280"/>
+      <c r="E15" s="281"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="284"/>
-      <c r="J15" s="283"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="181"/>
+      <c r="I15" s="285"/>
+      <c r="J15" s="284"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="285" t="s">
+      <c r="C16" s="286" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="280"/>
+      <c r="E16" s="281"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="281"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="282" t="s">
+      <c r="G16" s="282"/>
+      <c r="H16" s="181"/>
+      <c r="I16" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="283"/>
+      <c r="J16" s="284"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="285" t="s">
+      <c r="C17" s="286" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="280"/>
+      <c r="E17" s="281"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="281"/>
-      <c r="H17" s="180"/>
-      <c r="I17" s="282" t="s">
+      <c r="G17" s="282"/>
+      <c r="H17" s="181"/>
+      <c r="I17" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="283"/>
+      <c r="J17" s="284"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="285"/>
+      <c r="C18" s="286"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="280"/>
+      <c r="E18" s="281"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="280"/>
-      <c r="H18" s="180"/>
-      <c r="I18" s="284"/>
-      <c r="J18" s="283"/>
+      <c r="G18" s="281"/>
+      <c r="H18" s="181"/>
+      <c r="I18" s="285"/>
+      <c r="J18" s="284"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
@@ -14086,45 +14071,45 @@
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
-      <c r="H19" s="180"/>
-      <c r="I19" s="282" t="s">
+      <c r="H19" s="181"/>
+      <c r="I19" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="283"/>
+      <c r="J19" s="284"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="286"/>
-      <c r="D20" s="286"/>
-      <c r="E20" s="286"/>
-      <c r="F20" s="286"/>
-      <c r="G20" s="286"/>
-      <c r="H20" s="202"/>
-      <c r="I20" s="287"/>
-      <c r="J20" s="288"/>
-    </row>
-    <row r="21" s="264" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="272"/>
-      <c r="C21" s="273" t="s">
+      <c r="C20" s="287"/>
+      <c r="D20" s="287"/>
+      <c r="E20" s="287"/>
+      <c r="F20" s="287"/>
+      <c r="G20" s="287"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="288"/>
+      <c r="J20" s="289"/>
+    </row>
+    <row r="21" s="265" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="273"/>
+      <c r="C21" s="274" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="273"/>
-      <c r="E21" s="289" t="s">
+      <c r="D21" s="274"/>
+      <c r="E21" s="290" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="290" t="s">
+      <c r="F21" s="291" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="289" t="s">
+      <c r="G21" s="290" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="290" t="s">
+      <c r="H21" s="291" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="290" t="s">
+      <c r="I21" s="291" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="290"/>
+      <c r="J21" s="291"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14175,14 +14160,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="293"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="295"/>
-      <c r="J22" s="296"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="295"/>
+      <c r="H22" s="295"/>
+      <c r="I22" s="296"/>
+      <c r="J22" s="297"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
@@ -14190,20 +14175,20 @@
         <v>178</v>
       </c>
       <c r="D23" s="101"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="297" t="s">
+      <c r="E23" s="181"/>
+      <c r="F23" s="298" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="298" t="n">
+      <c r="G23" s="299" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="282" t="s">
+      <c r="H23" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="282" t="s">
+      <c r="I23" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="283"/>
+      <c r="J23" s="284"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
@@ -14211,20 +14196,20 @@
         <v>180</v>
       </c>
       <c r="D24" s="101"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="297" t="s">
+      <c r="E24" s="181"/>
+      <c r="F24" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="298" t="n">
+      <c r="G24" s="299" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="282" t="s">
+      <c r="H24" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="282" t="s">
+      <c r="I24" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="283"/>
+      <c r="J24" s="284"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
@@ -14232,20 +14217,20 @@
         <v>182</v>
       </c>
       <c r="D25" s="101"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="297" t="s">
+      <c r="E25" s="181"/>
+      <c r="F25" s="298" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="298" t="n">
+      <c r="G25" s="299" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="282" t="s">
+      <c r="H25" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="282" t="s">
+      <c r="I25" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="283"/>
+      <c r="J25" s="284"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
@@ -14253,131 +14238,131 @@
         <v>183</v>
       </c>
       <c r="D26" s="101"/>
-      <c r="E26" s="180"/>
-      <c r="F26" s="297" t="s">
+      <c r="E26" s="181"/>
+      <c r="F26" s="298" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="298" t="n">
+      <c r="G26" s="299" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="282" t="s">
+      <c r="H26" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="282" t="s">
+      <c r="I26" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="283"/>
+      <c r="J26" s="284"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="299"/>
-      <c r="D27" s="299"/>
-      <c r="E27" s="180"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="284"/>
-      <c r="J27" s="283"/>
+      <c r="C27" s="300"/>
+      <c r="D27" s="300"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="285"/>
+      <c r="J27" s="284"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="299"/>
-      <c r="D28" s="299"/>
-      <c r="E28" s="180"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="301"/>
-      <c r="I28" s="284"/>
-      <c r="J28" s="283"/>
+      <c r="C28" s="300"/>
+      <c r="D28" s="300"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="302"/>
+      <c r="I28" s="285"/>
+      <c r="J28" s="284"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="302" t="s">
+      <c r="C29" s="303" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="302"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="301"/>
-      <c r="I29" s="284"/>
-      <c r="J29" s="283"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="301"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="302"/>
+      <c r="I29" s="285"/>
+      <c r="J29" s="284"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="302"/>
-      <c r="E30" s="180"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="301"/>
-      <c r="I30" s="284"/>
-      <c r="J30" s="283"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="302"/>
+      <c r="I30" s="285"/>
+      <c r="J30" s="284"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="302"/>
-      <c r="D31" s="302"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="301"/>
-      <c r="I31" s="284"/>
-      <c r="J31" s="283"/>
+      <c r="C31" s="303"/>
+      <c r="D31" s="303"/>
+      <c r="E31" s="181"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="302"/>
+      <c r="I31" s="285"/>
+      <c r="J31" s="284"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="302"/>
-      <c r="D32" s="302"/>
-      <c r="E32" s="180"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="301"/>
-      <c r="I32" s="284"/>
-      <c r="J32" s="283"/>
+      <c r="C32" s="303"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="181"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="181"/>
+      <c r="H32" s="302"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="284"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="299"/>
-      <c r="D33" s="299"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="301"/>
-      <c r="I33" s="284"/>
-      <c r="J33" s="283"/>
+      <c r="C33" s="300"/>
+      <c r="D33" s="300"/>
+      <c r="E33" s="181"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="181"/>
+      <c r="H33" s="302"/>
+      <c r="I33" s="285"/>
+      <c r="J33" s="284"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="303"/>
-      <c r="D34" s="303"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="304"/>
-      <c r="G34" s="202"/>
-      <c r="H34" s="305"/>
-      <c r="I34" s="287"/>
-      <c r="J34" s="288"/>
+      <c r="C34" s="304"/>
+      <c r="D34" s="304"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="305"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="306"/>
+      <c r="I34" s="288"/>
+      <c r="J34" s="289"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="273" t="s">
+      <c r="C35" s="274" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="273"/>
-      <c r="E35" s="280"/>
+      <c r="D35" s="274"/>
+      <c r="E35" s="281"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="280"/>
-      <c r="H35" s="306"/>
-      <c r="I35" s="307"/>
-      <c r="J35" s="283"/>
+      <c r="G35" s="281"/>
+      <c r="H35" s="307"/>
+      <c r="I35" s="308"/>
+      <c r="J35" s="284"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="280"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="281"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="280"/>
+      <c r="G36" s="281"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14388,14 +14373,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="308"/>
-      <c r="D37" s="308"/>
-      <c r="E37" s="309"/>
-      <c r="F37" s="310"/>
-      <c r="G37" s="310"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="311"/>
-      <c r="J37" s="312"/>
+      <c r="C37" s="309"/>
+      <c r="D37" s="309"/>
+      <c r="E37" s="310"/>
+      <c r="F37" s="311"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="313"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
@@ -14403,25 +14388,25 @@
         <v>187</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="313"/>
-      <c r="F38" s="314"/>
-      <c r="G38" s="314"/>
-      <c r="H38" s="180"/>
-      <c r="I38" s="282" t="s">
+      <c r="E38" s="314"/>
+      <c r="F38" s="315"/>
+      <c r="G38" s="315"/>
+      <c r="H38" s="181"/>
+      <c r="I38" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="283"/>
+      <c r="J38" s="284"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="314"/>
-      <c r="G39" s="314"/>
-      <c r="H39" s="180"/>
-      <c r="I39" s="307"/>
-      <c r="J39" s="283"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="315"/>
+      <c r="G39" s="315"/>
+      <c r="H39" s="181"/>
+      <c r="I39" s="308"/>
+      <c r="J39" s="284"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
@@ -14429,25 +14414,25 @@
         <v>188</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="314"/>
-      <c r="G40" s="314"/>
-      <c r="H40" s="180"/>
-      <c r="I40" s="282" t="s">
+      <c r="E40" s="314"/>
+      <c r="F40" s="315"/>
+      <c r="G40" s="315"/>
+      <c r="H40" s="181"/>
+      <c r="I40" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="283"/>
+      <c r="J40" s="284"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="313"/>
-      <c r="F41" s="314"/>
-      <c r="G41" s="314"/>
-      <c r="H41" s="180"/>
-      <c r="I41" s="307"/>
-      <c r="J41" s="283"/>
+      <c r="E41" s="314"/>
+      <c r="F41" s="315"/>
+      <c r="G41" s="315"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="308"/>
+      <c r="J41" s="284"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
@@ -14455,25 +14440,25 @@
         <v>189</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="313"/>
-      <c r="F42" s="314"/>
-      <c r="G42" s="314"/>
-      <c r="H42" s="180"/>
-      <c r="I42" s="282" t="s">
+      <c r="E42" s="314"/>
+      <c r="F42" s="315"/>
+      <c r="G42" s="315"/>
+      <c r="H42" s="181"/>
+      <c r="I42" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="283"/>
+      <c r="J42" s="284"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="313"/>
-      <c r="F43" s="314"/>
-      <c r="G43" s="314"/>
-      <c r="H43" s="180"/>
-      <c r="I43" s="307"/>
-      <c r="J43" s="283"/>
+      <c r="E43" s="314"/>
+      <c r="F43" s="315"/>
+      <c r="G43" s="315"/>
+      <c r="H43" s="181"/>
+      <c r="I43" s="308"/>
+      <c r="J43" s="284"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
@@ -14481,25 +14466,25 @@
         <v>149</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="313"/>
-      <c r="F44" s="314"/>
-      <c r="G44" s="314"/>
-      <c r="H44" s="180"/>
-      <c r="I44" s="282" t="s">
+      <c r="E44" s="314"/>
+      <c r="F44" s="315"/>
+      <c r="G44" s="315"/>
+      <c r="H44" s="181"/>
+      <c r="I44" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="283"/>
+      <c r="J44" s="284"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="313"/>
-      <c r="F45" s="314"/>
-      <c r="G45" s="314"/>
-      <c r="H45" s="180"/>
-      <c r="I45" s="307"/>
-      <c r="J45" s="283"/>
+      <c r="E45" s="314"/>
+      <c r="F45" s="315"/>
+      <c r="G45" s="315"/>
+      <c r="H45" s="181"/>
+      <c r="I45" s="308"/>
+      <c r="J45" s="284"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
@@ -14510,92 +14495,92 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="282" t="s">
+      <c r="H46" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="282" t="s">
+      <c r="I46" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="315"/>
+      <c r="J46" s="316"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="316"/>
-      <c r="D47" s="316"/>
+      <c r="C47" s="317"/>
+      <c r="D47" s="317"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="317"/>
-      <c r="G47" s="317"/>
-      <c r="H47" s="318"/>
-      <c r="I47" s="317"/>
+      <c r="F47" s="318"/>
+      <c r="G47" s="318"/>
+      <c r="H47" s="319"/>
+      <c r="I47" s="318"/>
       <c r="J47" s="149"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="319" t="s">
+      <c r="C48" s="320" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="319"/>
-      <c r="E48" s="319"/>
-      <c r="F48" s="319"/>
-      <c r="G48" s="319"/>
-      <c r="H48" s="319"/>
-      <c r="I48" s="319"/>
-      <c r="J48" s="319"/>
+      <c r="D48" s="320"/>
+      <c r="E48" s="320"/>
+      <c r="F48" s="320"/>
+      <c r="G48" s="320"/>
+      <c r="H48" s="320"/>
+      <c r="I48" s="320"/>
+      <c r="J48" s="320"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="319"/>
-      <c r="D49" s="319"/>
-      <c r="E49" s="319"/>
-      <c r="F49" s="319"/>
-      <c r="G49" s="319"/>
-      <c r="H49" s="319"/>
-      <c r="I49" s="319"/>
-      <c r="J49" s="319"/>
+      <c r="C49" s="320"/>
+      <c r="D49" s="320"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
+      <c r="G49" s="320"/>
+      <c r="H49" s="320"/>
+      <c r="I49" s="320"/>
+      <c r="J49" s="320"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="319"/>
-      <c r="D50" s="319"/>
-      <c r="E50" s="319"/>
-      <c r="F50" s="319"/>
-      <c r="G50" s="319"/>
-      <c r="H50" s="319"/>
-      <c r="I50" s="319"/>
-      <c r="J50" s="319"/>
+      <c r="C50" s="320"/>
+      <c r="D50" s="320"/>
+      <c r="E50" s="320"/>
+      <c r="F50" s="320"/>
+      <c r="G50" s="320"/>
+      <c r="H50" s="320"/>
+      <c r="I50" s="320"/>
+      <c r="J50" s="320"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="319"/>
-      <c r="D51" s="319"/>
-      <c r="E51" s="319"/>
-      <c r="F51" s="319"/>
-      <c r="G51" s="319"/>
-      <c r="H51" s="319"/>
-      <c r="I51" s="319"/>
-      <c r="J51" s="319"/>
+      <c r="C51" s="320"/>
+      <c r="D51" s="320"/>
+      <c r="E51" s="320"/>
+      <c r="F51" s="320"/>
+      <c r="G51" s="320"/>
+      <c r="H51" s="320"/>
+      <c r="I51" s="320"/>
+      <c r="J51" s="320"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="319"/>
-      <c r="D52" s="319"/>
-      <c r="E52" s="319"/>
-      <c r="F52" s="319"/>
-      <c r="G52" s="319"/>
-      <c r="H52" s="319"/>
-      <c r="I52" s="319"/>
-      <c r="J52" s="319"/>
+      <c r="C52" s="320"/>
+      <c r="D52" s="320"/>
+      <c r="E52" s="320"/>
+      <c r="F52" s="320"/>
+      <c r="G52" s="320"/>
+      <c r="H52" s="320"/>
+      <c r="I52" s="320"/>
+      <c r="J52" s="320"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="147"/>
-      <c r="C53" s="319"/>
-      <c r="D53" s="319"/>
-      <c r="E53" s="319"/>
-      <c r="F53" s="319"/>
-      <c r="G53" s="319"/>
-      <c r="H53" s="319"/>
-      <c r="I53" s="319"/>
-      <c r="J53" s="319"/>
+      <c r="C53" s="320"/>
+      <c r="D53" s="320"/>
+      <c r="E53" s="320"/>
+      <c r="F53" s="320"/>
+      <c r="G53" s="320"/>
+      <c r="H53" s="320"/>
+      <c r="I53" s="320"/>
+      <c r="J53" s="320"/>
       <c r="K53" s="125"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15083,7 +15068,7 @@
   </sheetPr>
   <dimension ref="B1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -15098,14 +15083,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="320" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="321" t="s">
+    <row r="2" s="321" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="322" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="321"/>
-      <c r="D2" s="321"/>
-      <c r="E2" s="321"/>
-      <c r="F2" s="321"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="322"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15138,119 +15123,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="322" t="s">
+      <c r="B3" s="323" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="322"/>
-      <c r="D3" s="322"/>
-      <c r="E3" s="322"/>
-      <c r="F3" s="322"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="323"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="323" t="s">
+      <c r="B4" s="324" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="95"/>
-      <c r="D4" s="324"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="325"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="325"/>
+      <c r="F4" s="326"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
+      <c r="B8" s="301"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="304"/>
-      <c r="C10" s="304"/>
-      <c r="D10" s="304"/>
-      <c r="E10" s="304"/>
-      <c r="F10" s="304"/>
+      <c r="B10" s="305"/>
+      <c r="C10" s="305"/>
+      <c r="D10" s="305"/>
+      <c r="E10" s="305"/>
+      <c r="F10" s="305"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="326" t="s">
+      <c r="B11" s="327" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="326"/>
-      <c r="D11" s="326"/>
-      <c r="E11" s="326"/>
-      <c r="F11" s="326"/>
+      <c r="C11" s="327"/>
+      <c r="D11" s="327"/>
+      <c r="E11" s="327"/>
+      <c r="F11" s="327"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="327" t="n">
+      <c r="B12" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="328"/>
-      <c r="D12" s="328"/>
-      <c r="E12" s="328"/>
-      <c r="F12" s="328"/>
+      <c r="C12" s="329"/>
+      <c r="D12" s="329"/>
+      <c r="E12" s="329"/>
+      <c r="F12" s="329"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="327" t="n">
+      <c r="B13" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="328"/>
-      <c r="D13" s="328"/>
-      <c r="E13" s="328"/>
-      <c r="F13" s="328"/>
+      <c r="C13" s="329"/>
+      <c r="D13" s="329"/>
+      <c r="E13" s="329"/>
+      <c r="F13" s="329"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="327" t="n">
+      <c r="B14" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="328"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="328"/>
-      <c r="F14" s="328"/>
+      <c r="C14" s="329"/>
+      <c r="D14" s="329"/>
+      <c r="E14" s="329"/>
+      <c r="F14" s="329"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="329"/>
-      <c r="C15" s="330" t="s">
+      <c r="B15" s="330"/>
+      <c r="C15" s="331" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="330" t="s">
+      <c r="D15" s="331" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="330" t="s">
+      <c r="E15" s="331" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="331" t="s">
+      <c r="F15" s="332" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="332"/>
+      <c r="B16" s="333"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15265,138 +15250,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="327" t="n">
+      <c r="B17" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="333"/>
-      <c r="D17" s="333"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="334"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="327" t="n">
+      <c r="B18" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="333"/>
-      <c r="D18" s="333"/>
-      <c r="E18" s="333"/>
-      <c r="F18" s="333"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="327" t="n">
+      <c r="B19" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="333"/>
-      <c r="D19" s="333"/>
-      <c r="E19" s="333"/>
-      <c r="F19" s="333"/>
+      <c r="C19" s="334"/>
+      <c r="D19" s="334"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="334"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="334" t="s">
+      <c r="B20" s="335" t="s">
         <v>199</v>
       </c>
       <c r="C20" s="95"/>
-      <c r="D20" s="324"/>
-      <c r="E20" s="324"/>
-      <c r="F20" s="335"/>
+      <c r="D20" s="325"/>
+      <c r="E20" s="325"/>
+      <c r="F20" s="336"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="300"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
-      <c r="F23" s="300"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="300"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="301"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="304" t="s">
+      <c r="B26" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
+      <c r="C26" s="305"/>
+      <c r="D26" s="305"/>
+      <c r="E26" s="305"/>
+      <c r="F26" s="305"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="326" t="s">
+      <c r="B27" s="327" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="326"/>
-      <c r="D27" s="326"/>
-      <c r="E27" s="326"/>
-      <c r="F27" s="326"/>
+      <c r="C27" s="327"/>
+      <c r="D27" s="327"/>
+      <c r="E27" s="327"/>
+      <c r="F27" s="327"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="327" t="n">
+      <c r="B28" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="328"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="328"/>
+      <c r="C28" s="329"/>
+      <c r="D28" s="329"/>
+      <c r="E28" s="329"/>
+      <c r="F28" s="329"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="327" t="n">
+      <c r="B29" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="328"/>
-      <c r="D29" s="328"/>
-      <c r="E29" s="328"/>
-      <c r="F29" s="328"/>
+      <c r="C29" s="329"/>
+      <c r="D29" s="329"/>
+      <c r="E29" s="329"/>
+      <c r="F29" s="329"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="327" t="n">
+      <c r="B30" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="328"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="328"/>
-      <c r="F30" s="328"/>
+      <c r="C30" s="329"/>
+      <c r="D30" s="329"/>
+      <c r="E30" s="329"/>
+      <c r="F30" s="329"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="336"/>
-      <c r="C31" s="330" t="s">
+      <c r="B31" s="337"/>
+      <c r="C31" s="331" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="330" t="s">
+      <c r="D31" s="331" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="330" t="s">
+      <c r="E31" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="331" t="s">
+      <c r="F31" s="332" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="336"/>
+      <c r="B32" s="337"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15411,136 +15396,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="327" t="n">
+      <c r="B33" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="333"/>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="334"/>
+      <c r="F33" s="334"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="327" t="n">
+      <c r="B34" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="334"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="327" t="n">
+      <c r="B35" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="333"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="334" t="s">
+      <c r="B36" s="335" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="337"/>
+      <c r="C36" s="338"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="335"/>
+      <c r="F36" s="336"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="300"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300"/>
+      <c r="B37" s="301"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="301"/>
+      <c r="F37" s="301"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="300"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
+      <c r="B38" s="301"/>
+      <c r="C38" s="301"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="300"/>
-      <c r="C39" s="300"/>
-      <c r="D39" s="300"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="300"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="300"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="300"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="301"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="300"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="300"/>
-      <c r="E41" s="300"/>
-      <c r="F41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="304"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="304"/>
-      <c r="E42" s="304"/>
-      <c r="F42" s="304"/>
+      <c r="B42" s="305"/>
+      <c r="C42" s="305"/>
+      <c r="D42" s="305"/>
+      <c r="E42" s="305"/>
+      <c r="F42" s="305"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="326" t="s">
+      <c r="B43" s="327" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="326"/>
-      <c r="D43" s="326"/>
-      <c r="E43" s="326"/>
-      <c r="F43" s="326"/>
+      <c r="C43" s="327"/>
+      <c r="D43" s="327"/>
+      <c r="E43" s="327"/>
+      <c r="F43" s="327"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="327" t="n">
+      <c r="B44" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="328"/>
-      <c r="D44" s="328"/>
-      <c r="E44" s="328"/>
-      <c r="F44" s="328"/>
+      <c r="C44" s="329"/>
+      <c r="D44" s="329"/>
+      <c r="E44" s="329"/>
+      <c r="F44" s="329"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="327" t="n">
+      <c r="B45" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="328"/>
-      <c r="D45" s="328"/>
-      <c r="E45" s="328"/>
-      <c r="F45" s="328"/>
+      <c r="C45" s="329"/>
+      <c r="D45" s="329"/>
+      <c r="E45" s="329"/>
+      <c r="F45" s="329"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="327" t="n">
+      <c r="B46" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="328"/>
-      <c r="D46" s="328"/>
-      <c r="E46" s="328"/>
-      <c r="F46" s="328"/>
+      <c r="C46" s="329"/>
+      <c r="D46" s="329"/>
+      <c r="E46" s="329"/>
+      <c r="F46" s="329"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="336"/>
-      <c r="C47" s="330" t="s">
+      <c r="B47" s="337"/>
+      <c r="C47" s="331" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="330" t="s">
+      <c r="D47" s="331" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="330" t="s">
+      <c r="E47" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="331" t="s">
+      <c r="F47" s="332" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="336"/>
+      <c r="B48" s="337"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15555,31 +15540,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="327" t="n">
+      <c r="B49" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="333"/>
-      <c r="D49" s="333"/>
-      <c r="E49" s="333"/>
-      <c r="F49" s="333"/>
+      <c r="C49" s="334"/>
+      <c r="D49" s="334"/>
+      <c r="E49" s="334"/>
+      <c r="F49" s="334"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="327" t="n">
+      <c r="B50" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="333"/>
-      <c r="D50" s="333"/>
-      <c r="E50" s="333"/>
-      <c r="F50" s="333"/>
+      <c r="C50" s="334"/>
+      <c r="D50" s="334"/>
+      <c r="E50" s="334"/>
+      <c r="F50" s="334"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="327" t="n">
+      <c r="B51" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="333"/>
-      <c r="D51" s="333"/>
-      <c r="E51" s="333"/>
-      <c r="F51" s="333"/>
+      <c r="C51" s="334"/>
+      <c r="D51" s="334"/>
+      <c r="E51" s="334"/>
+      <c r="F51" s="334"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15799,118 +15784,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="323" t="s">
+      <c r="B2" s="324" t="s">
         <v>204</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="325"/>
+      <c r="F2" s="326"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
+      <c r="B8" s="301"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="304"/>
-      <c r="C9" s="304"/>
-      <c r="D9" s="304"/>
-      <c r="E9" s="304"/>
-      <c r="F9" s="304"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="305"/>
+      <c r="D9" s="305"/>
+      <c r="E9" s="305"/>
+      <c r="F9" s="305"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="338" t="s">
+      <c r="B10" s="339" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="338"/>
-      <c r="D10" s="338"/>
-      <c r="E10" s="338"/>
-      <c r="F10" s="338"/>
+      <c r="C10" s="339"/>
+      <c r="D10" s="339"/>
+      <c r="E10" s="339"/>
+      <c r="F10" s="339"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="327" t="n">
+      <c r="B11" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="339"/>
-      <c r="D11" s="339"/>
-      <c r="E11" s="339"/>
-      <c r="F11" s="339"/>
+      <c r="C11" s="340"/>
+      <c r="D11" s="340"/>
+      <c r="E11" s="340"/>
+      <c r="F11" s="340"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="327" t="n">
+      <c r="B12" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="339"/>
-      <c r="D12" s="339"/>
-      <c r="E12" s="339"/>
-      <c r="F12" s="339"/>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="327" t="n">
+      <c r="B13" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="339"/>
-      <c r="D13" s="339"/>
-      <c r="E13" s="339"/>
-      <c r="F13" s="339"/>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="340"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="336"/>
-      <c r="C14" s="330" t="s">
+      <c r="B14" s="337"/>
+      <c r="C14" s="331" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="330" t="s">
+      <c r="D14" s="331" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="330" t="s">
+      <c r="E14" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="331" t="s">
+      <c r="F14" s="332" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="336"/>
+      <c r="B15" s="337"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15925,143 +15910,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="327" t="n">
+      <c r="B16" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="333"/>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="333"/>
+      <c r="C16" s="334"/>
+      <c r="D16" s="334"/>
+      <c r="E16" s="334"/>
+      <c r="F16" s="334"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="327" t="n">
+      <c r="B17" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="333"/>
-      <c r="D17" s="333"/>
-      <c r="E17" s="333"/>
-      <c r="F17" s="333"/>
+      <c r="C17" s="334"/>
+      <c r="D17" s="334"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="334"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="327" t="n">
+      <c r="B18" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="333"/>
-      <c r="D18" s="333"/>
-      <c r="E18" s="333"/>
-      <c r="F18" s="333"/>
+      <c r="C18" s="334"/>
+      <c r="D18" s="334"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="335" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="337"/>
+      <c r="C19" s="338"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="335"/>
+      <c r="F19" s="336"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="300"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
-      <c r="F23" s="300"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="300"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="301"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="300"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="300"/>
-      <c r="F26" s="300"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="338" t="s">
+      <c r="B27" s="339" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="338"/>
-      <c r="D27" s="338"/>
-      <c r="E27" s="338"/>
-      <c r="F27" s="338"/>
+      <c r="C27" s="339"/>
+      <c r="D27" s="339"/>
+      <c r="E27" s="339"/>
+      <c r="F27" s="339"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="327" t="n">
+      <c r="B28" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="339"/>
-      <c r="D28" s="339"/>
-      <c r="E28" s="339"/>
-      <c r="F28" s="339"/>
+      <c r="C28" s="340"/>
+      <c r="D28" s="340"/>
+      <c r="E28" s="340"/>
+      <c r="F28" s="340"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="327" t="n">
+      <c r="B29" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="339"/>
-      <c r="D29" s="339"/>
-      <c r="E29" s="339"/>
-      <c r="F29" s="339"/>
+      <c r="C29" s="340"/>
+      <c r="D29" s="340"/>
+      <c r="E29" s="340"/>
+      <c r="F29" s="340"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="327" t="n">
+      <c r="B30" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="339"/>
-      <c r="D30" s="339"/>
-      <c r="E30" s="339"/>
-      <c r="F30" s="339"/>
+      <c r="C30" s="340"/>
+      <c r="D30" s="340"/>
+      <c r="E30" s="340"/>
+      <c r="F30" s="340"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="336"/>
-      <c r="C31" s="330" t="s">
+      <c r="B31" s="337"/>
+      <c r="C31" s="331" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="330" t="s">
+      <c r="D31" s="331" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="330" t="s">
+      <c r="E31" s="331" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="331" t="s">
+      <c r="F31" s="332" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="336"/>
+      <c r="B32" s="337"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16076,198 +16061,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="327" t="n">
+      <c r="B33" s="328" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="333"/>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
+      <c r="C33" s="334"/>
+      <c r="D33" s="334"/>
+      <c r="E33" s="334"/>
+      <c r="F33" s="334"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="327" t="n">
+      <c r="B34" s="328" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="333"/>
-      <c r="D34" s="333"/>
-      <c r="E34" s="333"/>
-      <c r="F34" s="333"/>
+      <c r="C34" s="334"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="334"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="327" t="n">
+      <c r="B35" s="328" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="333"/>
-      <c r="D35" s="333"/>
-      <c r="E35" s="333"/>
-      <c r="F35" s="333"/>
+      <c r="C35" s="334"/>
+      <c r="D35" s="334"/>
+      <c r="E35" s="334"/>
+      <c r="F35" s="334"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="340" t="s">
+      <c r="B36" s="341" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="340"/>
-      <c r="D36" s="340"/>
-      <c r="E36" s="340"/>
-      <c r="F36" s="340"/>
+      <c r="C36" s="341"/>
+      <c r="D36" s="341"/>
+      <c r="E36" s="341"/>
+      <c r="F36" s="341"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="300"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300"/>
+      <c r="B37" s="301"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="301"/>
+      <c r="F37" s="301"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="300"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
+      <c r="B38" s="301"/>
+      <c r="C38" s="301"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="300"/>
-      <c r="C39" s="300"/>
-      <c r="D39" s="300"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="300"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="300"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="300"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="301"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="300"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="300"/>
-      <c r="E41" s="300"/>
-      <c r="F41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="300"/>
-      <c r="C42" s="300"/>
-      <c r="D42" s="300"/>
-      <c r="E42" s="300"/>
-      <c r="F42" s="300"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="341"/>
-      <c r="C43" s="341"/>
-      <c r="D43" s="341"/>
-      <c r="E43" s="341"/>
-      <c r="F43" s="341"/>
+      <c r="B43" s="342"/>
+      <c r="C43" s="342"/>
+      <c r="D43" s="342"/>
+      <c r="E43" s="342"/>
+      <c r="F43" s="342"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="300"/>
-      <c r="C44" s="300"/>
-      <c r="D44" s="300"/>
-      <c r="E44" s="300"/>
-      <c r="F44" s="300"/>
+      <c r="B44" s="301"/>
+      <c r="C44" s="301"/>
+      <c r="D44" s="301"/>
+      <c r="E44" s="301"/>
+      <c r="F44" s="301"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="300"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="300"/>
-      <c r="E45" s="300"/>
-      <c r="F45" s="300"/>
+      <c r="B45" s="301"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="301"/>
+      <c r="E45" s="301"/>
+      <c r="F45" s="301"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="300"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="300"/>
-      <c r="E46" s="300"/>
-      <c r="F46" s="300"/>
+      <c r="B46" s="301"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="301"/>
+      <c r="E46" s="301"/>
+      <c r="F46" s="301"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="300"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="300"/>
-      <c r="E47" s="300"/>
-      <c r="F47" s="300"/>
+      <c r="B47" s="301"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="301"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="300"/>
-      <c r="C48" s="300"/>
-      <c r="D48" s="300"/>
-      <c r="E48" s="300"/>
-      <c r="F48" s="300"/>
+      <c r="B48" s="301"/>
+      <c r="C48" s="301"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
+      <c r="F48" s="301"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="300"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="300"/>
-      <c r="E49" s="300"/>
-      <c r="F49" s="300"/>
+      <c r="B49" s="301"/>
+      <c r="C49" s="301"/>
+      <c r="D49" s="301"/>
+      <c r="E49" s="301"/>
+      <c r="F49" s="301"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="300"/>
-      <c r="C50" s="300"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="300"/>
-      <c r="F50" s="300"/>
+      <c r="B50" s="301"/>
+      <c r="C50" s="301"/>
+      <c r="D50" s="301"/>
+      <c r="E50" s="301"/>
+      <c r="F50" s="301"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="300"/>
-      <c r="C51" s="300"/>
-      <c r="D51" s="300"/>
-      <c r="E51" s="300"/>
-      <c r="F51" s="300"/>
+      <c r="B51" s="301"/>
+      <c r="C51" s="301"/>
+      <c r="D51" s="301"/>
+      <c r="E51" s="301"/>
+      <c r="F51" s="301"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="323" t="s">
+      <c r="B52" s="324" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="324"/>
-      <c r="E52" s="324"/>
-      <c r="F52" s="325"/>
+      <c r="D52" s="325"/>
+      <c r="E52" s="325"/>
+      <c r="F52" s="326"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="153"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="342"/>
+      <c r="F53" s="343"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="297" t="s">
+      <c r="B54" s="298" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="297"/>
-      <c r="D54" s="297"/>
-      <c r="E54" s="297"/>
-      <c r="F54" s="297"/>
+      <c r="C54" s="298"/>
+      <c r="D54" s="298"/>
+      <c r="E54" s="298"/>
+      <c r="F54" s="298"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="300"/>
-      <c r="C55" s="300"/>
-      <c r="D55" s="300"/>
-      <c r="E55" s="300"/>
-      <c r="F55" s="300"/>
+      <c r="B55" s="301"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="301"/>
+      <c r="E55" s="301"/>
+      <c r="F55" s="301"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="300"/>
-      <c r="C56" s="300"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="300"/>
-      <c r="F56" s="300"/>
+      <c r="B56" s="301"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
+      <c r="E56" s="301"/>
+      <c r="F56" s="301"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="300"/>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="300"/>
-      <c r="F57" s="300"/>
+      <c r="B57" s="301"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
+      <c r="E57" s="301"/>
+      <c r="F57" s="301"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="147"/>
       <c r="C58" s="148"/>
       <c r="D58" s="148"/>
       <c r="E58" s="148"/>
-      <c r="F58" s="343"/>
+      <c r="F58" s="344"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16420,7 +16405,7 @@
   </sheetPr>
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -16436,539 +16421,539 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="344" t="s">
+      <c r="B2" s="345" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="344"/>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
+      <c r="C2" s="345"/>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="300"/>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="301"/>
+      <c r="G3" s="301"/>
+      <c r="H3" s="301"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="300"/>
-      <c r="C4" s="300"/>
-      <c r="D4" s="300"/>
-      <c r="E4" s="300"/>
-      <c r="F4" s="300"/>
-      <c r="G4" s="300"/>
-      <c r="H4" s="300"/>
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="301"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="300"/>
-      <c r="C5" s="300"/>
-      <c r="D5" s="300"/>
-      <c r="E5" s="300"/>
-      <c r="F5" s="300"/>
-      <c r="G5" s="300"/>
-      <c r="H5" s="300"/>
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="301"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
+      <c r="D7" s="301"/>
+      <c r="E7" s="301"/>
+      <c r="F7" s="301"/>
+      <c r="G7" s="301"/>
+      <c r="H7" s="301"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="300"/>
-      <c r="C8" s="300"/>
-      <c r="D8" s="300"/>
-      <c r="E8" s="300"/>
-      <c r="F8" s="300"/>
-      <c r="G8" s="300"/>
-      <c r="H8" s="300"/>
+      <c r="B8" s="301"/>
+      <c r="C8" s="301"/>
+      <c r="D8" s="301"/>
+      <c r="E8" s="301"/>
+      <c r="F8" s="301"/>
+      <c r="G8" s="301"/>
+      <c r="H8" s="301"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="300"/>
-      <c r="E9" s="300"/>
-      <c r="F9" s="300"/>
-      <c r="G9" s="300"/>
-      <c r="H9" s="300"/>
+      <c r="B9" s="301"/>
+      <c r="C9" s="301"/>
+      <c r="D9" s="301"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="301"/>
+      <c r="G9" s="301"/>
+      <c r="H9" s="301"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="300"/>
-      <c r="C10" s="300"/>
-      <c r="D10" s="300"/>
-      <c r="E10" s="300"/>
-      <c r="F10" s="300"/>
-      <c r="G10" s="300"/>
-      <c r="H10" s="300"/>
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="300"/>
-      <c r="C11" s="300"/>
-      <c r="D11" s="300"/>
-      <c r="E11" s="300"/>
-      <c r="F11" s="300"/>
-      <c r="G11" s="300"/>
-      <c r="H11" s="300"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="301"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="300"/>
-      <c r="C12" s="300"/>
-      <c r="D12" s="300"/>
-      <c r="E12" s="300"/>
-      <c r="F12" s="300"/>
-      <c r="G12" s="300"/>
-      <c r="H12" s="300"/>
+      <c r="B12" s="301"/>
+      <c r="C12" s="301"/>
+      <c r="D12" s="301"/>
+      <c r="E12" s="301"/>
+      <c r="F12" s="301"/>
+      <c r="G12" s="301"/>
+      <c r="H12" s="301"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="300"/>
-      <c r="C13" s="300"/>
-      <c r="D13" s="300"/>
-      <c r="E13" s="300"/>
-      <c r="F13" s="300"/>
-      <c r="G13" s="300"/>
-      <c r="H13" s="300"/>
+      <c r="B13" s="301"/>
+      <c r="C13" s="301"/>
+      <c r="D13" s="301"/>
+      <c r="E13" s="301"/>
+      <c r="F13" s="301"/>
+      <c r="G13" s="301"/>
+      <c r="H13" s="301"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="300"/>
-      <c r="C14" s="300"/>
-      <c r="D14" s="300"/>
-      <c r="E14" s="300"/>
-      <c r="F14" s="300"/>
-      <c r="G14" s="300"/>
-      <c r="H14" s="300"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="301"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="300"/>
-      <c r="C15" s="300"/>
-      <c r="D15" s="300"/>
-      <c r="E15" s="300"/>
-      <c r="F15" s="300"/>
-      <c r="G15" s="300"/>
-      <c r="H15" s="300"/>
+      <c r="B15" s="301"/>
+      <c r="C15" s="301"/>
+      <c r="D15" s="301"/>
+      <c r="E15" s="301"/>
+      <c r="F15" s="301"/>
+      <c r="G15" s="301"/>
+      <c r="H15" s="301"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="300"/>
-      <c r="C16" s="300"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="300"/>
-      <c r="F16" s="300"/>
-      <c r="G16" s="300"/>
-      <c r="H16" s="300"/>
+      <c r="B16" s="301"/>
+      <c r="C16" s="301"/>
+      <c r="D16" s="301"/>
+      <c r="E16" s="301"/>
+      <c r="F16" s="301"/>
+      <c r="G16" s="301"/>
+      <c r="H16" s="301"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="300"/>
-      <c r="C17" s="300"/>
-      <c r="D17" s="300"/>
-      <c r="E17" s="300"/>
-      <c r="F17" s="300"/>
-      <c r="G17" s="300"/>
-      <c r="H17" s="300"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="301"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="301"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="301"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="300"/>
-      <c r="C18" s="300"/>
-      <c r="D18" s="300"/>
-      <c r="E18" s="300"/>
-      <c r="F18" s="300"/>
-      <c r="G18" s="300"/>
-      <c r="H18" s="300"/>
+      <c r="B18" s="301"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="301"/>
+      <c r="E18" s="301"/>
+      <c r="F18" s="301"/>
+      <c r="G18" s="301"/>
+      <c r="H18" s="301"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="300"/>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
+      <c r="B19" s="301"/>
+      <c r="C19" s="301"/>
+      <c r="D19" s="301"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="301"/>
+      <c r="G19" s="301"/>
+      <c r="H19" s="301"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="300"/>
-      <c r="C20" s="300"/>
-      <c r="D20" s="300"/>
-      <c r="E20" s="300"/>
-      <c r="F20" s="300"/>
-      <c r="G20" s="300"/>
-      <c r="H20" s="300"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="301"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
-      <c r="D21" s="300"/>
-      <c r="E21" s="300"/>
-      <c r="F21" s="300"/>
-      <c r="G21" s="300"/>
-      <c r="H21" s="300"/>
+      <c r="B21" s="301"/>
+      <c r="C21" s="301"/>
+      <c r="D21" s="301"/>
+      <c r="E21" s="301"/>
+      <c r="F21" s="301"/>
+      <c r="G21" s="301"/>
+      <c r="H21" s="301"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="300"/>
-      <c r="C22" s="300"/>
-      <c r="D22" s="300"/>
-      <c r="E22" s="300"/>
-      <c r="F22" s="300"/>
-      <c r="G22" s="300"/>
-      <c r="H22" s="300"/>
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="301"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="300"/>
-      <c r="C23" s="300"/>
-      <c r="D23" s="300"/>
-      <c r="E23" s="300"/>
-      <c r="F23" s="300"/>
-      <c r="G23" s="300"/>
-      <c r="H23" s="300"/>
+      <c r="B23" s="301"/>
+      <c r="C23" s="301"/>
+      <c r="D23" s="301"/>
+      <c r="E23" s="301"/>
+      <c r="F23" s="301"/>
+      <c r="G23" s="301"/>
+      <c r="H23" s="301"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="300"/>
-      <c r="C24" s="300"/>
-      <c r="D24" s="300"/>
-      <c r="E24" s="300"/>
-      <c r="F24" s="300"/>
-      <c r="G24" s="300"/>
-      <c r="H24" s="300"/>
+      <c r="B24" s="301"/>
+      <c r="C24" s="301"/>
+      <c r="D24" s="301"/>
+      <c r="E24" s="301"/>
+      <c r="F24" s="301"/>
+      <c r="G24" s="301"/>
+      <c r="H24" s="301"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="300"/>
-      <c r="C25" s="300"/>
-      <c r="D25" s="300"/>
-      <c r="E25" s="300"/>
-      <c r="F25" s="300"/>
-      <c r="G25" s="300"/>
-      <c r="H25" s="300"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="301"/>
+      <c r="D25" s="301"/>
+      <c r="E25" s="301"/>
+      <c r="F25" s="301"/>
+      <c r="G25" s="301"/>
+      <c r="H25" s="301"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="300"/>
-      <c r="C26" s="300"/>
-      <c r="D26" s="300"/>
-      <c r="E26" s="300"/>
-      <c r="F26" s="300"/>
-      <c r="G26" s="300"/>
-      <c r="H26" s="300"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="301"/>
+      <c r="D26" s="301"/>
+      <c r="E26" s="301"/>
+      <c r="F26" s="301"/>
+      <c r="G26" s="301"/>
+      <c r="H26" s="301"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="300"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
-      <c r="E27" s="300"/>
-      <c r="F27" s="300"/>
-      <c r="G27" s="300"/>
-      <c r="H27" s="300"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="301"/>
+      <c r="D27" s="301"/>
+      <c r="E27" s="301"/>
+      <c r="F27" s="301"/>
+      <c r="G27" s="301"/>
+      <c r="H27" s="301"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="300"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
-      <c r="E28" s="300"/>
-      <c r="F28" s="300"/>
-      <c r="G28" s="300"/>
-      <c r="H28" s="300"/>
+      <c r="B28" s="301"/>
+      <c r="C28" s="301"/>
+      <c r="D28" s="301"/>
+      <c r="E28" s="301"/>
+      <c r="F28" s="301"/>
+      <c r="G28" s="301"/>
+      <c r="H28" s="301"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="300"/>
-      <c r="C29" s="300"/>
-      <c r="D29" s="300"/>
-      <c r="E29" s="300"/>
-      <c r="F29" s="300"/>
-      <c r="G29" s="300"/>
-      <c r="H29" s="300"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="301"/>
+      <c r="D29" s="301"/>
+      <c r="E29" s="301"/>
+      <c r="F29" s="301"/>
+      <c r="G29" s="301"/>
+      <c r="H29" s="301"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="300"/>
-      <c r="C30" s="300"/>
-      <c r="D30" s="300"/>
-      <c r="E30" s="300"/>
-      <c r="F30" s="300"/>
-      <c r="G30" s="300"/>
-      <c r="H30" s="300"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="301"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="300"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="300"/>
-      <c r="E31" s="300"/>
-      <c r="F31" s="300"/>
-      <c r="G31" s="300"/>
-      <c r="H31" s="300"/>
+      <c r="B31" s="301"/>
+      <c r="C31" s="301"/>
+      <c r="D31" s="301"/>
+      <c r="E31" s="301"/>
+      <c r="F31" s="301"/>
+      <c r="G31" s="301"/>
+      <c r="H31" s="301"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="300"/>
-      <c r="C32" s="300"/>
-      <c r="D32" s="300"/>
-      <c r="E32" s="300"/>
-      <c r="F32" s="300"/>
-      <c r="G32" s="300"/>
-      <c r="H32" s="300"/>
+      <c r="B32" s="301"/>
+      <c r="C32" s="301"/>
+      <c r="D32" s="301"/>
+      <c r="E32" s="301"/>
+      <c r="F32" s="301"/>
+      <c r="G32" s="301"/>
+      <c r="H32" s="301"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="300"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="300"/>
-      <c r="E33" s="300"/>
-      <c r="F33" s="300"/>
-      <c r="G33" s="300"/>
-      <c r="H33" s="300"/>
+      <c r="B33" s="301"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="301"/>
+      <c r="H33" s="301"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="300"/>
-      <c r="C34" s="300"/>
-      <c r="D34" s="300"/>
-      <c r="E34" s="300"/>
-      <c r="F34" s="300"/>
-      <c r="G34" s="300"/>
-      <c r="H34" s="300"/>
+      <c r="B34" s="301"/>
+      <c r="C34" s="301"/>
+      <c r="D34" s="301"/>
+      <c r="E34" s="301"/>
+      <c r="F34" s="301"/>
+      <c r="G34" s="301"/>
+      <c r="H34" s="301"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="300"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="300"/>
-      <c r="E35" s="300"/>
-      <c r="F35" s="300"/>
-      <c r="G35" s="300"/>
-      <c r="H35" s="300"/>
+      <c r="B35" s="301"/>
+      <c r="C35" s="301"/>
+      <c r="D35" s="301"/>
+      <c r="E35" s="301"/>
+      <c r="F35" s="301"/>
+      <c r="G35" s="301"/>
+      <c r="H35" s="301"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="300"/>
-      <c r="C36" s="300"/>
-      <c r="D36" s="300"/>
-      <c r="E36" s="300"/>
-      <c r="F36" s="300"/>
-      <c r="G36" s="300"/>
-      <c r="H36" s="300"/>
+      <c r="B36" s="301"/>
+      <c r="C36" s="301"/>
+      <c r="D36" s="301"/>
+      <c r="E36" s="301"/>
+      <c r="F36" s="301"/>
+      <c r="G36" s="301"/>
+      <c r="H36" s="301"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="300"/>
-      <c r="C37" s="300"/>
-      <c r="D37" s="300"/>
-      <c r="E37" s="300"/>
-      <c r="F37" s="300"/>
-      <c r="G37" s="300"/>
-      <c r="H37" s="300"/>
+      <c r="B37" s="301"/>
+      <c r="C37" s="301"/>
+      <c r="D37" s="301"/>
+      <c r="E37" s="301"/>
+      <c r="F37" s="301"/>
+      <c r="G37" s="301"/>
+      <c r="H37" s="301"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="300"/>
-      <c r="C38" s="300"/>
-      <c r="D38" s="300"/>
-      <c r="E38" s="300"/>
-      <c r="F38" s="300"/>
-      <c r="G38" s="300"/>
-      <c r="H38" s="300"/>
+      <c r="B38" s="301"/>
+      <c r="C38" s="301"/>
+      <c r="D38" s="301"/>
+      <c r="E38" s="301"/>
+      <c r="F38" s="301"/>
+      <c r="G38" s="301"/>
+      <c r="H38" s="301"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="300"/>
-      <c r="C39" s="300"/>
-      <c r="D39" s="300"/>
-      <c r="E39" s="300"/>
-      <c r="F39" s="300"/>
-      <c r="G39" s="300"/>
-      <c r="H39" s="300"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
+      <c r="H39" s="301"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="300"/>
-      <c r="C40" s="300"/>
-      <c r="D40" s="300"/>
-      <c r="E40" s="300"/>
-      <c r="F40" s="300"/>
-      <c r="G40" s="300"/>
-      <c r="H40" s="300"/>
+      <c r="B40" s="301"/>
+      <c r="C40" s="301"/>
+      <c r="D40" s="301"/>
+      <c r="E40" s="301"/>
+      <c r="F40" s="301"/>
+      <c r="G40" s="301"/>
+      <c r="H40" s="301"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="300"/>
-      <c r="C41" s="300"/>
-      <c r="D41" s="300"/>
-      <c r="E41" s="300"/>
-      <c r="F41" s="300"/>
-      <c r="G41" s="300"/>
-      <c r="H41" s="300"/>
+      <c r="B41" s="301"/>
+      <c r="C41" s="301"/>
+      <c r="D41" s="301"/>
+      <c r="E41" s="301"/>
+      <c r="F41" s="301"/>
+      <c r="G41" s="301"/>
+      <c r="H41" s="301"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="300"/>
-      <c r="C42" s="300"/>
-      <c r="D42" s="300"/>
-      <c r="E42" s="300"/>
-      <c r="F42" s="300"/>
-      <c r="G42" s="300"/>
-      <c r="H42" s="300"/>
+      <c r="B42" s="301"/>
+      <c r="C42" s="301"/>
+      <c r="D42" s="301"/>
+      <c r="E42" s="301"/>
+      <c r="F42" s="301"/>
+      <c r="G42" s="301"/>
+      <c r="H42" s="301"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="300"/>
-      <c r="C43" s="300"/>
-      <c r="D43" s="300"/>
-      <c r="E43" s="300"/>
-      <c r="F43" s="300"/>
-      <c r="G43" s="300"/>
-      <c r="H43" s="300"/>
+      <c r="B43" s="301"/>
+      <c r="C43" s="301"/>
+      <c r="D43" s="301"/>
+      <c r="E43" s="301"/>
+      <c r="F43" s="301"/>
+      <c r="G43" s="301"/>
+      <c r="H43" s="301"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="300"/>
-      <c r="C44" s="300"/>
-      <c r="D44" s="300"/>
-      <c r="E44" s="300"/>
-      <c r="F44" s="300"/>
-      <c r="G44" s="300"/>
-      <c r="H44" s="300"/>
+      <c r="B44" s="301"/>
+      <c r="C44" s="301"/>
+      <c r="D44" s="301"/>
+      <c r="E44" s="301"/>
+      <c r="F44" s="301"/>
+      <c r="G44" s="301"/>
+      <c r="H44" s="301"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="300"/>
-      <c r="C45" s="300"/>
-      <c r="D45" s="300"/>
-      <c r="E45" s="300"/>
-      <c r="F45" s="300"/>
-      <c r="G45" s="300"/>
-      <c r="H45" s="300"/>
+      <c r="B45" s="301"/>
+      <c r="C45" s="301"/>
+      <c r="D45" s="301"/>
+      <c r="E45" s="301"/>
+      <c r="F45" s="301"/>
+      <c r="G45" s="301"/>
+      <c r="H45" s="301"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="300"/>
-      <c r="C46" s="300"/>
-      <c r="D46" s="300"/>
-      <c r="E46" s="300"/>
-      <c r="F46" s="300"/>
-      <c r="G46" s="300"/>
-      <c r="H46" s="300"/>
+      <c r="B46" s="301"/>
+      <c r="C46" s="301"/>
+      <c r="D46" s="301"/>
+      <c r="E46" s="301"/>
+      <c r="F46" s="301"/>
+      <c r="G46" s="301"/>
+      <c r="H46" s="301"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="300"/>
-      <c r="C47" s="300"/>
-      <c r="D47" s="300"/>
-      <c r="E47" s="300"/>
-      <c r="F47" s="300"/>
-      <c r="G47" s="300"/>
-      <c r="H47" s="300"/>
+      <c r="B47" s="301"/>
+      <c r="C47" s="301"/>
+      <c r="D47" s="301"/>
+      <c r="E47" s="301"/>
+      <c r="F47" s="301"/>
+      <c r="G47" s="301"/>
+      <c r="H47" s="301"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="300"/>
-      <c r="C48" s="300"/>
-      <c r="D48" s="300"/>
-      <c r="E48" s="300"/>
-      <c r="F48" s="300"/>
-      <c r="G48" s="300"/>
-      <c r="H48" s="300"/>
+      <c r="B48" s="301"/>
+      <c r="C48" s="301"/>
+      <c r="D48" s="301"/>
+      <c r="E48" s="301"/>
+      <c r="F48" s="301"/>
+      <c r="G48" s="301"/>
+      <c r="H48" s="301"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="300"/>
-      <c r="C49" s="300"/>
-      <c r="D49" s="300"/>
-      <c r="E49" s="300"/>
-      <c r="F49" s="300"/>
-      <c r="G49" s="300"/>
-      <c r="H49" s="300"/>
+      <c r="B49" s="301"/>
+      <c r="C49" s="301"/>
+      <c r="D49" s="301"/>
+      <c r="E49" s="301"/>
+      <c r="F49" s="301"/>
+      <c r="G49" s="301"/>
+      <c r="H49" s="301"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="300"/>
-      <c r="C50" s="300"/>
-      <c r="D50" s="300"/>
-      <c r="E50" s="300"/>
-      <c r="F50" s="300"/>
-      <c r="G50" s="300"/>
-      <c r="H50" s="300"/>
+      <c r="B50" s="301"/>
+      <c r="C50" s="301"/>
+      <c r="D50" s="301"/>
+      <c r="E50" s="301"/>
+      <c r="F50" s="301"/>
+      <c r="G50" s="301"/>
+      <c r="H50" s="301"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="300"/>
-      <c r="C51" s="300"/>
-      <c r="D51" s="300"/>
-      <c r="E51" s="300"/>
-      <c r="F51" s="300"/>
-      <c r="G51" s="300"/>
-      <c r="H51" s="300"/>
+      <c r="B51" s="301"/>
+      <c r="C51" s="301"/>
+      <c r="D51" s="301"/>
+      <c r="E51" s="301"/>
+      <c r="F51" s="301"/>
+      <c r="G51" s="301"/>
+      <c r="H51" s="301"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="300"/>
-      <c r="C52" s="300"/>
-      <c r="D52" s="300"/>
-      <c r="E52" s="300"/>
-      <c r="F52" s="300"/>
-      <c r="G52" s="300"/>
-      <c r="H52" s="300"/>
+      <c r="B52" s="301"/>
+      <c r="C52" s="301"/>
+      <c r="D52" s="301"/>
+      <c r="E52" s="301"/>
+      <c r="F52" s="301"/>
+      <c r="G52" s="301"/>
+      <c r="H52" s="301"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="300"/>
-      <c r="C53" s="300"/>
-      <c r="D53" s="300"/>
-      <c r="E53" s="300"/>
-      <c r="F53" s="300"/>
-      <c r="G53" s="300"/>
-      <c r="H53" s="300"/>
+      <c r="B53" s="301"/>
+      <c r="C53" s="301"/>
+      <c r="D53" s="301"/>
+      <c r="E53" s="301"/>
+      <c r="F53" s="301"/>
+      <c r="G53" s="301"/>
+      <c r="H53" s="301"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="300"/>
-      <c r="C54" s="300"/>
-      <c r="D54" s="300"/>
-      <c r="E54" s="300"/>
-      <c r="F54" s="300"/>
-      <c r="G54" s="300"/>
-      <c r="H54" s="300"/>
+      <c r="B54" s="301"/>
+      <c r="C54" s="301"/>
+      <c r="D54" s="301"/>
+      <c r="E54" s="301"/>
+      <c r="F54" s="301"/>
+      <c r="G54" s="301"/>
+      <c r="H54" s="301"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="300"/>
-      <c r="C55" s="300"/>
-      <c r="D55" s="300"/>
-      <c r="E55" s="300"/>
-      <c r="F55" s="300"/>
-      <c r="G55" s="300"/>
-      <c r="H55" s="300"/>
+      <c r="B55" s="301"/>
+      <c r="C55" s="301"/>
+      <c r="D55" s="301"/>
+      <c r="E55" s="301"/>
+      <c r="F55" s="301"/>
+      <c r="G55" s="301"/>
+      <c r="H55" s="301"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="300"/>
-      <c r="C56" s="300"/>
-      <c r="D56" s="300"/>
-      <c r="E56" s="300"/>
-      <c r="F56" s="300"/>
-      <c r="G56" s="300"/>
-      <c r="H56" s="300"/>
+      <c r="B56" s="301"/>
+      <c r="C56" s="301"/>
+      <c r="D56" s="301"/>
+      <c r="E56" s="301"/>
+      <c r="F56" s="301"/>
+      <c r="G56" s="301"/>
+      <c r="H56" s="301"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="300"/>
-      <c r="C57" s="300"/>
-      <c r="D57" s="300"/>
-      <c r="E57" s="300"/>
-      <c r="F57" s="300"/>
-      <c r="G57" s="300"/>
-      <c r="H57" s="300"/>
+      <c r="B57" s="301"/>
+      <c r="C57" s="301"/>
+      <c r="D57" s="301"/>
+      <c r="E57" s="301"/>
+      <c r="F57" s="301"/>
+      <c r="G57" s="301"/>
+      <c r="H57" s="301"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="300"/>
-      <c r="C58" s="300"/>
-      <c r="D58" s="300"/>
-      <c r="E58" s="300"/>
-      <c r="F58" s="300"/>
-      <c r="G58" s="300"/>
-      <c r="H58" s="300"/>
+      <c r="B58" s="301"/>
+      <c r="C58" s="301"/>
+      <c r="D58" s="301"/>
+      <c r="E58" s="301"/>
+      <c r="F58" s="301"/>
+      <c r="G58" s="301"/>
+      <c r="H58" s="301"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="300"/>
-      <c r="C59" s="300"/>
-      <c r="D59" s="300"/>
-      <c r="E59" s="300"/>
-      <c r="F59" s="300"/>
-      <c r="G59" s="300"/>
-      <c r="H59" s="300"/>
+      <c r="B59" s="301"/>
+      <c r="C59" s="301"/>
+      <c r="D59" s="301"/>
+      <c r="E59" s="301"/>
+      <c r="F59" s="301"/>
+      <c r="G59" s="301"/>
+      <c r="H59" s="301"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="300"/>
-      <c r="C60" s="300"/>
-      <c r="D60" s="300"/>
-      <c r="E60" s="300"/>
-      <c r="F60" s="300"/>
-      <c r="G60" s="300"/>
-      <c r="H60" s="300"/>
+      <c r="B60" s="301"/>
+      <c r="C60" s="301"/>
+      <c r="D60" s="301"/>
+      <c r="E60" s="301"/>
+      <c r="F60" s="301"/>
+      <c r="G60" s="301"/>
+      <c r="H60" s="301"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="147"/>
@@ -16977,7 +16962,7 @@
       <c r="E61" s="148"/>
       <c r="F61" s="148"/>
       <c r="G61" s="148"/>
-      <c r="H61" s="343"/>
+      <c r="H61" s="344"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -1590,7 +1590,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
+  <numFmts count="10">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
@@ -1599,7 +1599,8 @@
     <numFmt numFmtId="169" formatCode="[$-40B]0.00"/>
     <numFmt numFmtId="170" formatCode="0"/>
     <numFmt numFmtId="171" formatCode="[$-409]@"/>
-    <numFmt numFmtId="172" formatCode="@"/>
+    <numFmt numFmtId="172" formatCode="[$-40B]0.0"/>
+    <numFmt numFmtId="173" formatCode="@"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -2187,7 +2188,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="348">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2916,78 +2917,86 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="13" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -2996,7 +3005,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -11025,7 +11034,7 @@
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11187,7 +11196,7 @@
       <c r="D10" s="180"/>
       <c r="E10" s="181"/>
       <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
+      <c r="G10" s="183"/>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
       <c r="J10" s="87"/>
@@ -11204,7 +11213,7 @@
       <c r="D11" s="180"/>
       <c r="E11" s="181"/>
       <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
+      <c r="G11" s="183"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
@@ -11221,7 +11230,7 @@
       <c r="D12" s="180"/>
       <c r="E12" s="181"/>
       <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
+      <c r="G12" s="183"/>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
       <c r="J12" s="87"/>
@@ -11238,7 +11247,7 @@
       <c r="D13" s="180"/>
       <c r="E13" s="181"/>
       <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
+      <c r="G13" s="183"/>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
@@ -11255,7 +11264,7 @@
       <c r="D14" s="180"/>
       <c r="E14" s="181"/>
       <c r="F14" s="182"/>
-      <c r="G14" s="182"/>
+      <c r="G14" s="183"/>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
@@ -11269,14 +11278,14 @@
       <c r="C15" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="183" t="s">
+      <c r="D15" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="184" t="s">
+      <c r="E15" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="181"/>
-      <c r="G15" s="181"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="183"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
@@ -11298,16 +11307,16 @@
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="161"/>
       <c r="C17" s="176"/>
-      <c r="D17" s="185" t="s">
+      <c r="D17" s="186" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="185" t="s">
+      <c r="E17" s="186" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="186" t="s">
+      <c r="F17" s="187" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="187"/>
+      <c r="G17" s="188"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="161"/>
@@ -11318,10 +11327,10 @@
       <c r="E18" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="188" t="s">
+      <c r="F18" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="187"/>
+      <c r="G18" s="188"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="161"/>
@@ -11331,7 +11340,7 @@
       <c r="D19" s="181"/>
       <c r="E19" s="181"/>
       <c r="F19" s="165"/>
-      <c r="G19" s="187"/>
+      <c r="G19" s="188"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="161"/>
@@ -11341,7 +11350,7 @@
       <c r="D20" s="181"/>
       <c r="E20" s="181"/>
       <c r="F20" s="165"/>
-      <c r="G20" s="187"/>
+      <c r="G20" s="188"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="161"/>
@@ -11351,7 +11360,7 @@
       <c r="D21" s="181"/>
       <c r="E21" s="181"/>
       <c r="F21" s="165"/>
-      <c r="G21" s="187"/>
+      <c r="G21" s="188"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="161"/>
@@ -11361,7 +11370,7 @@
       <c r="D22" s="181"/>
       <c r="E22" s="181"/>
       <c r="F22" s="165"/>
-      <c r="G22" s="187"/>
+      <c r="G22" s="188"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="161"/>
@@ -11371,7 +11380,7 @@
       <c r="D23" s="181"/>
       <c r="E23" s="181"/>
       <c r="F23" s="165"/>
-      <c r="G23" s="187"/>
+      <c r="G23" s="188"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="161"/>
@@ -11381,7 +11390,7 @@
       <c r="D24" s="181"/>
       <c r="E24" s="181"/>
       <c r="F24" s="165"/>
-      <c r="G24" s="187"/>
+      <c r="G24" s="188"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="161"/>
@@ -11391,7 +11400,7 @@
       <c r="D25" s="181"/>
       <c r="E25" s="181"/>
       <c r="F25" s="165"/>
-      <c r="G25" s="187"/>
+      <c r="G25" s="188"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="161"/>
@@ -11401,7 +11410,7 @@
       <c r="D26" s="181"/>
       <c r="E26" s="181"/>
       <c r="F26" s="165"/>
-      <c r="G26" s="187"/>
+      <c r="G26" s="188"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="158"/>
@@ -11418,23 +11427,23 @@
       <c r="C28" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="189"/>
-      <c r="E28" s="189"/>
-      <c r="F28" s="189"/>
-      <c r="G28" s="189"/>
+      <c r="D28" s="190"/>
+      <c r="E28" s="190"/>
+      <c r="F28" s="190"/>
+      <c r="G28" s="190"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="190"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="175"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="191"/>
-      <c r="F29" s="191"/>
-      <c r="G29" s="192"/>
+      <c r="D29" s="192"/>
+      <c r="E29" s="192"/>
+      <c r="F29" s="192"/>
+      <c r="G29" s="193"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="161"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="194" t="s">
+      <c r="C30" s="194"/>
+      <c r="D30" s="195" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="177" t="s">
@@ -11449,22 +11458,22 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="161"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="195" t="s">
+      <c r="C31" s="194"/>
+      <c r="D31" s="196" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="185" t="s">
+      <c r="E31" s="186" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="185" t="s">
+      <c r="F31" s="186" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="185"/>
+      <c r="G31" s="186"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="161"/>
-      <c r="C32" s="193"/>
-      <c r="D32" s="196" t="s">
+      <c r="C32" s="194"/>
+      <c r="D32" s="197" t="s">
         <v>88</v>
       </c>
       <c r="E32" s="179" t="s">
@@ -11473,7 +11482,7 @@
       <c r="F32" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="197" t="s">
+      <c r="G32" s="198" t="s">
         <v>90</v>
       </c>
     </row>
@@ -11482,9 +11491,9 @@
       <c r="C33" s="166" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="198"/>
+      <c r="D33" s="199"/>
       <c r="E33" s="181"/>
-      <c r="F33" s="199"/>
+      <c r="F33" s="200"/>
       <c r="G33" s="181"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,38 +11501,38 @@
       <c r="C34" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="198"/>
+      <c r="D34" s="199"/>
       <c r="E34" s="181"/>
-      <c r="F34" s="182" t="s">
+      <c r="F34" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="200" t="s">
+      <c r="G34" s="202" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="190"/>
-      <c r="C35" s="201" t="s">
+      <c r="B35" s="191"/>
+      <c r="C35" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="202"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="204" t="s">
+      <c r="D35" s="204"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="206" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="205" t="s">
+      <c r="G35" s="207" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="161"/>
-      <c r="C36" s="206" t="s">
+      <c r="C36" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="206"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
+      <c r="D36" s="208"/>
+      <c r="E36" s="209"/>
+      <c r="F36" s="209"/>
+      <c r="G36" s="209"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="158"/>
@@ -11540,26 +11549,26 @@
       <c r="C38" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="208"/>
-      <c r="E38" s="208"/>
-      <c r="F38" s="208"/>
-      <c r="G38" s="208"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="161"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="209"/>
-      <c r="E39" s="209"/>
-      <c r="F39" s="209"/>
-      <c r="G39" s="209"/>
+      <c r="C39" s="192"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="210"/>
-      <c r="C40" s="211"/>
+      <c r="B40" s="212"/>
+      <c r="C40" s="213"/>
       <c r="D40" s="177" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="212" t="s">
+      <c r="E40" s="214" t="s">
         <v>97</v>
       </c>
       <c r="F40" s="177" t="s">
@@ -11572,27 +11581,27 @@
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="161"/>
       <c r="C41" s="176"/>
-      <c r="D41" s="185" t="s">
+      <c r="D41" s="186" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="213" t="s">
+      <c r="E41" s="215" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="185"/>
-      <c r="G41" s="185" t="s">
+      <c r="F41" s="186"/>
+      <c r="G41" s="186" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="161"/>
       <c r="C42" s="176"/>
-      <c r="D42" s="214" t="s">
+      <c r="D42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="214" t="s">
+      <c r="E42" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="214" t="s">
+      <c r="F42" s="216" t="s">
         <v>32</v>
       </c>
       <c r="G42" s="179" t="s">
@@ -11604,8 +11613,8 @@
       <c r="C43" s="162" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="199"/>
-      <c r="E43" s="199"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="200"/>
       <c r="F43" s="181"/>
       <c r="G43" s="181"/>
     </row>
@@ -11614,24 +11623,24 @@
       <c r="C44" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="199"/>
-      <c r="E44" s="199"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
       <c r="F44" s="181"/>
       <c r="G44" s="181"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="161"/>
-      <c r="C45" s="215" t="s">
+      <c r="C45" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="216"/>
-      <c r="E45" s="216"/>
-      <c r="F45" s="216"/>
-      <c r="G45" s="216"/>
+      <c r="D45" s="218"/>
+      <c r="E45" s="218"/>
+      <c r="F45" s="218"/>
+      <c r="G45" s="218"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="161"/>
-      <c r="C46" s="215" t="s">
+      <c r="C46" s="217" t="s">
         <v>105</v>
       </c>
       <c r="D46" s="162"/>
@@ -11641,11 +11650,11 @@
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="161"/>
-      <c r="C47" s="217"/>
-      <c r="D47" s="217"/>
-      <c r="E47" s="217"/>
-      <c r="F47" s="217"/>
-      <c r="G47" s="218"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="219"/>
+      <c r="F47" s="219"/>
+      <c r="G47" s="220"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="161"/>
@@ -11656,8 +11665,8 @@
       <c r="E48" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="219"/>
-      <c r="G48" s="192"/>
+      <c r="F48" s="221"/>
+      <c r="G48" s="193"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="161"/>
@@ -11668,8 +11677,8 @@
       <c r="E49" s="179" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="219"/>
-      <c r="G49" s="192"/>
+      <c r="F49" s="221"/>
+      <c r="G49" s="193"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="161"/>
@@ -11678,8 +11687,8 @@
       </c>
       <c r="D50" s="181"/>
       <c r="E50" s="181"/>
-      <c r="F50" s="219"/>
-      <c r="G50" s="192"/>
+      <c r="F50" s="221"/>
+      <c r="G50" s="193"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="161"/>
@@ -11688,8 +11697,8 @@
       </c>
       <c r="D51" s="181"/>
       <c r="E51" s="181"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="192"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="193"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="158"/>
@@ -11704,22 +11713,22 @@
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="161"/>
       <c r="C53" s="176"/>
-      <c r="D53" s="220" t="s">
+      <c r="D53" s="222" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="195"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="192"/>
+      <c r="E53" s="196"/>
+      <c r="F53" s="196"/>
+      <c r="G53" s="193"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="161"/>
       <c r="C54" s="176"/>
-      <c r="D54" s="221" t="s">
+      <c r="D54" s="223" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="221"/>
-      <c r="F54" s="195"/>
-      <c r="G54" s="192"/>
+      <c r="E54" s="223"/>
+      <c r="F54" s="196"/>
+      <c r="G54" s="193"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="161"/>
@@ -11727,9 +11736,9 @@
         <v>112</v>
       </c>
       <c r="D55" s="165"/>
-      <c r="E55" s="222"/>
-      <c r="F55" s="195"/>
-      <c r="G55" s="192"/>
+      <c r="E55" s="224"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="193"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="158"/>
@@ -11743,39 +11752,39 @@
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="161"/>
-      <c r="C57" s="191"/>
-      <c r="D57" s="223" t="s">
+      <c r="C57" s="192"/>
+      <c r="D57" s="225" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="224" t="s">
+      <c r="E57" s="226" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="191"/>
-      <c r="G57" s="192"/>
+      <c r="F57" s="192"/>
+      <c r="G57" s="193"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="161"/>
       <c r="C58" s="176"/>
-      <c r="D58" s="225" t="s">
+      <c r="D58" s="227" t="s">
         <v>117</v>
       </c>
       <c r="E58" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="191"/>
-      <c r="G58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="193"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="161"/>
       <c r="C59" s="162" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="226"/>
+      <c r="D59" s="228"/>
       <c r="E59" s="181"/>
-      <c r="F59" s="227" t="s">
+      <c r="F59" s="229" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="192"/>
+      <c r="G59" s="193"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="158"/>
@@ -11785,21 +11794,21 @@
       <c r="D60" s="160"/>
       <c r="E60" s="160"/>
       <c r="F60" s="160"/>
-      <c r="G60" s="228"/>
+      <c r="G60" s="230"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="161"/>
       <c r="C61" s="176"/>
-      <c r="D61" s="185" t="s">
+      <c r="D61" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="185" t="s">
+      <c r="E61" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="219" t="s">
+      <c r="F61" s="221" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="185" t="s">
+      <c r="G61" s="186" t="s">
         <v>123</v>
       </c>
     </row>
@@ -11812,7 +11821,7 @@
       <c r="E62" s="179" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="225" t="s">
+      <c r="F62" s="227" t="s">
         <v>124</v>
       </c>
       <c r="G62" s="179" t="s">
@@ -11822,26 +11831,26 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="161"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="199"/>
+      <c r="D63" s="200"/>
       <c r="E63" s="181"/>
-      <c r="F63" s="226"/>
+      <c r="F63" s="228"/>
       <c r="G63" s="181"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="161"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="199"/>
+      <c r="D64" s="200"/>
       <c r="E64" s="181"/>
-      <c r="F64" s="226"/>
+      <c r="F64" s="228"/>
       <c r="G64" s="181"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="229"/>
+      <c r="B65" s="231"/>
       <c r="C65" s="174"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="230"/>
-      <c r="F65" s="229"/>
-      <c r="G65" s="230"/>
+      <c r="D65" s="232"/>
+      <c r="E65" s="232"/>
+      <c r="F65" s="231"/>
+      <c r="G65" s="232"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12379,14 +12388,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="231"/>
-      <c r="C2" s="232" t="s">
+      <c r="B2" s="233"/>
+      <c r="C2" s="234" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="233"/>
-      <c r="E2" s="232"/>
-      <c r="F2" s="233"/>
-      <c r="G2" s="234"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="236"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12426,50 +12435,50 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="235"/>
-      <c r="C3" s="236" t="s">
+      <c r="B3" s="237"/>
+      <c r="C3" s="238" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="237"/>
-      <c r="E3" s="237"/>
-      <c r="F3" s="237"/>
-      <c r="G3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="239"/>
+      <c r="F3" s="239"/>
+      <c r="G3" s="240"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="161"/>
-      <c r="C4" s="239" t="s">
+      <c r="C4" s="241" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="240" t="s">
+      <c r="D4" s="242" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="240"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="161"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="240"/>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
+      <c r="C5" s="241"/>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
     </row>
     <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="161"/>
-      <c r="C6" s="239"/>
-      <c r="D6" s="241"/>
-      <c r="E6" s="241"/>
-      <c r="F6" s="241"/>
-      <c r="G6" s="242"/>
+      <c r="C6" s="241"/>
+      <c r="D6" s="243"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="244"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="161"/>
       <c r="C7" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="243"/>
-      <c r="E7" s="244"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="246"/>
       <c r="F7" s="176"/>
       <c r="G7" s="166"/>
     </row>
@@ -12478,14 +12487,14 @@
       <c r="C8" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="243"/>
-      <c r="E8" s="245"/>
-      <c r="F8" s="191"/>
-      <c r="G8" s="193"/>
+      <c r="D8" s="245"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="194"/>
     </row>
     <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="161"/>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="222" t="s">
         <v>128</v>
       </c>
       <c r="D9" s="87" t="s">
@@ -12500,336 +12509,336 @@
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="190"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
+      <c r="B10" s="191"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
       <c r="G10" s="175"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="235"/>
-      <c r="C11" s="236" t="s">
+      <c r="B11" s="237"/>
+      <c r="C11" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="238"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
+      <c r="G11" s="240"/>
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="161"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="247"/>
-      <c r="E12" s="247"/>
-      <c r="F12" s="191"/>
-      <c r="G12" s="192"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="193"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="161"/>
-      <c r="C13" s="245" t="s">
+      <c r="C13" s="247" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="185" t="s">
+      <c r="D13" s="186" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="185" t="s">
+      <c r="E13" s="186" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="186" t="s">
+      <c r="F13" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="186"/>
+      <c r="G13" s="187"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="161"/>
       <c r="C14" s="176"/>
-      <c r="D14" s="185" t="s">
+      <c r="D14" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="185" t="s">
+      <c r="E14" s="186" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="186" t="s">
+      <c r="F14" s="187" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="186"/>
+      <c r="G14" s="187"/>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="190"/>
-      <c r="C15" s="248"/>
+      <c r="B15" s="191"/>
+      <c r="C15" s="250"/>
       <c r="D15" s="179" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="179" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="225" t="s">
+      <c r="F15" s="227" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="188" t="s">
+      <c r="G15" s="189" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="161"/>
       <c r="C16" s="176"/>
-      <c r="D16" s="185"/>
-      <c r="E16" s="185"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
       <c r="F16" s="177"/>
-      <c r="G16" s="186"/>
+      <c r="G16" s="187"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="161"/>
-      <c r="C17" s="249" t="s">
+      <c r="C17" s="251" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="181"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="250" t="s">
+      <c r="F17" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="250" t="s">
+      <c r="G17" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="161"/>
-      <c r="C18" s="249" t="s">
+      <c r="C18" s="251" t="s">
         <v>35</v>
       </c>
       <c r="D18" s="181"/>
-      <c r="E18" s="250" t="s">
+      <c r="E18" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="250" t="s">
+      <c r="F18" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="250" t="s">
+      <c r="G18" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="161"/>
-      <c r="C19" s="251" t="s">
+      <c r="C19" s="253" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="181"/>
-      <c r="E19" s="250" t="s">
+      <c r="E19" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="250" t="s">
+      <c r="F19" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="250" t="s">
+      <c r="G19" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="161"/>
-      <c r="C20" s="251" t="s">
+      <c r="C20" s="253" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="181"/>
-      <c r="E20" s="250" t="s">
+      <c r="E20" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="250" t="s">
+      <c r="F20" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="250" t="s">
+      <c r="G20" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="161"/>
-      <c r="C21" s="252"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250" t="s">
+      <c r="C21" s="254"/>
+      <c r="D21" s="252"/>
+      <c r="E21" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="250" t="s">
+      <c r="F21" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="250" t="s">
+      <c r="G21" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="161"/>
-      <c r="C22" s="245" t="s">
+      <c r="C22" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="D22" s="250" t="s">
+      <c r="D22" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="250" t="s">
+      <c r="E22" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="250" t="s">
+      <c r="F22" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="250" t="s">
+      <c r="G22" s="252" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="161"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="209"/>
-      <c r="F23" s="209"/>
-      <c r="G23" s="192"/>
+      <c r="C23" s="192"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="211"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="193"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="235"/>
-      <c r="C24" s="236" t="s">
+      <c r="B24" s="237"/>
+      <c r="C24" s="238" t="s">
         <v>139</v>
       </c>
       <c r="D24" s="160"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="237"/>
-      <c r="G24" s="238"/>
+      <c r="E24" s="239"/>
+      <c r="F24" s="239"/>
+      <c r="G24" s="240"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="210"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="192"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="193"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="161"/>
       <c r="C26" s="176"/>
-      <c r="D26" s="193"/>
-      <c r="E26" s="184" t="s">
+      <c r="D26" s="194"/>
+      <c r="E26" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="184" t="s">
+      <c r="F26" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="192"/>
+      <c r="G26" s="193"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="161"/>
       <c r="C27" s="176"/>
-      <c r="D27" s="193"/>
-      <c r="E27" s="185"/>
-      <c r="F27" s="185"/>
-      <c r="G27" s="192"/>
+      <c r="D27" s="194"/>
+      <c r="E27" s="186"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="193"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="161"/>
-      <c r="C28" s="255" t="s">
+      <c r="C28" s="257" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="255"/>
+      <c r="D28" s="257"/>
       <c r="E28" s="181"/>
-      <c r="F28" s="250" t="s">
+      <c r="F28" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="256"/>
+      <c r="G28" s="258"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="161"/>
-      <c r="C29" s="255" t="s">
+      <c r="C29" s="257" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="255"/>
+      <c r="D29" s="257"/>
       <c r="E29" s="181"/>
-      <c r="F29" s="250" t="s">
+      <c r="F29" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="256"/>
+      <c r="G29" s="258"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="161"/>
-      <c r="C30" s="257" t="s">
+      <c r="C30" s="259" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="257"/>
+      <c r="D30" s="259"/>
       <c r="E30" s="181"/>
-      <c r="F30" s="250" t="s">
+      <c r="F30" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G30" s="256"/>
+      <c r="G30" s="258"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="161"/>
-      <c r="C31" s="257" t="s">
+      <c r="C31" s="259" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="257"/>
+      <c r="D31" s="259"/>
       <c r="E31" s="181"/>
-      <c r="F31" s="250" t="s">
+      <c r="F31" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="256"/>
+      <c r="G31" s="258"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="161"/>
-      <c r="C32" s="257" t="s">
+      <c r="C32" s="259" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="257"/>
+      <c r="D32" s="259"/>
       <c r="E32" s="181"/>
-      <c r="F32" s="250" t="s">
+      <c r="F32" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G32" s="256"/>
+      <c r="G32" s="258"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="161"/>
-      <c r="C33" s="257" t="s">
+      <c r="C33" s="259" t="s">
         <v>145</v>
       </c>
-      <c r="D33" s="257"/>
+      <c r="D33" s="259"/>
       <c r="E33" s="181"/>
-      <c r="F33" s="250" t="s">
+      <c r="F33" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G33" s="256"/>
+      <c r="G33" s="258"/>
     </row>
     <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="190"/>
-      <c r="C34" s="246"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="248"/>
       <c r="D34" s="175"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="192"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="211"/>
+      <c r="G34" s="193"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="235"/>
-      <c r="C35" s="236" t="s">
+      <c r="B35" s="237"/>
+      <c r="C35" s="238" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="237"/>
-      <c r="E35" s="237"/>
-      <c r="F35" s="237"/>
-      <c r="G35" s="238"/>
+      <c r="D35" s="239"/>
+      <c r="E35" s="239"/>
+      <c r="F35" s="239"/>
+      <c r="G35" s="240"/>
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="161"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="247"/>
-      <c r="F36" s="247"/>
-      <c r="G36" s="247"/>
+      <c r="C36" s="192"/>
+      <c r="D36" s="192"/>
+      <c r="E36" s="249"/>
+      <c r="F36" s="249"/>
+      <c r="G36" s="249"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="161"/>
       <c r="C37" s="176"/>
       <c r="D37" s="176"/>
-      <c r="E37" s="185" t="s">
+      <c r="E37" s="186" t="s">
         <v>147</v>
       </c>
-      <c r="F37" s="185" t="s">
+      <c r="F37" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="G37" s="185" t="s">
+      <c r="G37" s="186" t="s">
         <v>149</v>
       </c>
     </row>
@@ -12837,13 +12846,13 @@
       <c r="B38" s="161"/>
       <c r="C38" s="176"/>
       <c r="D38" s="176"/>
-      <c r="E38" s="184" t="s">
+      <c r="E38" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="184" t="s">
+      <c r="F38" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="184" t="s">
+      <c r="G38" s="185" t="s">
         <v>31</v>
       </c>
     </row>
@@ -12851,9 +12860,9 @@
       <c r="B39" s="161"/>
       <c r="C39" s="176"/>
       <c r="D39" s="176"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="185"/>
-      <c r="G39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="186"/>
+      <c r="G39" s="186"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="161"/>
@@ -12861,9 +12870,9 @@
         <v>94</v>
       </c>
       <c r="D40" s="162"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="161"/>
@@ -12873,7 +12882,7 @@
       <c r="D41" s="162"/>
       <c r="E41" s="181"/>
       <c r="F41" s="181"/>
-      <c r="G41" s="185" t="s">
+      <c r="G41" s="186" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12885,7 +12894,7 @@
       <c r="D42" s="162"/>
       <c r="E42" s="181"/>
       <c r="F42" s="181"/>
-      <c r="G42" s="185" t="s">
+      <c r="G42" s="186" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12906,10 +12915,10 @@
       </c>
       <c r="D44" s="162"/>
       <c r="E44" s="181"/>
-      <c r="F44" s="185" t="s">
+      <c r="F44" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="G44" s="185" t="s">
+      <c r="G44" s="186" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12930,78 +12939,78 @@
       </c>
       <c r="D46" s="162"/>
       <c r="E46" s="181"/>
-      <c r="F46" s="185" t="s">
+      <c r="F46" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="G46" s="185" t="s">
+      <c r="G46" s="186" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="161"/>
-      <c r="C47" s="245" t="s">
+      <c r="C47" s="247" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="245"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
+      <c r="D47" s="247"/>
+      <c r="E47" s="185"/>
+      <c r="F47" s="185"/>
+      <c r="G47" s="185"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="161"/>
-      <c r="C48" s="215" t="s">
+      <c r="C48" s="217" t="s">
         <v>155</v>
       </c>
-      <c r="D48" s="245"/>
-      <c r="E48" s="221"/>
-      <c r="F48" s="184"/>
-      <c r="G48" s="184"/>
+      <c r="D48" s="247"/>
+      <c r="E48" s="223"/>
+      <c r="F48" s="185"/>
+      <c r="G48" s="185"/>
     </row>
     <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="161"/>
-      <c r="C49" s="191"/>
-      <c r="D49" s="191"/>
-      <c r="E49" s="209"/>
-      <c r="F49" s="209"/>
-      <c r="G49" s="209"/>
+      <c r="C49" s="192"/>
+      <c r="D49" s="192"/>
+      <c r="E49" s="211"/>
+      <c r="F49" s="211"/>
+      <c r="G49" s="211"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="235"/>
-      <c r="C50" s="236" t="s">
+      <c r="B50" s="237"/>
+      <c r="C50" s="238" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="237"/>
-      <c r="E50" s="237"/>
-      <c r="F50" s="237"/>
-      <c r="G50" s="238"/>
+      <c r="D50" s="239"/>
+      <c r="E50" s="239"/>
+      <c r="F50" s="239"/>
+      <c r="G50" s="240"/>
     </row>
     <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="161"/>
-      <c r="C51" s="191"/>
-      <c r="D51" s="191"/>
-      <c r="E51" s="247"/>
-      <c r="F51" s="247"/>
-      <c r="G51" s="247"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="192"/>
+      <c r="E51" s="249"/>
+      <c r="F51" s="249"/>
+      <c r="G51" s="249"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="161"/>
       <c r="C52" s="176"/>
       <c r="D52" s="176"/>
-      <c r="E52" s="184" t="s">
+      <c r="E52" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="184" t="s">
+      <c r="F52" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="184"/>
+      <c r="G52" s="185"/>
     </row>
     <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="161"/>
       <c r="C53" s="176"/>
       <c r="D53" s="176"/>
-      <c r="E53" s="185"/>
-      <c r="F53" s="185"/>
-      <c r="G53" s="185"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="161"/>
@@ -13010,10 +13019,10 @@
       </c>
       <c r="D54" s="162"/>
       <c r="E54" s="181"/>
-      <c r="F54" s="250" t="s">
+      <c r="F54" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="184"/>
+      <c r="G54" s="185"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="161"/>
@@ -13022,10 +13031,10 @@
       </c>
       <c r="D55" s="162"/>
       <c r="E55" s="181"/>
-      <c r="F55" s="250" t="s">
+      <c r="F55" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G55" s="185"/>
+      <c r="G55" s="186"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="161"/>
@@ -13034,10 +13043,10 @@
       </c>
       <c r="D56" s="162"/>
       <c r="E56" s="181"/>
-      <c r="F56" s="250" t="s">
+      <c r="F56" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="184"/>
+      <c r="G56" s="185"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="161"/>
@@ -13046,84 +13055,84 @@
       </c>
       <c r="D57" s="162"/>
       <c r="E57" s="181"/>
-      <c r="F57" s="250" t="s">
+      <c r="F57" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="185"/>
+      <c r="G57" s="186"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="161"/>
       <c r="C58" s="162"/>
       <c r="D58" s="162"/>
-      <c r="E58" s="258"/>
-      <c r="F58" s="258"/>
-      <c r="G58" s="259"/>
+      <c r="E58" s="260"/>
+      <c r="F58" s="260"/>
+      <c r="G58" s="261"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="161"/>
-      <c r="C59" s="215" t="s">
+      <c r="C59" s="217" t="s">
         <v>160</v>
       </c>
-      <c r="D59" s="260"/>
-      <c r="E59" s="261"/>
-      <c r="F59" s="261"/>
-      <c r="G59" s="259"/>
+      <c r="D59" s="262"/>
+      <c r="E59" s="263"/>
+      <c r="F59" s="263"/>
+      <c r="G59" s="261"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="161"/>
-      <c r="C60" s="215" t="s">
+      <c r="C60" s="217" t="s">
         <v>161</v>
       </c>
-      <c r="D60" s="260"/>
-      <c r="E60" s="261"/>
-      <c r="F60" s="261"/>
-      <c r="G60" s="262"/>
+      <c r="D60" s="262"/>
+      <c r="E60" s="263"/>
+      <c r="F60" s="263"/>
+      <c r="G60" s="264"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="161"/>
       <c r="C61" s="162"/>
-      <c r="D61" s="191"/>
-      <c r="E61" s="209"/>
-      <c r="F61" s="209"/>
-      <c r="G61" s="209"/>
+      <c r="D61" s="192"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
+      <c r="G61" s="211"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="235"/>
-      <c r="C62" s="236" t="s">
+      <c r="B62" s="237"/>
+      <c r="C62" s="238" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="237"/>
-      <c r="E62" s="237"/>
-      <c r="F62" s="237"/>
-      <c r="G62" s="238"/>
+      <c r="D62" s="239"/>
+      <c r="E62" s="239"/>
+      <c r="F62" s="239"/>
+      <c r="G62" s="240"/>
     </row>
     <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="161"/>
-      <c r="C63" s="191"/>
-      <c r="D63" s="191"/>
-      <c r="E63" s="247"/>
-      <c r="F63" s="247"/>
-      <c r="G63" s="247"/>
+      <c r="C63" s="192"/>
+      <c r="D63" s="192"/>
+      <c r="E63" s="249"/>
+      <c r="F63" s="249"/>
+      <c r="G63" s="249"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="161"/>
       <c r="C64" s="176"/>
       <c r="D64" s="176"/>
-      <c r="E64" s="184" t="s">
+      <c r="E64" s="185" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="184" t="s">
+      <c r="F64" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="G64" s="185"/>
+      <c r="G64" s="186"/>
     </row>
     <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="161"/>
       <c r="C65" s="176"/>
       <c r="D65" s="176"/>
-      <c r="E65" s="185"/>
-      <c r="F65" s="185"/>
-      <c r="G65" s="185"/>
+      <c r="E65" s="186"/>
+      <c r="F65" s="186"/>
+      <c r="G65" s="186"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="161"/>
@@ -13132,10 +13141,10 @@
       </c>
       <c r="D66" s="162"/>
       <c r="E66" s="181"/>
-      <c r="F66" s="250" t="s">
+      <c r="F66" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G66" s="185"/>
+      <c r="G66" s="186"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="161"/>
@@ -13144,10 +13153,10 @@
       </c>
       <c r="D67" s="162"/>
       <c r="E67" s="181"/>
-      <c r="F67" s="250" t="s">
+      <c r="F67" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="185"/>
+      <c r="G67" s="186"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="161"/>
@@ -13156,10 +13165,10 @@
       </c>
       <c r="D68" s="162"/>
       <c r="E68" s="181"/>
-      <c r="F68" s="250" t="s">
+      <c r="F68" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G68" s="185"/>
+      <c r="G68" s="186"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="161"/>
@@ -13168,10 +13177,10 @@
       </c>
       <c r="D69" s="162"/>
       <c r="E69" s="181"/>
-      <c r="F69" s="250" t="s">
+      <c r="F69" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="185"/>
+      <c r="G69" s="186"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="161"/>
@@ -13180,36 +13189,36 @@
       </c>
       <c r="D70" s="162"/>
       <c r="E70" s="181"/>
-      <c r="F70" s="250" t="s">
+      <c r="F70" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="G70" s="185"/>
+      <c r="G70" s="186"/>
     </row>
     <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="161"/>
       <c r="C71" s="162"/>
-      <c r="D71" s="191"/>
-      <c r="E71" s="209"/>
-      <c r="F71" s="209"/>
-      <c r="G71" s="209"/>
+      <c r="D71" s="192"/>
+      <c r="E71" s="211"/>
+      <c r="F71" s="211"/>
+      <c r="G71" s="211"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="235"/>
-      <c r="C72" s="236" t="s">
+      <c r="B72" s="237"/>
+      <c r="C72" s="238" t="s">
         <v>165</v>
       </c>
-      <c r="D72" s="237"/>
-      <c r="E72" s="237"/>
-      <c r="F72" s="237"/>
-      <c r="G72" s="238"/>
+      <c r="D72" s="239"/>
+      <c r="E72" s="239"/>
+      <c r="F72" s="239"/>
+      <c r="G72" s="240"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="161"/>
-      <c r="C73" s="191"/>
-      <c r="D73" s="191"/>
-      <c r="E73" s="210"/>
-      <c r="F73" s="253"/>
-      <c r="G73" s="254"/>
+      <c r="C73" s="192"/>
+      <c r="D73" s="192"/>
+      <c r="E73" s="212"/>
+      <c r="F73" s="255"/>
+      <c r="G73" s="256"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="161"/>
@@ -13217,17 +13226,17 @@
         <v>165</v>
       </c>
       <c r="D74" s="162"/>
-      <c r="E74" s="263"/>
-      <c r="F74" s="263"/>
-      <c r="G74" s="263"/>
+      <c r="E74" s="265"/>
+      <c r="F74" s="265"/>
+      <c r="G74" s="265"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="229"/>
+      <c r="B75" s="231"/>
       <c r="C75" s="174"/>
       <c r="D75" s="174"/>
-      <c r="E75" s="229"/>
+      <c r="E75" s="231"/>
       <c r="F75" s="174"/>
-      <c r="G75" s="264"/>
+      <c r="G75" s="266"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -13751,18 +13760,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="265" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="266"/>
-      <c r="C2" s="267" t="s">
+    <row r="2" s="267" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="268"/>
+      <c r="C2" s="269" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="267"/>
-      <c r="E2" s="268"/>
-      <c r="F2" s="268"/>
-      <c r="G2" s="268"/>
-      <c r="H2" s="268"/>
-      <c r="I2" s="268"/>
-      <c r="J2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="271"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13813,16 +13822,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="272" t="s">
         <v>167</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
+      <c r="J3" s="272"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13865,11 +13874,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="271"/>
+      <c r="F7" s="273"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="272"/>
+      <c r="J7" s="274"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13894,22 +13903,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="265" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="273"/>
-      <c r="C10" s="274" t="s">
+    <row r="10" s="267" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="275"/>
+      <c r="C10" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="275"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279" t="s">
+      <c r="D10" s="277"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="281" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="279" t="s">
+      <c r="I10" s="281" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="279"/>
+      <c r="J10" s="281"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -13962,7 +13971,7 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="280"/>
+      <c r="E11" s="282"/>
       <c r="F11" s="46"/>
       <c r="G11" s="118"/>
       <c r="H11" s="116"/>
@@ -13975,25 +13984,25 @@
         <v>170</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="281"/>
+      <c r="E12" s="283"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="282"/>
+      <c r="G12" s="284"/>
       <c r="H12" s="181"/>
-      <c r="I12" s="283" t="s">
+      <c r="I12" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="284"/>
+      <c r="J12" s="286"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="281"/>
+      <c r="E13" s="283"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="282"/>
+      <c r="G13" s="284"/>
       <c r="H13" s="181"/>
-      <c r="I13" s="285"/>
-      <c r="J13" s="284"/>
+      <c r="I13" s="287"/>
+      <c r="J13" s="286"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
@@ -14001,66 +14010,66 @@
         <v>171</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="281"/>
+      <c r="E14" s="283"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="282"/>
+      <c r="G14" s="284"/>
       <c r="H14" s="181"/>
-      <c r="I14" s="283" t="s">
+      <c r="I14" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="284"/>
+      <c r="J14" s="286"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="281"/>
+      <c r="E15" s="283"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="282"/>
+      <c r="G15" s="284"/>
       <c r="H15" s="181"/>
-      <c r="I15" s="285"/>
-      <c r="J15" s="284"/>
+      <c r="I15" s="287"/>
+      <c r="J15" s="286"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="286" t="s">
+      <c r="C16" s="288" t="s">
         <v>172</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="281"/>
+      <c r="E16" s="283"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="282"/>
+      <c r="G16" s="284"/>
       <c r="H16" s="181"/>
-      <c r="I16" s="283" t="s">
+      <c r="I16" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="284"/>
+      <c r="J16" s="286"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="286" t="s">
+      <c r="C17" s="288" t="s">
         <v>173</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="281"/>
+      <c r="E17" s="283"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="282"/>
+      <c r="G17" s="284"/>
       <c r="H17" s="181"/>
-      <c r="I17" s="283" t="s">
+      <c r="I17" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="284"/>
+      <c r="J17" s="286"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="286"/>
+      <c r="C18" s="288"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="281"/>
+      <c r="E18" s="283"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="281"/>
+      <c r="G18" s="283"/>
       <c r="H18" s="181"/>
-      <c r="I18" s="285"/>
-      <c r="J18" s="284"/>
+      <c r="I18" s="287"/>
+      <c r="J18" s="286"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
@@ -14072,44 +14081,44 @@
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
       <c r="H19" s="181"/>
-      <c r="I19" s="283" t="s">
+      <c r="I19" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="284"/>
+      <c r="J19" s="286"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="287"/>
-      <c r="D20" s="287"/>
-      <c r="E20" s="287"/>
-      <c r="F20" s="287"/>
-      <c r="G20" s="287"/>
-      <c r="H20" s="203"/>
-      <c r="I20" s="288"/>
-      <c r="J20" s="289"/>
-    </row>
-    <row r="21" s="265" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="273"/>
-      <c r="C21" s="274" t="s">
+      <c r="C20" s="289"/>
+      <c r="D20" s="289"/>
+      <c r="E20" s="289"/>
+      <c r="F20" s="289"/>
+      <c r="G20" s="289"/>
+      <c r="H20" s="205"/>
+      <c r="I20" s="290"/>
+      <c r="J20" s="291"/>
+    </row>
+    <row r="21" s="267" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="275"/>
+      <c r="C21" s="276" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="274"/>
-      <c r="E21" s="290" t="s">
+      <c r="D21" s="276"/>
+      <c r="E21" s="292" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="291" t="s">
+      <c r="F21" s="293" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="290" t="s">
+      <c r="G21" s="292" t="s">
         <v>177</v>
       </c>
-      <c r="H21" s="291" t="s">
+      <c r="H21" s="293" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="291" t="s">
+      <c r="I21" s="293" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="291"/>
+      <c r="J21" s="293"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14160,14 +14169,14 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="293"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="295"/>
-      <c r="H22" s="295"/>
-      <c r="I22" s="296"/>
-      <c r="J22" s="297"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="295"/>
+      <c r="F22" s="296"/>
+      <c r="G22" s="297"/>
+      <c r="H22" s="297"/>
+      <c r="I22" s="298"/>
+      <c r="J22" s="299"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
@@ -14176,19 +14185,19 @@
       </c>
       <c r="D23" s="101"/>
       <c r="E23" s="181"/>
-      <c r="F23" s="298" t="s">
+      <c r="F23" s="300" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="299" t="n">
+      <c r="G23" s="301" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="283" t="s">
+      <c r="H23" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="283" t="s">
+      <c r="I23" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="284"/>
+      <c r="J23" s="286"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
@@ -14197,19 +14206,19 @@
       </c>
       <c r="D24" s="101"/>
       <c r="E24" s="181"/>
-      <c r="F24" s="298" t="s">
+      <c r="F24" s="300" t="s">
         <v>181</v>
       </c>
-      <c r="G24" s="299" t="n">
+      <c r="G24" s="301" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="283" t="s">
+      <c r="H24" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="283" t="s">
+      <c r="I24" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="284"/>
+      <c r="J24" s="286"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
@@ -14218,19 +14227,19 @@
       </c>
       <c r="D25" s="101"/>
       <c r="E25" s="181"/>
-      <c r="F25" s="298" t="s">
+      <c r="F25" s="300" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="299" t="n">
+      <c r="G25" s="301" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="283" t="s">
+      <c r="H25" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="283" t="s">
+      <c r="I25" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="284"/>
+      <c r="J25" s="286"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
@@ -14239,130 +14248,130 @@
       </c>
       <c r="D26" s="101"/>
       <c r="E26" s="181"/>
-      <c r="F26" s="298" t="s">
+      <c r="F26" s="300" t="s">
         <v>184</v>
       </c>
-      <c r="G26" s="299" t="n">
+      <c r="G26" s="301" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="283" t="s">
+      <c r="H26" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="283" t="s">
+      <c r="I26" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="284"/>
+      <c r="J26" s="286"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="300"/>
-      <c r="D27" s="300"/>
+      <c r="C27" s="302"/>
+      <c r="D27" s="302"/>
       <c r="E27" s="181"/>
-      <c r="F27" s="301"/>
+      <c r="F27" s="303"/>
       <c r="G27" s="181"/>
-      <c r="H27" s="302"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="284"/>
+      <c r="H27" s="304"/>
+      <c r="I27" s="287"/>
+      <c r="J27" s="286"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="300"/>
-      <c r="D28" s="300"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="302"/>
       <c r="E28" s="181"/>
-      <c r="F28" s="301"/>
+      <c r="F28" s="303"/>
       <c r="G28" s="181"/>
-      <c r="H28" s="302"/>
-      <c r="I28" s="285"/>
-      <c r="J28" s="284"/>
+      <c r="H28" s="304"/>
+      <c r="I28" s="287"/>
+      <c r="J28" s="286"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="303" t="s">
+      <c r="C29" s="305" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="303"/>
+      <c r="D29" s="305"/>
       <c r="E29" s="181"/>
-      <c r="F29" s="301"/>
+      <c r="F29" s="303"/>
       <c r="G29" s="181"/>
-      <c r="H29" s="302"/>
-      <c r="I29" s="285"/>
-      <c r="J29" s="284"/>
+      <c r="H29" s="304"/>
+      <c r="I29" s="287"/>
+      <c r="J29" s="286"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="303"/>
-      <c r="D30" s="303"/>
+      <c r="C30" s="305"/>
+      <c r="D30" s="305"/>
       <c r="E30" s="181"/>
-      <c r="F30" s="301"/>
+      <c r="F30" s="303"/>
       <c r="G30" s="181"/>
-      <c r="H30" s="302"/>
-      <c r="I30" s="285"/>
-      <c r="J30" s="284"/>
+      <c r="H30" s="304"/>
+      <c r="I30" s="287"/>
+      <c r="J30" s="286"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="303"/>
-      <c r="D31" s="303"/>
+      <c r="C31" s="305"/>
+      <c r="D31" s="305"/>
       <c r="E31" s="181"/>
-      <c r="F31" s="301"/>
+      <c r="F31" s="303"/>
       <c r="G31" s="181"/>
-      <c r="H31" s="302"/>
-      <c r="I31" s="285"/>
-      <c r="J31" s="284"/>
+      <c r="H31" s="304"/>
+      <c r="I31" s="287"/>
+      <c r="J31" s="286"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="303"/>
-      <c r="D32" s="303"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="305"/>
       <c r="E32" s="181"/>
-      <c r="F32" s="301"/>
+      <c r="F32" s="303"/>
       <c r="G32" s="181"/>
-      <c r="H32" s="302"/>
-      <c r="I32" s="285"/>
-      <c r="J32" s="284"/>
+      <c r="H32" s="304"/>
+      <c r="I32" s="287"/>
+      <c r="J32" s="286"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="300"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="302"/>
       <c r="E33" s="181"/>
-      <c r="F33" s="301"/>
+      <c r="F33" s="303"/>
       <c r="G33" s="181"/>
-      <c r="H33" s="302"/>
-      <c r="I33" s="285"/>
-      <c r="J33" s="284"/>
+      <c r="H33" s="304"/>
+      <c r="I33" s="287"/>
+      <c r="J33" s="286"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="304"/>
-      <c r="D34" s="304"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="305"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="306"/>
-      <c r="I34" s="288"/>
-      <c r="J34" s="289"/>
+      <c r="C34" s="306"/>
+      <c r="D34" s="306"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="307"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="308"/>
+      <c r="I34" s="290"/>
+      <c r="J34" s="291"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="274" t="s">
+      <c r="C35" s="276" t="s">
         <v>186</v>
       </c>
-      <c r="D35" s="274"/>
-      <c r="E35" s="281"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="283"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="281"/>
-      <c r="H35" s="307"/>
-      <c r="I35" s="308"/>
-      <c r="J35" s="284"/>
+      <c r="G35" s="283"/>
+      <c r="H35" s="309"/>
+      <c r="I35" s="310"/>
+      <c r="J35" s="286"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="281"/>
+      <c r="C36" s="276"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="283"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="281"/>
+      <c r="G36" s="283"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14373,14 +14382,14 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="309"/>
-      <c r="D37" s="309"/>
-      <c r="E37" s="310"/>
-      <c r="F37" s="311"/>
-      <c r="G37" s="311"/>
-      <c r="H37" s="207"/>
-      <c r="I37" s="312"/>
-      <c r="J37" s="313"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="313"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="209"/>
+      <c r="I37" s="314"/>
+      <c r="J37" s="315"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
@@ -14388,25 +14397,25 @@
         <v>187</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="314"/>
-      <c r="F38" s="315"/>
-      <c r="G38" s="315"/>
+      <c r="E38" s="316"/>
+      <c r="F38" s="317"/>
+      <c r="G38" s="317"/>
       <c r="H38" s="181"/>
-      <c r="I38" s="283" t="s">
+      <c r="I38" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="284"/>
+      <c r="J38" s="286"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="314"/>
-      <c r="F39" s="315"/>
-      <c r="G39" s="315"/>
+      <c r="E39" s="316"/>
+      <c r="F39" s="317"/>
+      <c r="G39" s="317"/>
       <c r="H39" s="181"/>
-      <c r="I39" s="308"/>
-      <c r="J39" s="284"/>
+      <c r="I39" s="310"/>
+      <c r="J39" s="286"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
@@ -14414,25 +14423,25 @@
         <v>188</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="314"/>
-      <c r="F40" s="315"/>
-      <c r="G40" s="315"/>
+      <c r="E40" s="316"/>
+      <c r="F40" s="317"/>
+      <c r="G40" s="317"/>
       <c r="H40" s="181"/>
-      <c r="I40" s="283" t="s">
+      <c r="I40" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="284"/>
+      <c r="J40" s="286"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="314"/>
-      <c r="F41" s="315"/>
-      <c r="G41" s="315"/>
+      <c r="E41" s="316"/>
+      <c r="F41" s="317"/>
+      <c r="G41" s="317"/>
       <c r="H41" s="181"/>
-      <c r="I41" s="308"/>
-      <c r="J41" s="284"/>
+      <c r="I41" s="310"/>
+      <c r="J41" s="286"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
@@ -14440,25 +14449,25 @@
         <v>189</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="314"/>
-      <c r="F42" s="315"/>
-      <c r="G42" s="315"/>
+      <c r="E42" s="316"/>
+      <c r="F42" s="317"/>
+      <c r="G42" s="317"/>
       <c r="H42" s="181"/>
-      <c r="I42" s="283" t="s">
+      <c r="I42" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="284"/>
+      <c r="J42" s="286"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="314"/>
-      <c r="F43" s="315"/>
-      <c r="G43" s="315"/>
+      <c r="E43" s="316"/>
+      <c r="F43" s="317"/>
+      <c r="G43" s="317"/>
       <c r="H43" s="181"/>
-      <c r="I43" s="308"/>
-      <c r="J43" s="284"/>
+      <c r="I43" s="310"/>
+      <c r="J43" s="286"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
@@ -14466,25 +14475,25 @@
         <v>149</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="314"/>
-      <c r="F44" s="315"/>
-      <c r="G44" s="315"/>
+      <c r="E44" s="316"/>
+      <c r="F44" s="317"/>
+      <c r="G44" s="317"/>
       <c r="H44" s="181"/>
-      <c r="I44" s="283" t="s">
+      <c r="I44" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="284"/>
+      <c r="J44" s="286"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="314"/>
-      <c r="F45" s="315"/>
-      <c r="G45" s="315"/>
+      <c r="E45" s="316"/>
+      <c r="F45" s="317"/>
+      <c r="G45" s="317"/>
       <c r="H45" s="181"/>
-      <c r="I45" s="308"/>
-      <c r="J45" s="284"/>
+      <c r="I45" s="310"/>
+      <c r="J45" s="286"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
@@ -14495,92 +14504,92 @@
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="283" t="s">
+      <c r="H46" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="283" t="s">
+      <c r="I46" s="285" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="316"/>
+      <c r="J46" s="318"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="317"/>
-      <c r="D47" s="317"/>
+      <c r="C47" s="319"/>
+      <c r="D47" s="319"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="318"/>
-      <c r="G47" s="318"/>
-      <c r="H47" s="319"/>
-      <c r="I47" s="318"/>
+      <c r="F47" s="320"/>
+      <c r="G47" s="320"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="320"/>
       <c r="J47" s="149"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="320" t="s">
+      <c r="C48" s="322" t="s">
         <v>190</v>
       </c>
-      <c r="D48" s="320"/>
-      <c r="E48" s="320"/>
-      <c r="F48" s="320"/>
-      <c r="G48" s="320"/>
-      <c r="H48" s="320"/>
-      <c r="I48" s="320"/>
-      <c r="J48" s="320"/>
+      <c r="D48" s="322"/>
+      <c r="E48" s="322"/>
+      <c r="F48" s="322"/>
+      <c r="G48" s="322"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="322"/>
+      <c r="J48" s="322"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="320"/>
-      <c r="D49" s="320"/>
-      <c r="E49" s="320"/>
-      <c r="F49" s="320"/>
-      <c r="G49" s="320"/>
-      <c r="H49" s="320"/>
-      <c r="I49" s="320"/>
-      <c r="J49" s="320"/>
+      <c r="C49" s="322"/>
+      <c r="D49" s="322"/>
+      <c r="E49" s="322"/>
+      <c r="F49" s="322"/>
+      <c r="G49" s="322"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="322"/>
+      <c r="J49" s="322"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="320"/>
-      <c r="D50" s="320"/>
-      <c r="E50" s="320"/>
-      <c r="F50" s="320"/>
-      <c r="G50" s="320"/>
-      <c r="H50" s="320"/>
-      <c r="I50" s="320"/>
-      <c r="J50" s="320"/>
+      <c r="C50" s="322"/>
+      <c r="D50" s="322"/>
+      <c r="E50" s="322"/>
+      <c r="F50" s="322"/>
+      <c r="G50" s="322"/>
+      <c r="H50" s="322"/>
+      <c r="I50" s="322"/>
+      <c r="J50" s="322"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="320"/>
-      <c r="D51" s="320"/>
-      <c r="E51" s="320"/>
-      <c r="F51" s="320"/>
-      <c r="G51" s="320"/>
-      <c r="H51" s="320"/>
-      <c r="I51" s="320"/>
-      <c r="J51" s="320"/>
+      <c r="C51" s="322"/>
+      <c r="D51" s="322"/>
+      <c r="E51" s="322"/>
+      <c r="F51" s="322"/>
+      <c r="G51" s="322"/>
+      <c r="H51" s="322"/>
+      <c r="I51" s="322"/>
+      <c r="J51" s="322"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="320"/>
-      <c r="D52" s="320"/>
-      <c r="E52" s="320"/>
-      <c r="F52" s="320"/>
-      <c r="G52" s="320"/>
-      <c r="H52" s="320"/>
-      <c r="I52" s="320"/>
-      <c r="J52" s="320"/>
+      <c r="C52" s="322"/>
+      <c r="D52" s="322"/>
+      <c r="E52" s="322"/>
+      <c r="F52" s="322"/>
+      <c r="G52" s="322"/>
+      <c r="H52" s="322"/>
+      <c r="I52" s="322"/>
+      <c r="J52" s="322"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="147"/>
-      <c r="C53" s="320"/>
-      <c r="D53" s="320"/>
-      <c r="E53" s="320"/>
-      <c r="F53" s="320"/>
-      <c r="G53" s="320"/>
-      <c r="H53" s="320"/>
-      <c r="I53" s="320"/>
-      <c r="J53" s="320"/>
+      <c r="C53" s="322"/>
+      <c r="D53" s="322"/>
+      <c r="E53" s="322"/>
+      <c r="F53" s="322"/>
+      <c r="G53" s="322"/>
+      <c r="H53" s="322"/>
+      <c r="I53" s="322"/>
+      <c r="J53" s="322"/>
       <c r="K53" s="125"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -15083,14 +15092,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="321" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="322" t="s">
+    <row r="2" s="323" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="324" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="322"/>
+      <c r="C2" s="324"/>
+      <c r="D2" s="324"/>
+      <c r="E2" s="324"/>
+      <c r="F2" s="324"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15123,119 +15132,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="323" t="s">
+      <c r="B3" s="325" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="323"/>
-      <c r="D3" s="323"/>
-      <c r="E3" s="323"/>
-      <c r="F3" s="323"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
     </row>
     <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="324" t="s">
+      <c r="B4" s="326" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="95"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="325"/>
-      <c r="F4" s="326"/>
+      <c r="D4" s="327"/>
+      <c r="E4" s="327"/>
+      <c r="F4" s="328"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
       <c r="G5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="301"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="305"/>
-      <c r="C10" s="305"/>
-      <c r="D10" s="305"/>
-      <c r="E10" s="305"/>
-      <c r="F10" s="305"/>
+      <c r="B10" s="307"/>
+      <c r="C10" s="307"/>
+      <c r="D10" s="307"/>
+      <c r="E10" s="307"/>
+      <c r="F10" s="307"/>
     </row>
     <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="327" t="s">
+      <c r="B11" s="329" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="327"/>
-      <c r="D11" s="327"/>
-      <c r="E11" s="327"/>
-      <c r="F11" s="327"/>
+      <c r="C11" s="329"/>
+      <c r="D11" s="329"/>
+      <c r="E11" s="329"/>
+      <c r="F11" s="329"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="328" t="n">
+      <c r="B12" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="329"/>
-      <c r="D12" s="329"/>
-      <c r="E12" s="329"/>
-      <c r="F12" s="329"/>
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="328" t="n">
+      <c r="B13" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="329"/>
-      <c r="D13" s="329"/>
-      <c r="E13" s="329"/>
-      <c r="F13" s="329"/>
+      <c r="C13" s="331"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="331"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="328" t="n">
+      <c r="B14" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="329"/>
-      <c r="D14" s="329"/>
-      <c r="E14" s="329"/>
-      <c r="F14" s="329"/>
+      <c r="C14" s="331"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
+      <c r="F14" s="331"/>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="330"/>
-      <c r="C15" s="331" t="s">
+      <c r="B15" s="332"/>
+      <c r="C15" s="333" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="331" t="s">
+      <c r="D15" s="333" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="331" t="s">
+      <c r="E15" s="333" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="332" t="s">
+      <c r="F15" s="334" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="333"/>
+      <c r="B16" s="335"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15250,138 +15259,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="328" t="n">
+      <c r="B17" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="334"/>
-      <c r="D17" s="334"/>
-      <c r="E17" s="334"/>
-      <c r="F17" s="334"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="336"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="328" t="n">
+      <c r="B18" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="334"/>
-      <c r="D18" s="334"/>
-      <c r="E18" s="334"/>
-      <c r="F18" s="334"/>
+      <c r="C18" s="336"/>
+      <c r="D18" s="336"/>
+      <c r="E18" s="336"/>
+      <c r="F18" s="336"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="328" t="n">
+      <c r="B19" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="334"/>
-      <c r="D19" s="334"/>
-      <c r="E19" s="334"/>
-      <c r="F19" s="334"/>
+      <c r="C19" s="336"/>
+      <c r="D19" s="336"/>
+      <c r="E19" s="336"/>
+      <c r="F19" s="336"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="335" t="s">
+      <c r="B20" s="337" t="s">
         <v>199</v>
       </c>
       <c r="C20" s="95"/>
-      <c r="D20" s="325"/>
-      <c r="E20" s="325"/>
-      <c r="F20" s="336"/>
+      <c r="D20" s="327"/>
+      <c r="E20" s="327"/>
+      <c r="F20" s="338"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="301"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="303"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="301"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="303"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="301"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="305" t="s">
+      <c r="B26" s="307" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="305"/>
-      <c r="D26" s="305"/>
-      <c r="E26" s="305"/>
-      <c r="F26" s="305"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="327" t="s">
+      <c r="B27" s="329" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="327"/>
-      <c r="D27" s="327"/>
-      <c r="E27" s="327"/>
-      <c r="F27" s="327"/>
+      <c r="C27" s="329"/>
+      <c r="D27" s="329"/>
+      <c r="E27" s="329"/>
+      <c r="F27" s="329"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="328" t="n">
+      <c r="B28" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="329"/>
-      <c r="D28" s="329"/>
-      <c r="E28" s="329"/>
-      <c r="F28" s="329"/>
+      <c r="C28" s="331"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="331"/>
+      <c r="F28" s="331"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="328" t="n">
+      <c r="B29" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="329"/>
-      <c r="D29" s="329"/>
-      <c r="E29" s="329"/>
-      <c r="F29" s="329"/>
+      <c r="C29" s="331"/>
+      <c r="D29" s="331"/>
+      <c r="E29" s="331"/>
+      <c r="F29" s="331"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="328" t="n">
+      <c r="B30" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="329"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="329"/>
-      <c r="F30" s="329"/>
+      <c r="C30" s="331"/>
+      <c r="D30" s="331"/>
+      <c r="E30" s="331"/>
+      <c r="F30" s="331"/>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="337"/>
-      <c r="C31" s="331" t="s">
+      <c r="B31" s="339"/>
+      <c r="C31" s="333" t="s">
         <v>195</v>
       </c>
-      <c r="D31" s="331" t="s">
+      <c r="D31" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="331" t="s">
+      <c r="E31" s="333" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="332" t="s">
+      <c r="F31" s="334" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="337"/>
+      <c r="B32" s="339"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15396,136 +15405,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="328" t="n">
+      <c r="B33" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="334"/>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
+      <c r="C33" s="336"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="328" t="n">
+      <c r="B34" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="334"/>
-      <c r="D34" s="334"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="334"/>
+      <c r="C34" s="336"/>
+      <c r="D34" s="336"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="336"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="328" t="n">
+      <c r="B35" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
+      <c r="C35" s="336"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
+      <c r="F35" s="336"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="335" t="s">
+      <c r="B36" s="337" t="s">
         <v>202</v>
       </c>
-      <c r="C36" s="338"/>
+      <c r="C36" s="340"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="336"/>
+      <c r="F36" s="338"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="303"/>
+      <c r="D37" s="303"/>
+      <c r="E37" s="303"/>
+      <c r="F37" s="303"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="301"/>
-      <c r="C38" s="301"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
+      <c r="B38" s="303"/>
+      <c r="C38" s="303"/>
+      <c r="D38" s="303"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="303"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="303"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="301"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="301"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="301"/>
+      <c r="B40" s="303"/>
+      <c r="C40" s="303"/>
+      <c r="D40" s="303"/>
+      <c r="E40" s="303"/>
+      <c r="F40" s="303"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-      <c r="D41" s="301"/>
-      <c r="E41" s="301"/>
-      <c r="F41" s="301"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="303"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="305"/>
-      <c r="C42" s="305"/>
-      <c r="D42" s="305"/>
-      <c r="E42" s="305"/>
-      <c r="F42" s="305"/>
+      <c r="B42" s="307"/>
+      <c r="C42" s="307"/>
+      <c r="D42" s="307"/>
+      <c r="E42" s="307"/>
+      <c r="F42" s="307"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="327" t="s">
+      <c r="B43" s="329" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="327"/>
-      <c r="D43" s="327"/>
-      <c r="E43" s="327"/>
-      <c r="F43" s="327"/>
+      <c r="C43" s="329"/>
+      <c r="D43" s="329"/>
+      <c r="E43" s="329"/>
+      <c r="F43" s="329"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="328" t="n">
+      <c r="B44" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="329"/>
-      <c r="D44" s="329"/>
-      <c r="E44" s="329"/>
-      <c r="F44" s="329"/>
+      <c r="C44" s="331"/>
+      <c r="D44" s="331"/>
+      <c r="E44" s="331"/>
+      <c r="F44" s="331"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="328" t="n">
+      <c r="B45" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="329"/>
-      <c r="D45" s="329"/>
-      <c r="E45" s="329"/>
-      <c r="F45" s="329"/>
+      <c r="C45" s="331"/>
+      <c r="D45" s="331"/>
+      <c r="E45" s="331"/>
+      <c r="F45" s="331"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="328" t="n">
+      <c r="B46" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="329"/>
-      <c r="D46" s="329"/>
-      <c r="E46" s="329"/>
-      <c r="F46" s="329"/>
+      <c r="C46" s="331"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="331"/>
+      <c r="F46" s="331"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="337"/>
-      <c r="C47" s="331" t="s">
+      <c r="B47" s="339"/>
+      <c r="C47" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="D47" s="331" t="s">
+      <c r="D47" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="331" t="s">
+      <c r="E47" s="333" t="s">
         <v>201</v>
       </c>
-      <c r="F47" s="332" t="s">
+      <c r="F47" s="334" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="337"/>
+      <c r="B48" s="339"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15540,31 +15549,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="328" t="n">
+      <c r="B49" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="334"/>
-      <c r="D49" s="334"/>
-      <c r="E49" s="334"/>
-      <c r="F49" s="334"/>
+      <c r="C49" s="336"/>
+      <c r="D49" s="336"/>
+      <c r="E49" s="336"/>
+      <c r="F49" s="336"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="328" t="n">
+      <c r="B50" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="334"/>
-      <c r="D50" s="334"/>
-      <c r="E50" s="334"/>
-      <c r="F50" s="334"/>
+      <c r="C50" s="336"/>
+      <c r="D50" s="336"/>
+      <c r="E50" s="336"/>
+      <c r="F50" s="336"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="328" t="n">
+      <c r="B51" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="334"/>
-      <c r="D51" s="334"/>
-      <c r="E51" s="334"/>
-      <c r="F51" s="334"/>
+      <c r="C51" s="336"/>
+      <c r="D51" s="336"/>
+      <c r="E51" s="336"/>
+      <c r="F51" s="336"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15784,118 +15793,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="324" t="s">
+      <c r="B2" s="326" t="s">
         <v>204</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="325"/>
-      <c r="E2" s="325"/>
-      <c r="F2" s="326"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="305"/>
-      <c r="C9" s="305"/>
-      <c r="D9" s="305"/>
-      <c r="E9" s="305"/>
-      <c r="F9" s="305"/>
+      <c r="B9" s="307"/>
+      <c r="C9" s="307"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="307"/>
+      <c r="F9" s="307"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="339" t="s">
+      <c r="B10" s="341" t="s">
         <v>194</v>
       </c>
-      <c r="C10" s="339"/>
-      <c r="D10" s="339"/>
-      <c r="E10" s="339"/>
-      <c r="F10" s="339"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="341"/>
+      <c r="E10" s="341"/>
+      <c r="F10" s="341"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="328" t="n">
+      <c r="B11" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="340"/>
-      <c r="D11" s="340"/>
-      <c r="E11" s="340"/>
-      <c r="F11" s="340"/>
+      <c r="C11" s="342"/>
+      <c r="D11" s="342"/>
+      <c r="E11" s="342"/>
+      <c r="F11" s="342"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="328" t="n">
+      <c r="B12" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="340"/>
-      <c r="D12" s="340"/>
-      <c r="E12" s="340"/>
-      <c r="F12" s="340"/>
+      <c r="C12" s="342"/>
+      <c r="D12" s="342"/>
+      <c r="E12" s="342"/>
+      <c r="F12" s="342"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="328" t="n">
+      <c r="B13" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="340"/>
-      <c r="D13" s="340"/>
-      <c r="E13" s="340"/>
-      <c r="F13" s="340"/>
+      <c r="C13" s="342"/>
+      <c r="D13" s="342"/>
+      <c r="E13" s="342"/>
+      <c r="F13" s="342"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="337"/>
-      <c r="C14" s="331" t="s">
+      <c r="B14" s="339"/>
+      <c r="C14" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="331" t="s">
+      <c r="D14" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="331" t="s">
+      <c r="E14" s="333" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="332" t="s">
+      <c r="F14" s="334" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="337"/>
+      <c r="B15" s="339"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15910,143 +15919,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="328" t="n">
+      <c r="B16" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="334"/>
-      <c r="D16" s="334"/>
-      <c r="E16" s="334"/>
-      <c r="F16" s="334"/>
+      <c r="C16" s="336"/>
+      <c r="D16" s="336"/>
+      <c r="E16" s="336"/>
+      <c r="F16" s="336"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="328" t="n">
+      <c r="B17" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="334"/>
-      <c r="D17" s="334"/>
-      <c r="E17" s="334"/>
-      <c r="F17" s="334"/>
+      <c r="C17" s="336"/>
+      <c r="D17" s="336"/>
+      <c r="E17" s="336"/>
+      <c r="F17" s="336"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="328" t="n">
+      <c r="B18" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="334"/>
-      <c r="D18" s="334"/>
-      <c r="E18" s="334"/>
-      <c r="F18" s="334"/>
+      <c r="C18" s="336"/>
+      <c r="D18" s="336"/>
+      <c r="E18" s="336"/>
+      <c r="F18" s="336"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="335" t="s">
+      <c r="B19" s="337" t="s">
         <v>205</v>
       </c>
-      <c r="C19" s="338"/>
+      <c r="C19" s="340"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="336"/>
+      <c r="F19" s="338"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="301"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="301"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="303"/>
+      <c r="F20" s="303"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="301"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="303"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="301"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="303"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="301"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="301"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="339" t="s">
+      <c r="B27" s="341" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="339"/>
-      <c r="D27" s="339"/>
-      <c r="E27" s="339"/>
-      <c r="F27" s="339"/>
+      <c r="C27" s="341"/>
+      <c r="D27" s="341"/>
+      <c r="E27" s="341"/>
+      <c r="F27" s="341"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="328" t="n">
+      <c r="B28" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="340"/>
-      <c r="D28" s="340"/>
-      <c r="E28" s="340"/>
-      <c r="F28" s="340"/>
+      <c r="C28" s="342"/>
+      <c r="D28" s="342"/>
+      <c r="E28" s="342"/>
+      <c r="F28" s="342"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="328" t="n">
+      <c r="B29" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="340"/>
-      <c r="D29" s="340"/>
-      <c r="E29" s="340"/>
-      <c r="F29" s="340"/>
+      <c r="C29" s="342"/>
+      <c r="D29" s="342"/>
+      <c r="E29" s="342"/>
+      <c r="F29" s="342"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="328" t="n">
+      <c r="B30" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="340"/>
-      <c r="D30" s="340"/>
-      <c r="E30" s="340"/>
-      <c r="F30" s="340"/>
+      <c r="C30" s="342"/>
+      <c r="D30" s="342"/>
+      <c r="E30" s="342"/>
+      <c r="F30" s="342"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="337"/>
-      <c r="C31" s="331" t="s">
+      <c r="B31" s="339"/>
+      <c r="C31" s="333" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="331" t="s">
+      <c r="D31" s="333" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="331" t="s">
+      <c r="E31" s="333" t="s">
         <v>201</v>
       </c>
-      <c r="F31" s="332" t="s">
+      <c r="F31" s="334" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="337"/>
+      <c r="B32" s="339"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16061,198 +16070,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="328" t="n">
+      <c r="B33" s="330" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="334"/>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
+      <c r="C33" s="336"/>
+      <c r="D33" s="336"/>
+      <c r="E33" s="336"/>
+      <c r="F33" s="336"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="328" t="n">
+      <c r="B34" s="330" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="334"/>
-      <c r="D34" s="334"/>
-      <c r="E34" s="334"/>
-      <c r="F34" s="334"/>
+      <c r="C34" s="336"/>
+      <c r="D34" s="336"/>
+      <c r="E34" s="336"/>
+      <c r="F34" s="336"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="328" t="n">
+      <c r="B35" s="330" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="334"/>
-      <c r="D35" s="334"/>
-      <c r="E35" s="334"/>
-      <c r="F35" s="334"/>
+      <c r="C35" s="336"/>
+      <c r="D35" s="336"/>
+      <c r="E35" s="336"/>
+      <c r="F35" s="336"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="341" t="s">
+      <c r="B36" s="343" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="341"/>
-      <c r="D36" s="341"/>
-      <c r="E36" s="341"/>
-      <c r="F36" s="341"/>
+      <c r="C36" s="343"/>
+      <c r="D36" s="343"/>
+      <c r="E36" s="343"/>
+      <c r="F36" s="343"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="303"/>
+      <c r="D37" s="303"/>
+      <c r="E37" s="303"/>
+      <c r="F37" s="303"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="301"/>
-      <c r="C38" s="301"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
+      <c r="B38" s="303"/>
+      <c r="C38" s="303"/>
+      <c r="D38" s="303"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="303"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="303"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="301"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="301"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="301"/>
+      <c r="B40" s="303"/>
+      <c r="C40" s="303"/>
+      <c r="D40" s="303"/>
+      <c r="E40" s="303"/>
+      <c r="F40" s="303"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-      <c r="D41" s="301"/>
-      <c r="E41" s="301"/>
-      <c r="F41" s="301"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="303"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="301"/>
-      <c r="C42" s="301"/>
-      <c r="D42" s="301"/>
-      <c r="E42" s="301"/>
-      <c r="F42" s="301"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="303"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="342"/>
-      <c r="C43" s="342"/>
-      <c r="D43" s="342"/>
-      <c r="E43" s="342"/>
-      <c r="F43" s="342"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="344"/>
     </row>
     <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="301"/>
-      <c r="C44" s="301"/>
-      <c r="D44" s="301"/>
-      <c r="E44" s="301"/>
-      <c r="F44" s="301"/>
+      <c r="B44" s="303"/>
+      <c r="C44" s="303"/>
+      <c r="D44" s="303"/>
+      <c r="E44" s="303"/>
+      <c r="F44" s="303"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="301"/>
-      <c r="C45" s="301"/>
-      <c r="D45" s="301"/>
-      <c r="E45" s="301"/>
-      <c r="F45" s="301"/>
+      <c r="B45" s="303"/>
+      <c r="C45" s="303"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="301"/>
-      <c r="C46" s="301"/>
-      <c r="D46" s="301"/>
-      <c r="E46" s="301"/>
-      <c r="F46" s="301"/>
+      <c r="B46" s="303"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="301"/>
-      <c r="C47" s="301"/>
-      <c r="D47" s="301"/>
-      <c r="E47" s="301"/>
-      <c r="F47" s="301"/>
+      <c r="B47" s="303"/>
+      <c r="C47" s="303"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="303"/>
+      <c r="F47" s="303"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="301"/>
-      <c r="C48" s="301"/>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="301"/>
+      <c r="B48" s="303"/>
+      <c r="C48" s="303"/>
+      <c r="D48" s="303"/>
+      <c r="E48" s="303"/>
+      <c r="F48" s="303"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="301"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="301"/>
-      <c r="E49" s="301"/>
-      <c r="F49" s="301"/>
+      <c r="B49" s="303"/>
+      <c r="C49" s="303"/>
+      <c r="D49" s="303"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="301"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="301"/>
-      <c r="E50" s="301"/>
-      <c r="F50" s="301"/>
+      <c r="B50" s="303"/>
+      <c r="C50" s="303"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="301"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="301"/>
-      <c r="E51" s="301"/>
-      <c r="F51" s="301"/>
+      <c r="B51" s="303"/>
+      <c r="C51" s="303"/>
+      <c r="D51" s="303"/>
+      <c r="E51" s="303"/>
+      <c r="F51" s="303"/>
     </row>
     <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="324" t="s">
+      <c r="B52" s="326" t="s">
         <v>207</v>
       </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="325"/>
-      <c r="E52" s="325"/>
-      <c r="F52" s="326"/>
+      <c r="D52" s="327"/>
+      <c r="E52" s="327"/>
+      <c r="F52" s="328"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="153"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="343"/>
+      <c r="F53" s="345"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="298" t="s">
+      <c r="B54" s="300" t="s">
         <v>208</v>
       </c>
-      <c r="C54" s="298"/>
-      <c r="D54" s="298"/>
-      <c r="E54" s="298"/>
-      <c r="F54" s="298"/>
+      <c r="C54" s="300"/>
+      <c r="D54" s="300"/>
+      <c r="E54" s="300"/>
+      <c r="F54" s="300"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="301"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
-      <c r="E55" s="301"/>
-      <c r="F55" s="301"/>
+      <c r="B55" s="303"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="303"/>
+      <c r="F55" s="303"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="301"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
-      <c r="E56" s="301"/>
-      <c r="F56" s="301"/>
+      <c r="B56" s="303"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="303"/>
+      <c r="F56" s="303"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="301"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="301"/>
-      <c r="F57" s="301"/>
+      <c r="B57" s="303"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="303"/>
+      <c r="F57" s="303"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="147"/>
       <c r="C58" s="148"/>
       <c r="D58" s="148"/>
       <c r="E58" s="148"/>
-      <c r="F58" s="344"/>
+      <c r="F58" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16421,539 +16430,539 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="345" t="s">
+      <c r="B2" s="347" t="s">
         <v>209</v>
       </c>
-      <c r="C2" s="345"/>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="301"/>
-      <c r="G3" s="301"/>
-      <c r="H3" s="301"/>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303"/>
+      <c r="H3" s="303"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="301"/>
-      <c r="C4" s="301"/>
-      <c r="D4" s="301"/>
-      <c r="E4" s="301"/>
-      <c r="F4" s="301"/>
-      <c r="G4" s="301"/>
-      <c r="H4" s="301"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="301"/>
-      <c r="H5" s="301"/>
+      <c r="B5" s="303"/>
+      <c r="C5" s="303"/>
+      <c r="D5" s="303"/>
+      <c r="E5" s="303"/>
+      <c r="F5" s="303"/>
+      <c r="G5" s="303"/>
+      <c r="H5" s="303"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
+      <c r="B6" s="303"/>
+      <c r="C6" s="303"/>
+      <c r="D6" s="303"/>
+      <c r="E6" s="303"/>
+      <c r="F6" s="303"/>
+      <c r="G6" s="303"/>
+      <c r="H6" s="303"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="301"/>
-      <c r="C7" s="301"/>
-      <c r="D7" s="301"/>
-      <c r="E7" s="301"/>
-      <c r="F7" s="301"/>
-      <c r="G7" s="301"/>
-      <c r="H7" s="301"/>
+      <c r="B7" s="303"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="303"/>
+      <c r="E7" s="303"/>
+      <c r="F7" s="303"/>
+      <c r="G7" s="303"/>
+      <c r="H7" s="303"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="301"/>
-      <c r="C8" s="301"/>
-      <c r="D8" s="301"/>
-      <c r="E8" s="301"/>
-      <c r="F8" s="301"/>
-      <c r="G8" s="301"/>
-      <c r="H8" s="301"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="301"/>
-      <c r="C9" s="301"/>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="301"/>
-      <c r="H9" s="301"/>
+      <c r="B9" s="303"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="303"/>
+      <c r="E9" s="303"/>
+      <c r="F9" s="303"/>
+      <c r="G9" s="303"/>
+      <c r="H9" s="303"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
+      <c r="B10" s="303"/>
+      <c r="C10" s="303"/>
+      <c r="D10" s="303"/>
+      <c r="E10" s="303"/>
+      <c r="F10" s="303"/>
+      <c r="G10" s="303"/>
+      <c r="H10" s="303"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
+      <c r="B11" s="303"/>
+      <c r="C11" s="303"/>
+      <c r="D11" s="303"/>
+      <c r="E11" s="303"/>
+      <c r="F11" s="303"/>
+      <c r="G11" s="303"/>
+      <c r="H11" s="303"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="301"/>
-      <c r="C12" s="301"/>
-      <c r="D12" s="301"/>
-      <c r="E12" s="301"/>
-      <c r="F12" s="301"/>
-      <c r="G12" s="301"/>
-      <c r="H12" s="301"/>
+      <c r="B12" s="303"/>
+      <c r="C12" s="303"/>
+      <c r="D12" s="303"/>
+      <c r="E12" s="303"/>
+      <c r="F12" s="303"/>
+      <c r="G12" s="303"/>
+      <c r="H12" s="303"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="301"/>
-      <c r="C13" s="301"/>
-      <c r="D13" s="301"/>
-      <c r="E13" s="301"/>
-      <c r="F13" s="301"/>
-      <c r="G13" s="301"/>
-      <c r="H13" s="301"/>
+      <c r="B13" s="303"/>
+      <c r="C13" s="303"/>
+      <c r="D13" s="303"/>
+      <c r="E13" s="303"/>
+      <c r="F13" s="303"/>
+      <c r="G13" s="303"/>
+      <c r="H13" s="303"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="301"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="301"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="301"/>
-      <c r="G14" s="301"/>
-      <c r="H14" s="301"/>
+      <c r="B14" s="303"/>
+      <c r="C14" s="303"/>
+      <c r="D14" s="303"/>
+      <c r="E14" s="303"/>
+      <c r="F14" s="303"/>
+      <c r="G14" s="303"/>
+      <c r="H14" s="303"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="301"/>
-      <c r="C15" s="301"/>
-      <c r="D15" s="301"/>
-      <c r="E15" s="301"/>
-      <c r="F15" s="301"/>
-      <c r="G15" s="301"/>
-      <c r="H15" s="301"/>
+      <c r="B15" s="303"/>
+      <c r="C15" s="303"/>
+      <c r="D15" s="303"/>
+      <c r="E15" s="303"/>
+      <c r="F15" s="303"/>
+      <c r="G15" s="303"/>
+      <c r="H15" s="303"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="301"/>
-      <c r="C16" s="301"/>
-      <c r="D16" s="301"/>
-      <c r="E16" s="301"/>
-      <c r="F16" s="301"/>
-      <c r="G16" s="301"/>
-      <c r="H16" s="301"/>
+      <c r="B16" s="303"/>
+      <c r="C16" s="303"/>
+      <c r="D16" s="303"/>
+      <c r="E16" s="303"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="303"/>
+      <c r="H16" s="303"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="301"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="301"/>
-      <c r="E17" s="301"/>
-      <c r="F17" s="301"/>
-      <c r="G17" s="301"/>
-      <c r="H17" s="301"/>
+      <c r="B17" s="303"/>
+      <c r="C17" s="303"/>
+      <c r="D17" s="303"/>
+      <c r="E17" s="303"/>
+      <c r="F17" s="303"/>
+      <c r="G17" s="303"/>
+      <c r="H17" s="303"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="301"/>
-      <c r="C18" s="301"/>
-      <c r="D18" s="301"/>
-      <c r="E18" s="301"/>
-      <c r="F18" s="301"/>
-      <c r="G18" s="301"/>
-      <c r="H18" s="301"/>
+      <c r="B18" s="303"/>
+      <c r="C18" s="303"/>
+      <c r="D18" s="303"/>
+      <c r="E18" s="303"/>
+      <c r="F18" s="303"/>
+      <c r="G18" s="303"/>
+      <c r="H18" s="303"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="301"/>
-      <c r="C19" s="301"/>
-      <c r="D19" s="301"/>
-      <c r="E19" s="301"/>
-      <c r="F19" s="301"/>
-      <c r="G19" s="301"/>
-      <c r="H19" s="301"/>
+      <c r="B19" s="303"/>
+      <c r="C19" s="303"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="303"/>
+      <c r="F19" s="303"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="303"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="301"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="301"/>
-      <c r="G20" s="301"/>
-      <c r="H20" s="301"/>
+      <c r="B20" s="303"/>
+      <c r="C20" s="303"/>
+      <c r="D20" s="303"/>
+      <c r="E20" s="303"/>
+      <c r="F20" s="303"/>
+      <c r="G20" s="303"/>
+      <c r="H20" s="303"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="301"/>
-      <c r="H21" s="301"/>
+      <c r="B21" s="303"/>
+      <c r="C21" s="303"/>
+      <c r="D21" s="303"/>
+      <c r="E21" s="303"/>
+      <c r="F21" s="303"/>
+      <c r="G21" s="303"/>
+      <c r="H21" s="303"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="301"/>
+      <c r="B22" s="303"/>
+      <c r="C22" s="303"/>
+      <c r="D22" s="303"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="303"/>
+      <c r="G22" s="303"/>
+      <c r="H22" s="303"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="301"/>
-      <c r="C23" s="301"/>
-      <c r="D23" s="301"/>
-      <c r="E23" s="301"/>
-      <c r="F23" s="301"/>
-      <c r="G23" s="301"/>
-      <c r="H23" s="301"/>
+      <c r="B23" s="303"/>
+      <c r="C23" s="303"/>
+      <c r="D23" s="303"/>
+      <c r="E23" s="303"/>
+      <c r="F23" s="303"/>
+      <c r="G23" s="303"/>
+      <c r="H23" s="303"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="301"/>
-      <c r="C24" s="301"/>
-      <c r="D24" s="301"/>
-      <c r="E24" s="301"/>
-      <c r="F24" s="301"/>
-      <c r="G24" s="301"/>
-      <c r="H24" s="301"/>
+      <c r="B24" s="303"/>
+      <c r="C24" s="303"/>
+      <c r="D24" s="303"/>
+      <c r="E24" s="303"/>
+      <c r="F24" s="303"/>
+      <c r="G24" s="303"/>
+      <c r="H24" s="303"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="301"/>
-      <c r="C25" s="301"/>
-      <c r="D25" s="301"/>
-      <c r="E25" s="301"/>
-      <c r="F25" s="301"/>
-      <c r="G25" s="301"/>
-      <c r="H25" s="301"/>
+      <c r="B25" s="303"/>
+      <c r="C25" s="303"/>
+      <c r="D25" s="303"/>
+      <c r="E25" s="303"/>
+      <c r="F25" s="303"/>
+      <c r="G25" s="303"/>
+      <c r="H25" s="303"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="301"/>
-      <c r="C26" s="301"/>
-      <c r="D26" s="301"/>
-      <c r="E26" s="301"/>
-      <c r="F26" s="301"/>
-      <c r="G26" s="301"/>
-      <c r="H26" s="301"/>
+      <c r="B26" s="303"/>
+      <c r="C26" s="303"/>
+      <c r="D26" s="303"/>
+      <c r="E26" s="303"/>
+      <c r="F26" s="303"/>
+      <c r="G26" s="303"/>
+      <c r="H26" s="303"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="301"/>
-      <c r="C27" s="301"/>
-      <c r="D27" s="301"/>
-      <c r="E27" s="301"/>
-      <c r="F27" s="301"/>
-      <c r="G27" s="301"/>
-      <c r="H27" s="301"/>
+      <c r="B27" s="303"/>
+      <c r="C27" s="303"/>
+      <c r="D27" s="303"/>
+      <c r="E27" s="303"/>
+      <c r="F27" s="303"/>
+      <c r="G27" s="303"/>
+      <c r="H27" s="303"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="301"/>
-      <c r="C28" s="301"/>
-      <c r="D28" s="301"/>
-      <c r="E28" s="301"/>
-      <c r="F28" s="301"/>
-      <c r="G28" s="301"/>
-      <c r="H28" s="301"/>
+      <c r="B28" s="303"/>
+      <c r="C28" s="303"/>
+      <c r="D28" s="303"/>
+      <c r="E28" s="303"/>
+      <c r="F28" s="303"/>
+      <c r="G28" s="303"/>
+      <c r="H28" s="303"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="301"/>
-      <c r="C29" s="301"/>
-      <c r="D29" s="301"/>
-      <c r="E29" s="301"/>
-      <c r="F29" s="301"/>
-      <c r="G29" s="301"/>
-      <c r="H29" s="301"/>
+      <c r="B29" s="303"/>
+      <c r="C29" s="303"/>
+      <c r="D29" s="303"/>
+      <c r="E29" s="303"/>
+      <c r="F29" s="303"/>
+      <c r="G29" s="303"/>
+      <c r="H29" s="303"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="301"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="301"/>
-      <c r="H30" s="301"/>
+      <c r="B30" s="303"/>
+      <c r="C30" s="303"/>
+      <c r="D30" s="303"/>
+      <c r="E30" s="303"/>
+      <c r="F30" s="303"/>
+      <c r="G30" s="303"/>
+      <c r="H30" s="303"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="301"/>
-      <c r="C31" s="301"/>
-      <c r="D31" s="301"/>
-      <c r="E31" s="301"/>
-      <c r="F31" s="301"/>
-      <c r="G31" s="301"/>
-      <c r="H31" s="301"/>
+      <c r="B31" s="303"/>
+      <c r="C31" s="303"/>
+      <c r="D31" s="303"/>
+      <c r="E31" s="303"/>
+      <c r="F31" s="303"/>
+      <c r="G31" s="303"/>
+      <c r="H31" s="303"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="301"/>
-      <c r="C32" s="301"/>
-      <c r="D32" s="301"/>
-      <c r="E32" s="301"/>
-      <c r="F32" s="301"/>
-      <c r="G32" s="301"/>
-      <c r="H32" s="301"/>
+      <c r="B32" s="303"/>
+      <c r="C32" s="303"/>
+      <c r="D32" s="303"/>
+      <c r="E32" s="303"/>
+      <c r="F32" s="303"/>
+      <c r="G32" s="303"/>
+      <c r="H32" s="303"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="301"/>
-      <c r="C33" s="301"/>
-      <c r="D33" s="301"/>
-      <c r="E33" s="301"/>
-      <c r="F33" s="301"/>
-      <c r="G33" s="301"/>
-      <c r="H33" s="301"/>
+      <c r="B33" s="303"/>
+      <c r="C33" s="303"/>
+      <c r="D33" s="303"/>
+      <c r="E33" s="303"/>
+      <c r="F33" s="303"/>
+      <c r="G33" s="303"/>
+      <c r="H33" s="303"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="301"/>
-      <c r="C34" s="301"/>
-      <c r="D34" s="301"/>
-      <c r="E34" s="301"/>
-      <c r="F34" s="301"/>
-      <c r="G34" s="301"/>
-      <c r="H34" s="301"/>
+      <c r="B34" s="303"/>
+      <c r="C34" s="303"/>
+      <c r="D34" s="303"/>
+      <c r="E34" s="303"/>
+      <c r="F34" s="303"/>
+      <c r="G34" s="303"/>
+      <c r="H34" s="303"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="301"/>
-      <c r="C35" s="301"/>
-      <c r="D35" s="301"/>
-      <c r="E35" s="301"/>
-      <c r="F35" s="301"/>
-      <c r="G35" s="301"/>
-      <c r="H35" s="301"/>
+      <c r="B35" s="303"/>
+      <c r="C35" s="303"/>
+      <c r="D35" s="303"/>
+      <c r="E35" s="303"/>
+      <c r="F35" s="303"/>
+      <c r="G35" s="303"/>
+      <c r="H35" s="303"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="301"/>
-      <c r="C36" s="301"/>
-      <c r="D36" s="301"/>
-      <c r="E36" s="301"/>
-      <c r="F36" s="301"/>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
+      <c r="B36" s="303"/>
+      <c r="C36" s="303"/>
+      <c r="D36" s="303"/>
+      <c r="E36" s="303"/>
+      <c r="F36" s="303"/>
+      <c r="G36" s="303"/>
+      <c r="H36" s="303"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="301"/>
-      <c r="C37" s="301"/>
-      <c r="D37" s="301"/>
-      <c r="E37" s="301"/>
-      <c r="F37" s="301"/>
-      <c r="G37" s="301"/>
-      <c r="H37" s="301"/>
+      <c r="B37" s="303"/>
+      <c r="C37" s="303"/>
+      <c r="D37" s="303"/>
+      <c r="E37" s="303"/>
+      <c r="F37" s="303"/>
+      <c r="G37" s="303"/>
+      <c r="H37" s="303"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="301"/>
-      <c r="C38" s="301"/>
-      <c r="D38" s="301"/>
-      <c r="E38" s="301"/>
-      <c r="F38" s="301"/>
-      <c r="G38" s="301"/>
-      <c r="H38" s="301"/>
+      <c r="B38" s="303"/>
+      <c r="C38" s="303"/>
+      <c r="D38" s="303"/>
+      <c r="E38" s="303"/>
+      <c r="F38" s="303"/>
+      <c r="G38" s="303"/>
+      <c r="H38" s="303"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
-      <c r="G39" s="301"/>
-      <c r="H39" s="301"/>
+      <c r="B39" s="303"/>
+      <c r="C39" s="303"/>
+      <c r="D39" s="303"/>
+      <c r="E39" s="303"/>
+      <c r="F39" s="303"/>
+      <c r="G39" s="303"/>
+      <c r="H39" s="303"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="301"/>
-      <c r="C40" s="301"/>
-      <c r="D40" s="301"/>
-      <c r="E40" s="301"/>
-      <c r="F40" s="301"/>
-      <c r="G40" s="301"/>
-      <c r="H40" s="301"/>
+      <c r="B40" s="303"/>
+      <c r="C40" s="303"/>
+      <c r="D40" s="303"/>
+      <c r="E40" s="303"/>
+      <c r="F40" s="303"/>
+      <c r="G40" s="303"/>
+      <c r="H40" s="303"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="301"/>
-      <c r="C41" s="301"/>
-      <c r="D41" s="301"/>
-      <c r="E41" s="301"/>
-      <c r="F41" s="301"/>
-      <c r="G41" s="301"/>
-      <c r="H41" s="301"/>
+      <c r="B41" s="303"/>
+      <c r="C41" s="303"/>
+      <c r="D41" s="303"/>
+      <c r="E41" s="303"/>
+      <c r="F41" s="303"/>
+      <c r="G41" s="303"/>
+      <c r="H41" s="303"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="301"/>
-      <c r="C42" s="301"/>
-      <c r="D42" s="301"/>
-      <c r="E42" s="301"/>
-      <c r="F42" s="301"/>
-      <c r="G42" s="301"/>
-      <c r="H42" s="301"/>
+      <c r="B42" s="303"/>
+      <c r="C42" s="303"/>
+      <c r="D42" s="303"/>
+      <c r="E42" s="303"/>
+      <c r="F42" s="303"/>
+      <c r="G42" s="303"/>
+      <c r="H42" s="303"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="301"/>
-      <c r="C43" s="301"/>
-      <c r="D43" s="301"/>
-      <c r="E43" s="301"/>
-      <c r="F43" s="301"/>
-      <c r="G43" s="301"/>
-      <c r="H43" s="301"/>
+      <c r="B43" s="303"/>
+      <c r="C43" s="303"/>
+      <c r="D43" s="303"/>
+      <c r="E43" s="303"/>
+      <c r="F43" s="303"/>
+      <c r="G43" s="303"/>
+      <c r="H43" s="303"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="301"/>
-      <c r="C44" s="301"/>
-      <c r="D44" s="301"/>
-      <c r="E44" s="301"/>
-      <c r="F44" s="301"/>
-      <c r="G44" s="301"/>
-      <c r="H44" s="301"/>
+      <c r="B44" s="303"/>
+      <c r="C44" s="303"/>
+      <c r="D44" s="303"/>
+      <c r="E44" s="303"/>
+      <c r="F44" s="303"/>
+      <c r="G44" s="303"/>
+      <c r="H44" s="303"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="301"/>
-      <c r="C45" s="301"/>
-      <c r="D45" s="301"/>
-      <c r="E45" s="301"/>
-      <c r="F45" s="301"/>
-      <c r="G45" s="301"/>
-      <c r="H45" s="301"/>
+      <c r="B45" s="303"/>
+      <c r="C45" s="303"/>
+      <c r="D45" s="303"/>
+      <c r="E45" s="303"/>
+      <c r="F45" s="303"/>
+      <c r="G45" s="303"/>
+      <c r="H45" s="303"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="301"/>
-      <c r="C46" s="301"/>
-      <c r="D46" s="301"/>
-      <c r="E46" s="301"/>
-      <c r="F46" s="301"/>
-      <c r="G46" s="301"/>
-      <c r="H46" s="301"/>
+      <c r="B46" s="303"/>
+      <c r="C46" s="303"/>
+      <c r="D46" s="303"/>
+      <c r="E46" s="303"/>
+      <c r="F46" s="303"/>
+      <c r="G46" s="303"/>
+      <c r="H46" s="303"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="301"/>
-      <c r="C47" s="301"/>
-      <c r="D47" s="301"/>
-      <c r="E47" s="301"/>
-      <c r="F47" s="301"/>
-      <c r="G47" s="301"/>
-      <c r="H47" s="301"/>
+      <c r="B47" s="303"/>
+      <c r="C47" s="303"/>
+      <c r="D47" s="303"/>
+      <c r="E47" s="303"/>
+      <c r="F47" s="303"/>
+      <c r="G47" s="303"/>
+      <c r="H47" s="303"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="301"/>
-      <c r="C48" s="301"/>
-      <c r="D48" s="301"/>
-      <c r="E48" s="301"/>
-      <c r="F48" s="301"/>
-      <c r="G48" s="301"/>
-      <c r="H48" s="301"/>
+      <c r="B48" s="303"/>
+      <c r="C48" s="303"/>
+      <c r="D48" s="303"/>
+      <c r="E48" s="303"/>
+      <c r="F48" s="303"/>
+      <c r="G48" s="303"/>
+      <c r="H48" s="303"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="301"/>
-      <c r="C49" s="301"/>
-      <c r="D49" s="301"/>
-      <c r="E49" s="301"/>
-      <c r="F49" s="301"/>
-      <c r="G49" s="301"/>
-      <c r="H49" s="301"/>
+      <c r="B49" s="303"/>
+      <c r="C49" s="303"/>
+      <c r="D49" s="303"/>
+      <c r="E49" s="303"/>
+      <c r="F49" s="303"/>
+      <c r="G49" s="303"/>
+      <c r="H49" s="303"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="301"/>
-      <c r="C50" s="301"/>
-      <c r="D50" s="301"/>
-      <c r="E50" s="301"/>
-      <c r="F50" s="301"/>
-      <c r="G50" s="301"/>
-      <c r="H50" s="301"/>
+      <c r="B50" s="303"/>
+      <c r="C50" s="303"/>
+      <c r="D50" s="303"/>
+      <c r="E50" s="303"/>
+      <c r="F50" s="303"/>
+      <c r="G50" s="303"/>
+      <c r="H50" s="303"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="301"/>
-      <c r="C51" s="301"/>
-      <c r="D51" s="301"/>
-      <c r="E51" s="301"/>
-      <c r="F51" s="301"/>
-      <c r="G51" s="301"/>
-      <c r="H51" s="301"/>
+      <c r="B51" s="303"/>
+      <c r="C51" s="303"/>
+      <c r="D51" s="303"/>
+      <c r="E51" s="303"/>
+      <c r="F51" s="303"/>
+      <c r="G51" s="303"/>
+      <c r="H51" s="303"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="301"/>
-      <c r="C52" s="301"/>
-      <c r="D52" s="301"/>
-      <c r="E52" s="301"/>
-      <c r="F52" s="301"/>
-      <c r="G52" s="301"/>
-      <c r="H52" s="301"/>
+      <c r="B52" s="303"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303"/>
+      <c r="E52" s="303"/>
+      <c r="F52" s="303"/>
+      <c r="G52" s="303"/>
+      <c r="H52" s="303"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="301"/>
-      <c r="C53" s="301"/>
-      <c r="D53" s="301"/>
-      <c r="E53" s="301"/>
-      <c r="F53" s="301"/>
-      <c r="G53" s="301"/>
-      <c r="H53" s="301"/>
+      <c r="B53" s="303"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="303"/>
+      <c r="F53" s="303"/>
+      <c r="G53" s="303"/>
+      <c r="H53" s="303"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="301"/>
-      <c r="C54" s="301"/>
-      <c r="D54" s="301"/>
-      <c r="E54" s="301"/>
-      <c r="F54" s="301"/>
-      <c r="G54" s="301"/>
-      <c r="H54" s="301"/>
+      <c r="B54" s="303"/>
+      <c r="C54" s="303"/>
+      <c r="D54" s="303"/>
+      <c r="E54" s="303"/>
+      <c r="F54" s="303"/>
+      <c r="G54" s="303"/>
+      <c r="H54" s="303"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="301"/>
-      <c r="C55" s="301"/>
-      <c r="D55" s="301"/>
-      <c r="E55" s="301"/>
-      <c r="F55" s="301"/>
-      <c r="G55" s="301"/>
-      <c r="H55" s="301"/>
+      <c r="B55" s="303"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303"/>
+      <c r="E55" s="303"/>
+      <c r="F55" s="303"/>
+      <c r="G55" s="303"/>
+      <c r="H55" s="303"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="301"/>
-      <c r="C56" s="301"/>
-      <c r="D56" s="301"/>
-      <c r="E56" s="301"/>
-      <c r="F56" s="301"/>
-      <c r="G56" s="301"/>
-      <c r="H56" s="301"/>
+      <c r="B56" s="303"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303"/>
+      <c r="E56" s="303"/>
+      <c r="F56" s="303"/>
+      <c r="G56" s="303"/>
+      <c r="H56" s="303"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="301"/>
-      <c r="C57" s="301"/>
-      <c r="D57" s="301"/>
-      <c r="E57" s="301"/>
-      <c r="F57" s="301"/>
-      <c r="G57" s="301"/>
-      <c r="H57" s="301"/>
+      <c r="B57" s="303"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="303"/>
+      <c r="F57" s="303"/>
+      <c r="G57" s="303"/>
+      <c r="H57" s="303"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="301"/>
-      <c r="C58" s="301"/>
-      <c r="D58" s="301"/>
-      <c r="E58" s="301"/>
-      <c r="F58" s="301"/>
-      <c r="G58" s="301"/>
-      <c r="H58" s="301"/>
+      <c r="B58" s="303"/>
+      <c r="C58" s="303"/>
+      <c r="D58" s="303"/>
+      <c r="E58" s="303"/>
+      <c r="F58" s="303"/>
+      <c r="G58" s="303"/>
+      <c r="H58" s="303"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="301"/>
-      <c r="C59" s="301"/>
-      <c r="D59" s="301"/>
-      <c r="E59" s="301"/>
-      <c r="F59" s="301"/>
-      <c r="G59" s="301"/>
-      <c r="H59" s="301"/>
+      <c r="B59" s="303"/>
+      <c r="C59" s="303"/>
+      <c r="D59" s="303"/>
+      <c r="E59" s="303"/>
+      <c r="F59" s="303"/>
+      <c r="G59" s="303"/>
+      <c r="H59" s="303"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="301"/>
-      <c r="C60" s="301"/>
-      <c r="D60" s="301"/>
-      <c r="E60" s="301"/>
-      <c r="F60" s="301"/>
-      <c r="G60" s="301"/>
-      <c r="H60" s="301"/>
+      <c r="B60" s="303"/>
+      <c r="C60" s="303"/>
+      <c r="D60" s="303"/>
+      <c r="E60" s="303"/>
+      <c r="F60" s="303"/>
+      <c r="G60" s="303"/>
+      <c r="H60" s="303"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="147"/>
@@ -16962,7 +16971,7 @@
       <c r="E61" s="148"/>
       <c r="F61" s="148"/>
       <c r="G61" s="148"/>
-      <c r="H61" s="344"/>
+      <c r="H61" s="346"/>
     </row>
   </sheetData>
   <mergeCells count="59">

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="211">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -1597,7 +1597,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="[$-409]M/D/YYYY"/>
+    <numFmt numFmtId="167" formatCode="[$-409]m/d/yyyy"/>
     <numFmt numFmtId="168" formatCode="0%"/>
     <numFmt numFmtId="169" formatCode="@"/>
     <numFmt numFmtId="170" formatCode="0"/>
@@ -2374,7 +2374,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2497,7 +2497,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6253,9 +6253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>248040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6269,7 +6269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="758520" cy="215280"/>
+          <a:ext cx="758160" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6290,9 +6290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>148320</xdr:colOff>
+      <xdr:colOff>147960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6306,7 +6306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1101960" cy="215280"/>
+          <a:ext cx="1101600" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6327,9 +6327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6343,7 +6343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1408680" cy="215280"/>
+          <a:ext cx="1408320" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6364,9 +6364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>345600</xdr:colOff>
+      <xdr:colOff>345240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6380,7 +6380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1732680" cy="215280"/>
+          <a:ext cx="1732320" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6401,9 +6401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>218880</xdr:colOff>
+      <xdr:colOff>218520</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>275760</xdr:rowOff>
+      <xdr:rowOff>275400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6417,7 +6417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2039760" cy="228240"/>
+          <a:ext cx="2039400" cy="227880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6438,9 +6438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161640</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6454,7 +6454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2376000" cy="215280"/>
+          <a:ext cx="2375640" cy="214920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6475,9 +6475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102240</xdr:colOff>
+      <xdr:colOff>101880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6487,7 +6487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2688840" cy="214200"/>
+          <a:ext cx="2688480" cy="213840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6856,9 +6856,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:rowOff>101880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6868,7 +6868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6987960" cy="10557720"/>
+          <a:ext cx="6987600" cy="10557360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6996,9 +6996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
+      <xdr:colOff>425880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>296280</xdr:rowOff>
+      <xdr:rowOff>295920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7012,7 +7012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1126440" cy="259560"/>
+          <a:ext cx="1126080" cy="259200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7038,9 +7038,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7050,7 +7050,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7023240" cy="257760"/>
+          <a:ext cx="7022880" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7109,9 +7109,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1013400</xdr:colOff>
+      <xdr:colOff>1013040</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7121,7 +7121,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928880"/>
-          <a:ext cx="7090560" cy="264240"/>
+          <a:ext cx="7090200" cy="263880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7180,9 +7180,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1017000</xdr:colOff>
+      <xdr:colOff>1016640</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7192,7 +7192,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7050240" cy="259200"/>
+          <a:ext cx="7049880" cy="258840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7251,9 +7251,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>33480</xdr:colOff>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7263,7 +7263,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6889320" cy="258480"/>
+          <a:ext cx="6888960" cy="258120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7322,9 +7322,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>52200</xdr:colOff>
+      <xdr:colOff>51840</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7334,7 +7334,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6985800" cy="359280"/>
+          <a:ext cx="6985440" cy="358920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7393,9 +7393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>61200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7405,7 +7405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10335960"/>
-          <a:ext cx="6994800" cy="370440"/>
+          <a:ext cx="6994440" cy="370080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7464,9 +7464,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1800</xdr:colOff>
+      <xdr:colOff>1440</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7476,7 +7476,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7035120" cy="370440"/>
+          <a:ext cx="7034760" cy="370080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7531,8 +7531,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A35" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8755,9 +8755,7 @@
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="75" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="75"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -9075,7 +9073,7 @@
   </sheetPr>
   <dimension ref="B1:AA65"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
     </sheetView>
   </sheetViews>
@@ -11057,7 +11055,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -12416,7 +12414,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -13786,7 +13784,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -15121,7 +15119,7 @@
   </sheetPr>
   <dimension ref="B1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -15821,7 +15819,7 @@
   </sheetPr>
   <dimension ref="B1:G58"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -16458,7 +16456,7 @@
   </sheetPr>
   <dimension ref="B1:I61"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="209">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -998,9 +998,6 @@
   </si>
   <si>
     <t xml:space="preserve">E-LUVUN LASKENNAN TULOKSET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rajapinnasta vain koodi</t>
   </si>
   <si>
     <r>
@@ -1590,19 +1587,21 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="12">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="00000"/>
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-409]M/D/YYYY"/>
     <numFmt numFmtId="168" formatCode="0%"/>
-    <numFmt numFmtId="169" formatCode="[$-40B]0.00"/>
-    <numFmt numFmtId="170" formatCode="0"/>
-    <numFmt numFmtId="171" formatCode="[$-409]@"/>
-    <numFmt numFmtId="172" formatCode="[$-40B]0.0"/>
-    <numFmt numFmtId="173" formatCode="@"/>
+    <numFmt numFmtId="169" formatCode="[$-40B]0"/>
+    <numFmt numFmtId="170" formatCode="[$-40B]0.00"/>
+    <numFmt numFmtId="171" formatCode="[$-40B]General"/>
+    <numFmt numFmtId="172" formatCode="[$-409]@"/>
+    <numFmt numFmtId="173" formatCode="[$-40B]0\.0"/>
+    <numFmt numFmtId="174" formatCode="@"/>
+    <numFmt numFmtId="175" formatCode="0"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="42">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1867,8 +1866,22 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="8"/>
       <color rgb="FF339966"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2188,7 +2201,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="357">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2366,7 +2379,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="9" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2653,11 +2666,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2669,15 +2690,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2685,11 +2706,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2841,7 +2858,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2917,7 +2934,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2985,7 +3002,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3005,7 +3022,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3073,6 +3090,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3157,7 +3178,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3181,6 +3202,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3197,7 +3222,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3221,7 +3250,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3229,19 +3258,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="36" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="169" fontId="38" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3321,6 +3362,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3329,7 +3374,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="37" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3337,7 +3382,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3349,7 +3394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3429,7 +3474,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3445,7 +3490,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3461,7 +3506,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3479,6 +3524,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3590,7 +3639,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="363">
+  <dxfs count="362">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -5133,13 +5182,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6269,9 +6311,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6285,7 +6327,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4656960"/>
-          <a:ext cx="757800" cy="214560"/>
+          <a:ext cx="757440" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6306,9 +6348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>147600</xdr:colOff>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6322,7 +6364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="4971240"/>
-          <a:ext cx="1101240" cy="214560"/>
+          <a:ext cx="1100880" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6343,9 +6385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>20880</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6359,7 +6401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5285520"/>
-          <a:ext cx="1407960" cy="214560"/>
+          <a:ext cx="1407600" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6380,9 +6422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>344880</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6396,7 +6438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5599800"/>
-          <a:ext cx="1731960" cy="214560"/>
+          <a:ext cx="1731600" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6417,9 +6459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>218160</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>275040</xdr:rowOff>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6433,7 +6475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="5909760"/>
-          <a:ext cx="2039040" cy="227520"/>
+          <a:ext cx="2038680" cy="227160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6454,9 +6496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6470,7 +6512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6219720"/>
-          <a:ext cx="2375280" cy="214560"/>
+          <a:ext cx="2374920" cy="214200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6491,9 +6533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6503,7 +6545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1254240" y="6530040"/>
-          <a:ext cx="2688120" cy="213480"/>
+          <a:ext cx="2687760" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6872,9 +6914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>101160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6884,7 +6926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="149400" y="78480"/>
-          <a:ext cx="6987240" cy="10557000"/>
+          <a:ext cx="6986880" cy="10556640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7012,9 +7054,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>425520</xdr:colOff>
+      <xdr:colOff>425160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>295560</xdr:rowOff>
+      <xdr:rowOff>295200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7028,7 +7070,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5087160" y="5274720"/>
-          <a:ext cx="1125720" cy="258840"/>
+          <a:ext cx="1125360" cy="258480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7054,9 +7096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>83160</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7066,7 +7108,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="201240" y="10549800"/>
-          <a:ext cx="7022520" cy="257040"/>
+          <a:ext cx="7022160" cy="256680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7125,9 +7167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1012680</xdr:colOff>
+      <xdr:colOff>1012320</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7137,7 +7179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="396000" y="10928880"/>
-          <a:ext cx="7089840" cy="263520"/>
+          <a:ext cx="7089480" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7196,9 +7238,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1016280</xdr:colOff>
+      <xdr:colOff>1015920</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7208,7 +7250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="290520" y="11094480"/>
-          <a:ext cx="7049520" cy="258480"/>
+          <a:ext cx="7049160" cy="258120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7267,9 +7309,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32400</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7279,7 +7321,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="241920" y="9930960"/>
-          <a:ext cx="6888600" cy="257760"/>
+          <a:ext cx="6888240" cy="257400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7338,9 +7380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>58680</xdr:rowOff>
+      <xdr:rowOff>58320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7350,7 +7392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="170640" y="10200240"/>
-          <a:ext cx="6985080" cy="358560"/>
+          <a:ext cx="6984720" cy="358200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7409,9 +7451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7421,7 +7463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="163440" y="10335960"/>
-          <a:ext cx="6994080" cy="369720"/>
+          <a:ext cx="6993720" cy="369360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7480,9 +7522,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>63</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7492,7 +7534,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="90720" y="9993600"/>
-          <a:ext cx="7034400" cy="369720"/>
+          <a:ext cx="7034040" cy="369360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7547,8 +7589,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M32" activeCellId="0" sqref="M32"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9092,7 +9134,7 @@
   <dimension ref="B1:AA65"/>
   <sheetViews>
     <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C38" activeCellId="0" sqref="C38"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9463,10 +9505,10 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="116"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="118"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="120"/>
       <c r="L13" s="0"/>
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
@@ -9486,16 +9528,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
-      <c r="C14" s="119" t="s">
+      <c r="C14" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="119"/>
+      <c r="D14" s="121"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="121"/>
-      <c r="I14" s="122"/>
-      <c r="J14" s="123"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
@@ -9515,16 +9557,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
-      <c r="C15" s="119" t="s">
+      <c r="C15" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="119"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
-      <c r="J15" s="123"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
       <c r="N15" s="0"/>
@@ -9544,16 +9586,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="119" t="s">
+      <c r="C16" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="119"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="121"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="123"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="123"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="125"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
       <c r="N16" s="0"/>
@@ -9573,16 +9615,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="119" t="s">
+      <c r="C17" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="119"/>
+      <c r="D17" s="121"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="121"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="123"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
       <c r="L17" s="0"/>
       <c r="M17" s="0"/>
       <c r="N17" s="0"/>
@@ -9602,16 +9644,16 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="119" t="s">
+      <c r="C18" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="121"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="121"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="123"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
       <c r="L18" s="0"/>
       <c r="M18" s="0"/>
       <c r="N18" s="0"/>
@@ -9631,14 +9673,14 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
+      <c r="C19" s="121"/>
+      <c r="D19" s="121"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="126"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="128"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="129"/>
       <c r="L19" s="0"/>
       <c r="M19" s="0"/>
       <c r="N19" s="0"/>
@@ -9657,17 +9699,17 @@
       <c r="AA19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="129"/>
-      <c r="C20" s="130" t="s">
+      <c r="B20" s="130"/>
+      <c r="C20" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="130"/>
-      <c r="H20" s="130"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
       <c r="L20" s="0"/>
       <c r="M20" s="0"/>
       <c r="N20" s="0"/>
@@ -9754,7 +9796,7 @@
       </c>
       <c r="H23" s="87"/>
       <c r="I23" s="87"/>
-      <c r="J23" s="132"/>
+      <c r="J23" s="133"/>
       <c r="K23" s="87"/>
       <c r="L23" s="87"/>
       <c r="M23" s="87"/>
@@ -9776,13 +9818,13 @@
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
       <c r="C24" s="15"/>
-      <c r="D24" s="133"/>
+      <c r="D24" s="134"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="132"/>
+      <c r="J24" s="133"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -9808,10 +9850,10 @@
       <c r="D25" s="15"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="135"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="132"/>
+      <c r="G25" s="135"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="133"/>
       <c r="L25" s="0"/>
       <c r="M25" s="0"/>
       <c r="N25" s="0"/>
@@ -9835,10 +9877,10 @@
       <c r="D26" s="15"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="137"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="132"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="133"/>
       <c r="L26" s="0"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -9862,10 +9904,10 @@
       <c r="D27" s="15"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="141"/>
-      <c r="J27" s="132"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="142"/>
+      <c r="J27" s="133"/>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -9889,10 +9931,10 @@
       <c r="D28" s="15"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="132"/>
+      <c r="G28" s="143"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="143"/>
+      <c r="J28" s="133"/>
       <c r="L28" s="0"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -9918,10 +9960,10 @@
       <c r="D29" s="15"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="132"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="145"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="133"/>
       <c r="L29" s="0"/>
       <c r="M29" s="0"/>
       <c r="N29" s="0"/>
@@ -9941,14 +9983,14 @@
     </row>
     <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="146"/>
       <c r="H30" s="46"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="132"/>
+      <c r="J30" s="133"/>
       <c r="L30" s="0"/>
       <c r="M30" s="0"/>
       <c r="N30" s="0"/>
@@ -9968,16 +10010,16 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="146" t="s">
+      <c r="C31" s="147" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="146"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="132"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="133"/>
       <c r="L31" s="0"/>
       <c r="M31" s="0"/>
       <c r="N31" s="0"/>
@@ -9997,14 +10039,14 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="132"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="133"/>
       <c r="L32" s="0"/>
       <c r="M32" s="0"/>
       <c r="N32" s="0"/>
@@ -10024,14 +10066,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="132"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="133"/>
       <c r="L33" s="0"/>
       <c r="M33" s="0"/>
       <c r="N33" s="0"/>
@@ -10051,14 +10093,14 @@
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="98"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="H34" s="146"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="132"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="133"/>
       <c r="L34" s="0"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -10077,15 +10119,15 @@
       <c r="AA34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="147"/>
-      <c r="C35" s="148"/>
-      <c r="D35" s="148"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
       <c r="L35" s="0"/>
       <c r="M35" s="0"/>
       <c r="N35" s="0"/>
@@ -10104,17 +10146,17 @@
       <c r="AA35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="150"/>
-      <c r="C36" s="151" t="s">
+      <c r="B36" s="151"/>
+      <c r="C36" s="152" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="152"/>
+      <c r="D36" s="152"/>
+      <c r="E36" s="152"/>
+      <c r="F36" s="152"/>
+      <c r="G36" s="152"/>
+      <c r="H36" s="152"/>
+      <c r="I36" s="152"/>
+      <c r="J36" s="153"/>
       <c r="L36" s="0"/>
       <c r="M36" s="0"/>
       <c r="N36" s="0"/>
@@ -10162,15 +10204,15 @@
       <c r="AA37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="153"/>
-      <c r="C38" s="154"/>
-      <c r="D38" s="154"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="154"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="154"/>
-      <c r="I38" s="154"/>
-      <c r="J38" s="154"/>
+      <c r="B38" s="154"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
       <c r="L38" s="0"/>
       <c r="M38" s="0"/>
       <c r="N38" s="0"/>
@@ -10190,14 +10232,14 @@
     </row>
     <row r="39" s="2" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="154"/>
-      <c r="J39" s="154"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
       <c r="L39" s="0"/>
       <c r="M39" s="0"/>
       <c r="N39" s="0"/>
@@ -10217,14 +10259,14 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
-      <c r="C40" s="154"/>
-      <c r="D40" s="154"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="154"/>
-      <c r="G40" s="154"/>
-      <c r="H40" s="154"/>
-      <c r="I40" s="154"/>
-      <c r="J40" s="154"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
       <c r="L40" s="0"/>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -10244,14 +10286,14 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
-      <c r="C41" s="154"/>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="154"/>
-      <c r="H41" s="154"/>
-      <c r="I41" s="154"/>
-      <c r="J41" s="154"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
       <c r="L41" s="0"/>
       <c r="M41" s="0"/>
       <c r="N41" s="0"/>
@@ -10271,14 +10313,14 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
-      <c r="C42" s="154"/>
-      <c r="D42" s="154"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="154"/>
-      <c r="G42" s="154"/>
-      <c r="H42" s="154"/>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
       <c r="L42" s="0"/>
       <c r="M42" s="0"/>
       <c r="N42" s="0"/>
@@ -10298,14 +10340,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
-      <c r="C43" s="154"/>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="154"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="154"/>
-      <c r="J43" s="154"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
       <c r="L43" s="0"/>
       <c r="M43" s="0"/>
       <c r="N43" s="0"/>
@@ -10325,14 +10367,14 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
-      <c r="C44" s="154"/>
-      <c r="D44" s="154"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="154"/>
-      <c r="G44" s="154"/>
-      <c r="H44" s="154"/>
-      <c r="I44" s="154"/>
-      <c r="J44" s="154"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
       <c r="L44" s="0"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -10352,14 +10394,14 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
-      <c r="C45" s="154"/>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="154"/>
-      <c r="H45" s="154"/>
-      <c r="I45" s="154"/>
-      <c r="J45" s="154"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
       <c r="L45" s="0"/>
       <c r="M45" s="0"/>
       <c r="N45" s="0"/>
@@ -10379,14 +10421,14 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
       <c r="L46" s="0"/>
       <c r="M46" s="0"/>
       <c r="N46" s="0"/>
@@ -10406,14 +10448,14 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="98"/>
-      <c r="C47" s="154"/>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="154"/>
-      <c r="I47" s="154"/>
-      <c r="J47" s="154"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
       <c r="L47" s="0"/>
       <c r="M47" s="0"/>
       <c r="N47" s="0"/>
@@ -10433,14 +10475,14 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="98"/>
-      <c r="C48" s="154"/>
-      <c r="D48" s="154"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="154"/>
-      <c r="G48" s="154"/>
-      <c r="H48" s="154"/>
-      <c r="I48" s="154"/>
-      <c r="J48" s="154"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
       <c r="L48" s="0"/>
       <c r="M48" s="0"/>
       <c r="N48" s="0"/>
@@ -10460,14 +10502,14 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="154"/>
-      <c r="D49" s="154"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
       <c r="L49" s="0"/>
       <c r="M49" s="0"/>
       <c r="N49" s="0"/>
@@ -10487,14 +10529,14 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="154"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="154"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="154"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
       <c r="L50" s="0"/>
       <c r="M50" s="0"/>
       <c r="N50" s="0"/>
@@ -10514,14 +10556,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="154"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
       <c r="L51" s="0"/>
       <c r="M51" s="0"/>
       <c r="N51" s="0"/>
@@ -10541,14 +10583,14 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="154"/>
-      <c r="D52" s="154"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="154"/>
-      <c r="G52" s="154"/>
-      <c r="H52" s="154"/>
-      <c r="I52" s="154"/>
-      <c r="J52" s="154"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
       <c r="L52" s="0"/>
       <c r="M52" s="0"/>
       <c r="N52" s="0"/>
@@ -10568,14 +10610,14 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="98"/>
-      <c r="C53" s="154"/>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="154"/>
-      <c r="H53" s="154"/>
-      <c r="I53" s="154"/>
-      <c r="J53" s="154"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
       <c r="L53" s="0"/>
       <c r="M53" s="0"/>
       <c r="N53" s="0"/>
@@ -10595,14 +10637,14 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="98"/>
-      <c r="C54" s="154"/>
-      <c r="D54" s="154"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="154"/>
-      <c r="G54" s="154"/>
-      <c r="H54" s="154"/>
-      <c r="I54" s="154"/>
-      <c r="J54" s="154"/>
+      <c r="C54" s="155"/>
+      <c r="D54" s="155"/>
+      <c r="E54" s="155"/>
+      <c r="F54" s="155"/>
+      <c r="G54" s="155"/>
+      <c r="H54" s="155"/>
+      <c r="I54" s="155"/>
+      <c r="J54" s="155"/>
       <c r="L54" s="0"/>
       <c r="M54" s="0"/>
       <c r="N54" s="0"/>
@@ -10622,14 +10664,14 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="98"/>
-      <c r="C55" s="154"/>
-      <c r="D55" s="154"/>
-      <c r="E55" s="154"/>
-      <c r="F55" s="154"/>
-      <c r="G55" s="154"/>
-      <c r="H55" s="154"/>
-      <c r="I55" s="154"/>
-      <c r="J55" s="154"/>
+      <c r="C55" s="155"/>
+      <c r="D55" s="155"/>
+      <c r="E55" s="155"/>
+      <c r="F55" s="155"/>
+      <c r="G55" s="155"/>
+      <c r="H55" s="155"/>
+      <c r="I55" s="155"/>
+      <c r="J55" s="155"/>
       <c r="L55" s="0"/>
       <c r="M55" s="0"/>
       <c r="N55" s="0"/>
@@ -10648,15 +10690,15 @@
       <c r="AA55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="153"/>
-      <c r="C56" s="154"/>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="155"/>
+      <c r="D56" s="155"/>
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="155"/>
+      <c r="H56" s="155"/>
+      <c r="I56" s="155"/>
+      <c r="J56" s="155"/>
       <c r="L56" s="0"/>
       <c r="M56" s="0"/>
       <c r="N56" s="0"/>
@@ -10675,17 +10717,17 @@
       <c r="AA56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="155" t="s">
+      <c r="B57" s="156" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="155"/>
-      <c r="D57" s="155"/>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="156"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="156"/>
       <c r="L57" s="0"/>
       <c r="M57" s="0"/>
       <c r="N57" s="0"/>
@@ -10797,20 +10839,20 @@
       <c r="AA63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="O64" s="156"/>
+      <c r="O64" s="157"/>
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N65" s="156"/>
-      <c r="O65" s="156"/>
-      <c r="P65" s="156"/>
-      <c r="Q65" s="156"/>
-      <c r="R65" s="156"/>
-      <c r="S65" s="156"/>
-      <c r="T65" s="156"/>
-      <c r="U65" s="156"/>
-      <c r="V65" s="156"/>
-      <c r="W65" s="156"/>
-      <c r="X65" s="156"/>
+      <c r="N65" s="157"/>
+      <c r="O65" s="157"/>
+      <c r="P65" s="157"/>
+      <c r="Q65" s="157"/>
+      <c r="R65" s="157"/>
+      <c r="S65" s="157"/>
+      <c r="T65" s="157"/>
+      <c r="U65" s="157"/>
+      <c r="V65" s="157"/>
+      <c r="W65" s="157"/>
+      <c r="X65" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -11033,8 +11075,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ67"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J47" activeCellId="0" sqref="J47"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E36" activeCellId="0" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11048,14 +11090,14 @@
   </cols>
   <sheetData>
     <row r="2" s="91" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="158" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
       <c r="AKY2" s="0"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
@@ -11096,24 +11138,24 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159" t="s">
+      <c r="B3" s="159"/>
+      <c r="C3" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="160"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="163" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="163"/>
-      <c r="G4" s="163"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
       <c r="H4" s="87"/>
       <c r="I4" s="87"/>
       <c r="J4" s="87"/>
@@ -11121,82 +11163,82 @@
       <c r="L4" s="87"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="161"/>
-      <c r="C5" s="162" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="164"/>
-      <c r="E5" s="162" t="s">
+      <c r="D5" s="165"/>
+      <c r="E5" s="163" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="165"/>
-      <c r="G5" s="166" t="s">
+      <c r="F5" s="166"/>
+      <c r="G5" s="167" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="167"/>
-      <c r="C6" s="168" t="s">
+      <c r="B6" s="168"/>
+      <c r="C6" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="169"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="171"/>
+      <c r="D6" s="170"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="171"/>
+      <c r="G6" s="172"/>
     </row>
     <row r="7" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="161"/>
-      <c r="C7" s="162" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="172"/>
-      <c r="E7" s="173" t="s">
+      <c r="D7" s="173"/>
+      <c r="E7" s="174" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="174"/>
-      <c r="G7" s="175"/>
+      <c r="F7" s="175"/>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="161"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="177" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="177" t="s">
+      <c r="F8" s="178" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="178" t="s">
+      <c r="G8" s="179" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="161"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="179" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="F9" s="179" t="s">
+      <c r="F9" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="179" t="s">
+      <c r="G9" s="180" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="161"/>
-      <c r="C10" s="166" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="180"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="183"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="182"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="184"/>
       <c r="H10" s="87"/>
       <c r="I10" s="87"/>
       <c r="J10" s="87"/>
@@ -11206,14 +11248,14 @@
       <c r="N10" s="87"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="161"/>
-      <c r="C11" s="166" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="180"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="183"/>
+      <c r="D11" s="181"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="184"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
       <c r="J11" s="87"/>
@@ -11223,14 +11265,14 @@
       <c r="N11" s="87"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="161"/>
-      <c r="C12" s="166" t="s">
+      <c r="B12" s="162"/>
+      <c r="C12" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="180"/>
-      <c r="E12" s="181"/>
-      <c r="F12" s="182"/>
-      <c r="G12" s="183"/>
+      <c r="D12" s="181"/>
+      <c r="E12" s="182"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="184"/>
       <c r="H12" s="87"/>
       <c r="I12" s="87"/>
       <c r="J12" s="87"/>
@@ -11240,14 +11282,14 @@
       <c r="N12" s="87"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="161"/>
-      <c r="C13" s="166" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="180"/>
-      <c r="E13" s="181"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="183"/>
+      <c r="D13" s="181"/>
+      <c r="E13" s="182"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="184"/>
       <c r="H13" s="87"/>
       <c r="I13" s="87"/>
       <c r="J13" s="87"/>
@@ -11257,14 +11299,14 @@
       <c r="N13" s="87"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="161"/>
-      <c r="C14" s="166" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="180"/>
-      <c r="E14" s="181"/>
-      <c r="F14" s="182"/>
-      <c r="G14" s="183"/>
+      <c r="D14" s="181"/>
+      <c r="E14" s="182"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="184"/>
       <c r="H14" s="87"/>
       <c r="I14" s="87"/>
       <c r="J14" s="87"/>
@@ -11274,18 +11316,18 @@
       <c r="N14" s="87"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="161"/>
-      <c r="C15" s="166" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="167" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="184" t="s">
+      <c r="D15" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="185" t="s">
+      <c r="E15" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="182"/>
-      <c r="G15" s="183"/>
+      <c r="F15" s="183"/>
+      <c r="G15" s="184"/>
       <c r="H15" s="87"/>
       <c r="I15" s="87"/>
       <c r="J15" s="87"/>
@@ -11295,562 +11337,563 @@
       <c r="N15" s="87"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="167"/>
-      <c r="C16" s="168" t="s">
+      <c r="B16" s="168"/>
+      <c r="C16" s="169" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="169"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="171"/>
+      <c r="D16" s="170"/>
+      <c r="E16" s="171"/>
+      <c r="F16" s="171"/>
+      <c r="G16" s="172"/>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="161"/>
-      <c r="C17" s="176"/>
-      <c r="D17" s="186" t="s">
+      <c r="B17" s="162"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="187" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="186" t="s">
+      <c r="E17" s="187" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="187" t="s">
+      <c r="F17" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="188"/>
+      <c r="G17" s="189"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="161"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="179" t="s">
+      <c r="B18" s="162"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="180" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="179" t="s">
+      <c r="E18" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="189" t="s">
+      <c r="F18" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="188"/>
+      <c r="G18" s="189"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="161"/>
-      <c r="C19" s="162" t="s">
+      <c r="B19" s="162"/>
+      <c r="C19" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="188"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="182"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="189"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="161"/>
-      <c r="C20" s="162" t="s">
+      <c r="B20" s="162"/>
+      <c r="C20" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="165"/>
-      <c r="G20" s="188"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="189"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="161"/>
-      <c r="C21" s="162" t="s">
+      <c r="B21" s="162"/>
+      <c r="C21" s="163" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="181"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="165"/>
-      <c r="G21" s="188"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="189"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="161"/>
-      <c r="C22" s="162" t="s">
+      <c r="B22" s="162"/>
+      <c r="C22" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="165"/>
-      <c r="G22" s="188"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="189"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="161"/>
-      <c r="C23" s="162" t="s">
+      <c r="B23" s="162"/>
+      <c r="C23" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="181"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="165"/>
-      <c r="G23" s="188"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="189"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="161"/>
-      <c r="C24" s="162" t="s">
+      <c r="B24" s="162"/>
+      <c r="C24" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="181"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="188"/>
+      <c r="D24" s="182"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="189"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="161"/>
-      <c r="C25" s="162" t="s">
+      <c r="B25" s="162"/>
+      <c r="C25" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="165"/>
-      <c r="G25" s="188"/>
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="189"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="161"/>
-      <c r="C26" s="162" t="s">
+      <c r="B26" s="162"/>
+      <c r="C26" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="181"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="188"/>
+      <c r="D26" s="182"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="189"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="158"/>
-      <c r="C27" s="159" t="s">
+      <c r="B27" s="159"/>
+      <c r="C27" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="160"/>
-      <c r="F27" s="160"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
       <c r="G27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="161"/>
-      <c r="C28" s="166" t="s">
+      <c r="B28" s="162"/>
+      <c r="C28" s="167" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="190"/>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
+      <c r="D28" s="191"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="191"/>
-      <c r="C29" s="175"/>
-      <c r="D29" s="192"/>
-      <c r="E29" s="192"/>
-      <c r="F29" s="192"/>
-      <c r="G29" s="193"/>
+      <c r="B29" s="192"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="193"/>
+      <c r="E29" s="193"/>
+      <c r="F29" s="193"/>
+      <c r="G29" s="194"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="161"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="195" t="s">
+      <c r="B30" s="162"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="177" t="s">
+      <c r="E30" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="F30" s="177" t="s">
+      <c r="F30" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="177" t="s">
+      <c r="G30" s="178" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="161"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="196" t="s">
+      <c r="B31" s="162"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="197" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="186" t="s">
+      <c r="E31" s="187" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="186" t="s">
+      <c r="F31" s="187" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="186"/>
+      <c r="G31" s="187"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="161"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="197" t="s">
+      <c r="B32" s="162"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="198" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="179" t="s">
+      <c r="E32" s="180" t="s">
         <v>89</v>
       </c>
-      <c r="F32" s="179" t="s">
+      <c r="F32" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="198" t="s">
+      <c r="G32" s="199" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="161"/>
-      <c r="C33" s="166" t="s">
+      <c r="B33" s="162"/>
+      <c r="C33" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="199"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="181"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="182"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="161"/>
-      <c r="C34" s="166" t="s">
+      <c r="B34" s="162"/>
+      <c r="C34" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="199"/>
-      <c r="E34" s="181"/>
-      <c r="F34" s="201" t="s">
+      <c r="D34" s="200"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="202" t="s">
         <v>32</v>
       </c>
-      <c r="G34" s="202" t="s">
+      <c r="G34" s="203" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="191"/>
-      <c r="C35" s="203" t="s">
+      <c r="B35" s="192"/>
+      <c r="C35" s="204" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="206" t="s">
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="207" t="s">
         <v>32</v>
       </c>
-      <c r="G35" s="207" t="s">
+      <c r="G35" s="208" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="161"/>
-      <c r="C36" s="208" t="s">
+      <c r="B36" s="162"/>
+      <c r="C36" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="208"/>
-      <c r="E36" s="209"/>
-      <c r="F36" s="209"/>
-      <c r="G36" s="209"/>
+      <c r="D36" s="209"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="158"/>
-      <c r="C37" s="159" t="s">
+      <c r="B37" s="159"/>
+      <c r="C37" s="160" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="160"/>
-      <c r="E37" s="160"/>
-      <c r="F37" s="160"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="161"/>
-      <c r="C38" s="162" t="s">
+      <c r="B38" s="162"/>
+      <c r="C38" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="210"/>
-      <c r="E38" s="210"/>
-      <c r="F38" s="210"/>
-      <c r="G38" s="210"/>
+      <c r="D38" s="211"/>
+      <c r="E38" s="211"/>
+      <c r="F38" s="211"/>
+      <c r="G38" s="211"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="161"/>
-      <c r="C39" s="192"/>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
+      <c r="B39" s="162"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="212"/>
+      <c r="E39" s="212"/>
+      <c r="F39" s="212"/>
+      <c r="G39" s="212"/>
     </row>
     <row r="40" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="212"/>
-      <c r="C40" s="213"/>
-      <c r="D40" s="177" t="s">
+      <c r="B40" s="213"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="178" t="s">
         <v>96</v>
       </c>
-      <c r="E40" s="214" t="s">
+      <c r="E40" s="215" t="s">
         <v>97</v>
       </c>
-      <c r="F40" s="177" t="s">
+      <c r="F40" s="178" t="s">
         <v>98</v>
       </c>
-      <c r="G40" s="177" t="s">
+      <c r="G40" s="178" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="161"/>
-      <c r="C41" s="176"/>
-      <c r="D41" s="186" t="s">
+      <c r="B41" s="162"/>
+      <c r="C41" s="177"/>
+      <c r="D41" s="187" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="215" t="s">
+      <c r="E41" s="216" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186" t="s">
+      <c r="F41" s="187"/>
+      <c r="G41" s="187" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="161"/>
-      <c r="C42" s="176"/>
-      <c r="D42" s="216" t="s">
+      <c r="B42" s="162"/>
+      <c r="C42" s="177"/>
+      <c r="D42" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="216" t="s">
+      <c r="E42" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="216" t="s">
+      <c r="F42" s="217" t="s">
         <v>32</v>
       </c>
-      <c r="G42" s="179" t="s">
+      <c r="G42" s="180" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="161"/>
-      <c r="C43" s="162" t="s">
+      <c r="B43" s="162"/>
+      <c r="C43" s="163" t="s">
         <v>102</v>
       </c>
-      <c r="D43" s="200"/>
-      <c r="E43" s="200"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
+      <c r="D43" s="201"/>
+      <c r="E43" s="201"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="182"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="161"/>
-      <c r="C44" s="162" t="s">
+      <c r="B44" s="162"/>
+      <c r="C44" s="163" t="s">
         <v>103</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="181"/>
-      <c r="G44" s="181"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="182"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="161"/>
-      <c r="C45" s="217" t="s">
+      <c r="B45" s="162"/>
+      <c r="C45" s="218" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="218"/>
-      <c r="E45" s="218"/>
-      <c r="F45" s="218"/>
-      <c r="G45" s="218"/>
+      <c r="D45" s="219"/>
+      <c r="E45" s="219"/>
+      <c r="F45" s="219"/>
+      <c r="G45" s="219"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="161"/>
-      <c r="C46" s="217" t="s">
+      <c r="B46" s="162"/>
+      <c r="C46" s="218" t="s">
         <v>105</v>
       </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="162"/>
-      <c r="F46" s="162"/>
-      <c r="G46" s="166"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="167"/>
     </row>
     <row r="47" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="161"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="219"/>
-      <c r="F47" s="219"/>
-      <c r="G47" s="220"/>
+      <c r="B47" s="162"/>
+      <c r="C47" s="220"/>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="221"/>
+      <c r="J47" s="222"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="161"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="177" t="s">
+      <c r="B48" s="162"/>
+      <c r="C48" s="177"/>
+      <c r="D48" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="177" t="s">
+      <c r="E48" s="178" t="s">
         <v>107</v>
       </c>
-      <c r="F48" s="221"/>
-      <c r="G48" s="193"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="194"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="161"/>
-      <c r="C49" s="176"/>
-      <c r="D49" s="179" t="s">
+      <c r="B49" s="162"/>
+      <c r="C49" s="177"/>
+      <c r="D49" s="180" t="s">
         <v>108</v>
       </c>
-      <c r="E49" s="179" t="s">
+      <c r="E49" s="180" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="221"/>
-      <c r="G49" s="193"/>
+      <c r="F49" s="223"/>
+      <c r="G49" s="194"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="161"/>
-      <c r="C50" s="162" t="s">
+      <c r="B50" s="162"/>
+      <c r="C50" s="163" t="s">
         <v>110</v>
       </c>
-      <c r="D50" s="181"/>
-      <c r="E50" s="181"/>
-      <c r="F50" s="221"/>
-      <c r="G50" s="193"/>
+      <c r="D50" s="182"/>
+      <c r="E50" s="182"/>
+      <c r="F50" s="223"/>
+      <c r="G50" s="194"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="161"/>
-      <c r="C51" s="162" t="s">
+      <c r="B51" s="162"/>
+      <c r="C51" s="163" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="181"/>
-      <c r="E51" s="181"/>
-      <c r="F51" s="221"/>
-      <c r="G51" s="193"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="182"/>
+      <c r="F51" s="223"/>
+      <c r="G51" s="194"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="158"/>
-      <c r="C52" s="159" t="s">
+      <c r="B52" s="159"/>
+      <c r="C52" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="160"/>
-      <c r="E52" s="160"/>
-      <c r="F52" s="160"/>
+      <c r="D52" s="161"/>
+      <c r="E52" s="161"/>
+      <c r="F52" s="161"/>
       <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="161"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="222" t="s">
+      <c r="B53" s="162"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="224" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="196"/>
-      <c r="F53" s="196"/>
-      <c r="G53" s="193"/>
+      <c r="E53" s="197"/>
+      <c r="F53" s="197"/>
+      <c r="G53" s="194"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="161"/>
-      <c r="C54" s="176"/>
-      <c r="D54" s="223" t="s">
+      <c r="B54" s="162"/>
+      <c r="C54" s="177"/>
+      <c r="D54" s="225" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="223"/>
-      <c r="F54" s="196"/>
-      <c r="G54" s="193"/>
+      <c r="E54" s="225"/>
+      <c r="F54" s="197"/>
+      <c r="G54" s="194"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="161"/>
-      <c r="C55" s="162" t="s">
+      <c r="B55" s="162"/>
+      <c r="C55" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="D55" s="165"/>
-      <c r="E55" s="224"/>
-      <c r="F55" s="196"/>
-      <c r="G55" s="193"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="197"/>
+      <c r="G55" s="194"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="158"/>
-      <c r="C56" s="159" t="s">
+      <c r="B56" s="159"/>
+      <c r="C56" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="D56" s="160"/>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
       <c r="G56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="161"/>
-      <c r="C57" s="192"/>
-      <c r="D57" s="225" t="s">
+      <c r="B57" s="162"/>
+      <c r="C57" s="193"/>
+      <c r="D57" s="227" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="226" t="s">
+      <c r="E57" s="228" t="s">
         <v>116</v>
       </c>
-      <c r="F57" s="192"/>
-      <c r="G57" s="193"/>
+      <c r="F57" s="193"/>
+      <c r="G57" s="194"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="161"/>
-      <c r="C58" s="176"/>
-      <c r="D58" s="227" t="s">
+      <c r="B58" s="162"/>
+      <c r="C58" s="177"/>
+      <c r="D58" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="E58" s="179" t="s">
+      <c r="E58" s="180" t="s">
         <v>31</v>
       </c>
-      <c r="F58" s="192"/>
-      <c r="G58" s="193"/>
+      <c r="F58" s="193"/>
+      <c r="G58" s="194"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="161"/>
-      <c r="C59" s="162" t="s">
+      <c r="B59" s="162"/>
+      <c r="C59" s="163" t="s">
         <v>114</v>
       </c>
-      <c r="D59" s="228"/>
-      <c r="E59" s="181"/>
-      <c r="F59" s="229" t="s">
+      <c r="D59" s="230"/>
+      <c r="E59" s="182"/>
+      <c r="F59" s="231" t="s">
         <v>118</v>
       </c>
-      <c r="G59" s="193"/>
+      <c r="G59" s="194"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="158"/>
-      <c r="C60" s="159" t="s">
+      <c r="B60" s="159"/>
+      <c r="C60" s="160" t="s">
         <v>119</v>
       </c>
-      <c r="D60" s="160"/>
-      <c r="E60" s="160"/>
-      <c r="F60" s="160"/>
-      <c r="G60" s="230"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="232"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="161"/>
-      <c r="C61" s="176"/>
-      <c r="D61" s="186" t="s">
+      <c r="B61" s="162"/>
+      <c r="C61" s="177"/>
+      <c r="D61" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="186" t="s">
+      <c r="E61" s="187" t="s">
         <v>121</v>
       </c>
-      <c r="F61" s="221" t="s">
+      <c r="F61" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="G61" s="186" t="s">
+      <c r="G61" s="187" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="161"/>
-      <c r="C62" s="176"/>
-      <c r="D62" s="179" t="s">
+      <c r="B62" s="162"/>
+      <c r="C62" s="177"/>
+      <c r="D62" s="180" t="s">
         <v>32</v>
       </c>
-      <c r="E62" s="179" t="s">
+      <c r="E62" s="180" t="s">
         <v>124</v>
       </c>
-      <c r="F62" s="227" t="s">
+      <c r="F62" s="229" t="s">
         <v>124</v>
       </c>
-      <c r="G62" s="179" t="s">
+      <c r="G62" s="180" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="161"/>
+      <c r="B63" s="162"/>
       <c r="C63" s="19"/>
-      <c r="D63" s="200"/>
-      <c r="E63" s="181"/>
-      <c r="F63" s="228"/>
-      <c r="G63" s="181"/>
+      <c r="D63" s="201"/>
+      <c r="E63" s="182"/>
+      <c r="F63" s="230"/>
+      <c r="G63" s="182"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="161"/>
+      <c r="B64" s="162"/>
       <c r="C64" s="19"/>
-      <c r="D64" s="200"/>
-      <c r="E64" s="181"/>
-      <c r="F64" s="228"/>
-      <c r="G64" s="181"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="182"/>
+      <c r="F64" s="230"/>
+      <c r="G64" s="182"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="231"/>
-      <c r="C65" s="174"/>
-      <c r="D65" s="232"/>
-      <c r="E65" s="232"/>
-      <c r="F65" s="231"/>
-      <c r="G65" s="232"/>
+      <c r="B65" s="233"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="234"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="233"/>
+      <c r="G65" s="234"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="3"/>
@@ -12372,8 +12415,8 @@
   </sheetPr>
   <dimension ref="B2:AMJ76"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
+    <sheetView showFormulas="true" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D59" activeCellId="0" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12388,14 +12431,14 @@
   </cols>
   <sheetData>
     <row r="2" s="50" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="233"/>
-      <c r="C2" s="234" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="235"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="235"/>
-      <c r="G2" s="236"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="236"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="238"/>
       <c r="AKZ2" s="0"/>
       <c r="ALA2" s="0"/>
       <c r="ALB2" s="0"/>
@@ -12435,815 +12478,746 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="237"/>
-      <c r="C3" s="238" t="s">
+      <c r="B3" s="239"/>
+      <c r="C3" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="240"/>
+      <c r="D3" s="241"/>
+      <c r="E3" s="241"/>
+      <c r="F3" s="241"/>
+      <c r="G3" s="242"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="161"/>
-      <c r="C4" s="241" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="242" t="s">
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="162"/>
+      <c r="C5" s="243"/>
+      <c r="D5" s="244"/>
+      <c r="E5" s="244"/>
+      <c r="F5" s="244"/>
+      <c r="G5" s="244"/>
+    </row>
+    <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="162"/>
+      <c r="C6" s="243"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="245"/>
+      <c r="F6" s="245"/>
+      <c r="G6" s="246"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="162"/>
+      <c r="C7" s="165" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="247"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="167"/>
+    </row>
+    <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="162"/>
+      <c r="C8" s="165" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="161"/>
-      <c r="C5" s="241"/>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-    </row>
-    <row r="6" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="161"/>
-      <c r="C6" s="241"/>
-      <c r="D6" s="243"/>
-      <c r="E6" s="243"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="244"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="161"/>
-      <c r="C7" s="164" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="245"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="176"/>
-      <c r="G7" s="166"/>
-    </row>
-    <row r="8" customFormat="false" ht="18.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="161"/>
-      <c r="C8" s="164" t="s">
+      <c r="D8" s="247"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="193"/>
+      <c r="G8" s="195"/>
+    </row>
+    <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="162"/>
+      <c r="C9" s="224" t="s">
         <v>127</v>
       </c>
-      <c r="D8" s="245"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="194"/>
-    </row>
-    <row r="9" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="161"/>
-      <c r="C9" s="222" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="250" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
+      <c r="G9" s="195"/>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
       <c r="J9" s="87"/>
       <c r="K9" s="87"/>
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="191"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="175"/>
+      <c r="B10" s="192"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="176"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="237"/>
-      <c r="C11" s="238" t="s">
+      <c r="B11" s="239"/>
+      <c r="C11" s="240" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="241"/>
+      <c r="E11" s="241"/>
+      <c r="F11" s="241"/>
+      <c r="G11" s="242"/>
+    </row>
+    <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="162"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="252"/>
+      <c r="E12" s="252"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="194"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="162"/>
+      <c r="C13" s="249" t="s">
         <v>129</v>
       </c>
-      <c r="D11" s="239"/>
-      <c r="E11" s="239"/>
-      <c r="F11" s="239"/>
-      <c r="G11" s="240"/>
-    </row>
-    <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="161"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="193"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="161"/>
-      <c r="C13" s="247" t="s">
+      <c r="D13" s="187" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="186" t="s">
+      <c r="E13" s="187" t="s">
         <v>131</v>
       </c>
-      <c r="E13" s="186" t="s">
+      <c r="F13" s="188" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="187" t="s">
+      <c r="G13" s="188"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="162"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="187"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="161"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="186" t="s">
+      <c r="E14" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="E14" s="186" t="s">
+      <c r="F14" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="F14" s="187" t="s">
+      <c r="G14" s="188"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="192"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="180" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="180" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="229" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="187"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="191"/>
-      <c r="C15" s="250"/>
-      <c r="D15" s="179" t="s">
+      <c r="G15" s="190" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="162"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="188"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="162"/>
+      <c r="C17" s="254" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="255"/>
+      <c r="E17" s="256"/>
+      <c r="F17" s="255"/>
+      <c r="G17" s="255"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="162"/>
+      <c r="C18" s="254" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="255"/>
+      <c r="E18" s="256"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="255"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="162"/>
+      <c r="C19" s="257" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="255"/>
+      <c r="E19" s="256"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="162"/>
+      <c r="C20" s="257" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="255"/>
+      <c r="E20" s="256"/>
+      <c r="F20" s="255"/>
+      <c r="G20" s="255"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="162"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="255"/>
+      <c r="E21" s="256"/>
+      <c r="F21" s="255"/>
+      <c r="G21" s="255"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="162"/>
+      <c r="C22" s="249" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="255"/>
+      <c r="E22" s="256"/>
+      <c r="F22" s="255"/>
+      <c r="G22" s="255"/>
+    </row>
+    <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="162"/>
+      <c r="C23" s="193"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="194"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="239"/>
+      <c r="C24" s="240" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="161"/>
+      <c r="E24" s="241"/>
+      <c r="F24" s="241"/>
+      <c r="G24" s="242"/>
+    </row>
+    <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B25" s="213"/>
+      <c r="C25" s="259"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="252"/>
+      <c r="F25" s="252"/>
+      <c r="G25" s="194"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="162"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="179" t="s">
+      <c r="F26" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" s="194"/>
+    </row>
+    <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="162"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="187"/>
+      <c r="F27" s="187"/>
+      <c r="G27" s="194"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="162"/>
+      <c r="C28" s="261" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" s="261"/>
+      <c r="E28" s="255"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="262"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="162"/>
+      <c r="C29" s="261" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="261"/>
+      <c r="E29" s="255"/>
+      <c r="F29" s="255"/>
+      <c r="G29" s="262"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="162"/>
+      <c r="C30" s="263" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="263"/>
+      <c r="E30" s="255"/>
+      <c r="F30" s="255"/>
+      <c r="G30" s="262"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="162"/>
+      <c r="C31" s="263" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" s="263"/>
+      <c r="E31" s="255"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="262"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="162"/>
+      <c r="C32" s="263" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="263"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="262"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="162"/>
+      <c r="C33" s="263" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="263"/>
+      <c r="E33" s="255"/>
+      <c r="F33" s="255"/>
+      <c r="G33" s="262"/>
+    </row>
+    <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="192"/>
+      <c r="C34" s="251"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="212"/>
+      <c r="F34" s="212"/>
+      <c r="G34" s="194"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="239"/>
+      <c r="C35" s="240" t="s">
+        <v>145</v>
+      </c>
+      <c r="D35" s="241"/>
+      <c r="E35" s="241"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="242"/>
+    </row>
+    <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="162"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="252"/>
+      <c r="F36" s="252"/>
+      <c r="G36" s="252"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="162"/>
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="187" t="s">
+        <v>146</v>
+      </c>
+      <c r="F37" s="187" t="s">
+        <v>147</v>
+      </c>
+      <c r="G37" s="187" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="162"/>
+      <c r="C38" s="177"/>
+      <c r="D38" s="177"/>
+      <c r="E38" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="186" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="186" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="162"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="177"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="162"/>
+      <c r="C40" s="163" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="163"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="162"/>
+      <c r="C41" s="163" t="s">
+        <v>149</v>
+      </c>
+      <c r="D41" s="163"/>
+      <c r="E41" s="182"/>
+      <c r="F41" s="182"/>
+      <c r="G41" s="187" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="227" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="162"/>
+      <c r="C42" s="163" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="163"/>
+      <c r="E42" s="182"/>
+      <c r="F42" s="182"/>
+      <c r="G42" s="187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="162"/>
+      <c r="C43" s="163" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="163"/>
+      <c r="E43" s="182"/>
+      <c r="F43" s="182"/>
+      <c r="G43" s="264" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="162"/>
+      <c r="C44" s="163" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="163"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" s="187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="162"/>
+      <c r="C45" s="163" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="163"/>
+      <c r="E45" s="182"/>
+      <c r="F45" s="182"/>
+      <c r="G45" s="182"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="162"/>
+      <c r="C46" s="163" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="163"/>
+      <c r="E46" s="182"/>
+      <c r="F46" s="187" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" s="187" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="162"/>
+      <c r="C47" s="249" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="189" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="161"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="187"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="161"/>
-      <c r="C17" s="251" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="161"/>
-      <c r="C18" s="251" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="161"/>
-      <c r="C19" s="253" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="161"/>
-      <c r="C20" s="253" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="161"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="252"/>
-      <c r="E21" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="161"/>
-      <c r="C22" s="247" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="252" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="161"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="193"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="237"/>
-      <c r="C24" s="238" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="239"/>
-      <c r="F24" s="239"/>
-      <c r="G24" s="240"/>
-    </row>
-    <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="212"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="193"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="161"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="185" t="s">
+      <c r="D47" s="249"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+    </row>
+    <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="162"/>
+      <c r="C48" s="218" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="249"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+    </row>
+    <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B49" s="162"/>
+      <c r="C49" s="193"/>
+      <c r="D49" s="193"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="239"/>
+      <c r="C50" s="240" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="241"/>
+      <c r="E50" s="241"/>
+      <c r="F50" s="241"/>
+      <c r="G50" s="242"/>
+    </row>
+    <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="162"/>
+      <c r="C51" s="193"/>
+      <c r="D51" s="193"/>
+      <c r="E51" s="252"/>
+      <c r="F51" s="252"/>
+      <c r="G51" s="252"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="162"/>
+      <c r="C52" s="177"/>
+      <c r="D52" s="177"/>
+      <c r="E52" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="185" t="s">
+      <c r="F52" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="193"/>
-    </row>
-    <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="161"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="193"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="161"/>
-      <c r="C28" s="257" t="s">
-        <v>140</v>
-      </c>
-      <c r="D28" s="257"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="258"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="161"/>
-      <c r="C29" s="257" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="257"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="258"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="161"/>
-      <c r="C30" s="259" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="259"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="258"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="161"/>
-      <c r="C31" s="259" t="s">
-        <v>143</v>
-      </c>
-      <c r="D31" s="259"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="258"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="161"/>
-      <c r="C32" s="259" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="259"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="258"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="161"/>
-      <c r="C33" s="259" t="s">
-        <v>145</v>
-      </c>
-      <c r="D33" s="259"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="258"/>
-    </row>
-    <row r="34" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="191"/>
-      <c r="C34" s="248"/>
-      <c r="D34" s="175"/>
-      <c r="E34" s="211"/>
-      <c r="F34" s="211"/>
-      <c r="G34" s="193"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="237"/>
-      <c r="C35" s="238" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="239"/>
-      <c r="E35" s="239"/>
-      <c r="F35" s="239"/>
-      <c r="G35" s="240"/>
-    </row>
-    <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="161"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="249"/>
-      <c r="F36" s="249"/>
-      <c r="G36" s="249"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="161"/>
-      <c r="C37" s="176"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="186" t="s">
-        <v>147</v>
-      </c>
-      <c r="F37" s="186" t="s">
-        <v>148</v>
-      </c>
-      <c r="G37" s="186" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="161"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
-      <c r="E38" s="185" t="s">
+      <c r="G52" s="186"/>
+    </row>
+    <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="162"/>
+      <c r="C53" s="177"/>
+      <c r="D53" s="177"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="162"/>
+      <c r="C54" s="163" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="163"/>
+      <c r="E54" s="255"/>
+      <c r="F54" s="255"/>
+      <c r="G54" s="255"/>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="162"/>
+      <c r="C55" s="163" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="163"/>
+      <c r="E55" s="255"/>
+      <c r="F55" s="255"/>
+      <c r="G55" s="265"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="162"/>
+      <c r="C56" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="163"/>
+      <c r="E56" s="255"/>
+      <c r="F56" s="255"/>
+      <c r="G56" s="255"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="162"/>
+      <c r="C57" s="163" t="s">
+        <v>158</v>
+      </c>
+      <c r="D57" s="163"/>
+      <c r="E57" s="255"/>
+      <c r="F57" s="255"/>
+      <c r="G57" s="265"/>
+    </row>
+    <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="162"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="266"/>
+      <c r="F58" s="266"/>
+      <c r="G58" s="267"/>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="162"/>
+      <c r="C59" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="D59" s="268"/>
+      <c r="E59" s="269"/>
+      <c r="F59" s="269"/>
+      <c r="G59" s="267"/>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="162"/>
+      <c r="C60" s="218" t="s">
+        <v>160</v>
+      </c>
+      <c r="D60" s="268"/>
+      <c r="E60" s="270"/>
+      <c r="F60" s="270"/>
+      <c r="G60" s="271"/>
+    </row>
+    <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="162"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="193"/>
+      <c r="E61" s="212"/>
+      <c r="F61" s="212"/>
+      <c r="G61" s="212"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="239"/>
+      <c r="C62" s="240" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62" s="241"/>
+      <c r="E62" s="241"/>
+      <c r="F62" s="241"/>
+      <c r="G62" s="242"/>
+    </row>
+    <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="162"/>
+      <c r="C63" s="193"/>
+      <c r="D63" s="193"/>
+      <c r="E63" s="252"/>
+      <c r="F63" s="252"/>
+      <c r="G63" s="252"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="162"/>
+      <c r="C64" s="177"/>
+      <c r="D64" s="177"/>
+      <c r="E64" s="186" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="F38" s="185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G38" s="185" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="6.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="161"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="161"/>
-      <c r="C40" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="162"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="161"/>
-      <c r="C41" s="162" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="162"/>
-      <c r="E41" s="181"/>
-      <c r="F41" s="181"/>
-      <c r="G41" s="186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="161"/>
-      <c r="C42" s="162" t="s">
-        <v>151</v>
-      </c>
-      <c r="D42" s="162"/>
-      <c r="E42" s="181"/>
-      <c r="F42" s="181"/>
-      <c r="G42" s="186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="161"/>
-      <c r="C43" s="162" t="s">
-        <v>152</v>
-      </c>
-      <c r="D43" s="162"/>
-      <c r="E43" s="181"/>
-      <c r="F43" s="181"/>
-      <c r="G43" s="181"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="161"/>
-      <c r="C44" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="181"/>
-      <c r="F44" s="186" t="s">
-        <v>32</v>
-      </c>
-      <c r="G44" s="186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="161"/>
-      <c r="C45" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="162"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="181"/>
-      <c r="G45" s="181"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="161"/>
-      <c r="C46" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="D46" s="162"/>
-      <c r="E46" s="181"/>
-      <c r="F46" s="186" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="161"/>
-      <c r="C47" s="247" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="247"/>
-      <c r="E47" s="185"/>
-      <c r="F47" s="185"/>
-      <c r="G47" s="185"/>
-    </row>
-    <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="161"/>
-      <c r="C48" s="217" t="s">
-        <v>155</v>
-      </c>
-      <c r="D48" s="247"/>
-      <c r="E48" s="223"/>
-      <c r="F48" s="185"/>
-      <c r="G48" s="185"/>
-    </row>
-    <row r="49" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="161"/>
-      <c r="C49" s="192"/>
-      <c r="D49" s="192"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="237"/>
-      <c r="C50" s="238" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="239"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="239"/>
-      <c r="G50" s="240"/>
-    </row>
-    <row r="51" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="161"/>
-      <c r="C51" s="192"/>
-      <c r="D51" s="192"/>
-      <c r="E51" s="249"/>
-      <c r="F51" s="249"/>
-      <c r="G51" s="249"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="161"/>
-      <c r="C52" s="176"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="185" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="185"/>
-    </row>
-    <row r="53" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="161"/>
-      <c r="C53" s="176"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="186"/>
-      <c r="G53" s="186"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="161"/>
-      <c r="C54" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="162"/>
-      <c r="E54" s="181"/>
-      <c r="F54" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="185"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="161"/>
-      <c r="C55" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" s="162"/>
-      <c r="E55" s="181"/>
-      <c r="F55" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="186"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="161"/>
-      <c r="C56" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56" s="162"/>
-      <c r="E56" s="181"/>
-      <c r="F56" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" s="185"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="161"/>
-      <c r="C57" s="162" t="s">
-        <v>159</v>
-      </c>
-      <c r="D57" s="162"/>
-      <c r="E57" s="181"/>
-      <c r="F57" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" s="186"/>
-    </row>
-    <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="161"/>
-      <c r="C58" s="162"/>
-      <c r="D58" s="162"/>
-      <c r="E58" s="260"/>
-      <c r="F58" s="260"/>
-      <c r="G58" s="261"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="161"/>
-      <c r="C59" s="217" t="s">
-        <v>160</v>
-      </c>
-      <c r="D59" s="262"/>
-      <c r="E59" s="263"/>
-      <c r="F59" s="263"/>
-      <c r="G59" s="261"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="161"/>
-      <c r="C60" s="217" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="262"/>
-      <c r="E60" s="263"/>
-      <c r="F60" s="263"/>
-      <c r="G60" s="264"/>
-    </row>
-    <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="161"/>
-      <c r="C61" s="162"/>
-      <c r="D61" s="192"/>
-      <c r="E61" s="211"/>
-      <c r="F61" s="211"/>
-      <c r="G61" s="211"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="237"/>
-      <c r="C62" s="238" t="s">
+      <c r="G64" s="187"/>
+    </row>
+    <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="162"/>
+      <c r="C65" s="177"/>
+      <c r="D65" s="177"/>
+      <c r="E65" s="187"/>
+      <c r="F65" s="187"/>
+      <c r="G65" s="187"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="162"/>
+      <c r="C66" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="D62" s="239"/>
-      <c r="E62" s="239"/>
-      <c r="F62" s="239"/>
-      <c r="G62" s="240"/>
-    </row>
-    <row r="63" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="161"/>
-      <c r="C63" s="192"/>
-      <c r="D63" s="192"/>
-      <c r="E63" s="249"/>
-      <c r="F63" s="249"/>
-      <c r="G63" s="249"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="161"/>
-      <c r="C64" s="176"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="185" t="s">
-        <v>30</v>
-      </c>
-      <c r="F64" s="185" t="s">
-        <v>31</v>
-      </c>
-      <c r="G64" s="186"/>
-    </row>
-    <row r="65" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="161"/>
-      <c r="C65" s="176"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="186"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="161"/>
-      <c r="C66" s="162" t="s">
+      <c r="D66" s="163"/>
+      <c r="E66" s="255"/>
+      <c r="F66" s="255"/>
+      <c r="G66" s="265"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="162"/>
+      <c r="C67" s="163" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="163"/>
+      <c r="E67" s="255"/>
+      <c r="F67" s="255"/>
+      <c r="G67" s="265"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="162"/>
+      <c r="C68" s="163" t="s">
+        <v>122</v>
+      </c>
+      <c r="D68" s="163"/>
+      <c r="E68" s="255"/>
+      <c r="F68" s="255"/>
+      <c r="G68" s="265"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="162"/>
+      <c r="C69" s="163" t="s">
+        <v>123</v>
+      </c>
+      <c r="D69" s="163"/>
+      <c r="E69" s="255"/>
+      <c r="F69" s="255"/>
+      <c r="G69" s="265"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="162"/>
+      <c r="C70" s="163" t="s">
         <v>163</v>
       </c>
-      <c r="D66" s="162"/>
-      <c r="E66" s="181"/>
-      <c r="F66" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" s="186"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="161"/>
-      <c r="C67" s="162" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" s="162"/>
-      <c r="E67" s="181"/>
-      <c r="F67" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" s="186"/>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="161"/>
-      <c r="C68" s="162" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="162"/>
-      <c r="E68" s="181"/>
-      <c r="F68" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="186"/>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="161"/>
-      <c r="C69" s="162" t="s">
-        <v>123</v>
-      </c>
-      <c r="D69" s="162"/>
-      <c r="E69" s="181"/>
-      <c r="F69" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" s="186"/>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="161"/>
-      <c r="C70" s="162" t="s">
+      <c r="D70" s="163"/>
+      <c r="E70" s="255"/>
+      <c r="F70" s="255"/>
+      <c r="G70" s="265"/>
+    </row>
+    <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B71" s="162"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="193"/>
+      <c r="E71" s="212"/>
+      <c r="F71" s="212"/>
+      <c r="G71" s="212"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="239"/>
+      <c r="C72" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="D70" s="162"/>
-      <c r="E70" s="181"/>
-      <c r="F70" s="252" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" s="186"/>
-    </row>
-    <row r="71" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="161"/>
-      <c r="C71" s="162"/>
-      <c r="D71" s="192"/>
-      <c r="E71" s="211"/>
-      <c r="F71" s="211"/>
-      <c r="G71" s="211"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="237"/>
-      <c r="C72" s="238" t="s">
-        <v>165</v>
-      </c>
-      <c r="D72" s="239"/>
-      <c r="E72" s="239"/>
-      <c r="F72" s="239"/>
-      <c r="G72" s="240"/>
+      <c r="D72" s="241"/>
+      <c r="E72" s="241"/>
+      <c r="F72" s="241"/>
+      <c r="G72" s="242"/>
     </row>
     <row r="73" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="161"/>
-      <c r="C73" s="192"/>
-      <c r="D73" s="192"/>
-      <c r="E73" s="212"/>
-      <c r="F73" s="255"/>
-      <c r="G73" s="256"/>
+      <c r="B73" s="162"/>
+      <c r="C73" s="193"/>
+      <c r="D73" s="193"/>
+      <c r="E73" s="213"/>
+      <c r="F73" s="259"/>
+      <c r="G73" s="260"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="161"/>
-      <c r="C74" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="D74" s="162"/>
-      <c r="E74" s="265"/>
-      <c r="F74" s="265"/>
-      <c r="G74" s="265"/>
+      <c r="B74" s="162"/>
+      <c r="C74" s="163" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="163"/>
+      <c r="E74" s="272"/>
+      <c r="F74" s="272"/>
+      <c r="G74" s="272"/>
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="231"/>
-      <c r="C75" s="174"/>
-      <c r="D75" s="174"/>
-      <c r="E75" s="231"/>
-      <c r="F75" s="174"/>
-      <c r="G75" s="266"/>
+      <c r="B75" s="233"/>
+      <c r="C75" s="175"/>
+      <c r="D75" s="175"/>
+      <c r="E75" s="233"/>
+      <c r="F75" s="175"/>
+      <c r="G75" s="273"/>
     </row>
     <row r="76" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="32">
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:G5"/>
-    <mergeCell ref="D9:K9"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="C28:D28"/>
@@ -13443,7 +13417,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
+  <conditionalFormatting sqref="G42:G43">
     <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177">
       <formula>"*"</formula>
     </cfRule>
@@ -13661,48 +13635,43 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="G45">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
+  <conditionalFormatting sqref="E54:E57">
     <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E57">
+  <conditionalFormatting sqref="C8">
     <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+  <conditionalFormatting sqref="F38">
     <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="E64">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E64">
+  <conditionalFormatting sqref="F64">
     <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13715,7 +13684,7 @@
       <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D17:D20 E28:E33 E41:F43 G43 E44:E46 F45:G45 E54:E57 E66:E70" type="custom">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D17:D20 E28:E33 E41:F43 E44:E46 F45:G45 E54:E57 E66:E70" type="custom">
       <formula1>OR(ISNUMBER(E28),E28="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13742,7 +13711,7 @@
   </sheetPr>
   <dimension ref="B2:AMJ55"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H40" activeCellId="0" sqref="H40"/>
     </sheetView>
   </sheetViews>
@@ -13760,18 +13729,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="978" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="267" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="268"/>
-      <c r="C2" s="269" t="s">
-        <v>166</v>
-      </c>
-      <c r="D2" s="269"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="271"/>
+    <row r="2" s="274" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="275"/>
+      <c r="C2" s="276" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" s="276"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="278"/>
       <c r="AKP2" s="0"/>
       <c r="AKQ2" s="0"/>
       <c r="AKR2" s="0"/>
@@ -13822,16 +13791,16 @@
     </row>
     <row r="3" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="98"/>
-      <c r="C3" s="272" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
-      <c r="J3" s="272"/>
+      <c r="C3" s="279" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="279"/>
+      <c r="E3" s="279"/>
+      <c r="F3" s="279"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="279"/>
+      <c r="J3" s="279"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="98"/>
@@ -13847,7 +13816,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="94"/>
       <c r="C5" s="95" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D5" s="95"/>
       <c r="E5" s="96"/>
@@ -13874,11 +13843,11 @@
       <c r="C7" s="103"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
-      <c r="F7" s="273"/>
+      <c r="F7" s="280"/>
       <c r="G7" s="104"/>
       <c r="H7" s="104"/>
       <c r="I7" s="104"/>
-      <c r="J7" s="274"/>
+      <c r="J7" s="281"/>
       <c r="K7" s="106"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13903,22 +13872,22 @@
       <c r="I9" s="108"/>
       <c r="J9" s="109"/>
     </row>
-    <row r="10" s="267" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="275"/>
-      <c r="C10" s="276" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" s="277"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="281" t="s">
+    <row r="10" s="274" customFormat="true" ht="21.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="282"/>
+      <c r="C10" s="283" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="284"/>
+      <c r="E10" s="285"/>
+      <c r="F10" s="286"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="288" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="281" t="s">
+      <c r="I10" s="288" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="281"/>
+      <c r="J10" s="288"/>
       <c r="AKP10" s="0"/>
       <c r="AKQ10" s="0"/>
       <c r="AKR10" s="0"/>
@@ -13971,154 +13940,154 @@
       <c r="B11" s="98"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="282"/>
+      <c r="E11" s="289"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="118"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="290"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="98"/>
       <c r="C12" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D12" s="101"/>
-      <c r="E12" s="283"/>
+      <c r="E12" s="291"/>
       <c r="F12" s="76"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="285" t="s">
+      <c r="G12" s="292"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="286"/>
+      <c r="J12" s="294"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="98"/>
       <c r="C13" s="101"/>
       <c r="D13" s="101"/>
-      <c r="E13" s="283"/>
+      <c r="E13" s="291"/>
       <c r="F13" s="76"/>
-      <c r="G13" s="284"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="287"/>
-      <c r="J13" s="286"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="295"/>
+      <c r="J13" s="294"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="98"/>
       <c r="C14" s="101" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="101"/>
-      <c r="E14" s="283"/>
+      <c r="E14" s="291"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="284"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="285" t="s">
+      <c r="G14" s="292"/>
+      <c r="H14" s="182"/>
+      <c r="I14" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="286"/>
+      <c r="J14" s="294"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="98"/>
       <c r="C15" s="101"/>
       <c r="D15" s="101"/>
-      <c r="E15" s="283"/>
+      <c r="E15" s="291"/>
       <c r="F15" s="76"/>
-      <c r="G15" s="284"/>
-      <c r="H15" s="181"/>
-      <c r="I15" s="287"/>
-      <c r="J15" s="286"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="182"/>
+      <c r="I15" s="295"/>
+      <c r="J15" s="294"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="98"/>
-      <c r="C16" s="288" t="s">
-        <v>172</v>
+      <c r="C16" s="296" t="s">
+        <v>171</v>
       </c>
       <c r="D16" s="101"/>
-      <c r="E16" s="283"/>
+      <c r="E16" s="291"/>
       <c r="F16" s="76"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="181"/>
-      <c r="I16" s="285" t="s">
+      <c r="G16" s="292"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J16" s="286"/>
+      <c r="J16" s="294"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="98"/>
-      <c r="C17" s="288" t="s">
-        <v>173</v>
+      <c r="C17" s="296" t="s">
+        <v>172</v>
       </c>
       <c r="D17" s="101"/>
-      <c r="E17" s="283"/>
+      <c r="E17" s="291"/>
       <c r="F17" s="76"/>
-      <c r="G17" s="284"/>
-      <c r="H17" s="181"/>
-      <c r="I17" s="285" t="s">
+      <c r="G17" s="292"/>
+      <c r="H17" s="182"/>
+      <c r="I17" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="286"/>
+      <c r="J17" s="294"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="98"/>
-      <c r="C18" s="288"/>
+      <c r="C18" s="296"/>
       <c r="D18" s="101"/>
-      <c r="E18" s="283"/>
+      <c r="E18" s="291"/>
       <c r="F18" s="76"/>
-      <c r="G18" s="283"/>
-      <c r="H18" s="181"/>
-      <c r="I18" s="287"/>
-      <c r="J18" s="286"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="182"/>
+      <c r="I18" s="295"/>
+      <c r="J18" s="294"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="98"/>
       <c r="C19" s="101" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="101"/>
       <c r="E19" s="101"/>
       <c r="F19" s="101"/>
       <c r="G19" s="101"/>
-      <c r="H19" s="181"/>
-      <c r="I19" s="285" t="s">
+      <c r="H19" s="182"/>
+      <c r="I19" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J19" s="286"/>
+      <c r="J19" s="294"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="107"/>
-      <c r="C20" s="289"/>
-      <c r="D20" s="289"/>
-      <c r="E20" s="289"/>
-      <c r="F20" s="289"/>
-      <c r="G20" s="289"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="290"/>
-      <c r="J20" s="291"/>
-    </row>
-    <row r="21" s="267" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="275"/>
-      <c r="C21" s="276" t="s">
+      <c r="C20" s="297"/>
+      <c r="D20" s="297"/>
+      <c r="E20" s="297"/>
+      <c r="F20" s="297"/>
+      <c r="G20" s="297"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="298"/>
+      <c r="J20" s="299"/>
+    </row>
+    <row r="21" s="274" customFormat="true" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="282"/>
+      <c r="C21" s="283" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="283"/>
+      <c r="E21" s="300" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="276"/>
-      <c r="E21" s="292" t="s">
+      <c r="F21" s="301" t="s">
         <v>175</v>
       </c>
-      <c r="F21" s="293" t="s">
+      <c r="G21" s="300" t="s">
         <v>176</v>
       </c>
-      <c r="G21" s="292" t="s">
-        <v>177</v>
-      </c>
-      <c r="H21" s="293" t="s">
+      <c r="H21" s="301" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="293" t="s">
+      <c r="I21" s="301" t="s">
         <v>31</v>
       </c>
-      <c r="J21" s="293"/>
+      <c r="J21" s="301"/>
       <c r="AKP21" s="0"/>
       <c r="AKQ21" s="0"/>
       <c r="AKR21" s="0"/>
@@ -14169,209 +14138,209 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="92"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="295"/>
-      <c r="F22" s="296"/>
-      <c r="G22" s="297"/>
-      <c r="H22" s="297"/>
-      <c r="I22" s="298"/>
-      <c r="J22" s="299"/>
+      <c r="C22" s="302"/>
+      <c r="D22" s="302"/>
+      <c r="E22" s="303"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="305"/>
+      <c r="H22" s="305"/>
+      <c r="I22" s="306"/>
+      <c r="J22" s="307"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="98"/>
       <c r="C23" s="101" t="s">
+        <v>177</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="308" t="s">
         <v>178</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="181"/>
-      <c r="F23" s="300" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="301" t="n">
+      <c r="G23" s="309" t="n">
         <v>10</v>
       </c>
-      <c r="H23" s="285" t="s">
+      <c r="H23" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="285" t="s">
+      <c r="I23" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J23" s="286"/>
+      <c r="J23" s="294"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="98"/>
       <c r="C24" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" s="101"/>
+      <c r="E24" s="182"/>
+      <c r="F24" s="308" t="s">
         <v>180</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="181"/>
-      <c r="F24" s="300" t="s">
-        <v>181</v>
-      </c>
-      <c r="G24" s="301" t="n">
+      <c r="G24" s="309" t="n">
         <v>1300</v>
       </c>
-      <c r="H24" s="285" t="s">
+      <c r="H24" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="285" t="s">
+      <c r="I24" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="286"/>
+      <c r="J24" s="294"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="98"/>
       <c r="C25" s="101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="101"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="300" t="s">
-        <v>181</v>
-      </c>
-      <c r="G25" s="301" t="n">
+      <c r="E25" s="182"/>
+      <c r="F25" s="308" t="s">
+        <v>180</v>
+      </c>
+      <c r="G25" s="309" t="n">
         <v>1700</v>
       </c>
-      <c r="H25" s="285" t="s">
+      <c r="H25" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="I25" s="285" t="s">
+      <c r="I25" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="286"/>
+      <c r="J25" s="294"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="98"/>
       <c r="C26" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26" s="101"/>
+      <c r="E26" s="182"/>
+      <c r="F26" s="308" t="s">
         <v>183</v>
       </c>
-      <c r="D26" s="101"/>
-      <c r="E26" s="181"/>
-      <c r="F26" s="300" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="301" t="n">
+      <c r="G26" s="309" t="n">
         <v>4.7</v>
       </c>
-      <c r="H26" s="285" t="s">
+      <c r="H26" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="I26" s="285" t="s">
+      <c r="I26" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J26" s="286"/>
+      <c r="J26" s="294"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="98"/>
-      <c r="C27" s="302"/>
-      <c r="D27" s="302"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="303"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="304"/>
-      <c r="I27" s="287"/>
-      <c r="J27" s="286"/>
+      <c r="C27" s="310"/>
+      <c r="D27" s="310"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="312"/>
+      <c r="I27" s="295"/>
+      <c r="J27" s="294"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="98"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="302"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="304"/>
-      <c r="I28" s="287"/>
-      <c r="J28" s="286"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="310"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="311"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="312"/>
+      <c r="I28" s="295"/>
+      <c r="J28" s="294"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="98"/>
-      <c r="C29" s="305" t="s">
-        <v>185</v>
-      </c>
-      <c r="D29" s="305"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="304"/>
-      <c r="I29" s="287"/>
-      <c r="J29" s="286"/>
+      <c r="C29" s="313" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="313"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="311"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="312"/>
+      <c r="I29" s="295"/>
+      <c r="J29" s="294"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="98"/>
-      <c r="C30" s="305"/>
-      <c r="D30" s="305"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="304"/>
-      <c r="I30" s="287"/>
-      <c r="J30" s="286"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="311"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="312"/>
+      <c r="I30" s="295"/>
+      <c r="J30" s="294"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="98"/>
-      <c r="C31" s="305"/>
-      <c r="D31" s="305"/>
-      <c r="E31" s="181"/>
-      <c r="F31" s="303"/>
-      <c r="G31" s="181"/>
-      <c r="H31" s="304"/>
-      <c r="I31" s="287"/>
-      <c r="J31" s="286"/>
+      <c r="C31" s="313"/>
+      <c r="D31" s="313"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="311"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="312"/>
+      <c r="I31" s="295"/>
+      <c r="J31" s="294"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="98"/>
-      <c r="C32" s="305"/>
-      <c r="D32" s="305"/>
-      <c r="E32" s="181"/>
-      <c r="F32" s="303"/>
-      <c r="G32" s="181"/>
-      <c r="H32" s="304"/>
-      <c r="I32" s="287"/>
-      <c r="J32" s="286"/>
+      <c r="C32" s="313"/>
+      <c r="D32" s="313"/>
+      <c r="E32" s="182"/>
+      <c r="F32" s="311"/>
+      <c r="G32" s="182"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="295"/>
+      <c r="J32" s="294"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="98"/>
-      <c r="C33" s="302"/>
-      <c r="D33" s="302"/>
-      <c r="E33" s="181"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="181"/>
-      <c r="H33" s="304"/>
-      <c r="I33" s="287"/>
-      <c r="J33" s="286"/>
+      <c r="C33" s="310"/>
+      <c r="D33" s="310"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="311"/>
+      <c r="G33" s="182"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="295"/>
+      <c r="J33" s="294"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="107"/>
-      <c r="C34" s="306"/>
-      <c r="D34" s="306"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="307"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="308"/>
-      <c r="I34" s="290"/>
-      <c r="J34" s="291"/>
+      <c r="C34" s="314"/>
+      <c r="D34" s="314"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="315"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="316"/>
+      <c r="I34" s="298"/>
+      <c r="J34" s="299"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="98"/>
-      <c r="C35" s="276" t="s">
-        <v>186</v>
-      </c>
-      <c r="D35" s="276"/>
-      <c r="E35" s="283"/>
+      <c r="C35" s="283" t="s">
+        <v>185</v>
+      </c>
+      <c r="D35" s="283"/>
+      <c r="E35" s="291"/>
       <c r="F35" s="76"/>
-      <c r="G35" s="283"/>
-      <c r="H35" s="309"/>
-      <c r="I35" s="310"/>
-      <c r="J35" s="286"/>
+      <c r="G35" s="291"/>
+      <c r="H35" s="317"/>
+      <c r="I35" s="318"/>
+      <c r="J35" s="294"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="98"/>
-      <c r="C36" s="276"/>
-      <c r="D36" s="276"/>
-      <c r="E36" s="283"/>
+      <c r="C36" s="283"/>
+      <c r="D36" s="283"/>
+      <c r="E36" s="291"/>
       <c r="F36" s="76"/>
-      <c r="G36" s="283"/>
+      <c r="G36" s="291"/>
       <c r="H36" s="113" t="s">
         <v>30</v>
       </c>
@@ -14382,215 +14351,215 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="92"/>
-      <c r="C37" s="311"/>
-      <c r="D37" s="311"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="313"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="209"/>
-      <c r="I37" s="314"/>
-      <c r="J37" s="315"/>
+      <c r="C37" s="319"/>
+      <c r="D37" s="319"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="321"/>
+      <c r="G37" s="321"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="322"/>
+      <c r="J37" s="323"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="98"/>
       <c r="C38" s="30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D38" s="30"/>
-      <c r="E38" s="316"/>
-      <c r="F38" s="317"/>
-      <c r="G38" s="317"/>
-      <c r="H38" s="181"/>
-      <c r="I38" s="285" t="s">
+      <c r="E38" s="324"/>
+      <c r="F38" s="325"/>
+      <c r="G38" s="325"/>
+      <c r="H38" s="182"/>
+      <c r="I38" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J38" s="286"/>
+      <c r="J38" s="294"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="98"/>
       <c r="C39" s="30"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="316"/>
-      <c r="F39" s="317"/>
-      <c r="G39" s="317"/>
-      <c r="H39" s="181"/>
-      <c r="I39" s="310"/>
-      <c r="J39" s="286"/>
+      <c r="E39" s="324"/>
+      <c r="F39" s="325"/>
+      <c r="G39" s="325"/>
+      <c r="H39" s="182"/>
+      <c r="I39" s="318"/>
+      <c r="J39" s="294"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="98"/>
       <c r="C40" s="30" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D40" s="30"/>
-      <c r="E40" s="316"/>
-      <c r="F40" s="317"/>
-      <c r="G40" s="317"/>
-      <c r="H40" s="181"/>
-      <c r="I40" s="285" t="s">
+      <c r="E40" s="324"/>
+      <c r="F40" s="325"/>
+      <c r="G40" s="325"/>
+      <c r="H40" s="182"/>
+      <c r="I40" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="286"/>
+      <c r="J40" s="294"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="98"/>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="316"/>
-      <c r="F41" s="317"/>
-      <c r="G41" s="317"/>
-      <c r="H41" s="181"/>
-      <c r="I41" s="310"/>
-      <c r="J41" s="286"/>
+      <c r="E41" s="324"/>
+      <c r="F41" s="325"/>
+      <c r="G41" s="325"/>
+      <c r="H41" s="182"/>
+      <c r="I41" s="318"/>
+      <c r="J41" s="294"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="98"/>
       <c r="C42" s="30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D42" s="30"/>
-      <c r="E42" s="316"/>
-      <c r="F42" s="317"/>
-      <c r="G42" s="317"/>
-      <c r="H42" s="181"/>
-      <c r="I42" s="285" t="s">
+      <c r="E42" s="324"/>
+      <c r="F42" s="325"/>
+      <c r="G42" s="325"/>
+      <c r="H42" s="182"/>
+      <c r="I42" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J42" s="286"/>
+      <c r="J42" s="294"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="98"/>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="316"/>
-      <c r="F43" s="317"/>
-      <c r="G43" s="317"/>
-      <c r="H43" s="181"/>
-      <c r="I43" s="310"/>
-      <c r="J43" s="286"/>
+      <c r="E43" s="324"/>
+      <c r="F43" s="325"/>
+      <c r="G43" s="325"/>
+      <c r="H43" s="182"/>
+      <c r="I43" s="318"/>
+      <c r="J43" s="294"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="98"/>
       <c r="C44" s="30" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="30"/>
-      <c r="E44" s="316"/>
-      <c r="F44" s="317"/>
-      <c r="G44" s="317"/>
-      <c r="H44" s="181"/>
-      <c r="I44" s="285" t="s">
+      <c r="E44" s="324"/>
+      <c r="F44" s="325"/>
+      <c r="G44" s="325"/>
+      <c r="H44" s="182"/>
+      <c r="I44" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J44" s="286"/>
+      <c r="J44" s="294"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="98"/>
       <c r="C45" s="30"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="316"/>
-      <c r="F45" s="317"/>
-      <c r="G45" s="317"/>
-      <c r="H45" s="181"/>
-      <c r="I45" s="310"/>
-      <c r="J45" s="286"/>
+      <c r="E45" s="324"/>
+      <c r="F45" s="325"/>
+      <c r="G45" s="325"/>
+      <c r="H45" s="182"/>
+      <c r="I45" s="318"/>
+      <c r="J45" s="294"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="98"/>
       <c r="C46" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D46" s="15"/>
       <c r="E46" s="4"/>
       <c r="F46" s="46"/>
       <c r="G46" s="46"/>
-      <c r="H46" s="285" t="s">
+      <c r="H46" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="I46" s="285" t="s">
+      <c r="I46" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="J46" s="318"/>
+      <c r="J46" s="326"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="107"/>
-      <c r="C47" s="319"/>
-      <c r="D47" s="319"/>
+      <c r="C47" s="327"/>
+      <c r="D47" s="327"/>
       <c r="E47" s="108"/>
-      <c r="F47" s="320"/>
-      <c r="G47" s="320"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="320"/>
-      <c r="J47" s="149"/>
+      <c r="F47" s="328"/>
+      <c r="G47" s="328"/>
+      <c r="H47" s="329"/>
+      <c r="I47" s="328"/>
+      <c r="J47" s="150"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="92"/>
-      <c r="C48" s="322" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="322"/>
-      <c r="E48" s="322"/>
-      <c r="F48" s="322"/>
-      <c r="G48" s="322"/>
-      <c r="H48" s="322"/>
-      <c r="I48" s="322"/>
-      <c r="J48" s="322"/>
+      <c r="C48" s="330" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="330"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="330"/>
+      <c r="G48" s="330"/>
+      <c r="H48" s="330"/>
+      <c r="I48" s="330"/>
+      <c r="J48" s="330"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="98"/>
-      <c r="C49" s="322"/>
-      <c r="D49" s="322"/>
-      <c r="E49" s="322"/>
-      <c r="F49" s="322"/>
-      <c r="G49" s="322"/>
-      <c r="H49" s="322"/>
-      <c r="I49" s="322"/>
-      <c r="J49" s="322"/>
+      <c r="C49" s="330"/>
+      <c r="D49" s="330"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="330"/>
+      <c r="G49" s="330"/>
+      <c r="H49" s="330"/>
+      <c r="I49" s="330"/>
+      <c r="J49" s="330"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="98"/>
-      <c r="C50" s="322"/>
-      <c r="D50" s="322"/>
-      <c r="E50" s="322"/>
-      <c r="F50" s="322"/>
-      <c r="G50" s="322"/>
-      <c r="H50" s="322"/>
-      <c r="I50" s="322"/>
-      <c r="J50" s="322"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="330"/>
+      <c r="G50" s="330"/>
+      <c r="H50" s="330"/>
+      <c r="I50" s="330"/>
+      <c r="J50" s="330"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="98"/>
-      <c r="C51" s="322"/>
-      <c r="D51" s="322"/>
-      <c r="E51" s="322"/>
-      <c r="F51" s="322"/>
-      <c r="G51" s="322"/>
-      <c r="H51" s="322"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="322"/>
+      <c r="C51" s="330"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
+      <c r="G51" s="330"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="330"/>
+      <c r="J51" s="330"/>
     </row>
     <row r="52" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="98"/>
-      <c r="C52" s="322"/>
-      <c r="D52" s="322"/>
-      <c r="E52" s="322"/>
-      <c r="F52" s="322"/>
-      <c r="G52" s="322"/>
-      <c r="H52" s="322"/>
-      <c r="I52" s="322"/>
-      <c r="J52" s="322"/>
+      <c r="C52" s="330"/>
+      <c r="D52" s="330"/>
+      <c r="E52" s="330"/>
+      <c r="F52" s="330"/>
+      <c r="G52" s="330"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="330"/>
+      <c r="J52" s="330"/>
     </row>
     <row r="53" customFormat="false" ht="33.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="147"/>
-      <c r="C53" s="322"/>
-      <c r="D53" s="322"/>
-      <c r="E53" s="322"/>
-      <c r="F53" s="322"/>
-      <c r="G53" s="322"/>
-      <c r="H53" s="322"/>
-      <c r="I53" s="322"/>
-      <c r="J53" s="322"/>
-      <c r="K53" s="125"/>
+      <c r="B53" s="148"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="330"/>
+      <c r="G53" s="330"/>
+      <c r="H53" s="330"/>
+      <c r="I53" s="330"/>
+      <c r="J53" s="330"/>
+      <c r="K53" s="331"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -14609,447 +14578,447 @@
     <mergeCell ref="C48:J53"/>
   </mergeCells>
   <conditionalFormatting sqref="L46:GZ47 L53:GZ54 K53 L37:GZ45 K32:K47 J5:J9 C10 H10 B55:GZ65353 B2:J2 B54:J54 B5:I6 B9:I9 E11:H11 B46:E47 F12:F13 L2:GZ6 B37:D45 B8:D8 F8:I8 K2:K24 L7:GZ7 B4:J4 B3:C3 C35 I20 H12:H20 L8:GZ24 B10:B24 H27:I35 L32:GZ36 B32:B36 E23:E36 G27:G36">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7 I7">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:G46">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:I47">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D51 B52 K48:GZ52">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D25 C33:D34 C20 F32:F36">
-    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+    <cfRule type="expression" priority="11" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
       <formula>LEFT(C20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+    <cfRule type="expression" priority="12" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
       <formula>LEFT(C24,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K25:GZ27">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B27">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G26 G25">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D25">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>LEFT(C25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D27">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
       <formula>LEFT(C26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:D13">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14:D15">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:D18">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C18">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F18">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:D18">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:D25">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+    <cfRule type="expression" priority="40" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>LEFT(C26,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:G23">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:D23">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:G24">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:D24">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:G26">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:D26">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+    <cfRule type="expression" priority="56" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>LEFT(F27,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K28:GZ31">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B31">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D29">
-    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+    <cfRule type="expression" priority="63" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>LEFT(C28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F31">
-    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+    <cfRule type="expression" priority="64" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
       <formula>LEFT(F28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I40 I42 I44 H46:I46">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 I16:I17 I19 H23:I26 I38 I40 I42 I44 H46:I46">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 I15">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18 I15">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39 I45 I37 I43">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39 I45 I37 I43">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37:E41">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:E13">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E18">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G18">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:H39 H42:H45">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:D22">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21:E22">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G22">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H22">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:I22">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:G19">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40:H41">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15092,14 +15061,14 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="2" s="323" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="324" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="324"/>
-      <c r="F2" s="324"/>
+    <row r="2" s="332" customFormat="true" ht="39.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="333" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="333"/>
+      <c r="D2" s="333"/>
+      <c r="E2" s="333"/>
+      <c r="F2" s="333"/>
       <c r="ALG2" s="0"/>
       <c r="ALH2" s="0"/>
       <c r="ALI2" s="0"/>
@@ -15132,119 +15101,119 @@
       <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="325" t="s">
+      <c r="B3" s="334" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+    </row>
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="335" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="325"/>
-    </row>
-    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="326" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="336"/>
+      <c r="E4" s="336"/>
+      <c r="F4" s="337"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="315"/>
+      <c r="E10" s="315"/>
+      <c r="F10" s="315"/>
+    </row>
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="338" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="327"/>
-      <c r="E4" s="327"/>
-      <c r="F4" s="328"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="303"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="307"/>
-      <c r="C10" s="307"/>
-      <c r="D10" s="307"/>
-      <c r="E10" s="307"/>
-      <c r="F10" s="307"/>
-    </row>
-    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="329" t="s">
+      <c r="C11" s="338"/>
+      <c r="D11" s="338"/>
+      <c r="E11" s="338"/>
+      <c r="F11" s="338"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="340"/>
+      <c r="D12" s="340"/>
+      <c r="E12" s="340"/>
+      <c r="F12" s="340"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="339" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="340"/>
+      <c r="D13" s="340"/>
+      <c r="E13" s="340"/>
+      <c r="F13" s="340"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="339" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="340"/>
+      <c r="D14" s="340"/>
+      <c r="E14" s="340"/>
+      <c r="F14" s="340"/>
+    </row>
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="341"/>
+      <c r="C15" s="342" t="s">
         <v>194</v>
       </c>
-      <c r="C11" s="329"/>
-      <c r="D11" s="329"/>
-      <c r="E11" s="329"/>
-      <c r="F11" s="329"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="331"/>
-      <c r="D12" s="331"/>
-      <c r="E12" s="331"/>
-      <c r="F12" s="331"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="330" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" s="331"/>
-      <c r="D13" s="331"/>
-      <c r="E13" s="331"/>
-      <c r="F13" s="331"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="330" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" s="331"/>
-      <c r="D14" s="331"/>
-      <c r="E14" s="331"/>
-      <c r="F14" s="331"/>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="332"/>
-      <c r="C15" s="333" t="s">
+      <c r="D15" s="342" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="333" t="s">
+      <c r="E15" s="342" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="333" t="s">
+      <c r="F15" s="343" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="334" t="s">
-        <v>198</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="335"/>
+      <c r="B16" s="344"/>
       <c r="C16" s="113" t="s">
         <v>30</v>
       </c>
@@ -15259,138 +15228,138 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="330" t="n">
+      <c r="B17" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="336"/>
-      <c r="F17" s="336"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="345"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="345"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="330" t="n">
+      <c r="B18" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C18" s="336"/>
-      <c r="D18" s="336"/>
-      <c r="E18" s="336"/>
-      <c r="F18" s="336"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="345"/>
+      <c r="F18" s="345"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="330" t="n">
+      <c r="B19" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="336"/>
-      <c r="D19" s="336"/>
-      <c r="E19" s="336"/>
-      <c r="F19" s="336"/>
+      <c r="C19" s="345"/>
+      <c r="D19" s="345"/>
+      <c r="E19" s="345"/>
+      <c r="F19" s="345"/>
     </row>
     <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="337" t="s">
+      <c r="B20" s="346" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="336"/>
+      <c r="E20" s="336"/>
+      <c r="F20" s="347"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="311"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="311"/>
+      <c r="E21" s="311"/>
+      <c r="F21" s="311"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="311"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="311"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="311"/>
+      <c r="C23" s="311"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
+      <c r="F23" s="311"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="311"/>
+      <c r="C24" s="311"/>
+      <c r="D24" s="311"/>
+      <c r="E24" s="311"/>
+      <c r="F24" s="311"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="311"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="315"/>
+      <c r="D26" s="315"/>
+      <c r="E26" s="315"/>
+      <c r="F26" s="315"/>
+    </row>
+    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B27" s="338" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="338"/>
+      <c r="D27" s="338"/>
+      <c r="E27" s="338"/>
+      <c r="F27" s="338"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="340"/>
+      <c r="D28" s="340"/>
+      <c r="E28" s="340"/>
+      <c r="F28" s="340"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="339" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" s="340"/>
+      <c r="D29" s="340"/>
+      <c r="E29" s="340"/>
+      <c r="F29" s="340"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="339" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="340"/>
+      <c r="D30" s="340"/>
+      <c r="E30" s="340"/>
+      <c r="F30" s="340"/>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="348"/>
+      <c r="C31" s="342" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="342" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="327"/>
-      <c r="E20" s="327"/>
-      <c r="F20" s="338"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="303"/>
-      <c r="C21" s="303"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="303"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="303"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="303"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="303"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="303"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="303"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="303"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="303"/>
-      <c r="F25" s="303"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="307" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
-      <c r="E26" s="307"/>
-      <c r="F26" s="307"/>
-    </row>
-    <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="329" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="329"/>
-      <c r="D27" s="329"/>
-      <c r="E27" s="329"/>
-      <c r="F27" s="329"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="330" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="331"/>
-      <c r="D28" s="331"/>
-      <c r="E28" s="331"/>
-      <c r="F28" s="331"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="330" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" s="331"/>
-      <c r="D29" s="331"/>
-      <c r="E29" s="331"/>
-      <c r="F29" s="331"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="330" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" s="331"/>
-      <c r="D30" s="331"/>
-      <c r="E30" s="331"/>
-      <c r="F30" s="331"/>
-    </row>
-    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="339"/>
-      <c r="C31" s="333" t="s">
-        <v>195</v>
-      </c>
-      <c r="D31" s="333" t="s">
+      <c r="E31" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="333" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="334" t="s">
-        <v>198</v>
+      <c r="F31" s="343" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="339"/>
+      <c r="B32" s="348"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -15405,136 +15374,136 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="330" t="n">
+      <c r="B33" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
+      <c r="C33" s="345"/>
+      <c r="D33" s="345"/>
+      <c r="E33" s="345"/>
+      <c r="F33" s="345"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="330" t="n">
+      <c r="B34" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="336"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
+      <c r="C34" s="345"/>
+      <c r="D34" s="345"/>
+      <c r="E34" s="345"/>
+      <c r="F34" s="345"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="330" t="n">
+      <c r="B35" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
+      <c r="C35" s="345"/>
+      <c r="D35" s="345"/>
+      <c r="E35" s="345"/>
+      <c r="F35" s="345"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="337" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="340"/>
+      <c r="B36" s="346" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" s="349"/>
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="338"/>
+      <c r="F36" s="347"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="303"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="303"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="311"/>
+      <c r="F37" s="311"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="303"/>
-      <c r="C38" s="303"/>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="303"/>
+      <c r="B38" s="311"/>
+      <c r="C38" s="311"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
+      <c r="F38" s="311"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="303"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
+      <c r="B39" s="311"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
+      <c r="F39" s="311"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
+      <c r="B40" s="311"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="311"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="303"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="303"/>
+      <c r="B41" s="311"/>
+      <c r="C41" s="311"/>
+      <c r="D41" s="311"/>
+      <c r="E41" s="311"/>
+      <c r="F41" s="311"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="307"/>
-      <c r="C42" s="307"/>
-      <c r="D42" s="307"/>
-      <c r="E42" s="307"/>
-      <c r="F42" s="307"/>
+      <c r="B42" s="315"/>
+      <c r="C42" s="315"/>
+      <c r="D42" s="315"/>
+      <c r="E42" s="315"/>
+      <c r="F42" s="315"/>
     </row>
     <row r="43" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="329" t="s">
-        <v>194</v>
-      </c>
-      <c r="C43" s="329"/>
-      <c r="D43" s="329"/>
-      <c r="E43" s="329"/>
-      <c r="F43" s="329"/>
+      <c r="B43" s="338" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" s="338"/>
+      <c r="D43" s="338"/>
+      <c r="E43" s="338"/>
+      <c r="F43" s="338"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="330" t="n">
+      <c r="B44" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="331"/>
-      <c r="D44" s="331"/>
-      <c r="E44" s="331"/>
-      <c r="F44" s="331"/>
+      <c r="C44" s="340"/>
+      <c r="D44" s="340"/>
+      <c r="E44" s="340"/>
+      <c r="F44" s="340"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="330" t="n">
+      <c r="B45" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C45" s="331"/>
-      <c r="D45" s="331"/>
-      <c r="E45" s="331"/>
-      <c r="F45" s="331"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="330" t="n">
+      <c r="B46" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C46" s="331"/>
-      <c r="D46" s="331"/>
-      <c r="E46" s="331"/>
-      <c r="F46" s="331"/>
+      <c r="C46" s="340"/>
+      <c r="D46" s="340"/>
+      <c r="E46" s="340"/>
+      <c r="F46" s="340"/>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="339"/>
-      <c r="C47" s="333" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" s="333" t="s">
+      <c r="B47" s="348"/>
+      <c r="C47" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="342" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="E47" s="333" t="s">
-        <v>201</v>
-      </c>
-      <c r="F47" s="334" t="s">
-        <v>198</v>
+      <c r="F47" s="343" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="339"/>
+      <c r="B48" s="348"/>
       <c r="C48" s="113" t="s">
         <v>30</v>
       </c>
@@ -15549,31 +15518,31 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="330" t="n">
+      <c r="B49" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C49" s="336"/>
-      <c r="D49" s="336"/>
-      <c r="E49" s="336"/>
-      <c r="F49" s="336"/>
+      <c r="C49" s="345"/>
+      <c r="D49" s="345"/>
+      <c r="E49" s="345"/>
+      <c r="F49" s="345"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="330" t="n">
+      <c r="B50" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C50" s="336"/>
-      <c r="D50" s="336"/>
-      <c r="E50" s="336"/>
-      <c r="F50" s="336"/>
+      <c r="C50" s="345"/>
+      <c r="D50" s="345"/>
+      <c r="E50" s="345"/>
+      <c r="F50" s="345"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="330" t="n">
+      <c r="B51" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
-      <c r="E51" s="336"/>
-      <c r="F51" s="336"/>
+      <c r="C51" s="345"/>
+      <c r="D51" s="345"/>
+      <c r="E51" s="345"/>
+      <c r="F51" s="345"/>
     </row>
     <row r="52" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -15614,142 +15583,142 @@
     <mergeCell ref="B47:B48"/>
   </mergeCells>
   <conditionalFormatting sqref="H2:AMJ3 H54:AMJ1048576 B2:B3 H11:AMJ14 H4:AMJ10 B20:F26 H16:AMJ31 B33:F42 G33:AMJ47 G2:G3 A54:G1048576 G11:G14 A4:G10 G16:G31 A52:AMJ53">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49:AMJ51">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C30 B27">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:F19">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C14 B11">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:F51">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:C46 B43">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:E16">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:AMJ32">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48:AMJ48">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48:E48">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15793,118 +15762,118 @@
   <sheetData>
     <row r="1" customFormat="false" ht="9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="326" t="s">
-        <v>204</v>
+      <c r="B2" s="335" t="s">
+        <v>203</v>
       </c>
       <c r="C2" s="95"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="328"/>
+      <c r="D2" s="336"/>
+      <c r="E2" s="336"/>
+      <c r="F2" s="337"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
       <c r="G6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="307"/>
-      <c r="C9" s="307"/>
-      <c r="D9" s="307"/>
-      <c r="E9" s="307"/>
-      <c r="F9" s="307"/>
+      <c r="B9" s="315"/>
+      <c r="C9" s="315"/>
+      <c r="D9" s="315"/>
+      <c r="E9" s="315"/>
+      <c r="F9" s="315"/>
     </row>
     <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="341" t="s">
-        <v>194</v>
-      </c>
-      <c r="C10" s="341"/>
-      <c r="D10" s="341"/>
-      <c r="E10" s="341"/>
-      <c r="F10" s="341"/>
+      <c r="B10" s="350" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" s="350"/>
+      <c r="D10" s="350"/>
+      <c r="E10" s="350"/>
+      <c r="F10" s="350"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="330" t="n">
+      <c r="B11" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="342"/>
-      <c r="D11" s="342"/>
-      <c r="E11" s="342"/>
-      <c r="F11" s="342"/>
+      <c r="C11" s="351"/>
+      <c r="D11" s="351"/>
+      <c r="E11" s="351"/>
+      <c r="F11" s="351"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="330" t="n">
+      <c r="B12" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C12" s="342"/>
-      <c r="D12" s="342"/>
-      <c r="E12" s="342"/>
-      <c r="F12" s="342"/>
+      <c r="C12" s="351"/>
+      <c r="D12" s="351"/>
+      <c r="E12" s="351"/>
+      <c r="F12" s="351"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="330" t="n">
+      <c r="B13" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C13" s="342"/>
-      <c r="D13" s="342"/>
-      <c r="E13" s="342"/>
-      <c r="F13" s="342"/>
+      <c r="C13" s="351"/>
+      <c r="D13" s="351"/>
+      <c r="E13" s="351"/>
+      <c r="F13" s="351"/>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="339"/>
-      <c r="C14" s="333" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="333" t="s">
+      <c r="B14" s="348"/>
+      <c r="C14" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="342" t="s">
+        <v>199</v>
+      </c>
+      <c r="E14" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="E14" s="333" t="s">
-        <v>201</v>
-      </c>
-      <c r="F14" s="334" t="s">
-        <v>198</v>
+      <c r="F14" s="343" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="339"/>
+      <c r="B15" s="348"/>
       <c r="C15" s="113" t="s">
         <v>30</v>
       </c>
@@ -15919,143 +15888,143 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="330" t="n">
+      <c r="B16" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="336"/>
-      <c r="D16" s="336"/>
-      <c r="E16" s="336"/>
-      <c r="F16" s="336"/>
+      <c r="C16" s="345"/>
+      <c r="D16" s="345"/>
+      <c r="E16" s="345"/>
+      <c r="F16" s="345"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="330" t="n">
+      <c r="B17" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="336"/>
-      <c r="E17" s="336"/>
-      <c r="F17" s="336"/>
+      <c r="C17" s="345"/>
+      <c r="D17" s="345"/>
+      <c r="E17" s="345"/>
+      <c r="F17" s="345"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="330" t="n">
+      <c r="B18" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C18" s="336"/>
-      <c r="D18" s="336"/>
-      <c r="E18" s="336"/>
-      <c r="F18" s="336"/>
+      <c r="C18" s="345"/>
+      <c r="D18" s="345"/>
+      <c r="E18" s="345"/>
+      <c r="F18" s="345"/>
     </row>
     <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="337" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="340"/>
+      <c r="B19" s="346" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="349"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13"/>
-      <c r="F19" s="338"/>
+      <c r="F19" s="347"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="303"/>
-      <c r="C20" s="303"/>
-      <c r="D20" s="303"/>
-      <c r="E20" s="303"/>
-      <c r="F20" s="303"/>
+      <c r="B20" s="311"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
+      <c r="F20" s="311"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="303"/>
-      <c r="C21" s="303"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="303"/>
+      <c r="B21" s="311"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="311"/>
+      <c r="E21" s="311"/>
+      <c r="F21" s="311"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="303"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
+      <c r="B22" s="311"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="311"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="303"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="303"/>
+      <c r="B23" s="311"/>
+      <c r="C23" s="311"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
+      <c r="F23" s="311"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="303"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="303"/>
+      <c r="B24" s="311"/>
+      <c r="C24" s="311"/>
+      <c r="D24" s="311"/>
+      <c r="E24" s="311"/>
+      <c r="F24" s="311"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="303"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="303"/>
-      <c r="F25" s="303"/>
+      <c r="B25" s="311"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="303"/>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
+      <c r="B26" s="311"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="311"/>
     </row>
     <row r="27" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="341" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="341"/>
-      <c r="D27" s="341"/>
-      <c r="E27" s="341"/>
-      <c r="F27" s="341"/>
+      <c r="B27" s="350" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="350"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="330" t="n">
+      <c r="B28" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="342"/>
-      <c r="D28" s="342"/>
-      <c r="E28" s="342"/>
-      <c r="F28" s="342"/>
+      <c r="C28" s="351"/>
+      <c r="D28" s="351"/>
+      <c r="E28" s="351"/>
+      <c r="F28" s="351"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="330" t="n">
+      <c r="B29" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C29" s="342"/>
-      <c r="D29" s="342"/>
-      <c r="E29" s="342"/>
-      <c r="F29" s="342"/>
+      <c r="C29" s="351"/>
+      <c r="D29" s="351"/>
+      <c r="E29" s="351"/>
+      <c r="F29" s="351"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="330" t="n">
+      <c r="B30" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C30" s="342"/>
-      <c r="D30" s="342"/>
-      <c r="E30" s="342"/>
-      <c r="F30" s="342"/>
+      <c r="C30" s="351"/>
+      <c r="D30" s="351"/>
+      <c r="E30" s="351"/>
+      <c r="F30" s="351"/>
     </row>
     <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="339"/>
-      <c r="C31" s="333" t="s">
-        <v>203</v>
-      </c>
-      <c r="D31" s="333" t="s">
+      <c r="B31" s="348"/>
+      <c r="C31" s="342" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="342" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="342" t="s">
         <v>200</v>
       </c>
-      <c r="E31" s="333" t="s">
-        <v>201</v>
-      </c>
-      <c r="F31" s="334" t="s">
-        <v>198</v>
+      <c r="F31" s="343" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="339"/>
+      <c r="B32" s="348"/>
       <c r="C32" s="113" t="s">
         <v>30</v>
       </c>
@@ -16070,198 +16039,198 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="330" t="n">
+      <c r="B33" s="339" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
-      <c r="E33" s="336"/>
-      <c r="F33" s="336"/>
+      <c r="C33" s="345"/>
+      <c r="D33" s="345"/>
+      <c r="E33" s="345"/>
+      <c r="F33" s="345"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="330" t="n">
+      <c r="B34" s="339" t="n">
         <v>2</v>
       </c>
-      <c r="C34" s="336"/>
-      <c r="D34" s="336"/>
-      <c r="E34" s="336"/>
-      <c r="F34" s="336"/>
+      <c r="C34" s="345"/>
+      <c r="D34" s="345"/>
+      <c r="E34" s="345"/>
+      <c r="F34" s="345"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="330" t="n">
+      <c r="B35" s="339" t="n">
         <v>3</v>
       </c>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
-      <c r="E35" s="336"/>
-      <c r="F35" s="336"/>
+      <c r="C35" s="345"/>
+      <c r="D35" s="345"/>
+      <c r="E35" s="345"/>
+      <c r="F35" s="345"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="343" t="s">
+      <c r="B36" s="352" t="s">
+        <v>205</v>
+      </c>
+      <c r="C36" s="352"/>
+      <c r="D36" s="352"/>
+      <c r="E36" s="352"/>
+      <c r="F36" s="352"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="311"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="311"/>
+      <c r="F37" s="311"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="311"/>
+      <c r="C38" s="311"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
+      <c r="F38" s="311"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="311"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
+      <c r="F39" s="311"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="311"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="311"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="311"/>
+      <c r="C41" s="311"/>
+      <c r="D41" s="311"/>
+      <c r="E41" s="311"/>
+      <c r="F41" s="311"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="311"/>
+      <c r="C42" s="311"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="311"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="353"/>
+      <c r="C43" s="353"/>
+      <c r="D43" s="353"/>
+      <c r="E43" s="353"/>
+      <c r="F43" s="353"/>
+    </row>
+    <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="311"/>
+      <c r="C44" s="311"/>
+      <c r="D44" s="311"/>
+      <c r="E44" s="311"/>
+      <c r="F44" s="311"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="311"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="311"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="311"/>
+      <c r="C46" s="311"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="311"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="311"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="311"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="311"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="311"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="311"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="311"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="311"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="311"/>
+      <c r="F50" s="311"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="311"/>
+      <c r="C51" s="311"/>
+      <c r="D51" s="311"/>
+      <c r="E51" s="311"/>
+      <c r="F51" s="311"/>
+    </row>
+    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="335" t="s">
         <v>206</v>
       </c>
-      <c r="C36" s="343"/>
-      <c r="D36" s="343"/>
-      <c r="E36" s="343"/>
-      <c r="F36" s="343"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="303"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="303"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="303"/>
-      <c r="C38" s="303"/>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="303"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="303"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="303"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="303"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="303"/>
-      <c r="C42" s="303"/>
-      <c r="D42" s="303"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="303"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="344"/>
-      <c r="C43" s="344"/>
-      <c r="D43" s="344"/>
-      <c r="E43" s="344"/>
-      <c r="F43" s="344"/>
-    </row>
-    <row r="44" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="303"/>
-      <c r="C44" s="303"/>
-      <c r="D44" s="303"/>
-      <c r="E44" s="303"/>
-      <c r="F44" s="303"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="303"/>
-      <c r="C45" s="303"/>
-      <c r="D45" s="303"/>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="303"/>
-      <c r="C46" s="303"/>
-      <c r="D46" s="303"/>
-      <c r="E46" s="303"/>
-      <c r="F46" s="303"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="303"/>
-      <c r="C47" s="303"/>
-      <c r="D47" s="303"/>
-      <c r="E47" s="303"/>
-      <c r="F47" s="303"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="303"/>
-      <c r="C48" s="303"/>
-      <c r="D48" s="303"/>
-      <c r="E48" s="303"/>
-      <c r="F48" s="303"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="303"/>
-      <c r="C49" s="303"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="303"/>
-      <c r="C51" s="303"/>
-      <c r="D51" s="303"/>
-      <c r="E51" s="303"/>
-      <c r="F51" s="303"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="326" t="s">
-        <v>207</v>
-      </c>
       <c r="C52" s="95"/>
-      <c r="D52" s="327"/>
-      <c r="E52" s="327"/>
-      <c r="F52" s="328"/>
+      <c r="D52" s="336"/>
+      <c r="E52" s="336"/>
+      <c r="F52" s="337"/>
     </row>
     <row r="53" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="153"/>
+      <c r="B53" s="154"/>
       <c r="C53" s="4"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="345"/>
+      <c r="F53" s="354"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="300" t="s">
-        <v>208</v>
-      </c>
-      <c r="C54" s="300"/>
-      <c r="D54" s="300"/>
-      <c r="E54" s="300"/>
-      <c r="F54" s="300"/>
+      <c r="B54" s="308" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="308"/>
+      <c r="D54" s="308"/>
+      <c r="E54" s="308"/>
+      <c r="F54" s="308"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="303"/>
-      <c r="C55" s="303"/>
-      <c r="D55" s="303"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="303"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="311"/>
+      <c r="E55" s="311"/>
+      <c r="F55" s="311"/>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="303"/>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
-      <c r="E56" s="303"/>
-      <c r="F56" s="303"/>
+      <c r="B56" s="311"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="311"/>
+      <c r="F56" s="311"/>
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="303"/>
-      <c r="C57" s="303"/>
-      <c r="D57" s="303"/>
-      <c r="E57" s="303"/>
-      <c r="F57" s="303"/>
+      <c r="B57" s="311"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="311"/>
+      <c r="E57" s="311"/>
+      <c r="F57" s="311"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="147"/>
-      <c r="C58" s="148"/>
-      <c r="D58" s="148"/>
-      <c r="E58" s="148"/>
-      <c r="F58" s="346"/>
+      <c r="B58" s="148"/>
+      <c r="C58" s="149"/>
+      <c r="D58" s="149"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="355"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -16311,82 +16280,82 @@
     <mergeCell ref="B57:F57"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:AMJ14 B39:B43 B51:F51 H53:AMJ53 H33:AMJ51 B37:F38 B36 B11:C13 B10 H62:AMJ1048576 H52:AMJ52 H2:AMJ9 H18:AMJ31 G54:AMJ57 B55:B57 G10:G14 D53:G53 G33:G51 A62:G1048576 A52:G52 A2:G9 G18:G31 A58:AMJ61 B18:F26 B16:AMJ17">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:C30 B27 B33:F35">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:C31">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:B50">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:AMJ32">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:E32">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:AMJ15">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:E15">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16430,548 +16399,548 @@
   <sheetData>
     <row r="1" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="347" t="s">
-        <v>209</v>
-      </c>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
+      <c r="B2" s="356" t="s">
+        <v>208</v>
+      </c>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303"/>
-      <c r="H3" s="303"/>
+      <c r="B3" s="311"/>
+      <c r="C3" s="311"/>
+      <c r="D3" s="311"/>
+      <c r="E3" s="311"/>
+      <c r="F3" s="311"/>
+      <c r="G3" s="311"/>
+      <c r="H3" s="311"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="303"/>
-      <c r="C4" s="303"/>
-      <c r="D4" s="303"/>
-      <c r="E4" s="303"/>
-      <c r="F4" s="303"/>
-      <c r="G4" s="303"/>
-      <c r="H4" s="303"/>
+      <c r="B4" s="311"/>
+      <c r="C4" s="311"/>
+      <c r="D4" s="311"/>
+      <c r="E4" s="311"/>
+      <c r="F4" s="311"/>
+      <c r="G4" s="311"/>
+      <c r="H4" s="311"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="303"/>
-      <c r="C5" s="303"/>
-      <c r="D5" s="303"/>
-      <c r="E5" s="303"/>
-      <c r="F5" s="303"/>
-      <c r="G5" s="303"/>
-      <c r="H5" s="303"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="311"/>
+      <c r="G5" s="311"/>
+      <c r="H5" s="311"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="303"/>
-      <c r="C6" s="303"/>
-      <c r="D6" s="303"/>
-      <c r="E6" s="303"/>
-      <c r="F6" s="303"/>
-      <c r="G6" s="303"/>
-      <c r="H6" s="303"/>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="311"/>
+      <c r="G6" s="311"/>
+      <c r="H6" s="311"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="7.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="303"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="303"/>
-      <c r="E7" s="303"/>
-      <c r="F7" s="303"/>
-      <c r="G7" s="303"/>
-      <c r="H7" s="303"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="311"/>
+      <c r="G7" s="311"/>
+      <c r="H7" s="311"/>
       <c r="I7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="311"/>
+      <c r="G8" s="311"/>
+      <c r="H8" s="311"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="303"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="303"/>
-      <c r="E9" s="303"/>
-      <c r="F9" s="303"/>
-      <c r="G9" s="303"/>
-      <c r="H9" s="303"/>
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="311"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="303"/>
-      <c r="C10" s="303"/>
-      <c r="D10" s="303"/>
-      <c r="E10" s="303"/>
-      <c r="F10" s="303"/>
-      <c r="G10" s="303"/>
-      <c r="H10" s="303"/>
+      <c r="B10" s="311"/>
+      <c r="C10" s="311"/>
+      <c r="D10" s="311"/>
+      <c r="E10" s="311"/>
+      <c r="F10" s="311"/>
+      <c r="G10" s="311"/>
+      <c r="H10" s="311"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="303"/>
-      <c r="C11" s="303"/>
-      <c r="D11" s="303"/>
-      <c r="E11" s="303"/>
-      <c r="F11" s="303"/>
-      <c r="G11" s="303"/>
-      <c r="H11" s="303"/>
+      <c r="B11" s="311"/>
+      <c r="C11" s="311"/>
+      <c r="D11" s="311"/>
+      <c r="E11" s="311"/>
+      <c r="F11" s="311"/>
+      <c r="G11" s="311"/>
+      <c r="H11" s="311"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="303"/>
-      <c r="C12" s="303"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="303"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
+      <c r="B12" s="311"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="311"/>
+      <c r="E12" s="311"/>
+      <c r="F12" s="311"/>
+      <c r="G12" s="311"/>
+      <c r="H12" s="311"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="303"/>
-      <c r="C13" s="303"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
+      <c r="B13" s="311"/>
+      <c r="C13" s="311"/>
+      <c r="D13" s="311"/>
+      <c r="E13" s="311"/>
+      <c r="F13" s="311"/>
+      <c r="G13" s="311"/>
+      <c r="H13" s="311"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="303"/>
-      <c r="C14" s="303"/>
-      <c r="D14" s="303"/>
-      <c r="E14" s="303"/>
-      <c r="F14" s="303"/>
-      <c r="G14" s="303"/>
-      <c r="H14" s="303"/>
+      <c r="B14" s="311"/>
+      <c r="C14" s="311"/>
+      <c r="D14" s="311"/>
+      <c r="E14" s="311"/>
+      <c r="F14" s="311"/>
+      <c r="G14" s="311"/>
+      <c r="H14" s="311"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="303"/>
-      <c r="C15" s="303"/>
-      <c r="D15" s="303"/>
-      <c r="E15" s="303"/>
-      <c r="F15" s="303"/>
-      <c r="G15" s="303"/>
-      <c r="H15" s="303"/>
+      <c r="B15" s="311"/>
+      <c r="C15" s="311"/>
+      <c r="D15" s="311"/>
+      <c r="E15" s="311"/>
+      <c r="F15" s="311"/>
+      <c r="G15" s="311"/>
+      <c r="H15" s="311"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="303"/>
-      <c r="C16" s="303"/>
-      <c r="D16" s="303"/>
-      <c r="E16" s="303"/>
-      <c r="F16" s="303"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="303"/>
+      <c r="B16" s="311"/>
+      <c r="C16" s="311"/>
+      <c r="D16" s="311"/>
+      <c r="E16" s="311"/>
+      <c r="F16" s="311"/>
+      <c r="G16" s="311"/>
+      <c r="H16" s="311"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="303"/>
-      <c r="C17" s="303"/>
-      <c r="D17" s="303"/>
-      <c r="E17" s="303"/>
-      <c r="F17" s="303"/>
-      <c r="G17" s="303"/>
-      <c r="H17" s="303"/>
+      <c r="B17" s="311"/>
+      <c r="C17" s="311"/>
+      <c r="D17" s="311"/>
+      <c r="E17" s="311"/>
+      <c r="F17" s="311"/>
+      <c r="G17" s="311"/>
+      <c r="H17" s="311"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="303"/>
-      <c r="C18" s="303"/>
-      <c r="D18" s="303"/>
-      <c r="E18" s="303"/>
-      <c r="F18" s="303"/>
-      <c r="G18" s="303"/>
-      <c r="H18" s="303"/>
+      <c r="B18" s="311"/>
+      <c r="C18" s="311"/>
+      <c r="D18" s="311"/>
+      <c r="E18" s="311"/>
+      <c r="F18" s="311"/>
+      <c r="G18" s="311"/>
+      <c r="H18" s="311"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="303"/>
-      <c r="C19" s="303"/>
-      <c r="D19" s="303"/>
-      <c r="E19" s="303"/>
-      <c r="F19" s="303"/>
-      <c r="G19" s="303"/>
-      <c r="H19" s="303"/>
+      <c r="B19" s="311"/>
+      <c r="C19" s="311"/>
+      <c r="D19" s="311"/>
+      <c r="E19" s="311"/>
+      <c r="F19" s="311"/>
+      <c r="G19" s="311"/>
+      <c r="H19" s="311"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="303"/>
-      <c r="C20" s="303"/>
-      <c r="D20" s="303"/>
-      <c r="E20" s="303"/>
-      <c r="F20" s="303"/>
-      <c r="G20" s="303"/>
-      <c r="H20" s="303"/>
+      <c r="B20" s="311"/>
+      <c r="C20" s="311"/>
+      <c r="D20" s="311"/>
+      <c r="E20" s="311"/>
+      <c r="F20" s="311"/>
+      <c r="G20" s="311"/>
+      <c r="H20" s="311"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="303"/>
-      <c r="C21" s="303"/>
-      <c r="D21" s="303"/>
-      <c r="E21" s="303"/>
-      <c r="F21" s="303"/>
-      <c r="G21" s="303"/>
-      <c r="H21" s="303"/>
+      <c r="B21" s="311"/>
+      <c r="C21" s="311"/>
+      <c r="D21" s="311"/>
+      <c r="E21" s="311"/>
+      <c r="F21" s="311"/>
+      <c r="G21" s="311"/>
+      <c r="H21" s="311"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="303"/>
-      <c r="C22" s="303"/>
-      <c r="D22" s="303"/>
-      <c r="E22" s="303"/>
-      <c r="F22" s="303"/>
-      <c r="G22" s="303"/>
-      <c r="H22" s="303"/>
+      <c r="B22" s="311"/>
+      <c r="C22" s="311"/>
+      <c r="D22" s="311"/>
+      <c r="E22" s="311"/>
+      <c r="F22" s="311"/>
+      <c r="G22" s="311"/>
+      <c r="H22" s="311"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="303"/>
-      <c r="C23" s="303"/>
-      <c r="D23" s="303"/>
-      <c r="E23" s="303"/>
-      <c r="F23" s="303"/>
-      <c r="G23" s="303"/>
-      <c r="H23" s="303"/>
+      <c r="B23" s="311"/>
+      <c r="C23" s="311"/>
+      <c r="D23" s="311"/>
+      <c r="E23" s="311"/>
+      <c r="F23" s="311"/>
+      <c r="G23" s="311"/>
+      <c r="H23" s="311"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="303"/>
-      <c r="C24" s="303"/>
-      <c r="D24" s="303"/>
-      <c r="E24" s="303"/>
-      <c r="F24" s="303"/>
-      <c r="G24" s="303"/>
-      <c r="H24" s="303"/>
+      <c r="B24" s="311"/>
+      <c r="C24" s="311"/>
+      <c r="D24" s="311"/>
+      <c r="E24" s="311"/>
+      <c r="F24" s="311"/>
+      <c r="G24" s="311"/>
+      <c r="H24" s="311"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="303"/>
-      <c r="C25" s="303"/>
-      <c r="D25" s="303"/>
-      <c r="E25" s="303"/>
-      <c r="F25" s="303"/>
-      <c r="G25" s="303"/>
-      <c r="H25" s="303"/>
+      <c r="B25" s="311"/>
+      <c r="C25" s="311"/>
+      <c r="D25" s="311"/>
+      <c r="E25" s="311"/>
+      <c r="F25" s="311"/>
+      <c r="G25" s="311"/>
+      <c r="H25" s="311"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="303"/>
-      <c r="C26" s="303"/>
-      <c r="D26" s="303"/>
-      <c r="E26" s="303"/>
-      <c r="F26" s="303"/>
-      <c r="G26" s="303"/>
-      <c r="H26" s="303"/>
+      <c r="B26" s="311"/>
+      <c r="C26" s="311"/>
+      <c r="D26" s="311"/>
+      <c r="E26" s="311"/>
+      <c r="F26" s="311"/>
+      <c r="G26" s="311"/>
+      <c r="H26" s="311"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="303"/>
-      <c r="C27" s="303"/>
-      <c r="D27" s="303"/>
-      <c r="E27" s="303"/>
-      <c r="F27" s="303"/>
-      <c r="G27" s="303"/>
-      <c r="H27" s="303"/>
+      <c r="B27" s="311"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
+      <c r="E27" s="311"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="311"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="303"/>
-      <c r="C28" s="303"/>
-      <c r="D28" s="303"/>
-      <c r="E28" s="303"/>
-      <c r="F28" s="303"/>
-      <c r="G28" s="303"/>
-      <c r="H28" s="303"/>
+      <c r="B28" s="311"/>
+      <c r="C28" s="311"/>
+      <c r="D28" s="311"/>
+      <c r="E28" s="311"/>
+      <c r="F28" s="311"/>
+      <c r="G28" s="311"/>
+      <c r="H28" s="311"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="303"/>
-      <c r="C29" s="303"/>
-      <c r="D29" s="303"/>
-      <c r="E29" s="303"/>
-      <c r="F29" s="303"/>
-      <c r="G29" s="303"/>
-      <c r="H29" s="303"/>
+      <c r="B29" s="311"/>
+      <c r="C29" s="311"/>
+      <c r="D29" s="311"/>
+      <c r="E29" s="311"/>
+      <c r="F29" s="311"/>
+      <c r="G29" s="311"/>
+      <c r="H29" s="311"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="303"/>
-      <c r="C30" s="303"/>
-      <c r="D30" s="303"/>
-      <c r="E30" s="303"/>
-      <c r="F30" s="303"/>
-      <c r="G30" s="303"/>
-      <c r="H30" s="303"/>
+      <c r="B30" s="311"/>
+      <c r="C30" s="311"/>
+      <c r="D30" s="311"/>
+      <c r="E30" s="311"/>
+      <c r="F30" s="311"/>
+      <c r="G30" s="311"/>
+      <c r="H30" s="311"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="303"/>
-      <c r="C31" s="303"/>
-      <c r="D31" s="303"/>
-      <c r="E31" s="303"/>
-      <c r="F31" s="303"/>
-      <c r="G31" s="303"/>
-      <c r="H31" s="303"/>
+      <c r="B31" s="311"/>
+      <c r="C31" s="311"/>
+      <c r="D31" s="311"/>
+      <c r="E31" s="311"/>
+      <c r="F31" s="311"/>
+      <c r="G31" s="311"/>
+      <c r="H31" s="311"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="303"/>
-      <c r="C32" s="303"/>
-      <c r="D32" s="303"/>
-      <c r="E32" s="303"/>
-      <c r="F32" s="303"/>
-      <c r="G32" s="303"/>
-      <c r="H32" s="303"/>
+      <c r="B32" s="311"/>
+      <c r="C32" s="311"/>
+      <c r="D32" s="311"/>
+      <c r="E32" s="311"/>
+      <c r="F32" s="311"/>
+      <c r="G32" s="311"/>
+      <c r="H32" s="311"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="303"/>
-      <c r="C33" s="303"/>
-      <c r="D33" s="303"/>
-      <c r="E33" s="303"/>
-      <c r="F33" s="303"/>
-      <c r="G33" s="303"/>
-      <c r="H33" s="303"/>
+      <c r="B33" s="311"/>
+      <c r="C33" s="311"/>
+      <c r="D33" s="311"/>
+      <c r="E33" s="311"/>
+      <c r="F33" s="311"/>
+      <c r="G33" s="311"/>
+      <c r="H33" s="311"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="303"/>
-      <c r="C34" s="303"/>
-      <c r="D34" s="303"/>
-      <c r="E34" s="303"/>
-      <c r="F34" s="303"/>
-      <c r="G34" s="303"/>
-      <c r="H34" s="303"/>
+      <c r="B34" s="311"/>
+      <c r="C34" s="311"/>
+      <c r="D34" s="311"/>
+      <c r="E34" s="311"/>
+      <c r="F34" s="311"/>
+      <c r="G34" s="311"/>
+      <c r="H34" s="311"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="303"/>
-      <c r="C35" s="303"/>
-      <c r="D35" s="303"/>
-      <c r="E35" s="303"/>
-      <c r="F35" s="303"/>
-      <c r="G35" s="303"/>
-      <c r="H35" s="303"/>
+      <c r="B35" s="311"/>
+      <c r="C35" s="311"/>
+      <c r="D35" s="311"/>
+      <c r="E35" s="311"/>
+      <c r="F35" s="311"/>
+      <c r="G35" s="311"/>
+      <c r="H35" s="311"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="303"/>
-      <c r="C36" s="303"/>
-      <c r="D36" s="303"/>
-      <c r="E36" s="303"/>
-      <c r="F36" s="303"/>
-      <c r="G36" s="303"/>
-      <c r="H36" s="303"/>
+      <c r="B36" s="311"/>
+      <c r="C36" s="311"/>
+      <c r="D36" s="311"/>
+      <c r="E36" s="311"/>
+      <c r="F36" s="311"/>
+      <c r="G36" s="311"/>
+      <c r="H36" s="311"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="303"/>
-      <c r="C37" s="303"/>
-      <c r="D37" s="303"/>
-      <c r="E37" s="303"/>
-      <c r="F37" s="303"/>
-      <c r="G37" s="303"/>
-      <c r="H37" s="303"/>
+      <c r="B37" s="311"/>
+      <c r="C37" s="311"/>
+      <c r="D37" s="311"/>
+      <c r="E37" s="311"/>
+      <c r="F37" s="311"/>
+      <c r="G37" s="311"/>
+      <c r="H37" s="311"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="303"/>
-      <c r="C38" s="303"/>
-      <c r="D38" s="303"/>
-      <c r="E38" s="303"/>
-      <c r="F38" s="303"/>
-      <c r="G38" s="303"/>
-      <c r="H38" s="303"/>
+      <c r="B38" s="311"/>
+      <c r="C38" s="311"/>
+      <c r="D38" s="311"/>
+      <c r="E38" s="311"/>
+      <c r="F38" s="311"/>
+      <c r="G38" s="311"/>
+      <c r="H38" s="311"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="303"/>
-      <c r="C39" s="303"/>
-      <c r="D39" s="303"/>
-      <c r="E39" s="303"/>
-      <c r="F39" s="303"/>
-      <c r="G39" s="303"/>
-      <c r="H39" s="303"/>
+      <c r="B39" s="311"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
+      <c r="F39" s="311"/>
+      <c r="G39" s="311"/>
+      <c r="H39" s="311"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="303"/>
-      <c r="C40" s="303"/>
-      <c r="D40" s="303"/>
-      <c r="E40" s="303"/>
-      <c r="F40" s="303"/>
-      <c r="G40" s="303"/>
-      <c r="H40" s="303"/>
+      <c r="B40" s="311"/>
+      <c r="C40" s="311"/>
+      <c r="D40" s="311"/>
+      <c r="E40" s="311"/>
+      <c r="F40" s="311"/>
+      <c r="G40" s="311"/>
+      <c r="H40" s="311"/>
     </row>
     <row r="41" customFormat="false" ht="6.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="303"/>
-      <c r="C41" s="303"/>
-      <c r="D41" s="303"/>
-      <c r="E41" s="303"/>
-      <c r="F41" s="303"/>
-      <c r="G41" s="303"/>
-      <c r="H41" s="303"/>
+      <c r="B41" s="311"/>
+      <c r="C41" s="311"/>
+      <c r="D41" s="311"/>
+      <c r="E41" s="311"/>
+      <c r="F41" s="311"/>
+      <c r="G41" s="311"/>
+      <c r="H41" s="311"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="303"/>
-      <c r="C42" s="303"/>
-      <c r="D42" s="303"/>
-      <c r="E42" s="303"/>
-      <c r="F42" s="303"/>
-      <c r="G42" s="303"/>
-      <c r="H42" s="303"/>
+      <c r="B42" s="311"/>
+      <c r="C42" s="311"/>
+      <c r="D42" s="311"/>
+      <c r="E42" s="311"/>
+      <c r="F42" s="311"/>
+      <c r="G42" s="311"/>
+      <c r="H42" s="311"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="303"/>
-      <c r="C43" s="303"/>
-      <c r="D43" s="303"/>
-      <c r="E43" s="303"/>
-      <c r="F43" s="303"/>
-      <c r="G43" s="303"/>
-      <c r="H43" s="303"/>
+      <c r="B43" s="311"/>
+      <c r="C43" s="311"/>
+      <c r="D43" s="311"/>
+      <c r="E43" s="311"/>
+      <c r="F43" s="311"/>
+      <c r="G43" s="311"/>
+      <c r="H43" s="311"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="303"/>
-      <c r="C44" s="303"/>
-      <c r="D44" s="303"/>
-      <c r="E44" s="303"/>
-      <c r="F44" s="303"/>
-      <c r="G44" s="303"/>
-      <c r="H44" s="303"/>
+      <c r="B44" s="311"/>
+      <c r="C44" s="311"/>
+      <c r="D44" s="311"/>
+      <c r="E44" s="311"/>
+      <c r="F44" s="311"/>
+      <c r="G44" s="311"/>
+      <c r="H44" s="311"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="303"/>
-      <c r="C45" s="303"/>
-      <c r="D45" s="303"/>
-      <c r="E45" s="303"/>
-      <c r="F45" s="303"/>
-      <c r="G45" s="303"/>
-      <c r="H45" s="303"/>
+      <c r="B45" s="311"/>
+      <c r="C45" s="311"/>
+      <c r="D45" s="311"/>
+      <c r="E45" s="311"/>
+      <c r="F45" s="311"/>
+      <c r="G45" s="311"/>
+      <c r="H45" s="311"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="303"/>
-      <c r="C46" s="303"/>
-      <c r="D46" s="303"/>
-      <c r="E46" s="303"/>
-      <c r="F46" s="303"/>
-      <c r="G46" s="303"/>
-      <c r="H46" s="303"/>
+      <c r="B46" s="311"/>
+      <c r="C46" s="311"/>
+      <c r="D46" s="311"/>
+      <c r="E46" s="311"/>
+      <c r="F46" s="311"/>
+      <c r="G46" s="311"/>
+      <c r="H46" s="311"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="303"/>
-      <c r="C47" s="303"/>
-      <c r="D47" s="303"/>
-      <c r="E47" s="303"/>
-      <c r="F47" s="303"/>
-      <c r="G47" s="303"/>
-      <c r="H47" s="303"/>
+      <c r="B47" s="311"/>
+      <c r="C47" s="311"/>
+      <c r="D47" s="311"/>
+      <c r="E47" s="311"/>
+      <c r="F47" s="311"/>
+      <c r="G47" s="311"/>
+      <c r="H47" s="311"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="303"/>
-      <c r="C48" s="303"/>
-      <c r="D48" s="303"/>
-      <c r="E48" s="303"/>
-      <c r="F48" s="303"/>
-      <c r="G48" s="303"/>
-      <c r="H48" s="303"/>
+      <c r="B48" s="311"/>
+      <c r="C48" s="311"/>
+      <c r="D48" s="311"/>
+      <c r="E48" s="311"/>
+      <c r="F48" s="311"/>
+      <c r="G48" s="311"/>
+      <c r="H48" s="311"/>
     </row>
     <row r="49" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="303"/>
-      <c r="C49" s="303"/>
-      <c r="D49" s="303"/>
-      <c r="E49" s="303"/>
-      <c r="F49" s="303"/>
-      <c r="G49" s="303"/>
-      <c r="H49" s="303"/>
+      <c r="B49" s="311"/>
+      <c r="C49" s="311"/>
+      <c r="D49" s="311"/>
+      <c r="E49" s="311"/>
+      <c r="F49" s="311"/>
+      <c r="G49" s="311"/>
+      <c r="H49" s="311"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303"/>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
-      <c r="G50" s="303"/>
-      <c r="H50" s="303"/>
+      <c r="B50" s="311"/>
+      <c r="C50" s="311"/>
+      <c r="D50" s="311"/>
+      <c r="E50" s="311"/>
+      <c r="F50" s="311"/>
+      <c r="G50" s="311"/>
+      <c r="H50" s="311"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="303"/>
-      <c r="C51" s="303"/>
-      <c r="D51" s="303"/>
-      <c r="E51" s="303"/>
-      <c r="F51" s="303"/>
-      <c r="G51" s="303"/>
-      <c r="H51" s="303"/>
+      <c r="B51" s="311"/>
+      <c r="C51" s="311"/>
+      <c r="D51" s="311"/>
+      <c r="E51" s="311"/>
+      <c r="F51" s="311"/>
+      <c r="G51" s="311"/>
+      <c r="H51" s="311"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="303"/>
-      <c r="C52" s="303"/>
-      <c r="D52" s="303"/>
-      <c r="E52" s="303"/>
-      <c r="F52" s="303"/>
-      <c r="G52" s="303"/>
-      <c r="H52" s="303"/>
+      <c r="B52" s="311"/>
+      <c r="C52" s="311"/>
+      <c r="D52" s="311"/>
+      <c r="E52" s="311"/>
+      <c r="F52" s="311"/>
+      <c r="G52" s="311"/>
+      <c r="H52" s="311"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="303"/>
-      <c r="C53" s="303"/>
-      <c r="D53" s="303"/>
-      <c r="E53" s="303"/>
-      <c r="F53" s="303"/>
-      <c r="G53" s="303"/>
-      <c r="H53" s="303"/>
+      <c r="B53" s="311"/>
+      <c r="C53" s="311"/>
+      <c r="D53" s="311"/>
+      <c r="E53" s="311"/>
+      <c r="F53" s="311"/>
+      <c r="G53" s="311"/>
+      <c r="H53" s="311"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="303"/>
-      <c r="C54" s="303"/>
-      <c r="D54" s="303"/>
-      <c r="E54" s="303"/>
-      <c r="F54" s="303"/>
-      <c r="G54" s="303"/>
-      <c r="H54" s="303"/>
+      <c r="B54" s="311"/>
+      <c r="C54" s="311"/>
+      <c r="D54" s="311"/>
+      <c r="E54" s="311"/>
+      <c r="F54" s="311"/>
+      <c r="G54" s="311"/>
+      <c r="H54" s="311"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="303"/>
-      <c r="C55" s="303"/>
-      <c r="D55" s="303"/>
-      <c r="E55" s="303"/>
-      <c r="F55" s="303"/>
-      <c r="G55" s="303"/>
-      <c r="H55" s="303"/>
+      <c r="B55" s="311"/>
+      <c r="C55" s="311"/>
+      <c r="D55" s="311"/>
+      <c r="E55" s="311"/>
+      <c r="F55" s="311"/>
+      <c r="G55" s="311"/>
+      <c r="H55" s="311"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="303"/>
-      <c r="C56" s="303"/>
-      <c r="D56" s="303"/>
-      <c r="E56" s="303"/>
-      <c r="F56" s="303"/>
-      <c r="G56" s="303"/>
-      <c r="H56" s="303"/>
+      <c r="B56" s="311"/>
+      <c r="C56" s="311"/>
+      <c r="D56" s="311"/>
+      <c r="E56" s="311"/>
+      <c r="F56" s="311"/>
+      <c r="G56" s="311"/>
+      <c r="H56" s="311"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="303"/>
-      <c r="C57" s="303"/>
-      <c r="D57" s="303"/>
-      <c r="E57" s="303"/>
-      <c r="F57" s="303"/>
-      <c r="G57" s="303"/>
-      <c r="H57" s="303"/>
+      <c r="B57" s="311"/>
+      <c r="C57" s="311"/>
+      <c r="D57" s="311"/>
+      <c r="E57" s="311"/>
+      <c r="F57" s="311"/>
+      <c r="G57" s="311"/>
+      <c r="H57" s="311"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="303"/>
-      <c r="C58" s="303"/>
-      <c r="D58" s="303"/>
-      <c r="E58" s="303"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
-      <c r="H58" s="303"/>
+      <c r="B58" s="311"/>
+      <c r="C58" s="311"/>
+      <c r="D58" s="311"/>
+      <c r="E58" s="311"/>
+      <c r="F58" s="311"/>
+      <c r="G58" s="311"/>
+      <c r="H58" s="311"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="303"/>
-      <c r="C59" s="303"/>
-      <c r="D59" s="303"/>
-      <c r="E59" s="303"/>
-      <c r="F59" s="303"/>
-      <c r="G59" s="303"/>
-      <c r="H59" s="303"/>
+      <c r="B59" s="311"/>
+      <c r="C59" s="311"/>
+      <c r="D59" s="311"/>
+      <c r="E59" s="311"/>
+      <c r="F59" s="311"/>
+      <c r="G59" s="311"/>
+      <c r="H59" s="311"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="303"/>
-      <c r="C60" s="303"/>
-      <c r="D60" s="303"/>
-      <c r="E60" s="303"/>
-      <c r="F60" s="303"/>
-      <c r="G60" s="303"/>
-      <c r="H60" s="303"/>
+      <c r="B60" s="311"/>
+      <c r="C60" s="311"/>
+      <c r="D60" s="311"/>
+      <c r="E60" s="311"/>
+      <c r="F60" s="311"/>
+      <c r="G60" s="311"/>
+      <c r="H60" s="311"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="148"/>
-      <c r="H61" s="346"/>
+      <c r="B61" s="148"/>
+      <c r="C61" s="149"/>
+      <c r="D61" s="149"/>
+      <c r="E61" s="149"/>
+      <c r="F61" s="149"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="355"/>
     </row>
   </sheetData>
   <mergeCells count="59">
@@ -17036,7 +17005,7 @@
     <mergeCell ref="B60:H60"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:AMJ2 B2 A3:AMJ1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etp-backend/src/main/resources/energiatodistus-template.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="209">
   <si>
     <t xml:space="preserve">ENERGIATODISTUS 2018</t>
   </si>
@@ -1601,7 +1601,7 @@
     <numFmt numFmtId="174" formatCode="@"/>
     <numFmt numFmtId="175" formatCode="0"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1887,13 +1887,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFC9211E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF339966"/>
@@ -1968,7 +1961,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC40009"/>
-        <bgColor rgb="FFC9211E"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2201,7 +2194,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="357">
+  <cellXfs count="362">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2502,10 +2495,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3362,7 +3351,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3374,15 +3363,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="39" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3394,7 +3375,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3414,7 +3399,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3426,7 +3411,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3439,6 +3428,34 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3446,18 +3463,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -3470,6 +3475,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="175" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3506,7 +3515,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6260,7 +6273,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF000080"/>
@@ -6291,7 +6304,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FFFF4000"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -7589,8 +7602,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ51"/>
   <sheetViews>
-    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
+    <sheetView showFormulas="true" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8813,9 +8826,7 @@
     </row>
     <row r="42" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="75" t="s">
-        <v>14</v>
-      </c>
+      <c r="B42" s="75"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -8823,7 +8834,7 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="76"/>
+      <c r="J42" s="75"/>
       <c r="K42" s="23"/>
       <c r="L42" s="74"/>
       <c r="M42" s="74"/>
@@ -8834,14 +8845,14 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="4"/>
       <c r="K43" s="19"/>
       <c r="L43" s="19"/>
@@ -8853,159 +8864,159 @@
     </row>
     <row r="44" customFormat="false" ht="16.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="2"/>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="78"/>
-      <c r="H44" s="78"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="78"/>
-      <c r="K44" s="78"/>
-      <c r="L44" s="78"/>
-      <c r="M44" s="78"/>
-      <c r="N44" s="78"/>
-      <c r="O44" s="78"/>
-      <c r="P44" s="78"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
+      <c r="M44" s="77"/>
+      <c r="N44" s="77"/>
+      <c r="O44" s="77"/>
+      <c r="P44" s="77"/>
       <c r="Q44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="21.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="2"/>
-      <c r="B45" s="78"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="78"/>
-      <c r="I45" s="78"/>
-      <c r="J45" s="78"/>
-      <c r="K45" s="78"/>
-      <c r="L45" s="78"/>
-      <c r="M45" s="78"/>
-      <c r="N45" s="78"/>
-      <c r="O45" s="78"/>
-      <c r="P45" s="78"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
+      <c r="M45" s="77"/>
+      <c r="N45" s="77"/>
+      <c r="O45" s="77"/>
+      <c r="P45" s="77"/>
       <c r="Q45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="78"/>
-      <c r="I46" s="78"/>
-      <c r="J46" s="78"/>
-      <c r="K46" s="78"/>
-      <c r="L46" s="78"/>
-      <c r="M46" s="78"/>
-      <c r="N46" s="78"/>
-      <c r="O46" s="78"/>
-      <c r="P46" s="78"/>
-      <c r="Q46" s="79"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="78"/>
     </row>
     <row r="47" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-      <c r="Q47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
+      <c r="P47" s="79"/>
+      <c r="Q47" s="78"/>
     </row>
     <row r="48" customFormat="false" ht="19.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="82"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="82"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="83" t="s">
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="79"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="83"/>
+      <c r="N48" s="83"/>
+      <c r="O48" s="83"/>
+      <c r="P48" s="83"/>
+      <c r="Q48" s="78"/>
     </row>
     <row r="49" customFormat="false" ht="15.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="82"/>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="82"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="82"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="79"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="81"/>
+      <c r="J49" s="81"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="83"/>
+      <c r="M49" s="83"/>
+      <c r="N49" s="85"/>
+      <c r="O49" s="85"/>
+      <c r="P49" s="83"/>
+      <c r="Q49" s="78"/>
     </row>
     <row r="50" customFormat="false" ht="20.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="87" t="s">
+      <c r="B50" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="82"/>
-      <c r="K50" s="88" t="s">
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="86"/>
+      <c r="J50" s="81"/>
+      <c r="K50" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="L50" s="88"/>
-      <c r="M50" s="88"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="89"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="79"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="88"/>
+      <c r="O50" s="88"/>
+      <c r="P50" s="83"/>
+      <c r="Q50" s="78"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="90"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="82"/>
-      <c r="D51" s="82"/>
-      <c r="E51" s="82"/>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="82"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
+      <c r="A51" s="89"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="81"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="83"/>
+      <c r="M51" s="83"/>
+      <c r="N51" s="83"/>
+      <c r="O51" s="83"/>
+      <c r="P51" s="83"/>
       <c r="Q51" s="5"/>
     </row>
   </sheetData>
@@ -9139,21 +9150,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="91" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="91" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="91" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="91" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="91" width="2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="91" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="91" width="2.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="91" width="0.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="91" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="91" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="91" width="15.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="91" width="26.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="91" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="91" width="12.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="26" style="91" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="90" width="1.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="90" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="90" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="90" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="90" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="90" width="2.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="90" width="0.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="12" style="90" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="90" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="90" width="15.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="90" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="90" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="90" width="12.29"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="26" style="90" width="9.13"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9175,17 +9186,17 @@
       <c r="AA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="93"/>
-      <c r="I2" s="93"/>
-      <c r="J2" s="93"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
       <c r="L2" s="0"/>
       <c r="M2" s="0"/>
       <c r="N2" s="0"/>
@@ -9204,17 +9215,17 @@
       <c r="AA2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="94"/>
-      <c r="C3" s="95" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="96"/>
       <c r="L3" s="0"/>
       <c r="M3" s="0"/>
       <c r="N3" s="0"/>
@@ -9233,7 +9244,7 @@
       <c r="AA3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="98"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -9241,7 +9252,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="99"/>
+      <c r="J4" s="98"/>
       <c r="L4" s="0"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -9260,17 +9271,17 @@
       <c r="AA4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="98"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="15" t="s">
         <v>23</v>
